--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata20jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443F26F0-7766-4607-9F97-1EA11F743038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB746320-227B-4047-ACBE-6BD39360A775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="456">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1376,6 +1376,60 @@
   <si>
     <t>Upload Successful
 Document uploaded successfully! The document is being scanned for tha malware. Your document will be available to view shortly.</t>
+  </si>
+  <si>
+    <t>Consult with Staff Person</t>
+  </si>
+  <si>
+    <t>Pending Approval</t>
+  </si>
+  <si>
+    <t>Recalled</t>
+  </si>
+  <si>
+    <t>Resubmitted</t>
+  </si>
+  <si>
+    <t>RECORD_STATUS</t>
+  </si>
+  <si>
+    <t>SHOW_ACTIONS</t>
+  </si>
+  <si>
+    <t>DOCUMENT_NAME</t>
+  </si>
+  <si>
+    <t>PRINT</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>DOWNLOAD</t>
+  </si>
+  <si>
+    <t>CACI Notice</t>
+  </si>
+  <si>
+    <t>SOC 832 (Notice of CACI).pdf</t>
+  </si>
+  <si>
+    <t>SOC 834 (Request for Grievance).pdf</t>
+  </si>
+  <si>
+    <t>SOC 833 (Grievance Procedure).pdf</t>
+  </si>
+  <si>
+    <t>BCIA 8583 (CACI Index Form).pdf</t>
+  </si>
+  <si>
+    <t>DISPOSITION_STATUS</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1512,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1480,6 +1534,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,7 +1608,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2150,10 +2210,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2165,7 +2225,7 @@
     <col min="13" max="13" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2238,8 +2298,26 @@
       <c r="X1" s="20" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y1" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>231</v>
       </c>
@@ -2291,7 +2369,7 @@
       <c r="Q2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="26" t="s">
         <v>437</v>
       </c>
       <c r="S2" s="29" t="s">
@@ -2312,8 +2390,14 @@
       <c r="X2" s="29" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+    </row>
+    <row r="3" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>231</v>
       </c>
@@ -2364,25 +2448,381 @@
       </c>
       <c r="R3" s="44"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="R4" s="43"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="R5" s="43"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="R6" s="43"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="R7" s="43"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="26">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26">
+        <v>1</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="S4" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="T4" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="U4" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="V4" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="W4" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="X4" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC4" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD4" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26">
+        <v>2</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="U5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="V5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="W5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="X5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z5" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD5" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A6" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="26">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26">
+        <v>3</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="S6" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="U6" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="V6" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="W6" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="X6" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y6" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z6" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="AA6" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB6" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC6" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD6" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="26">
+        <v>1</v>
+      </c>
+      <c r="C7" s="26">
+        <v>4</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="S7" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="V7" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="W7" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="X7" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y7" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z7" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA7" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB7" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC7" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD7" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="R8" s="43"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="R9" s="43"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="R10" s="43"/>
     </row>
   </sheetData>
@@ -4425,10 +4865,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52296D71-257F-48D6-B061-96C4007B427B}">
-  <dimension ref="A1:BF3"/>
+  <dimension ref="A1:BF4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3:BF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4841,179 +5281,355 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:58" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:58" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="26">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26">
+        <v>2</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>438</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="U3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="V3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="W3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="X3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AT3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AX3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AY3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AZ3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="BB3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="BC3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="BD3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE3" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="BF3" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="29">
-        <v>1</v>
-      </c>
-      <c r="C3" s="29">
-        <v>1</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="29" t="s">
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G4" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H4" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I4" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J4" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K4" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="L3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="N3" s="29" t="s">
+      <c r="L4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O4" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P4" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="Q4" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="R3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="S3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="U3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="V3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="W3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="X3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AN3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AO3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AP3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AR3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AS3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AT3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AU3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AV3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AW3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AX3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="BA3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="BB3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="BC3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="BD3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="BF3" s="29" t="s">
+      <c r="R4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="V4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="W4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="X4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AT4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AX4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AY4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AZ4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="BB4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="BC4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="BD4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="BF4" s="29" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5369,10 +5985,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A334D-3D40-4E6E-89BC-E0399D12F63C}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5387,7 +6003,7 @@
     <col min="12" max="12" width="28.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5448,8 +6064,11 @@
       <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U1" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -5492,8 +6111,11 @@
       <c r="N2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="U2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>231</v>
       </c>
@@ -5541,7 +6163,7 @@
       <c r="Q3" s="29"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>231</v>
       </c>
@@ -5589,16 +6211,16 @@
       <c r="Q4" s="29"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="O8" s="2"/>
     </row>
   </sheetData>
@@ -5916,7 +6538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F26082-EA83-4A35-BBD3-990DF7F89614}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -7447,10 +8069,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3F944F-1B63-4F82-AF7C-B1A12F6C23D1}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7494,6 +8116,9 @@
       <c r="J1" s="20" t="s">
         <v>232</v>
       </c>
+      <c r="L1" s="20" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -7529,7 +8154,7 @@
       <c r="D3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="20" t="s">
         <v>48</v>
       </c>
       <c r="F3" s="30" t="s">
@@ -7548,8 +8173,56 @@
         <v>68</v>
       </c>
       <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
+      <c r="L3" s="29" t="s">
+        <v>439</v>
+      </c>
       <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26">
+        <v>2</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26">
+        <v>3</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26" t="s">
+        <v>441</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata20jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB746320-227B-4047-ACBE-6BD39360A775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652AC635-7298-4494-B613-3E9D3E3138A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="19" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="478">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1430,13 +1430,103 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Situation Stabilized</t>
+  </si>
+  <si>
+    <t>This record is locked. If you need to edit it, contact your admin.</t>
+  </si>
+  <si>
+    <t>SCRLOCK_TOASTMSG_VERIFY</t>
+  </si>
+  <si>
+    <t>FOLIO_DISPOSITION_ID</t>
+  </si>
+  <si>
+    <t>FOLIO DISPOSITION ID</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Upload Successful
+Document uploaded successfully! The document is being scanned for the malware. Your document will be aviable to view shortly.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A Tribal Inquiry has not been created for any of the alleged victims during the course of this investigation. Are you sure you want to proceed?"
+Click </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">here </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>to create a new Tribal Inquiry for an alleged victim</t>
+    </r>
+  </si>
+  <si>
+    <t>A Cross Report has not been created for this investigation". Click here to create a new Cross Report."
+Are you sure you want to proceed?</t>
+  </si>
+  <si>
+    <t>REPORTID_VERIFY</t>
+  </si>
+  <si>
+    <t>CORRESPONDENCE_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>STATUS_VERIFY</t>
+  </si>
+  <si>
+    <t>STATUS_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>PERPETRATOR_VERIFY</t>
+  </si>
+  <si>
+    <t>AGENCY_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>CREATED_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>CACI_REPORTID</t>
+  </si>
+  <si>
+    <t>CORRESPONDECE_TYPE</t>
+  </si>
+  <si>
+    <t>STATUS_TYPE</t>
+  </si>
+  <si>
+    <t>CACI Report</t>
+  </si>
+  <si>
+    <t>Not Generated</t>
+  </si>
+  <si>
+    <t>Generated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1511,6 +1601,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1544,7 +1649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1552,11 +1657,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1609,8 +1730,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{0244CCC0-C70B-4F46-AB95-4E0A98C0C68C}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1926,7 +2057,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2008,7 +2139,9 @@
       <c r="Q1" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="R1" s="2"/>
+      <c r="R1" s="53" t="s">
+        <v>458</v>
+      </c>
       <c r="S1" s="3"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -2210,10 +2343,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
-  <dimension ref="A1:AD10"/>
+  <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2225,7 +2358,7 @@
     <col min="13" max="13" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2316,8 +2449,11 @@
       <c r="AD1" s="20" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE1" s="52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>231</v>
       </c>
@@ -2396,8 +2532,11 @@
       <c r="AB2" s="26"/>
       <c r="AC2" s="26"/>
       <c r="AD2" s="26"/>
-    </row>
-    <row r="3" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AE2" s="50" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>231</v>
       </c>
@@ -2448,7 +2587,7 @@
       </c>
       <c r="R3" s="44"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>231</v>
       </c>
@@ -2540,7 +2679,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>231</v>
       </c>
@@ -2632,7 +2771,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>231</v>
       </c>
@@ -2724,7 +2863,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>231</v>
       </c>
@@ -2816,13 +2955,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="R8" s="43"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="R9" s="43"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="R10" s="43"/>
     </row>
   </sheetData>
@@ -5643,8 +5782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB9A442-3ED4-406F-9296-DEFB50D41854}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5953,8 +6092,72 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="D5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="A5" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="54">
+        <v>1</v>
+      </c>
+      <c r="C5" s="54">
+        <v>1</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" t="s">
+        <v>461</v>
+      </c>
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" t="s">
+        <v>213</v>
+      </c>
+      <c r="U5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="D6" s="2"/>
@@ -5980,15 +6183,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A334D-3D40-4E6E-89BC-E0399D12F63C}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6003,7 +6207,7 @@
     <col min="12" max="12" width="28.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6067,8 +6271,14 @@
       <c r="U1" s="2" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V1" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="W1" s="48" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -6111,11 +6321,8 @@
       <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="U2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>231</v>
       </c>
@@ -6162,8 +6369,11 @@
       <c r="P3" s="29"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="U3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>231</v>
       </c>
@@ -6211,16 +6421,64 @@
       <c r="Q4" s="29"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29">
+        <v>3</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V5" t="s">
+        <v>460</v>
+      </c>
+      <c r="W5" s="46" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="O8" s="2"/>
     </row>
   </sheetData>
@@ -6538,8 +6796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F26082-EA83-4A35-BBD3-990DF7F89614}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6612,7 +6870,9 @@
       <c r="I2" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="30"/>
+      <c r="J2" s="47" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="3" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
@@ -6642,10 +6902,13 @@
       <c r="I3" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="30"/>
+      <c r="J3" s="47" t="s">
+        <v>464</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8908,10 +9171,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9D3CD3-B1E4-4B19-8BFF-5F4C690A39C5}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8930,9 +9193,10 @@
     <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="8.7265625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8981,8 +9245,41 @@
       <c r="P1" s="35" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q1" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="R1" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="S1" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="T1" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="U1" s="51" t="s">
+        <v>465</v>
+      </c>
+      <c r="V1" s="51" t="s">
+        <v>466</v>
+      </c>
+      <c r="W1" s="51" t="s">
+        <v>467</v>
+      </c>
+      <c r="X1" s="51" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y1" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="Z1" s="51" t="s">
+        <v>470</v>
+      </c>
+      <c r="AA1" s="51" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -9015,7 +9312,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -9044,7 +9341,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>231</v>
       </c>
@@ -9083,8 +9380,44 @@
       <c r="P4" s="29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q4" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="54" t="s">
+        <v>475</v>
+      </c>
+      <c r="T4" s="54" t="s">
+        <v>476</v>
+      </c>
+      <c r="U4" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="V4" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="W4" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="X4" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y4" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="Z4" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA4" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="AB4" s="29" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>231</v>
       </c>
@@ -9133,8 +9466,14 @@
       <c r="P5" s="29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="G6" s="2"/>
     </row>
   </sheetData>
@@ -9143,25 +9482,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -9378,25 +9698,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9413,4 +9734,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata20jan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata31jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652AC635-7298-4494-B613-3E9D3E3138A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CC5222-7399-4640-91BD-4A8E77A7612A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="19" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="500">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1372,10 +1372,6 @@
   </si>
   <si>
     <t>DESCRIPTION_VERIFY</t>
-  </si>
-  <si>
-    <t>Upload Successful
-Document uploaded successfully! The document is being scanned for tha malware. Your document will be available to view shortly.</t>
   </si>
   <si>
     <t>Consult with Staff Person</t>
@@ -1521,12 +1517,81 @@
   <si>
     <t>Generated</t>
   </si>
+  <si>
+    <t>Promote to a Case</t>
+  </si>
+  <si>
+    <t>testFolioDataSetup3</t>
+  </si>
+  <si>
+    <t>testFolioDataSetup4</t>
+  </si>
+  <si>
+    <t>t4148</t>
+  </si>
+  <si>
+    <t>Child Welfafe Voluntary</t>
+  </si>
+  <si>
+    <t>Child Welfare</t>
+  </si>
+  <si>
+    <t>Family Maintenance No Placement</t>
+  </si>
+  <si>
+    <t>Court Order</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>CMWorkerContraCosta</t>
+  </si>
+  <si>
+    <t>CMSupervisorContraCosta</t>
+  </si>
+  <si>
+    <t>Inconclusive</t>
+  </si>
+  <si>
+    <t>Ready to Send</t>
+  </si>
+  <si>
+    <t>BCIA_8572_VERIFY</t>
+  </si>
+  <si>
+    <t>RENAME_DOCUMENT</t>
+  </si>
+  <si>
+    <t>UPLOAD_NEW_VERSION</t>
+  </si>
+  <si>
+    <t>UPDATE_STATUS</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_FOLIO_TAB</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_SCREENING_TAB</t>
+  </si>
+  <si>
+    <t>SCR_DOCUMENT_NAME</t>
+  </si>
+  <si>
+    <t>FOLIO_DOCUMENT_NAME</t>
+  </si>
+  <si>
+    <t>Response to Mandated Reporter.pdf</t>
+  </si>
+  <si>
+    <t>Emergency Response Referral Information.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1538,19 +1603,20 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1575,7 +1641,7 @@
       <sz val="10"/>
       <color rgb="FF0000C0"/>
       <name val="Consolas"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1616,8 +1682,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1645,6 +1717,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1677,7 +1755,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1726,19 +1804,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{0244CCC0-C70B-4F46-AB95-4E0A98C0C68C}"/>
@@ -2056,14 +2137,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.81640625" customWidth="1"/>
@@ -2074,15 +2154,15 @@
     <col min="10" max="10" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.36328125" customWidth="1"/>
-    <col min="15" max="15" width="17.7265625" customWidth="1"/>
+    <col min="15" max="15" width="17.81640625" customWidth="1"/>
     <col min="16" max="16" width="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2139,8 +2219,8 @@
       <c r="Q1" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="R1" s="53" t="s">
-        <v>458</v>
+      <c r="R1" s="50" t="s">
+        <v>457</v>
       </c>
       <c r="S1" s="3"/>
       <c r="T1" s="2"/>
@@ -2201,16 +2281,16 @@
       </c>
     </row>
     <row r="3" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="29">
-        <v>1</v>
-      </c>
-      <c r="C3" s="29">
-        <v>1</v>
-      </c>
-      <c r="D3" s="29" t="s">
+      <c r="B3" s="51">
+        <v>1</v>
+      </c>
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="36" t="s">
@@ -2231,39 +2311,42 @@
       <c r="J3" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="37" t="s">
+      <c r="M3" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="P3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="29" t="s">
-        <v>16</v>
+      <c r="P3" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="51" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="29">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29">
+      <c r="B4" s="51">
+        <v>1</v>
+      </c>
+      <c r="C4" s="51">
         <v>2</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="51" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="36" t="s">
@@ -2272,70 +2355,413 @@
       <c r="F4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="M4" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="38"/>
+      <c r="P4" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="47">
+        <v>1</v>
+      </c>
+      <c r="C5" s="47">
+        <v>3</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>488</v>
+      </c>
+      <c r="L5" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47" t="s">
+        <v>16</v>
+      </c>
       <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="O11" s="2"/>
+      <c r="P5" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="47" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="52" t="s">
+        <v>478</v>
+      </c>
+      <c r="B6" s="52">
+        <v>1</v>
+      </c>
+      <c r="C6" s="52">
+        <v>1</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="N6" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="52" t="s">
+        <v>478</v>
+      </c>
+      <c r="B7" s="52">
+        <v>1</v>
+      </c>
+      <c r="C7" s="52">
+        <v>2</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="B8" s="51">
+        <v>1</v>
+      </c>
+      <c r="C8" s="51">
+        <v>1</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="N8" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="P8" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="B9" s="51">
+        <v>1</v>
+      </c>
+      <c r="C9" s="51">
+        <v>2</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="N9" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="P9" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="B10" s="51">
+        <v>1</v>
+      </c>
+      <c r="C10" s="51">
+        <v>3</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="N10" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="P10" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="B11" s="51">
+        <v>1</v>
+      </c>
+      <c r="C11" s="51">
+        <v>4</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="N11" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="P11" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="51" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2343,626 +2769,926 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
-  <dimension ref="A1:AE10"/>
+  <dimension ref="A1:AU10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
-    <col min="10" max="10" width="20.1796875" customWidth="1"/>
-    <col min="11" max="11" width="18.7265625" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" customWidth="1"/>
-    <col min="13" max="13" width="18.90625" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" customWidth="1"/>
+    <col min="6" max="7" width="18.81640625" style="47" customWidth="1"/>
+    <col min="12" max="12" width="20.1796875" customWidth="1"/>
+    <col min="13" max="13" width="18.81640625" customWidth="1"/>
+    <col min="14" max="14" width="17.453125" customWidth="1"/>
+    <col min="15" max="15" width="18.90625" customWidth="1"/>
+    <col min="29" max="30" width="8.7265625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="I1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="J1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="K1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="L1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="N1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="O1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="P1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="Q1" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="R1" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="S1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="T1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="U1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="W1" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="X1" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="Y1" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="AA1" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="AB1" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="AC1" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47"/>
+      <c r="AU1" s="47"/>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A2" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="51">
+        <v>1</v>
+      </c>
+      <c r="C2" s="51">
+        <v>1</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="O2" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="P2" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q2" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="R2" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="S2" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="U2" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="59" t="s">
+        <v>499</v>
+      </c>
+      <c r="AD2" s="47" t="s">
+        <v>498</v>
+      </c>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="47"/>
+      <c r="AJ2" s="47"/>
+      <c r="AK2" s="47"/>
+      <c r="AL2" s="47" t="s">
+        <v>461</v>
+      </c>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="47"/>
+      <c r="AO2" s="47"/>
+      <c r="AP2" s="47"/>
+      <c r="AQ2" s="47"/>
+      <c r="AR2" s="47"/>
+      <c r="AS2" s="47"/>
+      <c r="AT2" s="47"/>
+      <c r="AU2" s="47"/>
+    </row>
+    <row r="3" spans="1:47" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="51">
+        <v>1</v>
+      </c>
+      <c r="C3" s="51">
+        <v>2</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="M3" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="O3" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="P3" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q3" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="R3" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="S3" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="51"/>
+      <c r="AR3" s="51"/>
+      <c r="AS3" s="51"/>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A4" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="47">
+        <v>1</v>
+      </c>
+      <c r="C4" s="47">
+        <v>3</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="O4" s="47" t="s">
         <v>448</v>
       </c>
-      <c r="AE1" s="52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="P4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="R4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="S4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="T4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="U4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="V4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="W4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="X4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA4" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="AE4" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF4" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH4" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK4" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="47"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A5" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="29">
-        <v>1</v>
-      </c>
-      <c r="C2" s="29">
-        <v>1</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="T2" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="U2" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="W2" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="50" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+      <c r="B5" s="47">
+        <v>1</v>
+      </c>
+      <c r="C5" s="47">
+        <v>4</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="O5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="P5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="R5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="S5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="T5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="U5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="V5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="W5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="X5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA5" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB5" s="47" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE5" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF5" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH5" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK5" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="47"/>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A6" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="29">
-        <v>1</v>
-      </c>
-      <c r="C3" s="29">
-        <v>1</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="M3" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="44"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+      <c r="B6" s="47">
+        <v>1</v>
+      </c>
+      <c r="C6" s="47">
+        <v>5</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="N6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="O6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="P6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="R6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="S6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="U6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="V6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="W6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="X6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA6" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB6" s="47" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE6" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF6" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH6" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="47"/>
+      <c r="AP6" s="47"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="47"/>
+      <c r="AS6" s="47"/>
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="47"/>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A7" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="26">
-        <v>1</v>
-      </c>
-      <c r="C4" s="26">
-        <v>1</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="R4" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="S4" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="T4" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="U4" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="V4" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="W4" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="X4" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z4" s="26" t="s">
-        <v>450</v>
-      </c>
-      <c r="AA4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC4" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD4" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="B7" s="47">
+        <v>1</v>
+      </c>
+      <c r="C7" s="47">
+        <v>6</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="N7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="O7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="P7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="R7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="S7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="T7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="U7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="V7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="W7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="X7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA7" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB7" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE7" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF7" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH7" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK7" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="47"/>
+      <c r="AQ7" s="47"/>
+      <c r="AR7" s="47"/>
+      <c r="AS7" s="47"/>
+      <c r="AT7" s="47"/>
+      <c r="AU7" s="47"/>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="A8" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="26">
-        <v>1</v>
-      </c>
-      <c r="C5" s="26">
-        <v>2</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="O5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="P5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="R5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="S5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="T5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="U5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="V5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="W5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="X5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y5" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z5" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA5" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB5" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD5" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A6" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="26">
-        <v>1</v>
-      </c>
-      <c r="C6" s="26">
-        <v>3</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="M6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="N6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="O6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="P6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="R6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="S6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="T6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="U6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="V6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="W6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="X6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y6" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z6" s="26" t="s">
+      <c r="B8" s="47">
+        <v>1</v>
+      </c>
+      <c r="C8" s="47">
+        <v>7</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>460</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="N8" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="P8" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q8" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="R8" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="S8" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="T8" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="U8" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="V8" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="W8" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="X8" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y8" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z8" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA8" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB8" s="47" t="s">
         <v>452</v>
       </c>
-      <c r="AA6" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB6" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC6" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD6" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="26">
-        <v>1</v>
-      </c>
-      <c r="C7" s="26">
-        <v>4</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="M7" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="N7" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="O7" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="P7" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q7" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="R7" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="S7" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="T7" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="U7" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="V7" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="W7" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="X7" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y7" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z7" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA7" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB7" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC7" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD7" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="R8" s="43"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="R9" s="43"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="R10" s="43"/>
+      <c r="AE8" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF8" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG8" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH8" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI8" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ8" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK8" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL8" s="47"/>
+      <c r="AM8" s="47"/>
+      <c r="AN8" s="47"/>
+      <c r="AO8" s="47"/>
+      <c r="AP8" s="47"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="47"/>
+      <c r="AS8" s="47"/>
+      <c r="AT8" s="47"/>
+      <c r="AU8" s="47"/>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="T9" s="43"/>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="T10" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3587,16 +4313,16 @@
     <col min="6" max="6" width="20.54296875" customWidth="1"/>
     <col min="7" max="7" width="15.6328125" customWidth="1"/>
     <col min="8" max="8" width="11.90625" customWidth="1"/>
-    <col min="9" max="9" width="20.26953125" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" customWidth="1"/>
     <col min="10" max="10" width="9.6328125" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="15.7265625" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" customWidth="1"/>
     <col min="13" max="13" width="11.08984375" customWidth="1"/>
     <col min="15" max="15" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.1796875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.6328125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3835,7 +4561,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
@@ -3846,25 +4572,25 @@
     <col min="9" max="9" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.453125" customWidth="1"/>
     <col min="11" max="11" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.90625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="11.1796875" customWidth="1"/>
-    <col min="17" max="17" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="24" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="23" bestFit="1" customWidth="1"/>
@@ -4822,10 +5548,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FBF4A6-7E84-4BBE-931C-E882244C8ADD}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView topLeftCell="DZ1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4840,11 +5566,11 @@
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.36328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
@@ -4853,7 +5579,7 @@
     <col min="22" max="22" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -4919,6 +5645,77 @@
       </c>
       <c r="V1" s="5" t="s">
         <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B2" s="55">
+        <v>1</v>
+      </c>
+      <c r="C2" s="55">
+        <v>1</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>481</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>482</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>483</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>484</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>485</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>486</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>487</v>
+      </c>
+      <c r="N2" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q2" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="V2" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="55" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -4939,9 +5736,9 @@
     <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5012,10 +5809,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
@@ -5024,48 +5821,48 @@
     <col min="10" max="10" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.1796875" style="22" customWidth="1"/>
     <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.26953125" style="25" customWidth="1"/>
+    <col min="19" max="19" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1796875" style="25" customWidth="1"/>
     <col min="21" max="21" width="38.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="22" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="24" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="25" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="22" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="30.453125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="23" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="38" max="39" width="23" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="41" max="42" width="23" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="31.453125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="34.81640625" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="22" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="23" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="22" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="33.54296875" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="22" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="37.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.35">
@@ -5439,8 +6236,8 @@
       <c r="F3" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="45" t="s">
-        <v>438</v>
+      <c r="G3" s="44" t="s">
+        <v>437</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>213</v>
@@ -5783,21 +6580,21 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.1796875" bestFit="1" customWidth="1"/>
@@ -5806,10 +6603,10 @@
     <col min="18" max="18" width="32.453125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="31.453125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6092,28 +6889,28 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="54">
-        <v>1</v>
-      </c>
-      <c r="C5" s="54">
-        <v>1</v>
-      </c>
-      <c r="D5" s="52" t="s">
+      <c r="B5" s="51">
+        <v>1</v>
+      </c>
+      <c r="C5" s="51">
+        <v>1</v>
+      </c>
+      <c r="D5" s="49" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="47" t="s">
         <v>29</v>
       </c>
       <c r="I5" t="s">
@@ -6132,7 +6929,7 @@
         <v>68</v>
       </c>
       <c r="N5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O5" t="s">
         <v>16</v>
@@ -6189,25 +6986,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A334D-3D40-4E6E-89BC-E0399D12F63C}">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="16.1796875" style="26" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
     <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6269,16 +7065,16 @@
         <v>14</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="W1" s="48" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W1" s="46" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -6322,164 +7118,464 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="29">
-        <v>1</v>
-      </c>
-      <c r="C3" s="29">
-        <v>1</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="29" t="s">
+      <c r="B3" s="51">
+        <v>1</v>
+      </c>
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
+      <c r="N3" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
       <c r="R3" s="2"/>
-      <c r="U3" t="s">
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47" t="s">
+        <v>454</v>
+      </c>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+    </row>
+    <row r="4" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="51">
+        <v>1</v>
+      </c>
+      <c r="C4" s="51">
+        <v>2</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="51">
+        <v>1</v>
+      </c>
+      <c r="C5" s="51">
+        <v>3</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="51" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="29">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29">
+      <c r="M5" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="W5" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+    </row>
+    <row r="6" spans="1:25" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="52" t="s">
+        <v>478</v>
+      </c>
+      <c r="B6" s="52">
+        <v>1</v>
+      </c>
+      <c r="C6" s="52">
+        <v>1</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>477</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="53"/>
+      <c r="U6" s="52" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="52" t="s">
+        <v>478</v>
+      </c>
+      <c r="B7" s="52">
+        <v>1</v>
+      </c>
+      <c r="C7" s="52">
         <v>2</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="29" t="s">
+      <c r="D7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>477</v>
+      </c>
+      <c r="K7" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L7" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M7" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="29">
-        <v>1</v>
-      </c>
-      <c r="C5" s="29">
+      <c r="N7" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="53"/>
+      <c r="U7" s="52" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="B8" s="51">
+        <v>1</v>
+      </c>
+      <c r="C8" s="51">
+        <v>1</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="51" t="s">
+        <v>477</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="36"/>
+      <c r="U8" s="51" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="B9" s="51">
+        <v>1</v>
+      </c>
+      <c r="C9" s="51">
+        <v>2</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>477</v>
+      </c>
+      <c r="K9" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="36"/>
+      <c r="U9" s="51" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="B10" s="51">
+        <v>1</v>
+      </c>
+      <c r="C10" s="51">
         <v>3</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>456</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="V5" t="s">
-        <v>460</v>
-      </c>
-      <c r="W5" s="46" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="O8" s="2"/>
+      <c r="D10" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>477</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="36"/>
+      <c r="U10" s="51" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="B11" s="51">
+        <v>1</v>
+      </c>
+      <c r="C11" s="51">
+        <v>4</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>477</v>
+      </c>
+      <c r="K11" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="36"/>
+      <c r="U11" s="51" t="s">
+        <v>454</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6497,36 +7593,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.81640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="24" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="29.1796875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="36.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -6796,7 +7892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F26082-EA83-4A35-BBD3-990DF7F89614}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -6807,7 +7903,7 @@
     <col min="5" max="5" width="12.6328125" customWidth="1"/>
     <col min="6" max="6" width="19.90625" customWidth="1"/>
     <col min="8" max="8" width="12.453125" customWidth="1"/>
-    <col min="9" max="9" width="21.7265625" customWidth="1"/>
+    <col min="9" max="9" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -6870,8 +7966,8 @@
       <c r="I2" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="47" t="s">
-        <v>463</v>
+      <c r="J2" s="45" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.35">
@@ -6902,8 +7998,8 @@
       <c r="I3" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="47" t="s">
-        <v>464</v>
+      <c r="J3" s="45" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -6925,9 +8021,9 @@
     <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
@@ -6935,12 +8031,12 @@
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.1796875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="24.08984375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22.08984375" bestFit="1" customWidth="1"/>
@@ -7018,7 +8114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD45171C-80C8-4095-9C44-04BDE2C6F616}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="94" workbookViewId="0">
+    <sheetView zoomScale="94" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -7033,10 +8129,10 @@
     <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.08984375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="33.90625" bestFit="1" customWidth="1"/>
   </cols>
@@ -7166,7 +8262,7 @@
     <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
@@ -7184,9 +8280,9 @@
     <col min="21" max="21" width="21.08984375" style="26" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="21.08984375" style="26" customWidth="1"/>
     <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="34.26953125" style="26" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.26953125" style="26" bestFit="1" customWidth="1"/>
-    <col min="26" max="29" width="29.26953125" style="26" customWidth="1"/>
+    <col min="24" max="24" width="34.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="29.1796875" style="26" customWidth="1"/>
     <col min="30" max="30" width="24.08984375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="33.90625" bestFit="1" customWidth="1"/>
   </cols>
@@ -7395,8 +8491,8 @@
     <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.08984375" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="23.08984375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="27.26953125" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="27.26953125" style="26" customWidth="1"/>
+    <col min="10" max="10" width="27.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="27.1796875" style="26" customWidth="1"/>
     <col min="13" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7500,7 +8596,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7512,10 +8608,10 @@
     <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.54296875" bestFit="1" customWidth="1"/>
@@ -7736,13 +8832,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.81640625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -8343,8 +9439,8 @@
     <col min="4" max="4" width="20.54296875" customWidth="1"/>
     <col min="5" max="5" width="12.54296875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="27.7265625" customWidth="1"/>
-    <col min="8" max="8" width="27.7265625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="27.81640625" customWidth="1"/>
+    <col min="8" max="8" width="27.81640625" style="26" customWidth="1"/>
     <col min="9" max="9" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8380,7 +9476,7 @@
         <v>232</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -8437,7 +9533,7 @@
       </c>
       <c r="K3" s="29"/>
       <c r="L3" s="29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M3" s="29"/>
     </row>
@@ -8461,7 +9557,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
       <c r="L4" s="26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -8484,7 +9580,7 @@
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -8506,11 +9602,11 @@
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
@@ -9171,32 +10267,32 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9D3CD3-B1E4-4B19-8BFF-5F4C690A39C5}">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="8.7265625" style="49"/>
+    <col min="13" max="13" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="8.81640625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9245,41 +10341,41 @@
       <c r="P1" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="Q1" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="48" t="s">
+        <v>471</v>
+      </c>
+      <c r="S1" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="T1" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="T1" s="51" t="s">
-        <v>474</v>
-      </c>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="V1" s="48" t="s">
         <v>465</v>
       </c>
-      <c r="V1" s="51" t="s">
+      <c r="W1" s="48" t="s">
         <v>466</v>
       </c>
-      <c r="W1" s="51" t="s">
+      <c r="X1" s="48" t="s">
         <v>467</v>
       </c>
-      <c r="X1" s="51" t="s">
+      <c r="Y1" s="48" t="s">
         <v>468</v>
       </c>
-      <c r="Y1" s="51" t="s">
+      <c r="Z1" s="48" t="s">
         <v>469</v>
       </c>
-      <c r="Z1" s="51" t="s">
+      <c r="AA1" s="48" t="s">
         <v>470</v>
       </c>
-      <c r="AA1" s="51" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -9312,7 +10408,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -9341,140 +10437,238 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="29">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29">
-        <v>1</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="B4" s="51">
+        <v>1</v>
+      </c>
+      <c r="C4" s="51">
+        <v>1</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="29" t="s">
+      <c r="F4" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="51" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="51" t="s">
         <v>269</v>
       </c>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
-      <c r="P4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="R4" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="S4" s="54" t="s">
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="T4" s="51" t="s">
         <v>475</v>
       </c>
-      <c r="T4" s="54" t="s">
+      <c r="U4" s="51" t="s">
+        <v>460</v>
+      </c>
+      <c r="V4" s="51" t="s">
+        <v>460</v>
+      </c>
+      <c r="W4" s="51" t="s">
+        <v>460</v>
+      </c>
+      <c r="X4" s="51" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y4" s="51" t="s">
+        <v>460</v>
+      </c>
+      <c r="Z4" s="51" t="s">
+        <v>460</v>
+      </c>
+      <c r="AA4" s="51" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB4" s="51" t="s">
+        <v>460</v>
+      </c>
+      <c r="AC4" s="51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="51">
+        <v>1</v>
+      </c>
+      <c r="C5" s="51">
+        <v>2</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>489</v>
+      </c>
+      <c r="O5" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51" t="s">
         <v>476</v>
       </c>
-      <c r="U4" s="29" t="s">
-        <v>461</v>
-      </c>
-      <c r="V4" s="29" t="s">
-        <v>461</v>
-      </c>
-      <c r="W4" s="29" t="s">
-        <v>461</v>
-      </c>
-      <c r="X4" s="29" t="s">
-        <v>461</v>
-      </c>
-      <c r="Y4" s="29" t="s">
-        <v>461</v>
-      </c>
-      <c r="Z4" s="29" t="s">
-        <v>461</v>
-      </c>
-      <c r="AA4" s="29" t="s">
-        <v>461</v>
-      </c>
-      <c r="AB4" s="29" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="29">
-        <v>1</v>
-      </c>
-      <c r="C5" s="29">
-        <v>2</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="G6" s="2"/>
+      <c r="B6" s="47">
+        <v>1</v>
+      </c>
+      <c r="C6" s="47">
+        <v>3</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="N6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="O6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="P6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="R6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="S6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="U6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="V6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="W6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="X6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB6" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC6" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9482,6 +10676,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -9698,26 +10911,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9734,22 +10946,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata31jan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\24jantestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CC5222-7399-4640-91BD-4A8E77A7612A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C55C26-00F4-41D2-BB9F-E8F12755ED0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="501">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1039,9 +1039,6 @@
   </si>
   <si>
     <t>DATE_SENT</t>
-  </si>
-  <si>
-    <t>personName1.personName2,folioPersonName1,folioPersonName2</t>
   </si>
   <si>
     <t>personName2,folioPersonName2</t>
@@ -1551,40 +1548,46 @@
     <t>CMSupervisorContraCosta</t>
   </si>
   <si>
-    <t>Inconclusive</t>
+    <t>Case Aide</t>
+  </si>
+  <si>
+    <t>ERsupervisorcontracosta</t>
+  </si>
+  <si>
+    <t>personName1,personName2,folioPersonName1,folioPersonName2</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_FOLIO_TAB</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_SCREENING_TAB</t>
+  </si>
+  <si>
+    <t>BCIA_8572_VERIFY</t>
+  </si>
+  <si>
+    <t>SCR_DOCUMENT_NAME</t>
+  </si>
+  <si>
+    <t>FOLIO_DOCUMENT_NAME</t>
+  </si>
+  <si>
+    <t>RENAME_DOCUMENT</t>
+  </si>
+  <si>
+    <t>UPLOAD_NEW_VERSION</t>
+  </si>
+  <si>
+    <t>UPDATE_STATUS</t>
+  </si>
+  <si>
+    <t>Emergency Response Referral Information.pdf</t>
+  </si>
+  <si>
+    <t>Response to Mandated Reporter.pdf</t>
   </si>
   <si>
     <t>Ready to Send</t>
-  </si>
-  <si>
-    <t>BCIA_8572_VERIFY</t>
-  </si>
-  <si>
-    <t>RENAME_DOCUMENT</t>
-  </si>
-  <si>
-    <t>UPLOAD_NEW_VERSION</t>
-  </si>
-  <si>
-    <t>UPDATE_STATUS</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_FOLIO_TAB</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_SCREENING_TAB</t>
-  </si>
-  <si>
-    <t>SCR_DOCUMENT_NAME</t>
-  </si>
-  <si>
-    <t>FOLIO_DOCUMENT_NAME</t>
-  </si>
-  <si>
-    <t>Response to Mandated Reporter.pdf</t>
-  </si>
-  <si>
-    <t>Emergency Response Referral Information.pdf</t>
   </si>
 </sst>
 </file>
@@ -1603,20 +1606,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1641,7 +1643,7 @@
       <sz val="10"/>
       <color rgb="FF0000C0"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1755,7 +1757,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1794,7 +1796,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1805,6 +1806,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1817,9 +1819,15 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{0244CCC0-C70B-4F46-AB95-4E0A98C0C68C}"/>
@@ -2135,10 +2143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:R5"/>
+      <selection activeCell="A5" sqref="A5:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2220,7 +2228,7 @@
         <v>320</v>
       </c>
       <c r="R1" s="50" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="S1" s="3"/>
       <c r="T1" s="2"/>
@@ -2281,16 +2289,16 @@
       </c>
     </row>
     <row r="3" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="51">
-        <v>1</v>
-      </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51" t="s">
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="36" t="s">
@@ -2311,42 +2319,39 @@
       <c r="J3" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="N3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="38" t="s">
+      <c r="M3" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="P3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="51" t="s">
-        <v>213</v>
+      <c r="P3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="51">
-        <v>1</v>
-      </c>
-      <c r="C4" s="51">
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29">
         <v>2</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="29" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="36" t="s">
@@ -2355,102 +2360,100 @@
       <c r="F4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="N4" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" s="51" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="47">
-        <v>1</v>
-      </c>
-      <c r="C5" s="47">
-        <v>3</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>488</v>
-      </c>
-      <c r="L5" s="51" t="s">
+      <c r="M4" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="37"/>
+      <c r="P4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="52" t="s">
+        <v>477</v>
+      </c>
+      <c r="B5" s="52">
+        <v>1</v>
+      </c>
+      <c r="C5" s="52">
+        <v>1</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5" s="47" t="s">
-        <v>456</v>
+      <c r="M5" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="P5" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="52" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="52" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B6" s="52">
         <v>1</v>
       </c>
       <c r="C6" s="52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="52" t="s">
         <v>16</v>
@@ -2495,68 +2498,68 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="52" t="s">
+    <row r="7" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="51" t="s">
         <v>478</v>
       </c>
-      <c r="B7" s="52">
-        <v>1</v>
-      </c>
-      <c r="C7" s="52">
-        <v>2</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="K7" s="52" t="s">
+      <c r="B7" s="51">
+        <v>1</v>
+      </c>
+      <c r="C7" s="51">
+        <v>1</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="N7" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="54" t="s">
+      <c r="M7" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="N7" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="P7" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="52" t="s">
+      <c r="P7" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="51" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="51" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B8" s="51">
         <v>1</v>
       </c>
       <c r="C8" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="51" t="s">
         <v>16</v>
@@ -2603,13 +2606,13 @@
     </row>
     <row r="9" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="51" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B9" s="51">
         <v>1</v>
       </c>
       <c r="C9" s="51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="51" t="s">
         <v>16</v>
@@ -2656,13 +2659,13 @@
     </row>
     <row r="10" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="51" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B10" s="51">
         <v>1</v>
       </c>
       <c r="C10" s="51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="51" t="s">
         <v>16</v>
@@ -2704,59 +2707,6 @@
         <v>16</v>
       </c>
       <c r="Q10" s="51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51" t="s">
-        <v>479</v>
-      </c>
-      <c r="B11" s="51">
-        <v>1</v>
-      </c>
-      <c r="C11" s="51">
-        <v>4</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="K11" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="N11" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="P11" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="51" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2769,926 +2719,870 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
-  <dimension ref="A1:AU10"/>
+  <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="18.81640625" customWidth="1"/>
-    <col min="6" max="7" width="18.81640625" style="47" customWidth="1"/>
-    <col min="12" max="12" width="20.1796875" customWidth="1"/>
-    <col min="13" max="13" width="18.81640625" customWidth="1"/>
-    <col min="14" max="14" width="17.453125" customWidth="1"/>
-    <col min="15" max="15" width="18.90625" customWidth="1"/>
-    <col min="29" max="30" width="8.7265625" style="47"/>
+    <col min="10" max="10" width="20.1796875" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="13" max="13" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="58" t="s">
+        <v>490</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>491</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>492</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>276</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q1" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="R1" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>429</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>431</v>
+      </c>
+      <c r="W1" s="58" t="s">
+        <v>432</v>
+      </c>
+      <c r="X1" s="58" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y1" s="58" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z1" s="58" t="s">
+        <v>435</v>
+      </c>
+      <c r="AA1" s="58" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB1" s="58" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC1" s="58" t="s">
+        <v>493</v>
+      </c>
+      <c r="AD1" s="58" t="s">
         <v>494</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="AE1" s="58" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF1" s="58" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG1" s="58" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH1" s="58" t="s">
+        <v>446</v>
+      </c>
+      <c r="AI1" s="58" t="s">
         <v>495</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q1" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="R1" s="58" t="s">
-        <v>280</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AJ1" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AK1" s="58" t="s">
         <v>497</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM1" s="57"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A2" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="61">
+        <v>1</v>
+      </c>
+      <c r="C2" s="61">
+        <v>1</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="L2" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="M2" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="O2" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="P2" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q2" s="61" t="s">
+        <v>284</v>
+      </c>
+      <c r="R2" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="S2" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="U2" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="59" t="s">
+        <v>498</v>
+      </c>
+      <c r="AD2" s="57" t="s">
+        <v>499</v>
+      </c>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57" t="s">
+        <v>460</v>
+      </c>
+      <c r="AM2" s="57"/>
+    </row>
+    <row r="3" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="61">
+        <v>1</v>
+      </c>
+      <c r="C3" s="61">
+        <v>2</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="O3" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="P3" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q3" s="61" t="s">
+        <v>284</v>
+      </c>
+      <c r="R3" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="S3" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A4" s="61" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="57">
+        <v>1</v>
+      </c>
+      <c r="C4" s="57">
+        <v>3</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="O4" s="57" t="s">
         <v>447</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="P4" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="R4" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="S4" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="T4" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="U4" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="V4" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="W4" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="X4" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y4" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z4" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA4" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" s="57" t="s">
+        <v>448</v>
+      </c>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF4" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG4" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH4" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI4" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ4" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK4" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A5" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="51">
-        <v>1</v>
-      </c>
-      <c r="C2" s="51">
-        <v>1</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="M2" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="O2" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="P2" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q2" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="R2" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="S2" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="U2" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="W2" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y2" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z2" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="59" t="s">
-        <v>499</v>
-      </c>
-      <c r="AD2" s="47" t="s">
-        <v>498</v>
-      </c>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="47"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47" t="s">
-        <v>461</v>
-      </c>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="47"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-    </row>
-    <row r="3" spans="1:47" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="51" t="s">
+      <c r="B5" s="57">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57">
+        <v>4</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="P5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="R5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="S5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="T5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="U5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="V5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="W5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="X5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA5" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB5" s="57" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF5" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH5" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK5" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="57"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A6" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="51">
-        <v>1</v>
-      </c>
-      <c r="C3" s="51">
-        <v>2</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="M3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="O3" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="P3" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q3" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="R3" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="S3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="51"/>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
+      <c r="B6" s="57">
+        <v>1</v>
+      </c>
+      <c r="C6" s="57">
+        <v>5</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="N6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="P6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="R6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="S6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="U6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="V6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="W6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="X6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA6" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB6" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF6" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH6" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK6" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL6" s="57"/>
+      <c r="AM6" s="57"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A7" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="47">
-        <v>1</v>
-      </c>
-      <c r="C4" s="47">
-        <v>3</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="H4" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="J4" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="K4" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="N4" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="O4" s="47" t="s">
-        <v>448</v>
-      </c>
-      <c r="P4" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q4" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="R4" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="S4" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="T4" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="U4" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="V4" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="W4" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="X4" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y4" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z4" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA4" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB4" s="47" t="s">
-        <v>449</v>
-      </c>
-      <c r="AE4" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF4" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG4" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH4" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI4" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ4" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK4" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="47"/>
-      <c r="AS4" s="47"/>
-      <c r="AT4" s="47"/>
-      <c r="AU4" s="47"/>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A5" s="51" t="s">
+      <c r="B7" s="57">
+        <v>1</v>
+      </c>
+      <c r="C7" s="57">
+        <v>6</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="N7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="P7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="R7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="S7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="T7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="U7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="V7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="W7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="X7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA7" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB7" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF7" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH7" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK7" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A8" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="47">
-        <v>1</v>
-      </c>
-      <c r="C5" s="47">
-        <v>4</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="N5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="O5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="P5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="R5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="S5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="T5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="U5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="V5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="W5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="X5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA5" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB5" s="47" t="s">
-        <v>450</v>
-      </c>
-      <c r="AE5" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF5" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH5" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK5" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A6" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="47">
-        <v>1</v>
-      </c>
-      <c r="C6" s="47">
-        <v>5</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="J6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="N6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="O6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="P6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="R6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="S6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="T6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="U6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="V6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="W6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="X6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA6" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB6" s="47" t="s">
+      <c r="B8" s="57">
+        <v>1</v>
+      </c>
+      <c r="C8" s="57">
+        <v>7</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="J8" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="L8" s="57" t="s">
+        <v>459</v>
+      </c>
+      <c r="M8" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="N8" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O8" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="P8" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q8" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="R8" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="S8" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="T8" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="U8" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="V8" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="W8" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="X8" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y8" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z8" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA8" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB8" s="57" t="s">
         <v>451</v>
       </c>
-      <c r="AE6" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF6" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH6" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="47"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="47"/>
-      <c r="AT6" s="47"/>
-      <c r="AU6" s="47"/>
-    </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A7" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="47">
-        <v>1</v>
-      </c>
-      <c r="C7" s="47">
-        <v>6</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="J7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="K7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="N7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="O7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="P7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="R7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="S7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="T7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="U7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="V7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="W7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="X7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA7" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB7" s="47" t="s">
-        <v>452</v>
-      </c>
-      <c r="AE7" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF7" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH7" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK7" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL7" s="47"/>
-      <c r="AM7" s="47"/>
-      <c r="AN7" s="47"/>
-      <c r="AO7" s="47"/>
-      <c r="AP7" s="47"/>
-      <c r="AQ7" s="47"/>
-      <c r="AR7" s="47"/>
-      <c r="AS7" s="47"/>
-      <c r="AT7" s="47"/>
-      <c r="AU7" s="47"/>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A8" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" s="47">
-        <v>1</v>
-      </c>
-      <c r="C8" s="47">
-        <v>7</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="G8" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="J8" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="K8" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="L8" s="47" t="s">
-        <v>460</v>
-      </c>
-      <c r="M8" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="N8" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="O8" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="P8" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q8" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="R8" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="S8" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="T8" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="U8" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="V8" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="W8" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="X8" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y8" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z8" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA8" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB8" s="47" t="s">
-        <v>452</v>
-      </c>
-      <c r="AE8" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF8" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG8" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH8" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI8" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ8" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK8" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL8" s="47"/>
-      <c r="AM8" s="47"/>
-      <c r="AN8" s="47"/>
-      <c r="AO8" s="47"/>
-      <c r="AP8" s="47"/>
-      <c r="AQ8" s="47"/>
-      <c r="AR8" s="47"/>
-      <c r="AS8" s="47"/>
-      <c r="AT8" s="47"/>
-      <c r="AU8" s="47"/>
-    </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="T9" s="43"/>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="T10" s="43"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF8" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG8" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH8" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI8" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ8" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK8" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL8" s="57"/>
+      <c r="AM8" s="57"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="R9" s="42"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="R10" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3744,43 +3638,43 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="40">
-        <v>1</v>
-      </c>
-      <c r="C2" s="40">
-        <v>1</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="40" t="s">
+      <c r="B2" s="39">
+        <v>1</v>
+      </c>
+      <c r="C2" s="39">
+        <v>1</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="39" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I10" s="39"/>
+      <c r="I10" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4371,22 +4265,22 @@
         <v>82</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P1" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="T1" s="23" t="s">
         <v>428</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>429</v>
       </c>
       <c r="U1" s="23" t="s">
         <v>289</v>
@@ -4524,25 +4418,25 @@
         <v>213</v>
       </c>
       <c r="O4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Q4" s="26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R4" s="26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S4" s="26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -4556,7 +4450,7 @@
   <dimension ref="A1:AL18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4857,10 +4751,10 @@
         <v>29</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="J3" s="41" t="s">
         <v>326</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>489</v>
       </c>
       <c r="K3" s="30" t="s">
         <v>211</v>
@@ -5590,25 +5484,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>189</v>
@@ -5617,75 +5511,75 @@
         <v>198</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="55" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2" s="55">
+        <v>1</v>
+      </c>
+      <c r="C2" s="55">
+        <v>1</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>480</v>
       </c>
-      <c r="B2" s="55">
-        <v>1</v>
-      </c>
-      <c r="C2" s="55">
-        <v>1</v>
-      </c>
-      <c r="D2" s="55" t="s">
+      <c r="E2" s="55" t="s">
         <v>481</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="F2" s="55" t="s">
         <v>482</v>
       </c>
-      <c r="F2" s="55" t="s">
-        <v>483</v>
-      </c>
       <c r="G2" s="55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H2" s="55" t="s">
         <v>214</v>
       </c>
       <c r="I2" s="55" t="s">
+        <v>483</v>
+      </c>
+      <c r="J2" s="55" t="s">
         <v>484</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="K2" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="55" t="s">
         <v>485</v>
       </c>
-      <c r="K2" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="55" t="s">
+      <c r="M2" s="56" t="s">
         <v>486</v>
-      </c>
-      <c r="M2" s="56" t="s">
-        <v>487</v>
       </c>
       <c r="N2" s="55" t="s">
         <v>16</v>
@@ -6236,8 +6130,8 @@
       <c r="F3" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="44" t="s">
-        <v>437</v>
+      <c r="G3" s="43" t="s">
+        <v>436</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>213</v>
@@ -6579,8 +6473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB9A442-3ED4-406F-9296-DEFB50D41854}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6896,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="49" t="s">
         <v>16</v>
@@ -6929,7 +6823,7 @@
         <v>68</v>
       </c>
       <c r="N5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O5" t="s">
         <v>16</v>
@@ -6986,10 +6880,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A334D-3D40-4E6E-89BC-E0399D12F63C}">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7003,7 +6897,7 @@
     <col min="12" max="12" width="28.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7065,16 +6959,16 @@
         <v>14</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="W1" s="46" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -7118,180 +7012,159 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="51">
-        <v>1</v>
-      </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="51" t="s">
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
+      <c r="N3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47" t="s">
+      <c r="U3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29">
+        <v>3</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-    </row>
-    <row r="4" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="51">
-        <v>1</v>
-      </c>
-      <c r="C4" s="51">
-        <v>2</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A5" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="51">
-        <v>1</v>
-      </c>
-      <c r="C5" s="51">
-        <v>3</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="I5" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="L5" s="51" t="s">
+      <c r="M5" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="V5" t="s">
+        <v>458</v>
+      </c>
+      <c r="W5" s="44" t="s">
         <v>455</v>
       </c>
-      <c r="M5" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="N5" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47" t="s">
-        <v>459</v>
-      </c>
-      <c r="W5" s="57" t="s">
-        <v>456</v>
-      </c>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-    </row>
-    <row r="6" spans="1:25" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="52" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B6" s="52">
         <v>1</v>
@@ -7318,7 +7191,7 @@
         <v>16</v>
       </c>
       <c r="J6" s="52" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K6" s="52" t="s">
         <v>29</v>
@@ -7334,12 +7207,12 @@
       </c>
       <c r="R6" s="53"/>
       <c r="U6" s="52" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="52" customFormat="1" x14ac:dyDescent="0.35">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="52" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B7" s="52">
         <v>1</v>
@@ -7366,7 +7239,7 @@
         <v>16</v>
       </c>
       <c r="J7" s="52" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K7" s="52" t="s">
         <v>29</v>
@@ -7382,12 +7255,12 @@
       </c>
       <c r="R7" s="53"/>
       <c r="U7" s="52" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" s="51" customFormat="1" x14ac:dyDescent="0.35">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="51" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B8" s="51">
         <v>1</v>
@@ -7414,7 +7287,7 @@
         <v>16</v>
       </c>
       <c r="J8" s="51" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K8" s="51" t="s">
         <v>29</v>
@@ -7430,12 +7303,12 @@
       </c>
       <c r="R8" s="36"/>
       <c r="U8" s="51" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" s="51" customFormat="1" x14ac:dyDescent="0.35">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="51" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B9" s="51">
         <v>1</v>
@@ -7462,7 +7335,7 @@
         <v>16</v>
       </c>
       <c r="J9" s="51" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K9" s="51" t="s">
         <v>29</v>
@@ -7478,12 +7351,12 @@
       </c>
       <c r="R9" s="36"/>
       <c r="U9" s="51" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" s="51" customFormat="1" x14ac:dyDescent="0.35">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="51" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B10" s="51">
         <v>1</v>
@@ -7510,7 +7383,7 @@
         <v>16</v>
       </c>
       <c r="J10" s="51" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K10" s="51" t="s">
         <v>29</v>
@@ -7526,12 +7399,12 @@
       </c>
       <c r="R10" s="36"/>
       <c r="U10" s="51" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" s="51" customFormat="1" x14ac:dyDescent="0.35">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="51" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B11" s="51">
         <v>1</v>
@@ -7558,7 +7431,7 @@
         <v>16</v>
       </c>
       <c r="J11" s="51" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K11" s="51" t="s">
         <v>29</v>
@@ -7574,7 +7447,7 @@
       </c>
       <c r="R11" s="36"/>
       <c r="U11" s="51" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -7967,7 +7840,7 @@
         <v>68</v>
       </c>
       <c r="J2" s="45" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.35">
@@ -7999,7 +7872,7 @@
         <v>68</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -8045,7 +7918,7 @@
     <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="42" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -8056,19 +7929,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -8083,7 +7956,7 @@
     </row>
     <row r="2" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -8137,7 +8010,7 @@
     <col min="15" max="15" width="33.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="42" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -8151,39 +8024,39 @@
         <v>72</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>293</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="J1" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="J1" s="42" t="s">
-        <v>358</v>
-      </c>
       <c r="K1" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="M1" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="N1" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="O1" s="41" t="s">
         <v>364</v>
       </c>
-      <c r="M1" s="42" t="s">
-        <v>361</v>
-      </c>
-      <c r="N1" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="O1" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="41" t="s">
         <v>82</v>
       </c>
       <c r="Q1" s="3"/>
@@ -8199,7 +8072,7 @@
     </row>
     <row r="2" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -8223,22 +8096,22 @@
         <v>68</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>68</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>68</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>16</v>
@@ -8287,7 +8160,7 @@
     <col min="31" max="31" width="33.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="42" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -8298,82 +8171,82 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F1" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>293</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J1" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="V1" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="W1" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="X1" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>371</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>380</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>374</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>375</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>377</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>381</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>384</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>385</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>382</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>383</v>
-      </c>
-      <c r="W1" s="35" t="s">
-        <v>376</v>
-      </c>
-      <c r="X1" s="35" t="s">
+      <c r="Y1" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="Z1" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="Z1" s="35" t="s">
+      <c r="AA1" s="35" t="s">
         <v>390</v>
       </c>
-      <c r="AA1" s="35" t="s">
+      <c r="AB1" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="AB1" s="35" t="s">
+      <c r="AC1" s="35" t="s">
         <v>392</v>
-      </c>
-      <c r="AC1" s="35" t="s">
-        <v>393</v>
       </c>
       <c r="AD1" s="35" t="s">
         <v>82</v>
@@ -8391,7 +8264,7 @@
     </row>
     <row r="2" spans="1:42" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -8412,16 +8285,16 @@
         <v>16</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>235</v>
@@ -8430,17 +8303,17 @@
         <v>209</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
         <v>209</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T2" s="5">
         <v>28570</v>
@@ -8458,7 +8331,7 @@
         <v>269</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
@@ -8496,7 +8369,7 @@
     <col min="13" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -8507,31 +8380,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>398</v>
-      </c>
       <c r="I1" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="J1" s="35" t="s">
         <v>400</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>402</v>
-      </c>
       <c r="L1" s="35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M1" s="35" t="s">
         <v>82</v>
@@ -8549,7 +8422,7 @@
     </row>
     <row r="2" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -8567,16 +8440,16 @@
         <v>235</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L2" s="26" t="s">
         <v>29</v>
@@ -8619,7 +8492,7 @@
     <col min="18" max="18" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -8630,49 +8503,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E1" s="35" t="s">
         <v>72</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G1" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>410</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>411</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>412</v>
       </c>
       <c r="L1" s="35" t="s">
         <v>82</v>
       </c>
       <c r="M1" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="N1" s="41" t="s">
         <v>413</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="O1" s="35" t="s">
         <v>414</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>415</v>
       </c>
       <c r="P1" s="35" t="s">
         <v>308</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
@@ -8684,7 +8557,7 @@
     </row>
     <row r="2" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -8699,10 +8572,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>209</v>
@@ -8726,16 +8599,16 @@
         <v>16</v>
       </c>
       <c r="O2" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="P2" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="Q2" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="Q2" s="26" t="s">
-        <v>419</v>
-      </c>
       <c r="R2" s="26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -9430,7 +9303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3F944F-1B63-4F82-AF7C-B1A12F6C23D1}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -9467,7 +9340,7 @@
         <v>267</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>82</v>
@@ -9476,7 +9349,7 @@
         <v>232</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -9533,7 +9406,7 @@
       </c>
       <c r="K3" s="29"/>
       <c r="L3" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M3" s="29"/>
     </row>
@@ -9557,7 +9430,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
       <c r="L4" s="26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -9580,7 +9453,7 @@
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -9591,10 +9464,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5083A157-C67F-458F-A42E-BC1D5FB3C768}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9650,10 +9523,10 @@
         <v>208</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="N1" t="s">
         <v>347</v>
-      </c>
-      <c r="N1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -9694,49 +9567,88 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="3" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="G3" s="49" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>51</v>
+        <v>487</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>346</v>
+        <v>16</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="M3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10269,8 +10181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9D3CD3-B1E4-4B19-8BFF-5F4C690A39C5}">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10345,34 +10257,34 @@
         <v>191</v>
       </c>
       <c r="R1" s="48" t="s">
+        <v>470</v>
+      </c>
+      <c r="S1" s="48" t="s">
         <v>471</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="T1" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="T1" s="48" t="s">
-        <v>473</v>
-      </c>
       <c r="U1" s="48" t="s">
+        <v>463</v>
+      </c>
+      <c r="V1" s="48" t="s">
         <v>464</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="W1" s="48" t="s">
         <v>465</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="X1" s="48" t="s">
         <v>466</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="Y1" s="48" t="s">
         <v>467</v>
       </c>
-      <c r="Y1" s="48" t="s">
+      <c r="Z1" s="48" t="s">
         <v>468</v>
       </c>
-      <c r="Z1" s="48" t="s">
+      <c r="AA1" s="48" t="s">
         <v>469</v>
-      </c>
-      <c r="AA1" s="48" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
@@ -10438,237 +10350,237 @@
       </c>
     </row>
     <row r="4" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="51">
-        <v>1</v>
-      </c>
-      <c r="C4" s="51">
-        <v>1</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="51" t="s">
+      <c r="B4" s="63">
+        <v>1</v>
+      </c>
+      <c r="C4" s="63">
+        <v>1</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="38" t="s">
+      <c r="F4" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="63" t="s">
         <v>268</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="63" t="s">
         <v>268</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="R4" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="S4" s="51" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="63" t="s">
+        <v>473</v>
+      </c>
+      <c r="T4" s="63" t="s">
         <v>474</v>
       </c>
-      <c r="T4" s="51" t="s">
+      <c r="U4" s="63" t="s">
+        <v>459</v>
+      </c>
+      <c r="V4" s="63" t="s">
+        <v>459</v>
+      </c>
+      <c r="W4" s="63" t="s">
+        <v>459</v>
+      </c>
+      <c r="X4" s="63" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y4" s="63" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z4" s="63" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA4" s="63" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB4" s="63" t="s">
+        <v>459</v>
+      </c>
+      <c r="AC4" s="63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="63">
+        <v>1</v>
+      </c>
+      <c r="C5" s="63">
+        <v>2</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="J5" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="L5" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="N5" s="63" t="s">
+        <v>500</v>
+      </c>
+      <c r="O5" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63" t="s">
         <v>475</v>
       </c>
-      <c r="U4" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="V4" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="W4" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="X4" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="Y4" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="Z4" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="AA4" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="AB4" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="AC4" s="51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51" t="s">
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="51">
-        <v>1</v>
-      </c>
-      <c r="C5" s="51">
-        <v>2</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="I5" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="J5" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="K5" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="N5" s="51" t="s">
-        <v>489</v>
-      </c>
-      <c r="O5" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51" t="s">
-        <v>476</v>
-      </c>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A6" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="47">
-        <v>1</v>
-      </c>
-      <c r="C6" s="47">
+      <c r="B6" s="62">
+        <v>1</v>
+      </c>
+      <c r="C6" s="62">
         <v>3</v>
       </c>
-      <c r="D6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="J6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="L6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="M6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="N6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="O6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="P6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="R6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="S6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="T6" s="47" t="s">
-        <v>489</v>
-      </c>
-      <c r="U6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="V6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="W6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="X6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC6" s="47"/>
+      <c r="D6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="N6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="O6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="P6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="R6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="S6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" s="62" t="s">
+        <v>500</v>
+      </c>
+      <c r="U6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="V6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="W6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="X6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB6" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC6" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\24jantestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C55C26-00F4-41D2-BB9F-E8F12755ED0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BE9F1C-9847-4079-990F-9B2BA5A229A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="499">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1039,9 +1039,6 @@
   </si>
   <si>
     <t>DATE_SENT</t>
-  </si>
-  <si>
-    <t>personName2,folioPersonName2</t>
   </si>
   <si>
     <t>NEW_CASE_BTN</t>
@@ -1552,9 +1549,6 @@
   </si>
   <si>
     <t>ERsupervisorcontracosta</t>
-  </si>
-  <si>
-    <t>personName1,personName2,folioPersonName1,folioPersonName2</t>
   </si>
   <si>
     <t>DOCUMENTS_FOLIO_TAB</t>
@@ -1757,7 +1751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1798,9 +1792,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2227,8 +2218,8 @@
       <c r="Q1" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="R1" s="50" t="s">
-        <v>456</v>
+      <c r="R1" s="49" t="s">
+        <v>455</v>
       </c>
       <c r="S1" s="3"/>
       <c r="T1" s="2"/>
@@ -2392,176 +2383,176 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="52" t="s">
+    <row r="5" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="51" t="s">
+        <v>476</v>
+      </c>
+      <c r="B5" s="51">
+        <v>1</v>
+      </c>
+      <c r="C5" s="51">
+        <v>1</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="P5" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="51" t="s">
+        <v>476</v>
+      </c>
+      <c r="B6" s="51">
+        <v>1</v>
+      </c>
+      <c r="C6" s="51">
+        <v>2</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="N6" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="P6" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="B5" s="52">
-        <v>1</v>
-      </c>
-      <c r="C5" s="52">
-        <v>1</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="52" t="s">
+      <c r="B7" s="50">
+        <v>1</v>
+      </c>
+      <c r="C7" s="50">
+        <v>1</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="N5" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="P5" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52" t="s">
-        <v>477</v>
-      </c>
-      <c r="B6" s="52">
-        <v>1</v>
-      </c>
-      <c r="C6" s="52">
-        <v>2</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="N6" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="P6" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="51" t="s">
-        <v>478</v>
-      </c>
-      <c r="B7" s="51">
-        <v>1</v>
-      </c>
-      <c r="C7" s="51">
-        <v>1</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="K7" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="N7" s="51" t="s">
+      <c r="M7" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="N7" s="50" t="s">
         <v>16</v>
       </c>
       <c r="O7" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="P7" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="51" t="s">
-        <v>478</v>
-      </c>
-      <c r="B8" s="51">
-        <v>1</v>
-      </c>
-      <c r="C8" s="51">
+      <c r="P7" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="B8" s="50">
+        <v>1</v>
+      </c>
+      <c r="C8" s="50">
         <v>2</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="36" t="s">
@@ -2582,39 +2573,39 @@
       <c r="J8" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="K8" s="51" t="s">
+      <c r="K8" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="51" t="s">
+      <c r="L8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="N8" s="51" t="s">
+      <c r="M8" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="N8" s="50" t="s">
         <v>16</v>
       </c>
       <c r="O8" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="P8" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="51" t="s">
-        <v>478</v>
-      </c>
-      <c r="B9" s="51">
-        <v>1</v>
-      </c>
-      <c r="C9" s="51">
+      <c r="P8" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="B9" s="50">
+        <v>1</v>
+      </c>
+      <c r="C9" s="50">
         <v>3</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="50" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="36" t="s">
@@ -2635,39 +2626,39 @@
       <c r="J9" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="K9" s="51" t="s">
+      <c r="K9" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="51" t="s">
+      <c r="L9" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="N9" s="51" t="s">
+      <c r="M9" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="N9" s="50" t="s">
         <v>16</v>
       </c>
       <c r="O9" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="P9" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="51" t="s">
-        <v>478</v>
-      </c>
-      <c r="B10" s="51">
-        <v>1</v>
-      </c>
-      <c r="C10" s="51">
+      <c r="P9" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10" s="50">
+        <v>1</v>
+      </c>
+      <c r="C10" s="50">
         <v>4</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="50" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="36" t="s">
@@ -2688,25 +2679,25 @@
       <c r="J10" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="K10" s="51" t="s">
+      <c r="K10" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="51" t="s">
+      <c r="L10" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="N10" s="51" t="s">
+      <c r="M10" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="N10" s="50" t="s">
         <v>16</v>
       </c>
       <c r="O10" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="P10" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q10" s="51" t="s">
+      <c r="P10" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="50" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2735,854 +2726,854 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
+        <v>488</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>489</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>273</v>
+      </c>
+      <c r="J1" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="L1" s="57" t="s">
         <v>490</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="M1" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="N1" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="O1" s="57" t="s">
+        <v>278</v>
+      </c>
+      <c r="P1" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q1" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="R1" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="S1" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="T1" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="U1" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="V1" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="W1" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="X1" s="57" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y1" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="Z1" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="AA1" s="57" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB1" s="57" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC1" s="57" t="s">
         <v>491</v>
       </c>
-      <c r="H1" s="58" t="s">
-        <v>272</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>273</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="K1" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="L1" s="58" t="s">
+      <c r="AD1" s="57" t="s">
         <v>492</v>
       </c>
-      <c r="M1" s="58" t="s">
-        <v>276</v>
-      </c>
-      <c r="N1" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="O1" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="P1" s="58" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q1" s="60" t="s">
-        <v>208</v>
-      </c>
-      <c r="R1" s="60" t="s">
-        <v>280</v>
-      </c>
-      <c r="S1" s="58" t="s">
-        <v>281</v>
-      </c>
-      <c r="T1" s="58" t="s">
-        <v>429</v>
-      </c>
-      <c r="U1" s="58" t="s">
-        <v>430</v>
-      </c>
-      <c r="V1" s="58" t="s">
-        <v>431</v>
-      </c>
-      <c r="W1" s="58" t="s">
-        <v>432</v>
-      </c>
-      <c r="X1" s="58" t="s">
-        <v>433</v>
-      </c>
-      <c r="Y1" s="58" t="s">
-        <v>434</v>
-      </c>
-      <c r="Z1" s="58" t="s">
-        <v>435</v>
-      </c>
-      <c r="AA1" s="58" t="s">
-        <v>441</v>
-      </c>
-      <c r="AB1" s="58" t="s">
+      <c r="AE1" s="57" t="s">
         <v>442</v>
       </c>
-      <c r="AC1" s="58" t="s">
+      <c r="AF1" s="57" t="s">
+        <v>443</v>
+      </c>
+      <c r="AG1" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="AH1" s="57" t="s">
+        <v>445</v>
+      </c>
+      <c r="AI1" s="57" t="s">
         <v>493</v>
       </c>
-      <c r="AD1" s="58" t="s">
+      <c r="AJ1" s="57" t="s">
         <v>494</v>
       </c>
-      <c r="AE1" s="58" t="s">
-        <v>443</v>
-      </c>
-      <c r="AF1" s="58" t="s">
-        <v>444</v>
-      </c>
-      <c r="AG1" s="58" t="s">
-        <v>445</v>
-      </c>
-      <c r="AH1" s="58" t="s">
+      <c r="AK1" s="57" t="s">
+        <v>495</v>
+      </c>
+      <c r="AL1" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM1" s="56"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A2" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="60">
+        <v>1</v>
+      </c>
+      <c r="C2" s="60">
+        <v>1</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="L2" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="M2" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="O2" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="P2" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q2" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="R2" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="S2" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="U2" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="58" t="s">
+        <v>496</v>
+      </c>
+      <c r="AD2" s="56" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56" t="s">
+        <v>459</v>
+      </c>
+      <c r="AM2" s="56"/>
+    </row>
+    <row r="3" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="60">
+        <v>1</v>
+      </c>
+      <c r="C3" s="60">
+        <v>2</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="M3" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="O3" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="P3" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q3" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="R3" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="S3" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A4" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="56">
+        <v>1</v>
+      </c>
+      <c r="C4" s="56">
+        <v>3</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="O4" s="56" t="s">
         <v>446</v>
       </c>
-      <c r="AI1" s="58" t="s">
-        <v>495</v>
-      </c>
-      <c r="AJ1" s="58" t="s">
-        <v>496</v>
-      </c>
-      <c r="AK1" s="58" t="s">
-        <v>497</v>
-      </c>
-      <c r="AL1" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM1" s="57"/>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A2" s="61" t="s">
+      <c r="P4" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="R4" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="S4" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="T4" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="U4" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="V4" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="W4" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="X4" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y4" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z4" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA4" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" s="56" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF4" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG4" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH4" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI4" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ4" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK4" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A5" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="61">
-        <v>1</v>
-      </c>
-      <c r="C2" s="61">
-        <v>1</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="J2" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="K2" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="L2" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="M2" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="61" t="s">
-        <v>296</v>
-      </c>
-      <c r="O2" s="61" t="s">
-        <v>296</v>
-      </c>
-      <c r="P2" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q2" s="61" t="s">
-        <v>284</v>
-      </c>
-      <c r="R2" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="S2" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="U2" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="W2" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y2" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z2" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="59" t="s">
-        <v>498</v>
-      </c>
-      <c r="AD2" s="57" t="s">
-        <v>499</v>
-      </c>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57" t="s">
-        <v>460</v>
-      </c>
-      <c r="AM2" s="57"/>
-    </row>
-    <row r="3" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="61" t="s">
+      <c r="B5" s="56">
+        <v>1</v>
+      </c>
+      <c r="C5" s="56">
+        <v>4</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="O5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="P5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="R5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="S5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="T5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="U5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="V5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="W5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="X5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA5" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB5" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF5" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH5" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK5" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A6" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="61">
-        <v>1</v>
-      </c>
-      <c r="C3" s="61">
-        <v>2</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="M3" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="61" t="s">
-        <v>282</v>
-      </c>
-      <c r="O3" s="61" t="s">
-        <v>283</v>
-      </c>
-      <c r="P3" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q3" s="61" t="s">
-        <v>284</v>
-      </c>
-      <c r="R3" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="S3" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A4" s="61" t="s">
+      <c r="B6" s="56">
+        <v>1</v>
+      </c>
+      <c r="C6" s="56">
+        <v>5</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="N6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="O6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="P6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="S6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="U6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="V6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="W6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="X6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA6" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB6" s="56" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF6" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH6" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK6" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL6" s="56"/>
+      <c r="AM6" s="56"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A7" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="57">
-        <v>1</v>
-      </c>
-      <c r="C4" s="57">
-        <v>3</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="G4" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="J4" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="K4" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="N4" s="61" t="s">
-        <v>282</v>
-      </c>
-      <c r="O4" s="57" t="s">
-        <v>447</v>
-      </c>
-      <c r="P4" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q4" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="R4" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="S4" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="T4" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="U4" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="V4" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="W4" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="X4" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y4" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z4" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA4" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB4" s="57" t="s">
-        <v>448</v>
-      </c>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF4" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG4" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH4" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI4" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ4" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK4" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="57"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A5" s="61" t="s">
+      <c r="B7" s="56">
+        <v>1</v>
+      </c>
+      <c r="C7" s="56">
+        <v>6</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="N7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="O7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="P7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="S7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="T7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="U7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="V7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="W7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="X7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA7" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB7" s="56" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF7" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH7" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK7" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A8" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="57">
-        <v>1</v>
-      </c>
-      <c r="C5" s="57">
-        <v>4</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="I5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="N5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="O5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="P5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="R5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="S5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="T5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="U5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="V5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="W5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="X5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA5" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB5" s="57" t="s">
-        <v>449</v>
-      </c>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF5" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH5" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK5" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL5" s="57"/>
-      <c r="AM5" s="57"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A6" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="57">
-        <v>1</v>
-      </c>
-      <c r="C6" s="57">
-        <v>5</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="J6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="N6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="O6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="P6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="R6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="S6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="T6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="U6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="V6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="W6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="X6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA6" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB6" s="57" t="s">
+      <c r="B8" s="56">
+        <v>1</v>
+      </c>
+      <c r="C8" s="56">
+        <v>7</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>458</v>
+      </c>
+      <c r="M8" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="N8" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="O8" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="P8" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q8" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="S8" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="T8" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="U8" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="V8" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="W8" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="X8" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y8" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z8" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA8" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB8" s="56" t="s">
         <v>450</v>
       </c>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF6" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH6" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL6" s="57"/>
-      <c r="AM6" s="57"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A7" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="57">
-        <v>1</v>
-      </c>
-      <c r="C7" s="57">
-        <v>6</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="G7" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="K7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="N7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="O7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="P7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="R7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="S7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="T7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="U7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="V7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="W7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="X7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA7" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB7" s="57" t="s">
-        <v>451</v>
-      </c>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF7" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH7" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK7" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="57"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A8" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" s="57">
-        <v>1</v>
-      </c>
-      <c r="C8" s="57">
-        <v>7</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="G8" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="I8" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="J8" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="K8" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="L8" s="57" t="s">
-        <v>459</v>
-      </c>
-      <c r="M8" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="N8" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="O8" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="P8" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q8" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="R8" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="S8" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="T8" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="U8" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="V8" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="W8" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="X8" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y8" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z8" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA8" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB8" s="57" t="s">
-        <v>451</v>
-      </c>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF8" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG8" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH8" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI8" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ8" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK8" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL8" s="57"/>
-      <c r="AM8" s="57"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF8" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG8" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH8" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI8" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ8" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK8" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="R9" s="42"/>
+      <c r="R9" s="41"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="R10" s="42"/>
+      <c r="R10" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4265,22 +4256,22 @@
         <v>82</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P1" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="T1" s="23" t="s">
         <v>427</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>428</v>
       </c>
       <c r="U1" s="23" t="s">
         <v>289</v>
@@ -4418,25 +4409,25 @@
         <v>213</v>
       </c>
       <c r="O4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q4" s="26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R4" s="26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="S4" s="26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -4449,7 +4440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE06A9D-8317-49A7-9A82-039A1B827ECC}">
   <dimension ref="A1:AL18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -4725,7 +4716,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="29" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" s="29" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>231</v>
       </c>
@@ -4750,11 +4741,11 @@
       <c r="H3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>489</v>
+      <c r="I3" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="J3" s="62" t="s">
+        <v>218</v>
       </c>
       <c r="K3" s="30" t="s">
         <v>211</v>
@@ -5484,25 +5475,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>189</v>
@@ -5511,104 +5502,104 @@
         <v>198</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="55" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="55" t="s">
+    </row>
+    <row r="2" spans="1:23" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="54" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2" s="54">
+        <v>1</v>
+      </c>
+      <c r="C2" s="54">
+        <v>1</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>479</v>
       </c>
-      <c r="B2" s="55">
-        <v>1</v>
-      </c>
-      <c r="C2" s="55">
-        <v>1</v>
-      </c>
-      <c r="D2" s="55" t="s">
+      <c r="E2" s="54" t="s">
         <v>480</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="F2" s="54" t="s">
         <v>481</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="G2" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" s="54" t="s">
         <v>482</v>
       </c>
-      <c r="G2" s="55" t="s">
-        <v>358</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="I2" s="55" t="s">
+      <c r="J2" s="54" t="s">
         <v>483</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="K2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="54" t="s">
         <v>484</v>
       </c>
-      <c r="K2" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="55" t="s">
+      <c r="M2" s="55" t="s">
         <v>485</v>
       </c>
-      <c r="M2" s="56" t="s">
-        <v>486</v>
-      </c>
-      <c r="N2" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="55" t="s">
+      <c r="N2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="Q2" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="U2" s="55" t="s">
+      <c r="Q2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="V2" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="55" t="s">
+      <c r="V2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="54" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6130,8 +6121,8 @@
       <c r="F3" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="43" t="s">
-        <v>436</v>
+      <c r="G3" s="42" t="s">
+        <v>435</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>213</v>
@@ -6783,28 +6774,28 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="51">
-        <v>1</v>
-      </c>
-      <c r="C5" s="51">
+      <c r="B5" s="50">
+        <v>1</v>
+      </c>
+      <c r="C5" s="50">
         <v>2</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="48" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I5" t="s">
@@ -6823,7 +6814,7 @@
         <v>68</v>
       </c>
       <c r="N5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O5" t="s">
         <v>16</v>
@@ -6959,13 +6950,13 @@
         <v>14</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="W1" s="46" t="s">
         <v>456</v>
+      </c>
+      <c r="W1" s="45" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -7060,7 +7051,7 @@
       <c r="Q3" s="29"/>
       <c r="R3" s="2"/>
       <c r="U3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -7146,7 +7137,7 @@
         <v>213</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M5" s="29" t="s">
         <v>213</v>
@@ -7156,298 +7147,298 @@
       </c>
       <c r="O5" s="2"/>
       <c r="V5" t="s">
-        <v>458</v>
-      </c>
-      <c r="W5" s="44" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52" t="s">
+        <v>457</v>
+      </c>
+      <c r="W5" s="43" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="51" t="s">
+        <v>476</v>
+      </c>
+      <c r="B6" s="51">
+        <v>1</v>
+      </c>
+      <c r="C6" s="51">
+        <v>1</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="52"/>
+      <c r="U6" s="51" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="51" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" s="51">
+        <v>1</v>
+      </c>
+      <c r="C7" s="51">
+        <v>2</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="K7" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="52"/>
+      <c r="U7" s="51" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="B6" s="52">
-        <v>1</v>
-      </c>
-      <c r="C6" s="52">
-        <v>1</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="52" t="s">
-        <v>476</v>
-      </c>
-      <c r="K6" s="52" t="s">
+      <c r="B8" s="50">
+        <v>1</v>
+      </c>
+      <c r="C8" s="50">
+        <v>1</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>475</v>
+      </c>
+      <c r="K8" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="52" t="s">
+      <c r="L8" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="M8" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="R6" s="53"/>
-      <c r="U6" s="52" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="52" t="s">
+      <c r="N8" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="36"/>
+      <c r="U8" s="50" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="50" t="s">
         <v>477</v>
       </c>
-      <c r="B7" s="52">
-        <v>1</v>
-      </c>
-      <c r="C7" s="52">
+      <c r="B9" s="50">
+        <v>1</v>
+      </c>
+      <c r="C9" s="50">
         <v>2</v>
       </c>
-      <c r="D7" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="52" t="s">
-        <v>476</v>
-      </c>
-      <c r="K7" s="52" t="s">
+      <c r="D9" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>475</v>
+      </c>
+      <c r="K9" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="52" t="s">
+      <c r="L9" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="52" t="s">
+      <c r="M9" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="R7" s="53"/>
-      <c r="U7" s="52" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="51" t="s">
-        <v>478</v>
-      </c>
-      <c r="B8" s="51">
-        <v>1</v>
-      </c>
-      <c r="C8" s="51">
-        <v>1</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="51" t="s">
-        <v>476</v>
-      </c>
-      <c r="K8" s="51" t="s">
+      <c r="N9" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="36"/>
+      <c r="U9" s="50" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10" s="50">
+        <v>1</v>
+      </c>
+      <c r="C10" s="50">
+        <v>3</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>475</v>
+      </c>
+      <c r="K10" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="51" t="s">
+      <c r="L10" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="51" t="s">
+      <c r="M10" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="R8" s="36"/>
-      <c r="U8" s="51" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="51" t="s">
-        <v>478</v>
-      </c>
-      <c r="B9" s="51">
-        <v>1</v>
-      </c>
-      <c r="C9" s="51">
-        <v>2</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="51" t="s">
-        <v>476</v>
-      </c>
-      <c r="K9" s="51" t="s">
+      <c r="N10" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="36"/>
+      <c r="U10" s="50" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11" s="50">
+        <v>1</v>
+      </c>
+      <c r="C11" s="50">
+        <v>4</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>475</v>
+      </c>
+      <c r="K11" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="51" t="s">
+      <c r="L11" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M11" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="R9" s="36"/>
-      <c r="U9" s="51" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="51" t="s">
-        <v>478</v>
-      </c>
-      <c r="B10" s="51">
-        <v>1</v>
-      </c>
-      <c r="C10" s="51">
-        <v>3</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>476</v>
-      </c>
-      <c r="K10" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="R10" s="36"/>
-      <c r="U10" s="51" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51" t="s">
-        <v>478</v>
-      </c>
-      <c r="B11" s="51">
-        <v>1</v>
-      </c>
-      <c r="C11" s="51">
-        <v>4</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="51" t="s">
-        <v>476</v>
-      </c>
-      <c r="K11" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="51" t="s">
+      <c r="N11" s="50" t="s">
         <v>16</v>
       </c>
       <c r="R11" s="36"/>
-      <c r="U11" s="51" t="s">
-        <v>453</v>
+      <c r="U11" s="50" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -7839,8 +7830,8 @@
       <c r="I2" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="45" t="s">
-        <v>461</v>
+      <c r="J2" s="44" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.35">
@@ -7871,8 +7862,8 @@
       <c r="I3" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="45" t="s">
-        <v>462</v>
+      <c r="J3" s="44" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -7918,7 +7909,7 @@
     <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -7929,19 +7920,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>352</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -7956,7 +7947,7 @@
     </row>
     <row r="2" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -8010,7 +8001,7 @@
     <col min="15" max="15" width="33.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -8024,39 +8015,39 @@
         <v>72</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>293</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I1" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="40" t="s">
         <v>356</v>
       </c>
-      <c r="J1" s="41" t="s">
-        <v>357</v>
-      </c>
       <c r="K1" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="M1" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="N1" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="O1" s="40" t="s">
         <v>363</v>
       </c>
-      <c r="M1" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="O1" s="41" t="s">
-        <v>364</v>
-      </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="40" t="s">
         <v>82</v>
       </c>
       <c r="Q1" s="3"/>
@@ -8072,7 +8063,7 @@
     </row>
     <row r="2" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -8096,22 +8087,22 @@
         <v>68</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>68</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>68</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>16</v>
@@ -8160,7 +8151,7 @@
     <col min="31" max="31" width="33.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="41" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -8171,82 +8162,82 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F1" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>293</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J1" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="V1" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="W1" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="X1" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>370</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>379</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>372</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>374</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>376</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>380</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>383</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>384</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>381</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>382</v>
-      </c>
-      <c r="W1" s="35" t="s">
-        <v>375</v>
-      </c>
-      <c r="X1" s="35" t="s">
+      <c r="Y1" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="Z1" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="Z1" s="35" t="s">
+      <c r="AA1" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="AA1" s="35" t="s">
+      <c r="AB1" s="35" t="s">
         <v>390</v>
       </c>
-      <c r="AB1" s="35" t="s">
+      <c r="AC1" s="35" t="s">
         <v>391</v>
-      </c>
-      <c r="AC1" s="35" t="s">
-        <v>392</v>
       </c>
       <c r="AD1" s="35" t="s">
         <v>82</v>
@@ -8264,7 +8255,7 @@
     </row>
     <row r="2" spans="1:42" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -8285,16 +8276,16 @@
         <v>16</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>235</v>
@@ -8303,17 +8294,17 @@
         <v>209</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>378</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
         <v>209</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="T2" s="5">
         <v>28570</v>
@@ -8331,7 +8322,7 @@
         <v>269</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
@@ -8369,7 +8360,7 @@
     <col min="13" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -8380,31 +8371,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>397</v>
-      </c>
       <c r="I1" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="J1" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>400</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>401</v>
-      </c>
       <c r="L1" s="35" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M1" s="35" t="s">
         <v>82</v>
@@ -8422,7 +8413,7 @@
     </row>
     <row r="2" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -8440,16 +8431,16 @@
         <v>235</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L2" s="26" t="s">
         <v>29</v>
@@ -8492,7 +8483,7 @@
     <col min="18" max="18" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -8503,49 +8494,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E1" s="35" t="s">
         <v>72</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1" s="35" t="s">
         <v>407</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>410</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>411</v>
       </c>
       <c r="L1" s="35" t="s">
         <v>82</v>
       </c>
       <c r="M1" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="N1" s="40" t="s">
         <v>412</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="O1" s="35" t="s">
         <v>413</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>414</v>
       </c>
       <c r="P1" s="35" t="s">
         <v>308</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
@@ -8557,7 +8548,7 @@
     </row>
     <row r="2" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -8572,10 +8563,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>209</v>
@@ -8599,16 +8590,16 @@
         <v>16</v>
       </c>
       <c r="O2" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="P2" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="Q2" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="Q2" s="26" t="s">
-        <v>418</v>
-      </c>
       <c r="R2" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -9303,7 +9294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3F944F-1B63-4F82-AF7C-B1A12F6C23D1}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -9340,7 +9331,7 @@
         <v>267</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>82</v>
@@ -9349,7 +9340,7 @@
         <v>232</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -9406,7 +9397,7 @@
       </c>
       <c r="K3" s="29"/>
       <c r="L3" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M3" s="29"/>
     </row>
@@ -9430,7 +9421,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
       <c r="L4" s="26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -9453,7 +9444,7 @@
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -9523,10 +9514,10 @@
         <v>208</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="N1" t="s">
         <v>346</v>
-      </c>
-      <c r="N1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -9567,7 +9558,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="47" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>192</v>
       </c>
@@ -9583,17 +9574,17 @@
       <c r="E3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>488</v>
-      </c>
-      <c r="G3" s="49" t="s">
+      <c r="F3" s="48" t="s">
+        <v>487</v>
+      </c>
+      <c r="G3" s="48" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>22</v>
@@ -9607,7 +9598,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -9637,7 +9628,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>209</v>
@@ -10201,7 +10192,7 @@
     <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="8.81640625" style="47"/>
+    <col min="17" max="20" width="8.81640625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -10253,38 +10244,38 @@
       <c r="P1" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="S1" s="47" t="s">
         <v>470</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="T1" s="47" t="s">
         <v>471</v>
       </c>
-      <c r="T1" s="48" t="s">
-        <v>472</v>
-      </c>
-      <c r="U1" s="48" t="s">
+      <c r="U1" s="47" t="s">
+        <v>462</v>
+      </c>
+      <c r="V1" s="47" t="s">
         <v>463</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="W1" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="X1" s="47" t="s">
         <v>465</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="Y1" s="47" t="s">
         <v>466</v>
       </c>
-      <c r="Y1" s="48" t="s">
+      <c r="Z1" s="47" t="s">
         <v>467</v>
       </c>
-      <c r="Z1" s="48" t="s">
+      <c r="AA1" s="47" t="s">
         <v>468</v>
-      </c>
-      <c r="AA1" s="48" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
@@ -10350,237 +10341,237 @@
       </c>
     </row>
     <row r="4" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="63">
-        <v>1</v>
-      </c>
-      <c r="C4" s="63">
-        <v>1</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="63" t="s">
+      <c r="B4" s="62">
+        <v>1</v>
+      </c>
+      <c r="C4" s="62">
+        <v>1</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="65" t="s">
+      <c r="F4" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="R4" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="S4" s="63" t="s">
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="62" t="s">
+        <v>472</v>
+      </c>
+      <c r="T4" s="62" t="s">
         <v>473</v>
       </c>
-      <c r="T4" s="63" t="s">
+      <c r="U4" s="62" t="s">
+        <v>458</v>
+      </c>
+      <c r="V4" s="62" t="s">
+        <v>458</v>
+      </c>
+      <c r="W4" s="62" t="s">
+        <v>458</v>
+      </c>
+      <c r="X4" s="62" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y4" s="62" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z4" s="62" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA4" s="62" t="s">
+        <v>458</v>
+      </c>
+      <c r="AB4" s="62" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC4" s="62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="62">
+        <v>1</v>
+      </c>
+      <c r="C5" s="62">
+        <v>2</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="J5" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="L5" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="N5" s="62" t="s">
+        <v>498</v>
+      </c>
+      <c r="O5" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62" t="s">
         <v>474</v>
       </c>
-      <c r="U4" s="63" t="s">
-        <v>459</v>
-      </c>
-      <c r="V4" s="63" t="s">
-        <v>459</v>
-      </c>
-      <c r="W4" s="63" t="s">
-        <v>459</v>
-      </c>
-      <c r="X4" s="63" t="s">
-        <v>459</v>
-      </c>
-      <c r="Y4" s="63" t="s">
-        <v>459</v>
-      </c>
-      <c r="Z4" s="63" t="s">
-        <v>459</v>
-      </c>
-      <c r="AA4" s="63" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB4" s="63" t="s">
-        <v>459</v>
-      </c>
-      <c r="AC4" s="63" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63" t="s">
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="62" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="63">
-        <v>1</v>
-      </c>
-      <c r="C5" s="63">
-        <v>2</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="I5" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="J5" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="K5" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="L5" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="N5" s="63" t="s">
-        <v>500</v>
-      </c>
-      <c r="O5" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63" t="s">
-        <v>475</v>
-      </c>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="63"/>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="63"/>
-      <c r="AB5" s="63"/>
-      <c r="AC5" s="63"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A6" s="63" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="62">
-        <v>1</v>
-      </c>
-      <c r="C6" s="62">
+      <c r="B6" s="61">
+        <v>1</v>
+      </c>
+      <c r="C6" s="61">
         <v>3</v>
       </c>
-      <c r="D6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="F6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="J6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="L6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="M6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="N6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="O6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="P6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="R6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="S6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="T6" s="62" t="s">
-        <v>500</v>
-      </c>
-      <c r="U6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="V6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="W6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="X6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC6" s="62"/>
+      <c r="D6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="N6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="O6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="P6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="R6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="S6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" s="61" t="s">
+        <v>498</v>
+      </c>
+      <c r="U6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="V6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="W6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="X6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC6" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\24jantestdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\24jantestdata\25JAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BE9F1C-9847-4079-990F-9B2BA5A229A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A1EF16-DDDB-42B1-8E77-DF5EB8AB3301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="17" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="506">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1041,6 +1041,9 @@
     <t>DATE_SENT</t>
   </si>
   <si>
+    <t>personName2,folioPersonName2</t>
+  </si>
+  <si>
     <t>NEW_CASE_BTN</t>
   </si>
   <si>
@@ -1368,9 +1371,6 @@
     <t>DESCRIPTION_VERIFY</t>
   </si>
   <si>
-    <t>Consult with Staff Person</t>
-  </si>
-  <si>
     <t>Pending Approval</t>
   </si>
   <si>
@@ -1438,10 +1438,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>Upload Successful
-Document uploaded successfully! The document is being scanned for the malware. Your document will be aviable to view shortly.</t>
   </si>
   <si>
     <r>
@@ -1548,7 +1544,19 @@
     <t>Case Aide</t>
   </si>
   <si>
-    <t>ERsupervisorcontracosta</t>
+    <t>Ersupervisorcontracosta</t>
+  </si>
+  <si>
+    <t>Inconclusive</t>
+  </si>
+  <si>
+    <t>WARNING_MSG</t>
+  </si>
+  <si>
+    <t>WARNING_MSG_LINK</t>
+  </si>
+  <si>
+    <t>Ready to Send</t>
   </si>
   <si>
     <t>DOCUMENTS_FOLIO_TAB</t>
@@ -1581,7 +1589,19 @@
     <t>Response to Mandated Reporter.pdf</t>
   </si>
   <si>
-    <t>Ready to Send</t>
+    <t>Document uploaded successfully! The document is being scanned for the malware. Your document will be aviable to view shortly.</t>
+  </si>
+  <si>
+    <t>BCIA 8572, Suspected Child Abuse Report.pdf</t>
+  </si>
+  <si>
+    <t>personName1,personName2,folioPersonName1,folioPersonName2</t>
+  </si>
+  <si>
+    <t>n/</t>
+  </si>
+  <si>
+    <t>RECORD_CLICK</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1705,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1722,6 +1742,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1751,7 +1777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1792,11 +1818,13 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1810,15 +1838,21 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{0244CCC0-C70B-4F46-AB95-4E0A98C0C68C}"/>
@@ -2134,10 +2168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2166,7 +2200,7 @@
     <col min="24" max="24" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2228,7 +2262,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -2279,17 +2313,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="29">
-        <v>1</v>
-      </c>
-      <c r="C3" s="29">
-        <v>1</v>
-      </c>
-      <c r="D3" s="29" t="s">
+      <c r="B3" s="50">
+        <v>1</v>
+      </c>
+      <c r="C3" s="50">
+        <v>1</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="36" t="s">
@@ -2310,39 +2344,46 @@
       <c r="J3" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="N3" s="29" t="s">
+      <c r="M3" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" s="50" t="s">
         <v>16</v>
       </c>
       <c r="O3" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="P3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+      <c r="P3" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+    </row>
+    <row r="4" spans="1:25" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="29">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29">
+      <c r="B4" s="50">
+        <v>1</v>
+      </c>
+      <c r="C4" s="50">
         <v>2</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="50" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="36" t="s">
@@ -2351,259 +2392,255 @@
       <c r="F4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="N4" s="29" t="s">
+      <c r="M4" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" s="50" t="s">
         <v>16</v>
       </c>
       <c r="O4" s="37"/>
-      <c r="P4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="51" t="s">
+      <c r="P4" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+    </row>
+    <row r="5" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="66" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="66">
+        <v>1</v>
+      </c>
+      <c r="C5" s="66">
+        <v>3</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="66" t="s">
+        <v>487</v>
+      </c>
+      <c r="L5" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="66" t="s">
+        <v>454</v>
+      </c>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+    </row>
+    <row r="6" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="57">
+        <v>1</v>
+      </c>
+      <c r="C6" s="57">
+        <v>1</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+    </row>
+    <row r="7" spans="1:25" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="B7" s="51">
+        <v>1</v>
+      </c>
+      <c r="C7" s="51">
+        <v>1</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="N7" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="P7" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="51" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8" s="51">
+        <v>1</v>
+      </c>
+      <c r="C8" s="51">
+        <v>2</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="N8" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="P8" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="B5" s="51">
-        <v>1</v>
-      </c>
-      <c r="C5" s="51">
-        <v>1</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="N5" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="53" t="s">
-        <v>318</v>
-      </c>
-      <c r="P5" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51" t="s">
-        <v>476</v>
-      </c>
-      <c r="B6" s="51">
-        <v>1</v>
-      </c>
-      <c r="C6" s="51">
-        <v>2</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="J6" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="N6" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="53" t="s">
-        <v>318</v>
-      </c>
-      <c r="P6" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="50" t="s">
-        <v>477</v>
-      </c>
-      <c r="B7" s="50">
-        <v>1</v>
-      </c>
-      <c r="C7" s="50">
-        <v>1</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="K7" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="N7" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="P7" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="50" t="s">
-        <v>477</v>
-      </c>
-      <c r="B8" s="50">
-        <v>1</v>
-      </c>
-      <c r="C8" s="50">
-        <v>2</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="K8" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="N8" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="P8" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50" t="s">
-        <v>477</v>
-      </c>
       <c r="B9" s="50">
         <v>1</v>
       </c>
       <c r="C9" s="50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="50" t="s">
         <v>16</v>
@@ -2648,15 +2685,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="50" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B10" s="50">
         <v>1</v>
       </c>
       <c r="C10" s="50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="50" t="s">
         <v>16</v>
@@ -2698,6 +2735,112 @@
         <v>16</v>
       </c>
       <c r="Q10" s="50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="50" t="s">
+        <v>476</v>
+      </c>
+      <c r="B11" s="50">
+        <v>1</v>
+      </c>
+      <c r="C11" s="50">
+        <v>3</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="N11" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="P11" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="50" t="s">
+        <v>476</v>
+      </c>
+      <c r="B12" s="50">
+        <v>1</v>
+      </c>
+      <c r="C12" s="50">
+        <v>4</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="N12" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="P12" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="50" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2710,10 +2853,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2725,855 +2868,847 @@
     <col min="13" max="13" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="57" t="s">
+      <c r="B1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="57" t="s">
-        <v>488</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>489</v>
-      </c>
-      <c r="H1" s="57" t="s">
+      <c r="F1" s="61" t="s">
+        <v>491</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>492</v>
+      </c>
+      <c r="H1" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="L1" s="57" t="s">
-        <v>490</v>
-      </c>
-      <c r="M1" s="57" t="s">
+      <c r="L1" s="61" t="s">
+        <v>493</v>
+      </c>
+      <c r="M1" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="O1" s="57" t="s">
+      <c r="O1" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="P1" s="57" t="s">
+      <c r="P1" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="Q1" s="59" t="s">
+      <c r="Q1" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="R1" s="59" t="s">
+      <c r="R1" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="S1" s="57" t="s">
+      <c r="S1" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="T1" s="57" t="s">
-        <v>428</v>
-      </c>
-      <c r="U1" s="57" t="s">
+      <c r="T1" s="61" t="s">
         <v>429</v>
       </c>
-      <c r="V1" s="57" t="s">
+      <c r="U1" s="61" t="s">
         <v>430</v>
       </c>
-      <c r="W1" s="57" t="s">
+      <c r="V1" s="61" t="s">
         <v>431</v>
       </c>
-      <c r="X1" s="57" t="s">
+      <c r="W1" s="61" t="s">
         <v>432</v>
       </c>
-      <c r="Y1" s="57" t="s">
+      <c r="X1" s="61" t="s">
         <v>433</v>
       </c>
-      <c r="Z1" s="57" t="s">
+      <c r="Y1" s="61" t="s">
         <v>434</v>
       </c>
-      <c r="AA1" s="57" t="s">
+      <c r="Z1" s="61" t="s">
+        <v>435</v>
+      </c>
+      <c r="AA1" s="61" t="s">
         <v>440</v>
       </c>
-      <c r="AB1" s="57" t="s">
+      <c r="AB1" s="61" t="s">
         <v>441</v>
       </c>
-      <c r="AC1" s="57" t="s">
-        <v>491</v>
-      </c>
-      <c r="AD1" s="57" t="s">
-        <v>492</v>
-      </c>
-      <c r="AE1" s="57" t="s">
+      <c r="AC1" s="61" t="s">
+        <v>494</v>
+      </c>
+      <c r="AD1" s="61" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE1" s="61" t="s">
         <v>442</v>
       </c>
-      <c r="AF1" s="57" t="s">
+      <c r="AF1" s="61" t="s">
         <v>443</v>
       </c>
-      <c r="AG1" s="57" t="s">
+      <c r="AG1" s="61" t="s">
         <v>444</v>
       </c>
-      <c r="AH1" s="57" t="s">
+      <c r="AH1" s="61" t="s">
         <v>445</v>
       </c>
-      <c r="AI1" s="57" t="s">
-        <v>493</v>
-      </c>
-      <c r="AJ1" s="57" t="s">
-        <v>494</v>
-      </c>
-      <c r="AK1" s="57" t="s">
-        <v>495</v>
-      </c>
-      <c r="AL1" s="57" t="s">
+      <c r="AI1" s="61" t="s">
+        <v>496</v>
+      </c>
+      <c r="AJ1" s="61" t="s">
+        <v>497</v>
+      </c>
+      <c r="AK1" s="61" t="s">
+        <v>498</v>
+      </c>
+      <c r="AL1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="AM1" s="56"/>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A2" s="60" t="s">
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A2" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="60">
-        <v>1</v>
-      </c>
-      <c r="C2" s="60">
-        <v>1</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="J2" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="K2" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="L2" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="M2" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="60" t="s">
+      <c r="B2" s="66">
+        <v>1</v>
+      </c>
+      <c r="C2" s="66">
+        <v>1</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="L2" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="M2" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="P2" s="60" t="s">
+      <c r="P2" s="66" t="s">
         <v>224</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="Q2" s="66" t="s">
         <v>284</v>
       </c>
-      <c r="R2" s="60" t="s">
+      <c r="R2" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="S2" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="60" t="s">
+      <c r="S2" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="U2" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="W2" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y2" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z2" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="58" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD2" s="56" t="s">
-        <v>497</v>
-      </c>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56" t="s">
-        <v>459</v>
-      </c>
-      <c r="AM2" s="56"/>
-    </row>
-    <row r="3" spans="1:39" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="60" t="s">
+      <c r="U2" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="64" t="s">
+        <v>499</v>
+      </c>
+      <c r="AD2" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="60">
-        <v>1</v>
-      </c>
-      <c r="C3" s="60">
+      <c r="B3" s="66">
+        <v>1</v>
+      </c>
+      <c r="C3" s="66">
         <v>2</v>
       </c>
-      <c r="D3" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="M3" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="60" t="s">
+      <c r="D3" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="M3" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="O3" s="60" t="s">
+      <c r="O3" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="P3" s="60" t="s">
+      <c r="P3" s="66" t="s">
         <v>224</v>
       </c>
-      <c r="Q3" s="60" t="s">
+      <c r="Q3" s="66" t="s">
         <v>284</v>
       </c>
-      <c r="R3" s="60" t="s">
+      <c r="R3" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="S3" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="60"/>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="60"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A4" s="60" t="s">
+      <c r="S3" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A4" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="56">
-        <v>1</v>
-      </c>
-      <c r="C4" s="56">
+      <c r="B4" s="60">
+        <v>1</v>
+      </c>
+      <c r="C4" s="60">
         <v>3</v>
       </c>
-      <c r="D4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="J4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="N4" s="60" t="s">
+      <c r="D4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="O4" s="56" t="s">
+      <c r="O4" s="60" t="s">
         <v>446</v>
       </c>
-      <c r="P4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="R4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="S4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="T4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="U4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="V4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="W4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="X4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA4" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB4" s="56" t="s">
+      <c r="P4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="R4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="S4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="T4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="U4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="V4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="W4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="X4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA4" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" s="60" t="s">
         <v>447</v>
       </c>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF4" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH4" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK4" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A5" s="60" t="s">
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF4" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH4" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL4" s="60"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A5" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="56">
-        <v>1</v>
-      </c>
-      <c r="C5" s="56">
+      <c r="B5" s="60">
+        <v>1</v>
+      </c>
+      <c r="C5" s="60">
         <v>4</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="N5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="O5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="P5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="R5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="S5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="T5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="U5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="V5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="W5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="X5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA5" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB5" s="56" t="s">
+      <c r="D5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="O5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="P5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="R5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="S5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="T5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="U5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="V5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="W5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="X5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA5" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB5" s="60" t="s">
         <v>448</v>
       </c>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF5" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH5" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK5" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A6" s="60" t="s">
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF5" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH5" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL5" s="60"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A6" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="56">
-        <v>1</v>
-      </c>
-      <c r="C6" s="56">
+      <c r="B6" s="60">
+        <v>1</v>
+      </c>
+      <c r="C6" s="60">
         <v>5</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="J6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="N6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="O6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="P6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="R6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="S6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="T6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="U6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="V6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="W6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="X6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA6" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB6" s="56" t="s">
+      <c r="D6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="N6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="O6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="P6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="R6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="S6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="U6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="V6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="W6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="X6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA6" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB6" s="60" t="s">
         <v>449</v>
       </c>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF6" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH6" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL6" s="56"/>
-      <c r="AM6" s="56"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A7" s="60" t="s">
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF6" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH6" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL6" s="60"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A7" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="B7" s="56">
-        <v>1</v>
-      </c>
-      <c r="C7" s="56">
+      <c r="B7" s="60">
+        <v>1</v>
+      </c>
+      <c r="C7" s="60">
         <v>6</v>
       </c>
-      <c r="D7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="G7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="I7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="J7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="K7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="N7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="O7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="P7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="R7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="S7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="T7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="U7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="V7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="W7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="X7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA7" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB7" s="56" t="s">
+      <c r="D7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="N7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="O7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="P7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="R7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="S7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="T7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="U7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="V7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="W7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="X7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA7" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB7" s="60" t="s">
         <v>450</v>
       </c>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="56"/>
-      <c r="AE7" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF7" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH7" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK7" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL7" s="56"/>
-      <c r="AM7" s="56"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A8" s="60" t="s">
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="60"/>
+      <c r="AE7" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF7" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH7" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK7" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL7" s="60"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A8" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="B8" s="56">
-        <v>1</v>
-      </c>
-      <c r="C8" s="56">
+      <c r="B8" s="60">
+        <v>1</v>
+      </c>
+      <c r="C8" s="60">
         <v>7</v>
       </c>
-      <c r="D8" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="I8" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="J8" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="K8" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="L8" s="56" t="s">
+      <c r="D8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="J8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="L8" s="60" t="s">
         <v>458</v>
       </c>
-      <c r="M8" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="N8" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="O8" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="P8" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q8" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="R8" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="S8" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="T8" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="U8" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="V8" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="W8" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="X8" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y8" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z8" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA8" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB8" s="56" t="s">
-        <v>450</v>
-      </c>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF8" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG8" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH8" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI8" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ8" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK8" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL8" s="56"/>
-      <c r="AM8" s="56"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="R9" s="41"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="R10" s="41"/>
+      <c r="M8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="N8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="O8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="P8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="R8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="S8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="T8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="U8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="V8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="W8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="X8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA8" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB8" s="60" t="s">
+        <v>502</v>
+      </c>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF8" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG8" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH8" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI8" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ8" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK8" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL8" s="60"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="R9" s="42"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="R10" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3676,7 +3811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8E0121-A3E3-4E0C-A6C2-D14C419C35E6}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4186,7 +4321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
@@ -4256,22 +4391,22 @@
         <v>82</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="S1" s="23" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="T1" s="23" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="U1" s="23" t="s">
         <v>289</v>
@@ -4409,25 +4544,25 @@
         <v>213</v>
       </c>
       <c r="O4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q4" s="26" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="R4" s="26" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="S4" s="26" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -4438,10 +4573,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE06A9D-8317-49A7-9A82-039A1B827ECC}">
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4716,7 +4851,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="29" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" s="29" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>231</v>
       </c>
@@ -4741,11 +4876,11 @@
       <c r="H3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="J3" s="62" t="s">
-        <v>218</v>
+      <c r="I3" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>503</v>
       </c>
       <c r="K3" s="30" t="s">
         <v>211</v>
@@ -4832,38 +4967,45 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="37"/>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
@@ -4924,7 +5066,7 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
-      <c r="S6" s="10"/>
+      <c r="S6" s="9"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
@@ -4964,7 +5106,7 @@
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="10"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
@@ -5044,7 +5186,7 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
-      <c r="S9" s="10"/>
+      <c r="S9" s="9"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
@@ -5084,7 +5226,7 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="9"/>
+      <c r="S10" s="10"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
@@ -5164,7 +5306,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
-      <c r="S12" s="10"/>
+      <c r="S12" s="9"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
@@ -5204,7 +5346,7 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="9"/>
+      <c r="S13" s="10"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
@@ -5384,46 +5526,6 @@
       <c r="AJ17" s="8"/>
       <c r="AK17" s="8"/>
       <c r="AL17" s="8"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="8"/>
-      <c r="AI18" s="8"/>
-      <c r="AJ18" s="8"/>
-      <c r="AK18" s="8"/>
-      <c r="AL18" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5475,25 +5577,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>189</v>
@@ -5502,75 +5604,75 @@
         <v>198</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54" t="s">
+        <v>477</v>
+      </c>
+      <c r="B2" s="54">
+        <v>1</v>
+      </c>
+      <c r="C2" s="54">
+        <v>1</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>478</v>
       </c>
-      <c r="B2" s="54">
-        <v>1</v>
-      </c>
-      <c r="C2" s="54">
-        <v>1</v>
-      </c>
-      <c r="D2" s="54" t="s">
+      <c r="E2" s="54" t="s">
         <v>479</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="F2" s="54" t="s">
         <v>480</v>
       </c>
-      <c r="F2" s="54" t="s">
-        <v>481</v>
-      </c>
       <c r="G2" s="54" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H2" s="54" t="s">
         <v>214</v>
       </c>
       <c r="I2" s="54" t="s">
+        <v>481</v>
+      </c>
+      <c r="J2" s="54" t="s">
         <v>482</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="K2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="54" t="s">
         <v>483</v>
       </c>
-      <c r="K2" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="54" t="s">
+      <c r="M2" s="55" t="s">
         <v>484</v>
-      </c>
-      <c r="M2" s="55" t="s">
-        <v>485</v>
       </c>
       <c r="N2" s="54" t="s">
         <v>16</v>
@@ -5688,8 +5790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52296D71-257F-48D6-B061-96C4007B427B}">
   <dimension ref="A1:BF4"/>
   <sheetViews>
-    <sheetView topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:BF3"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5955,7 +6057,7 @@
         <v>211</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="K2" s="20" t="s">
         <v>226</v>
@@ -6103,178 +6205,178 @@
       </c>
     </row>
     <row r="3" spans="1:58" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="26">
-        <v>1</v>
-      </c>
-      <c r="C3" s="26">
+      <c r="B3" s="57">
+        <v>1</v>
+      </c>
+      <c r="C3" s="57">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>435</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="L3" s="26" t="s">
+      <c r="D3" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>300</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="L3" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="M3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="N3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="U3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="V3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="X3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AN3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AO3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AP3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AR3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AS3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AT3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AU3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AV3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AW3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AX3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="BA3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="BB3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="BC3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="BD3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE3" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="BF3" s="26" t="s">
+      <c r="M3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="R3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="S3" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="U3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="V3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="W3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="X3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AT3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AX3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AY3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="AZ3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="BB3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="BC3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="BD3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE3" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="BF3" s="57" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6306,7 +6408,7 @@
       <c r="I4" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="70" t="s">
         <v>245</v>
       </c>
       <c r="K4" s="20" t="s">
@@ -6462,10 +6564,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB9A442-3ED4-406F-9296-DEFB50D41854}">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:AS12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6495,7 +6597,7 @@
     <col min="25" max="25" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -6574,8 +6676,11 @@
       <c r="Z1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA1" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -6640,7 +6745,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -6705,162 +6810,224 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:45" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="29">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29">
-        <v>1</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="B4" s="66">
+        <v>1</v>
+      </c>
+      <c r="C4" s="66">
+        <v>1</v>
+      </c>
+      <c r="D4" s="61" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="R4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="S4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="T4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="U4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="V4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="W4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="X4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z4" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="50" t="s">
+      <c r="G4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60" t="s">
+        <v>504</v>
+      </c>
+      <c r="P4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="R4" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="W4" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA4" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A5" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="50">
-        <v>1</v>
-      </c>
-      <c r="C5" s="50">
+      <c r="B5" s="66">
+        <v>1</v>
+      </c>
+      <c r="C5" s="66">
         <v>2</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="61" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" t="s">
-        <v>213</v>
-      </c>
-      <c r="L5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" t="s">
-        <v>458</v>
-      </c>
-      <c r="O5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>68</v>
-      </c>
-      <c r="R5" t="s">
-        <v>68</v>
-      </c>
-      <c r="S5" t="s">
-        <v>68</v>
-      </c>
-      <c r="T5" t="s">
-        <v>213</v>
-      </c>
-      <c r="U5" t="s">
-        <v>68</v>
-      </c>
-      <c r="V5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="G5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="M5" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="P5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="R5" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="U5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="V5" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="X5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA5" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="60"/>
+      <c r="AM5" s="60"/>
+      <c r="AN5" s="60"/>
+      <c r="AO5" s="60"/>
+      <c r="AP5" s="60"/>
+      <c r="AQ5" s="60"/>
+      <c r="AR5" s="60"/>
+      <c r="AS5" s="60"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="D6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
       <c r="P12" s="2"/>
     </row>
   </sheetData>
@@ -6873,8 +7040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A334D-3D40-4E6E-89BC-E0399D12F63C}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7083,7 +7250,7 @@
         <v>16</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>28</v>
+        <v>474</v>
       </c>
       <c r="K4" s="29" t="s">
         <v>29</v>
@@ -7155,7 +7322,7 @@
     </row>
     <row r="6" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B6" s="51">
         <v>1</v>
@@ -7182,7 +7349,7 @@
         <v>16</v>
       </c>
       <c r="J6" s="51" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K6" s="51" t="s">
         <v>29</v>
@@ -7203,7 +7370,7 @@
     </row>
     <row r="7" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="51" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B7" s="51">
         <v>1</v>
@@ -7230,7 +7397,7 @@
         <v>16</v>
       </c>
       <c r="J7" s="51" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K7" s="51" t="s">
         <v>29</v>
@@ -7251,7 +7418,7 @@
     </row>
     <row r="8" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="50" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B8" s="50">
         <v>1</v>
@@ -7278,7 +7445,7 @@
         <v>16</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K8" s="50" t="s">
         <v>29</v>
@@ -7299,7 +7466,7 @@
     </row>
     <row r="9" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="50" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B9" s="50">
         <v>1</v>
@@ -7326,7 +7493,7 @@
         <v>16</v>
       </c>
       <c r="J9" s="50" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K9" s="50" t="s">
         <v>29</v>
@@ -7347,7 +7514,7 @@
     </row>
     <row r="10" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B10" s="50">
         <v>1</v>
@@ -7374,7 +7541,7 @@
         <v>16</v>
       </c>
       <c r="J10" s="50" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K10" s="50" t="s">
         <v>29</v>
@@ -7395,7 +7562,7 @@
     </row>
     <row r="11" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="50" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B11" s="50">
         <v>1</v>
@@ -7422,7 +7589,7 @@
         <v>16</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K11" s="50" t="s">
         <v>29</v>
@@ -7754,10 +7921,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F26082-EA83-4A35-BBD3-990DF7F89614}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7768,9 +7935,10 @@
     <col min="6" max="6" width="19.90625" customWidth="1"/>
     <col min="8" max="8" width="12.453125" customWidth="1"/>
     <col min="9" max="9" width="21.81640625" customWidth="1"/>
+    <col min="11" max="12" width="8.7265625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -7798,11 +7966,17 @@
       <c r="I1" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="62" t="s">
+        <v>488</v>
+      </c>
+      <c r="K1" s="62" t="s">
+        <v>489</v>
+      </c>
+      <c r="L1" s="35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>231</v>
       </c>
@@ -7831,10 +8005,14 @@
         <v>68</v>
       </c>
       <c r="J2" s="44" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.35">
+        <v>459</v>
+      </c>
+      <c r="K2" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="69"/>
+    </row>
+    <row r="3" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>231</v>
       </c>
@@ -7863,8 +8041,10 @@
         <v>68</v>
       </c>
       <c r="J3" s="44" t="s">
-        <v>461</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7909,7 +8089,7 @@
     <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -7920,19 +8100,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -7947,7 +8127,7 @@
     </row>
     <row r="2" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -8001,7 +8181,7 @@
     <col min="15" max="15" width="33.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="40" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -8015,39 +8195,39 @@
         <v>72</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>293</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="I1" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="I1" s="41" t="s">
         <v>356</v>
       </c>
+      <c r="J1" s="41" t="s">
+        <v>357</v>
+      </c>
       <c r="K1" s="35" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>359</v>
-      </c>
-      <c r="N1" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="M1" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="O1" s="40" t="s">
-        <v>363</v>
-      </c>
-      <c r="P1" s="40" t="s">
+      <c r="N1" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="P1" s="41" t="s">
         <v>82</v>
       </c>
       <c r="Q1" s="3"/>
@@ -8063,7 +8243,7 @@
     </row>
     <row r="2" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -8087,22 +8267,22 @@
         <v>68</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>68</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>16</v>
@@ -8151,7 +8331,7 @@
     <col min="31" max="31" width="33.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="40" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -8162,82 +8342,82 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>293</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P1" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q1" s="35" t="s">
         <v>376</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="R1" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="V1" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="W1" s="35" t="s">
         <v>375</v>
       </c>
-      <c r="R1" s="35" t="s">
-        <v>379</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>382</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>383</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>380</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>381</v>
-      </c>
-      <c r="W1" s="35" t="s">
-        <v>374</v>
-      </c>
       <c r="X1" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y1" s="35" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z1" s="35" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AA1" s="35" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AB1" s="35" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AC1" s="35" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AD1" s="35" t="s">
         <v>82</v>
@@ -8255,7 +8435,7 @@
     </row>
     <row r="2" spans="1:42" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -8276,16 +8456,16 @@
         <v>16</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>235</v>
@@ -8294,17 +8474,17 @@
         <v>209</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
         <v>209</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="T2" s="5">
         <v>28570</v>
@@ -8322,7 +8502,7 @@
         <v>269</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
@@ -8360,7 +8540,7 @@
     <col min="13" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -8371,31 +8551,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>393</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M1" s="35" t="s">
         <v>82</v>
@@ -8413,7 +8593,7 @@
     </row>
     <row r="2" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -8431,16 +8611,16 @@
         <v>235</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L2" s="26" t="s">
         <v>29</v>
@@ -8483,7 +8663,7 @@
     <col min="18" max="18" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -8494,49 +8674,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E1" s="35" t="s">
         <v>72</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L1" s="35" t="s">
         <v>82</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="N1" s="40" t="s">
         <v>412</v>
       </c>
+      <c r="N1" s="41" t="s">
+        <v>413</v>
+      </c>
       <c r="O1" s="35" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P1" s="35" t="s">
         <v>308</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
@@ -8548,7 +8728,7 @@
     </row>
     <row r="2" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -8563,10 +8743,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>209</v>
@@ -8590,16 +8770,16 @@
         <v>16</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -9292,10 +9472,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3F944F-1B63-4F82-AF7C-B1A12F6C23D1}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9331,7 +9511,7 @@
         <v>267</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>82</v>
@@ -9447,6 +9627,44 @@
         <v>438</v>
       </c>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9455,10 +9673,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5083A157-C67F-458F-A42E-BC1D5FB3C768}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="E1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9476,7 +9694,7 @@
     <col min="14" max="14" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -9514,13 +9732,13 @@
         <v>208</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>192</v>
       </c>
@@ -9558,7 +9776,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>192</v>
       </c>
@@ -9575,7 +9793,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G3" s="48" t="s">
         <v>16</v>
@@ -9584,7 +9802,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>22</v>
@@ -9596,9 +9814,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -9628,7 +9846,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>209</v>
@@ -9636,6 +9854,48 @@
       <c r="M4" s="5" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="63">
+        <v>1</v>
+      </c>
+      <c r="C5" s="63">
+        <v>1</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>486</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="63" t="s">
+        <v>485</v>
+      </c>
+      <c r="J5" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10170,10 +10430,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9D3CD3-B1E4-4B19-8BFF-5F4C690A39C5}">
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A4" sqref="A4:AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10195,7 +10455,7 @@
     <col min="17" max="20" width="8.81640625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10248,37 +10508,37 @@
         <v>191</v>
       </c>
       <c r="R1" s="47" t="s">
+        <v>468</v>
+      </c>
+      <c r="S1" s="47" t="s">
         <v>469</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="T1" s="47" t="s">
         <v>470</v>
       </c>
-      <c r="T1" s="47" t="s">
-        <v>471</v>
-      </c>
       <c r="U1" s="47" t="s">
+        <v>461</v>
+      </c>
+      <c r="V1" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="W1" s="47" t="s">
         <v>463</v>
       </c>
-      <c r="W1" s="47" t="s">
+      <c r="X1" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="X1" s="47" t="s">
+      <c r="Y1" s="47" t="s">
         <v>465</v>
       </c>
-      <c r="Y1" s="47" t="s">
+      <c r="Z1" s="47" t="s">
         <v>466</v>
       </c>
-      <c r="Z1" s="47" t="s">
+      <c r="AA1" s="47" t="s">
         <v>467</v>
       </c>
-      <c r="AA1" s="47" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -10311,7 +10571,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -10340,238 +10600,241 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
+    <row r="4" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="62">
-        <v>1</v>
-      </c>
-      <c r="C4" s="62">
-        <v>1</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="62" t="s">
+      <c r="B4" s="66">
+        <v>1</v>
+      </c>
+      <c r="C4" s="66">
+        <v>1</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="64" t="s">
+      <c r="F4" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="68" t="s">
         <v>246</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="66" t="s">
         <v>268</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="66" t="s">
         <v>268</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="R4" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="S4" s="62" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="66" t="s">
+        <v>471</v>
+      </c>
+      <c r="T4" s="66" t="s">
         <v>472</v>
       </c>
-      <c r="T4" s="62" t="s">
+      <c r="U4" s="66" t="s">
+        <v>458</v>
+      </c>
+      <c r="V4" s="66" t="s">
+        <v>458</v>
+      </c>
+      <c r="W4" s="66" t="s">
+        <v>458</v>
+      </c>
+      <c r="X4" s="66" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y4" s="66" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z4" s="66" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA4" s="66" t="s">
+        <v>458</v>
+      </c>
+      <c r="AB4" s="66" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC4" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD4" s="66"/>
+    </row>
+    <row r="5" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="66" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="66">
+        <v>1</v>
+      </c>
+      <c r="C5" s="66">
+        <v>2</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="L5" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="N5" s="66" t="s">
+        <v>490</v>
+      </c>
+      <c r="O5" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66" t="s">
         <v>473</v>
       </c>
-      <c r="U4" s="62" t="s">
-        <v>458</v>
-      </c>
-      <c r="V4" s="62" t="s">
-        <v>458</v>
-      </c>
-      <c r="W4" s="62" t="s">
-        <v>458</v>
-      </c>
-      <c r="X4" s="62" t="s">
-        <v>458</v>
-      </c>
-      <c r="Y4" s="62" t="s">
-        <v>458</v>
-      </c>
-      <c r="Z4" s="62" t="s">
-        <v>458</v>
-      </c>
-      <c r="AA4" s="62" t="s">
-        <v>458</v>
-      </c>
-      <c r="AB4" s="62" t="s">
-        <v>458</v>
-      </c>
-      <c r="AC4" s="62" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="62" t="s">
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A6" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="62">
-        <v>1</v>
-      </c>
-      <c r="C5" s="62">
-        <v>2</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="I5" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="J5" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="K5" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="L5" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="N5" s="62" t="s">
-        <v>498</v>
-      </c>
-      <c r="O5" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62" t="s">
-        <v>474</v>
-      </c>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="62"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A6" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="61">
-        <v>1</v>
-      </c>
-      <c r="C6" s="61">
+      <c r="B6" s="60">
+        <v>1</v>
+      </c>
+      <c r="C6" s="60">
         <v>3</v>
       </c>
-      <c r="D6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="J6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="L6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="M6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="N6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="O6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="P6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="R6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="S6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="T6" s="61" t="s">
-        <v>498</v>
-      </c>
-      <c r="U6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="V6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="W6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="X6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC6" s="61"/>
+      <c r="D6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="N6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="O6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="P6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="R6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="S6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" s="60" t="s">
+        <v>490</v>
+      </c>
+      <c r="U6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="V6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="W6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="X6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\24jantestdata\25JAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A1EF16-DDDB-42B1-8E77-DF5EB8AB3301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5F7299-28F1-43FD-92CD-E23D7825BDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="17" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="17" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="507">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1602,6 +1602,9 @@
   </si>
   <si>
     <t>RECORD_CLICK</t>
+  </si>
+  <si>
+    <t>FINISH_BTN</t>
   </si>
 </sst>
 </file>
@@ -6566,7 +6569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB9A442-3ED4-406F-9296-DEFB50D41854}">
   <dimension ref="A1:AS12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
@@ -7921,10 +7924,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F26082-EA83-4A35-BBD3-990DF7F89614}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7935,10 +7938,11 @@
     <col min="6" max="6" width="19.90625" customWidth="1"/>
     <col min="8" max="8" width="12.453125" customWidth="1"/>
     <col min="9" max="9" width="21.81640625" customWidth="1"/>
-    <col min="11" max="12" width="8.7265625" style="60"/>
+    <col min="10" max="10" width="21.81640625" style="60" customWidth="1"/>
+    <col min="12" max="13" width="8.7265625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -7967,16 +7971,19 @@
         <v>295</v>
       </c>
       <c r="J1" s="62" t="s">
+        <v>506</v>
+      </c>
+      <c r="K1" s="62" t="s">
         <v>488</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="L1" s="62" t="s">
         <v>489</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="M1" s="35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>231</v>
       </c>
@@ -7998,21 +8005,24 @@
       <c r="G2" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="40" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="69" t="s">
         <v>459</v>
       </c>
-      <c r="K2" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="69"/>
-    </row>
-    <row r="3" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="69"/>
+    </row>
+    <row r="3" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>231</v>
       </c>
@@ -8034,17 +8044,38 @@
       <c r="G3" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="40" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="K3" s="69"/>
       <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H6" s="42"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H7" s="42"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H8" s="42"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H9" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10842,25 +10873,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -11077,25 +11089,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11112,4 +11125,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\24jantestdata\25JAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5F7299-28F1-43FD-92CD-E23D7825BDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B65760-D884-4F15-BBCF-1D0FC21C7469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="17" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -4579,7 +4579,7 @@
   <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7043,8 +7043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A334D-3D40-4E6E-89BC-E0399D12F63C}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7259,7 +7259,7 @@
         <v>29</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="M4" s="29" t="s">
         <v>23</v>
@@ -7926,8 +7926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F26082-EA83-4A35-BBD3-990DF7F89614}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10873,6 +10873,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -11089,26 +11108,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11125,22 +11143,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\24jantestdata\25JAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B65760-D884-4F15-BBCF-1D0FC21C7469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4A070B-19DE-46C1-B876-3D58A79EAF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="509">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1605,6 +1605,12 @@
   </si>
   <si>
     <t>FINISH_BTN</t>
+  </si>
+  <si>
+    <t>PHONE_NUMBER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenDigitsNumber </t>
   </si>
 </sst>
 </file>
@@ -6569,7 +6575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB9A442-3ED4-406F-9296-DEFB50D41854}">
   <dimension ref="A1:AS12"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
@@ -7043,7 +7049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A334D-3D40-4E6E-89BC-E0399D12F63C}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
@@ -10461,10 +10467,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9D3CD3-B1E4-4B19-8BFF-5F4C690A39C5}">
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:AD6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10480,13 +10486,14 @@
     <col min="9" max="9" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="8.81640625" style="46"/>
+    <col min="12" max="12" width="30.453125" style="60" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="8.81640625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10520,56 +10527,59 @@
       <c r="K1" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="62" t="s">
+        <v>507</v>
+      </c>
+      <c r="M1" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="N1" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="O1" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="P1" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="Q1" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="R1" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="S1" s="47" t="s">
         <v>468</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="T1" s="47" t="s">
         <v>469</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="U1" s="47" t="s">
         <v>470</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="V1" s="47" t="s">
         <v>461</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="W1" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="W1" s="47" t="s">
+      <c r="X1" s="47" t="s">
         <v>463</v>
       </c>
-      <c r="X1" s="47" t="s">
+      <c r="Y1" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="Y1" s="47" t="s">
+      <c r="Z1" s="47" t="s">
         <v>465</v>
       </c>
-      <c r="Z1" s="47" t="s">
+      <c r="AA1" s="47" t="s">
         <v>466</v>
       </c>
-      <c r="AA1" s="47" t="s">
+      <c r="AB1" s="47" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -10601,8 +10611,9 @@
         <v>68</v>
       </c>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -10624,14 +10635,15 @@
       <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2"/>
+      <c r="M3" t="s">
         <v>70</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="66" t="s">
         <v>231</v>
       </c>
@@ -10665,27 +10677,27 @@
       <c r="K4" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="L4" s="67"/>
+      <c r="L4" s="49" t="s">
+        <v>508</v>
+      </c>
       <c r="M4" s="67"/>
-      <c r="N4" s="66"/>
+      <c r="N4" s="67"/>
       <c r="O4" s="66"/>
-      <c r="P4" s="66" t="s">
-        <v>16</v>
-      </c>
+      <c r="P4" s="66"/>
       <c r="Q4" s="66" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="R4" s="66" t="s">
         <v>68</v>
       </c>
       <c r="S4" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" s="66" t="s">
         <v>471</v>
       </c>
-      <c r="T4" s="66" t="s">
+      <c r="U4" s="66" t="s">
         <v>472</v>
-      </c>
-      <c r="U4" s="66" t="s">
-        <v>458</v>
       </c>
       <c r="V4" s="66" t="s">
         <v>458</v>
@@ -10709,11 +10721,14 @@
         <v>458</v>
       </c>
       <c r="AC4" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD4" s="66"/>
-    </row>
-    <row r="5" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.35">
+        <v>458</v>
+      </c>
+      <c r="AD4" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE4" s="66"/>
+    </row>
+    <row r="5" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="66" t="s">
         <v>231</v>
       </c>
@@ -10747,28 +10762,30 @@
       <c r="K5" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="L5" s="68" t="s">
-        <v>16</v>
+      <c r="L5" s="70" t="s">
+        <v>181</v>
       </c>
       <c r="M5" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="N5" s="66" t="s">
+      <c r="O5" s="66" t="s">
         <v>490</v>
       </c>
-      <c r="O5" s="66" t="s">
+      <c r="P5" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="P5" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="66"/>
+      <c r="Q5" s="66" t="s">
+        <v>16</v>
+      </c>
       <c r="R5" s="66"/>
       <c r="S5" s="66"/>
-      <c r="T5" s="66" t="s">
+      <c r="T5" s="66"/>
+      <c r="U5" s="66" t="s">
         <v>473</v>
       </c>
-      <c r="U5" s="66"/>
       <c r="V5" s="66"/>
       <c r="W5" s="66"/>
       <c r="X5" s="66"/>
@@ -10778,8 +10795,9 @@
       <c r="AB5" s="66"/>
       <c r="AC5" s="66"/>
       <c r="AD5" s="66"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE5" s="66"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" s="66" t="s">
         <v>231</v>
       </c>
@@ -10814,7 +10832,7 @@
         <v>213</v>
       </c>
       <c r="L6" s="60" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="M6" s="60" t="s">
         <v>213</v>
@@ -10838,11 +10856,11 @@
         <v>213</v>
       </c>
       <c r="T6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="U6" s="60" t="s">
         <v>490</v>
       </c>
-      <c r="U6" s="60" t="s">
-        <v>213</v>
-      </c>
       <c r="V6" s="60" t="s">
         <v>213</v>
       </c>
@@ -10864,8 +10882,11 @@
       <c r="AB6" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="AC6" s="60"/>
+      <c r="AC6" s="60" t="s">
+        <v>213</v>
+      </c>
       <c r="AD6" s="60"/>
+      <c r="AE6" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\24jantestdata\25JAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4A070B-19DE-46C1-B876-3D58A79EAF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF2296C-314C-460F-AE03-86D7AC937684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="512">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1598,9 +1598,6 @@
     <t>personName1,personName2,folioPersonName1,folioPersonName2</t>
   </si>
   <si>
-    <t>n/</t>
-  </si>
-  <si>
     <t>RECORD_CLICK</t>
   </si>
   <si>
@@ -1611,6 +1608,18 @@
   </si>
   <si>
     <t xml:space="preserve">tenDigitsNumber </t>
+  </si>
+  <si>
+    <t>CACI_REPORT_ID</t>
+  </si>
+  <si>
+    <t>CACI REPORTID</t>
+  </si>
+  <si>
+    <t>CROSS REPORTID</t>
+  </si>
+  <si>
+    <t>CROSS_REPORT_ID</t>
   </si>
 </sst>
 </file>
@@ -2862,10 +2871,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
-  <dimension ref="A1:AL10"/>
+  <dimension ref="A1:AZ10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AL8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2877,7 +2886,7 @@
     <col min="13" max="13" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
@@ -2993,7 +3002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A2" s="66" t="s">
         <v>231</v>
       </c>
@@ -3091,7 +3100,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:52" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="66" t="s">
         <v>231</v>
       </c>
@@ -3171,7 +3180,7 @@
       <c r="AK3" s="66"/>
       <c r="AL3" s="66"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A4" s="66" t="s">
         <v>231</v>
       </c>
@@ -3279,7 +3288,7 @@
       </c>
       <c r="AL4" s="60"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A5" s="66" t="s">
         <v>231</v>
       </c>
@@ -3387,7 +3396,7 @@
       </c>
       <c r="AL5" s="60"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A6" s="66" t="s">
         <v>231</v>
       </c>
@@ -3495,7 +3504,7 @@
       </c>
       <c r="AL6" s="60"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A7" s="66" t="s">
         <v>231</v>
       </c>
@@ -3603,7 +3612,7 @@
       </c>
       <c r="AL7" s="60"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A8" s="66" t="s">
         <v>231</v>
       </c>
@@ -3713,10 +3722,129 @@
       </c>
       <c r="AL8" s="60"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
-      <c r="R9" s="42"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A9" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="60">
+        <v>1</v>
+      </c>
+      <c r="C9" s="60">
+        <v>8</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="J9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="N9" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="O9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="P9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="R9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="S9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="T9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="U9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="V9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="W9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="X9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA9" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB9" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF9" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH9" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK9" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL9" s="60"/>
+      <c r="AM9" s="60"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="60"/>
+      <c r="AP9" s="60"/>
+      <c r="AQ9" s="60"/>
+      <c r="AR9" s="60"/>
+      <c r="AS9" s="60"/>
+      <c r="AT9" s="60"/>
+      <c r="AU9" s="60"/>
+      <c r="AV9" s="60"/>
+      <c r="AW9" s="60"/>
+      <c r="AX9" s="60"/>
+      <c r="AY9" s="60"/>
+      <c r="AZ9" s="60"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
       <c r="R10" s="42"/>
     </row>
   </sheetData>
@@ -5799,7 +5927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52296D71-257F-48D6-B061-96C4007B427B}">
   <dimension ref="A1:BF4"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -6575,8 +6703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB9A442-3ED4-406F-9296-DEFB50D41854}">
   <dimension ref="A1:AS12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6686,7 +6814,7 @@
         <v>26</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.35">
@@ -6859,7 +6987,7 @@
       <c r="M4" s="60"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60" t="s">
-        <v>504</v>
+        <v>213</v>
       </c>
       <c r="P4" s="60" t="s">
         <v>213</v>
@@ -6996,7 +7124,7 @@
         <v>213</v>
       </c>
       <c r="AA5" s="60" t="s">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="AB5" s="60"/>
       <c r="AC5" s="60"/>
@@ -7977,7 +8105,7 @@
         <v>295</v>
       </c>
       <c r="J1" s="62" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K1" s="62" t="s">
         <v>488</v>
@@ -8829,7 +8957,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8889,7 +9017,7 @@
         <v>322</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="G2" s="29" t="s">
         <v>324</v>
@@ -9512,7 +9640,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:L6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10467,10 +10595,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9D3CD3-B1E4-4B19-8BFF-5F4C690A39C5}">
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10491,9 +10619,10 @@
     <col min="14" max="14" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="8.81640625" style="46"/>
+    <col min="23" max="25" width="8.7265625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10528,7 +10657,7 @@
         <v>304</v>
       </c>
       <c r="L1" s="62" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M1" s="35" t="s">
         <v>306</v>
@@ -10560,26 +10689,35 @@
       <c r="V1" s="47" t="s">
         <v>461</v>
       </c>
-      <c r="W1" s="47" t="s">
+      <c r="W1" s="62" t="s">
+        <v>508</v>
+      </c>
+      <c r="X1" s="62" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y1" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z1" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="X1" s="47" t="s">
+      <c r="AA1" s="47" t="s">
         <v>463</v>
       </c>
-      <c r="Y1" s="47" t="s">
+      <c r="AB1" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="Z1" s="47" t="s">
+      <c r="AC1" s="47" t="s">
         <v>465</v>
       </c>
-      <c r="AA1" s="47" t="s">
+      <c r="AD1" s="47" t="s">
         <v>466</v>
       </c>
-      <c r="AB1" s="47" t="s">
+      <c r="AE1" s="47" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -10613,7 +10751,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -10643,7 +10781,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="66" t="s">
         <v>231</v>
       </c>
@@ -10678,7 +10816,7 @@
         <v>269</v>
       </c>
       <c r="L4" s="49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M4" s="67"/>
       <c r="N4" s="67"/>
@@ -10702,14 +10840,11 @@
       <c r="V4" s="66" t="s">
         <v>458</v>
       </c>
-      <c r="W4" s="66" t="s">
-        <v>458</v>
-      </c>
-      <c r="X4" s="66" t="s">
-        <v>458</v>
-      </c>
-      <c r="Y4" s="66" t="s">
-        <v>458</v>
+      <c r="W4" s="70" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y4" s="70" t="s">
+        <v>68</v>
       </c>
       <c r="Z4" s="66" t="s">
         <v>458</v>
@@ -10724,11 +10859,20 @@
         <v>458</v>
       </c>
       <c r="AD4" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE4" s="66"/>
-    </row>
-    <row r="5" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.35">
+        <v>458</v>
+      </c>
+      <c r="AE4" s="66" t="s">
+        <v>458</v>
+      </c>
+      <c r="AF4" s="66" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG4" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH4" s="66"/>
+    </row>
+    <row r="5" spans="1:34" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="66" t="s">
         <v>231</v>
       </c>
@@ -10787,17 +10931,22 @@
         <v>473</v>
       </c>
       <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y5" s="70"/>
       <c r="Z5" s="66"/>
       <c r="AA5" s="66"/>
       <c r="AB5" s="66"/>
       <c r="AC5" s="66"/>
       <c r="AD5" s="66"/>
       <c r="AE5" s="66"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="66" t="s">
         <v>231</v>
       </c>
@@ -10864,15 +11013,6 @@
       <c r="V6" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="W6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="X6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y6" s="60" t="s">
-        <v>213</v>
-      </c>
       <c r="Z6" s="60" t="s">
         <v>213</v>
       </c>
@@ -10885,8 +11025,17 @@
       <c r="AC6" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="60"/>
+      <c r="AD6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF6" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG6" s="60"/>
+      <c r="AH6" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10894,25 +11043,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -11129,25 +11259,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11164,4 +11295,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\24jantestdata\25JAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF2296C-314C-460F-AE03-86D7AC937684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11C2008-5292-42AA-A535-66C62FA520E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="503">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1042,57 +1042,6 @@
   </si>
   <si>
     <t>personName2,folioPersonName2</t>
-  </si>
-  <si>
-    <t>NEW_CASE_BTN</t>
-  </si>
-  <si>
-    <t>LASTNAME</t>
-  </si>
-  <si>
-    <t>ENTER_LAST_NAME</t>
-  </si>
-  <si>
-    <t>FIRSTNAME</t>
-  </si>
-  <si>
-    <t>ENTER_FIRST_NAME</t>
-  </si>
-  <si>
-    <t>MIDDLENAME</t>
-  </si>
-  <si>
-    <t>ENTER_MIDDLE_NAME</t>
-  </si>
-  <si>
-    <t>ENTER_SOCIAL_SECURITY_NUMBER</t>
-  </si>
-  <si>
-    <t>CountyDD</t>
-  </si>
-  <si>
-    <t>SELECT_COUNTY</t>
-  </si>
-  <si>
-    <t>SEX_AT_BIRTH_DD</t>
-  </si>
-  <si>
-    <t>SELECT_SEX_AT_BIRTH_DD</t>
-  </si>
-  <si>
-    <t>RACE_DD</t>
-  </si>
-  <si>
-    <t>SELECT_RACE</t>
-  </si>
-  <si>
-    <t>ETHINICTY_DETAILS_DD</t>
-  </si>
-  <si>
-    <t>SELECT_ETHINICITY</t>
-  </si>
-  <si>
-    <t>NEW_PERSON</t>
   </si>
   <si>
     <t>testPOM</t>
@@ -1517,21 +1466,12 @@
     <t>testFolioDataSetup4</t>
   </si>
   <si>
-    <t>t4148</t>
-  </si>
-  <si>
-    <t>Child Welfafe Voluntary</t>
-  </si>
-  <si>
     <t>Child Welfare</t>
   </si>
   <si>
     <t>Family Maintenance No Placement</t>
   </si>
   <si>
-    <t>Court Order</t>
-  </si>
-  <si>
     <t>California</t>
   </si>
   <si>
@@ -1620,6 +1560,39 @@
   </si>
   <si>
     <t>CROSS_REPORT_ID</t>
+  </si>
+  <si>
+    <t>CASE_TYPE</t>
+  </si>
+  <si>
+    <t>PRIMARY_RESPONSIBLE_AGENCY</t>
+  </si>
+  <si>
+    <t>SERVICE_COMPONENT</t>
+  </si>
+  <si>
+    <t>DATE_NOTIFICATION_RECEIVED</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>METHOD_OF_NOTIFICATION_RECEIVED</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>PRIMARY_WORKER</t>
+  </si>
+  <si>
+    <t>testT4148</t>
+  </si>
+  <si>
+    <t>Child Welfare Voluntary</t>
+  </si>
+  <si>
+    <t>Court order</t>
   </si>
 </sst>
 </file>
@@ -1795,7 +1768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1855,7 +1828,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2188,7 +2160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -2271,7 +2243,7 @@
         <v>320</v>
       </c>
       <c r="R1" s="49" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="S1" s="3"/>
       <c r="T1" s="2"/>
@@ -2450,103 +2422,103 @@
       <c r="X4" s="50"/>
     </row>
     <row r="5" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="66">
-        <v>1</v>
-      </c>
-      <c r="C5" s="66">
+      <c r="B5" s="65">
+        <v>1</v>
+      </c>
+      <c r="C5" s="65">
         <v>3</v>
       </c>
-      <c r="D5" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="F5" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="G5" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="I5" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="66" t="s">
-        <v>487</v>
-      </c>
-      <c r="L5" s="66" t="s">
+      <c r="D5" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>467</v>
+      </c>
+      <c r="L5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5" s="66" t="s">
-        <v>454</v>
-      </c>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="65" t="s">
+        <v>437</v>
+      </c>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65"/>
     </row>
     <row r="6" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="57">
-        <v>1</v>
-      </c>
-      <c r="C6" s="57">
-        <v>1</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
+      <c r="B6" s="56">
+        <v>1</v>
+      </c>
+      <c r="C6" s="56">
+        <v>1</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
     </row>
     <row r="7" spans="1:25" s="51" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="51" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="B7" s="51">
         <v>1</v>
@@ -2599,7 +2571,7 @@
     </row>
     <row r="8" spans="1:25" s="51" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="51" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="B8" s="51">
         <v>1</v>
@@ -2652,7 +2624,7 @@
     </row>
     <row r="9" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="50" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B9" s="50">
         <v>1</v>
@@ -2705,7 +2677,7 @@
     </row>
     <row r="10" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B10" s="50">
         <v>1</v>
@@ -2758,7 +2730,7 @@
     </row>
     <row r="11" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="50" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B11" s="50">
         <v>1</v>
@@ -2811,7 +2783,7 @@
     </row>
     <row r="12" spans="1:25" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="50" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B12" s="50">
         <v>1</v>
@@ -2873,7 +2845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
   <dimension ref="A1:AZ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
@@ -2887,962 +2859,962 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="60" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="61" t="s">
-        <v>491</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>492</v>
-      </c>
-      <c r="H1" s="61" t="s">
+      <c r="F1" s="60" t="s">
+        <v>471</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>472</v>
+      </c>
+      <c r="H1" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="60" t="s">
         <v>275</v>
       </c>
-      <c r="L1" s="61" t="s">
-        <v>493</v>
-      </c>
-      <c r="M1" s="61" t="s">
+      <c r="L1" s="60" t="s">
+        <v>473</v>
+      </c>
+      <c r="M1" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="O1" s="61" t="s">
+      <c r="O1" s="60" t="s">
         <v>278</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="P1" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="T1" s="61" t="s">
+      <c r="T1" s="60" t="s">
+        <v>412</v>
+      </c>
+      <c r="U1" s="60" t="s">
+        <v>413</v>
+      </c>
+      <c r="V1" s="60" t="s">
+        <v>414</v>
+      </c>
+      <c r="W1" s="60" t="s">
+        <v>415</v>
+      </c>
+      <c r="X1" s="60" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y1" s="60" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z1" s="60" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA1" s="60" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB1" s="60" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC1" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="AD1" s="60" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE1" s="60" t="s">
+        <v>425</v>
+      </c>
+      <c r="AF1" s="60" t="s">
+        <v>426</v>
+      </c>
+      <c r="AG1" s="60" t="s">
+        <v>427</v>
+      </c>
+      <c r="AH1" s="60" t="s">
+        <v>428</v>
+      </c>
+      <c r="AI1" s="60" t="s">
+        <v>476</v>
+      </c>
+      <c r="AJ1" s="60" t="s">
+        <v>477</v>
+      </c>
+      <c r="AK1" s="60" t="s">
+        <v>478</v>
+      </c>
+      <c r="AL1" s="60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A2" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="65">
+        <v>1</v>
+      </c>
+      <c r="C2" s="65">
+        <v>1</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="L2" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="M2" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="65" t="s">
+        <v>296</v>
+      </c>
+      <c r="O2" s="65" t="s">
+        <v>296</v>
+      </c>
+      <c r="P2" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q2" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="R2" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="S2" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="U2" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="63" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD2" s="59" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="65">
+        <v>1</v>
+      </c>
+      <c r="C3" s="65">
+        <v>2</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="M3" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="O3" s="65" t="s">
+        <v>283</v>
+      </c>
+      <c r="P3" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q3" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="R3" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="S3" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A4" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="59">
+        <v>1</v>
+      </c>
+      <c r="C4" s="59">
+        <v>3</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="O4" s="59" t="s">
         <v>429</v>
       </c>
-      <c r="U1" s="61" t="s">
+      <c r="P4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="R4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="S4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="T4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="U4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="V4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="W4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="X4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" s="59" t="s">
         <v>430</v>
       </c>
-      <c r="V1" s="61" t="s">
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL4" s="59"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A5" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="59">
+        <v>1</v>
+      </c>
+      <c r="C5" s="59">
+        <v>4</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="O5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="P5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="R5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="S5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="T5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="U5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="V5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="W5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="X5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA5" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB5" s="59" t="s">
         <v>431</v>
       </c>
-      <c r="W1" s="61" t="s">
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF5" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH5" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL5" s="59"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A6" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="59">
+        <v>1</v>
+      </c>
+      <c r="C6" s="59">
+        <v>5</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="O6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="P6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="R6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="S6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="U6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="V6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="W6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="X6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA6" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB6" s="59" t="s">
         <v>432</v>
       </c>
-      <c r="X1" s="61" t="s">
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF6" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH6" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL6" s="59"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A7" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="59">
+        <v>1</v>
+      </c>
+      <c r="C7" s="59">
+        <v>6</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="N7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="O7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="P7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="R7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="S7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="T7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="U7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="V7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="W7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="X7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA7" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB7" s="59" t="s">
         <v>433</v>
       </c>
-      <c r="Y1" s="61" t="s">
-        <v>434</v>
-      </c>
-      <c r="Z1" s="61" t="s">
-        <v>435</v>
-      </c>
-      <c r="AA1" s="61" t="s">
-        <v>440</v>
-      </c>
-      <c r="AB1" s="61" t="s">
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF7" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH7" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK7" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL7" s="59"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A8" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="59">
+        <v>1</v>
+      </c>
+      <c r="C8" s="59">
+        <v>7</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="L8" s="59" t="s">
         <v>441</v>
       </c>
-      <c r="AC1" s="61" t="s">
-        <v>494</v>
-      </c>
-      <c r="AD1" s="61" t="s">
-        <v>495</v>
-      </c>
-      <c r="AE1" s="61" t="s">
-        <v>442</v>
-      </c>
-      <c r="AF1" s="61" t="s">
-        <v>443</v>
-      </c>
-      <c r="AG1" s="61" t="s">
-        <v>444</v>
-      </c>
-      <c r="AH1" s="61" t="s">
-        <v>445</v>
-      </c>
-      <c r="AI1" s="61" t="s">
-        <v>496</v>
-      </c>
-      <c r="AJ1" s="61" t="s">
-        <v>497</v>
-      </c>
-      <c r="AK1" s="61" t="s">
-        <v>498</v>
-      </c>
-      <c r="AL1" s="61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A2" s="66" t="s">
+      <c r="M8" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="N8" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="O8" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="P8" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q8" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="R8" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="S8" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="T8" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="U8" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="V8" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="W8" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="X8" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y8" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z8" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA8" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB8" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF8" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG8" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH8" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI8" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ8" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK8" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL8" s="59"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A9" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="66">
-        <v>1</v>
-      </c>
-      <c r="C2" s="66">
-        <v>1</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="J2" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="K2" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="L2" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="M2" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="O2" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="P2" s="66" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q2" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="R2" s="66" t="s">
-        <v>285</v>
-      </c>
-      <c r="S2" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="66" t="s">
-        <v>285</v>
-      </c>
-      <c r="U2" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="W2" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y2" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z2" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="64" t="s">
-        <v>499</v>
-      </c>
-      <c r="AD2" s="60" t="s">
-        <v>500</v>
-      </c>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:52" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="66" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="66">
-        <v>1</v>
-      </c>
-      <c r="C3" s="66">
-        <v>2</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="H3" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="M3" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="66" t="s">
-        <v>282</v>
-      </c>
-      <c r="O3" s="66" t="s">
-        <v>283</v>
-      </c>
-      <c r="P3" s="66" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q3" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="R3" s="66" t="s">
-        <v>285</v>
-      </c>
-      <c r="S3" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A4" s="66" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="60">
-        <v>1</v>
-      </c>
-      <c r="C4" s="60">
-        <v>3</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="G4" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="J4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="K4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="N4" s="66" t="s">
-        <v>282</v>
-      </c>
-      <c r="O4" s="60" t="s">
-        <v>446</v>
-      </c>
-      <c r="P4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="R4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="S4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="T4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="U4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="V4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="W4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="X4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA4" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB4" s="60" t="s">
-        <v>447</v>
-      </c>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF4" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH4" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL4" s="60"/>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A5" s="66" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="60">
-        <v>1</v>
-      </c>
-      <c r="C5" s="60">
-        <v>4</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="G5" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="I5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="N5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="O5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="P5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="R5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="S5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="T5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="U5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="V5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="W5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="X5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA5" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB5" s="60" t="s">
-        <v>448</v>
-      </c>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF5" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH5" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL5" s="60"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A6" s="66" t="s">
-        <v>231</v>
-      </c>
-      <c r="B6" s="60">
-        <v>1</v>
-      </c>
-      <c r="C6" s="60">
-        <v>5</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="J6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="N6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="O6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="P6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="R6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="S6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="T6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="U6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="V6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="W6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="X6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA6" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB6" s="60" t="s">
-        <v>449</v>
-      </c>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF6" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH6" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL6" s="60"/>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A7" s="66" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="60">
-        <v>1</v>
-      </c>
-      <c r="C7" s="60">
-        <v>6</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="G7" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="I7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="J7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="K7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="N7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="O7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="P7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="R7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="S7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="T7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="U7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="V7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="W7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="X7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA7" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB7" s="60" t="s">
-        <v>450</v>
-      </c>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="60"/>
-      <c r="AE7" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF7" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH7" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK7" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL7" s="60"/>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A8" s="66" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" s="60">
-        <v>1</v>
-      </c>
-      <c r="C8" s="60">
-        <v>7</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="G8" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="I8" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="J8" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="K8" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="L8" s="60" t="s">
-        <v>458</v>
-      </c>
-      <c r="M8" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="N8" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="O8" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="P8" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q8" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="R8" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="S8" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="T8" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="U8" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="V8" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="W8" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="X8" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y8" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z8" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA8" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB8" s="60" t="s">
-        <v>502</v>
-      </c>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="60"/>
-      <c r="AE8" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF8" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG8" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH8" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI8" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ8" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK8" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL8" s="60"/>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A9" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" s="60">
-        <v>1</v>
-      </c>
-      <c r="C9" s="60">
+      <c r="B9" s="59">
+        <v>1</v>
+      </c>
+      <c r="C9" s="59">
         <v>8</v>
       </c>
-      <c r="D9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="G9" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="H9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="I9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="J9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="K9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="N9" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="O9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="P9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="R9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="S9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="T9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="U9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="V9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="W9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="X9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA9" s="60" t="s">
+      <c r="D9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="J9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="N9" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="O9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="P9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="R9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="S9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="T9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="U9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="V9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="W9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="X9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA9" s="59" t="s">
         <v>68</v>
       </c>
       <c r="AB9" s="30" t="s">
-        <v>499</v>
-      </c>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF9" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH9" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK9" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL9" s="60"/>
-      <c r="AM9" s="60"/>
-      <c r="AN9" s="60"/>
-      <c r="AO9" s="60"/>
-      <c r="AP9" s="60"/>
-      <c r="AQ9" s="60"/>
-      <c r="AR9" s="60"/>
-      <c r="AS9" s="60"/>
-      <c r="AT9" s="60"/>
-      <c r="AU9" s="60"/>
-      <c r="AV9" s="60"/>
-      <c r="AW9" s="60"/>
-      <c r="AX9" s="60"/>
-      <c r="AY9" s="60"/>
-      <c r="AZ9" s="60"/>
+        <v>479</v>
+      </c>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF9" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH9" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK9" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL9" s="59"/>
+      <c r="AM9" s="59"/>
+      <c r="AN9" s="59"/>
+      <c r="AO9" s="59"/>
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="59"/>
+      <c r="AR9" s="59"/>
+      <c r="AS9" s="59"/>
+      <c r="AT9" s="59"/>
+      <c r="AU9" s="59"/>
+      <c r="AV9" s="59"/>
+      <c r="AW9" s="59"/>
+      <c r="AX9" s="59"/>
+      <c r="AY9" s="59"/>
+      <c r="AZ9" s="59"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.35">
       <c r="R10" s="42"/>
@@ -4528,22 +4500,22 @@
         <v>82</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="R1" s="23" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="S1" s="23" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="T1" s="23" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="U1" s="23" t="s">
         <v>289</v>
@@ -4681,25 +4653,25 @@
         <v>213</v>
       </c>
       <c r="O4" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="P4" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="Q4" s="26" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="R4" s="26" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="S4" s="26" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -4712,7 +4684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE06A9D-8317-49A7-9A82-039A1B827ECC}">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -5017,7 +4989,7 @@
         <v>326</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="K3" s="30" t="s">
         <v>211</v>
@@ -5672,10 +5644,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FBF4A6-7E84-4BBE-931C-E882244C8ADD}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5694,151 +5666,93 @@
     <col min="12" max="12" width="24.36328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.90625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="T1" s="5" t="s">
+      <c r="D1" s="60" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>493</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>494</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>495</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>496</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>498</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>499</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="M1" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="54" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2" s="54">
+        <v>1</v>
+      </c>
+      <c r="C2" s="54">
+        <v>1</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>501</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>460</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>461</v>
+      </c>
+      <c r="G2" s="54" t="s">
         <v>341</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="54" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
-        <v>477</v>
-      </c>
-      <c r="B2" s="54">
-        <v>1</v>
-      </c>
-      <c r="C2" s="54">
-        <v>1</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>478</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>479</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>480</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>358</v>
       </c>
       <c r="H2" s="54" t="s">
         <v>214</v>
       </c>
       <c r="I2" s="54" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="J2" s="54" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="K2" s="54" t="s">
-        <v>16</v>
+        <v>463</v>
       </c>
       <c r="L2" s="54" t="s">
-        <v>483</v>
-      </c>
-      <c r="M2" s="55" t="s">
-        <v>484</v>
+        <v>464</v>
+      </c>
+      <c r="M2" s="54" t="s">
+        <v>16</v>
       </c>
       <c r="N2" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q2" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="U2" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="V2" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="54" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6342,178 +6256,178 @@
       </c>
     </row>
     <row r="3" spans="1:58" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="57">
-        <v>1</v>
-      </c>
-      <c r="C3" s="57">
+      <c r="B3" s="56">
+        <v>1</v>
+      </c>
+      <c r="C3" s="56">
         <v>2</v>
       </c>
-      <c r="D3" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="56" t="s">
+      <c r="D3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="I3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="J3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="K3" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="L3" s="57" t="s">
+      <c r="H3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="L3" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="M3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="N3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="O3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="P3" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q3" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="R3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="S3" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="U3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="V3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="W3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="X3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AJ3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AN3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AO3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AP3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AR3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AS3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AT3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AU3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AV3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AW3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AX3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="BA3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="BB3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="BC3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="BD3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="BE3" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="BF3" s="57" t="s">
+      <c r="M3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="O3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="P3" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q3" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="R3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="S3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="U3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="V3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="W3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="X3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AT3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AX3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AY3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AZ3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="BB3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="BC3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="BD3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="BE3" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="BF3" s="56" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6545,7 +6459,7 @@
       <c r="I4" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="J4" s="70" t="s">
+      <c r="J4" s="69" t="s">
         <v>245</v>
       </c>
       <c r="K4" s="20" t="s">
@@ -6814,7 +6728,7 @@
         <v>26</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.35">
@@ -6948,202 +6862,202 @@
       </c>
     </row>
     <row r="4" spans="1:45" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="66">
-        <v>1</v>
-      </c>
-      <c r="C4" s="66">
-        <v>1</v>
-      </c>
-      <c r="D4" s="61" t="s">
+      <c r="B4" s="65">
+        <v>1</v>
+      </c>
+      <c r="C4" s="65">
+        <v>1</v>
+      </c>
+      <c r="D4" s="60" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="P4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q4" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="R4" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="S4" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="T4" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="U4" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="V4" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="W4" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="X4" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y4" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z4" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA4" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="60"/>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="60"/>
-      <c r="AS4" s="60"/>
+      <c r="G4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="P4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="R4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="W4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="59"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="59"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="66">
-        <v>1</v>
-      </c>
-      <c r="C5" s="66">
+      <c r="B5" s="65">
+        <v>1</v>
+      </c>
+      <c r="C5" s="65">
         <v>2</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="60" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="I5" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="L5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="M5" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="P5" s="60" t="s">
+      <c r="G5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="M5" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="P5" s="59" t="s">
         <v>213</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="R5" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="S5" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="T5" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="U5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="V5" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="W5" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="X5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z5" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA5" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="60"/>
-      <c r="AF5" s="60"/>
-      <c r="AG5" s="60"/>
-      <c r="AH5" s="60"/>
-      <c r="AI5" s="60"/>
-      <c r="AJ5" s="60"/>
-      <c r="AK5" s="60"/>
-      <c r="AL5" s="60"/>
-      <c r="AM5" s="60"/>
-      <c r="AN5" s="60"/>
-      <c r="AO5" s="60"/>
-      <c r="AP5" s="60"/>
-      <c r="AQ5" s="60"/>
-      <c r="AR5" s="60"/>
-      <c r="AS5" s="60"/>
+      <c r="R5" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="U5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="V5" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="X5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z5" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA5" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="59"/>
+      <c r="AS5" s="59"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="D6" s="2"/>
@@ -7177,7 +7091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A334D-3D40-4E6E-89BC-E0399D12F63C}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
@@ -7254,13 +7168,13 @@
         <v>14</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="W1" s="45" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -7355,7 +7269,7 @@
       <c r="Q3" s="29"/>
       <c r="R3" s="2"/>
       <c r="U3" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -7387,7 +7301,7 @@
         <v>16</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="K4" s="29" t="s">
         <v>29</v>
@@ -7441,7 +7355,7 @@
         <v>213</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="M5" s="29" t="s">
         <v>213</v>
@@ -7451,15 +7365,15 @@
       </c>
       <c r="O5" s="2"/>
       <c r="V5" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="W5" s="43" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="B6" s="51">
         <v>1</v>
@@ -7486,7 +7400,7 @@
         <v>16</v>
       </c>
       <c r="J6" s="51" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="K6" s="51" t="s">
         <v>29</v>
@@ -7502,12 +7416,12 @@
       </c>
       <c r="R6" s="52"/>
       <c r="U6" s="51" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="51" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="B7" s="51">
         <v>1</v>
@@ -7534,7 +7448,7 @@
         <v>16</v>
       </c>
       <c r="J7" s="51" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="K7" s="51" t="s">
         <v>29</v>
@@ -7550,12 +7464,12 @@
       </c>
       <c r="R7" s="52"/>
       <c r="U7" s="51" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="50" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B8" s="50">
         <v>1</v>
@@ -7582,7 +7496,7 @@
         <v>16</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="K8" s="50" t="s">
         <v>29</v>
@@ -7598,12 +7512,12 @@
       </c>
       <c r="R8" s="36"/>
       <c r="U8" s="50" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="50" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B9" s="50">
         <v>1</v>
@@ -7630,7 +7544,7 @@
         <v>16</v>
       </c>
       <c r="J9" s="50" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="K9" s="50" t="s">
         <v>29</v>
@@ -7646,12 +7560,12 @@
       </c>
       <c r="R9" s="36"/>
       <c r="U9" s="50" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B10" s="50">
         <v>1</v>
@@ -7678,7 +7592,7 @@
         <v>16</v>
       </c>
       <c r="J10" s="50" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="K10" s="50" t="s">
         <v>29</v>
@@ -7694,12 +7608,12 @@
       </c>
       <c r="R10" s="36"/>
       <c r="U10" s="50" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="50" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="50" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B11" s="50">
         <v>1</v>
@@ -7726,7 +7640,7 @@
         <v>16</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="K11" s="50" t="s">
         <v>29</v>
@@ -7742,7 +7656,7 @@
       </c>
       <c r="R11" s="36"/>
       <c r="U11" s="50" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -8072,8 +7986,8 @@
     <col min="6" max="6" width="19.90625" customWidth="1"/>
     <col min="8" max="8" width="12.453125" customWidth="1"/>
     <col min="9" max="9" width="21.81640625" customWidth="1"/>
-    <col min="10" max="10" width="21.81640625" style="60" customWidth="1"/>
-    <col min="12" max="13" width="8.7265625" style="60"/>
+    <col min="10" max="10" width="21.81640625" style="59" customWidth="1"/>
+    <col min="12" max="13" width="8.7265625" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -8104,14 +8018,14 @@
       <c r="I1" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="J1" s="62" t="s">
-        <v>505</v>
-      </c>
-      <c r="K1" s="62" t="s">
-        <v>488</v>
-      </c>
-      <c r="L1" s="62" t="s">
-        <v>489</v>
+      <c r="J1" s="61" t="s">
+        <v>485</v>
+      </c>
+      <c r="K1" s="61" t="s">
+        <v>468</v>
+      </c>
+      <c r="L1" s="61" t="s">
+        <v>469</v>
       </c>
       <c r="M1" s="35" t="s">
         <v>10</v>
@@ -8148,13 +8062,13 @@
       <c r="J2" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="69" t="s">
-        <v>459</v>
-      </c>
-      <c r="L2" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="M2" s="69"/>
+      <c r="K2" s="68" t="s">
+        <v>442</v>
+      </c>
+      <c r="L2" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="68"/>
     </row>
     <row r="3" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
@@ -8188,10 +8102,10 @@
         <v>68</v>
       </c>
       <c r="K3" s="44" t="s">
-        <v>460</v>
-      </c>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
+        <v>443</v>
+      </c>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H4" s="42"/>
@@ -8265,19 +8179,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -8292,7 +8206,7 @@
     </row>
     <row r="2" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -8360,37 +8274,37 @@
         <v>72</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>293</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="M1" s="41" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="P1" s="41" t="s">
         <v>82</v>
@@ -8408,7 +8322,7 @@
     </row>
     <row r="2" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -8432,22 +8346,22 @@
         <v>68</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>68</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>68</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>16</v>
@@ -8507,82 +8421,82 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>293</v>
       </c>
       <c r="I1" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="O1" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="J1" s="35" t="s">
-        <v>386</v>
-      </c>
-      <c r="K1" s="35" t="s">
+      <c r="P1" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="V1" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="W1" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="X1" s="35" t="s">
         <v>370</v>
       </c>
-      <c r="L1" s="35" t="s">
-        <v>379</v>
-      </c>
-      <c r="M1" s="35" t="s">
+      <c r="Y1" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z1" s="35" t="s">
         <v>372</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="AA1" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="AB1" s="35" t="s">
         <v>374</v>
       </c>
-      <c r="P1" s="35" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>376</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>380</v>
-      </c>
-      <c r="S1" s="35" t="s">
-        <v>383</v>
-      </c>
-      <c r="T1" s="35" t="s">
-        <v>384</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>381</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>382</v>
-      </c>
-      <c r="W1" s="35" t="s">
+      <c r="AC1" s="35" t="s">
         <v>375</v>
-      </c>
-      <c r="X1" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y1" s="35" t="s">
-        <v>388</v>
-      </c>
-      <c r="Z1" s="35" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA1" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB1" s="35" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC1" s="35" t="s">
-        <v>392</v>
       </c>
       <c r="AD1" s="35" t="s">
         <v>82</v>
@@ -8600,7 +8514,7 @@
     </row>
     <row r="2" spans="1:42" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -8621,16 +8535,16 @@
         <v>16</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>235</v>
@@ -8639,17 +8553,17 @@
         <v>209</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
         <v>209</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="T2" s="5">
         <v>28570</v>
@@ -8667,7 +8581,7 @@
         <v>269</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
@@ -8716,31 +8630,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="M1" s="35" t="s">
         <v>82</v>
@@ -8758,7 +8672,7 @@
     </row>
     <row r="2" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -8776,16 +8690,16 @@
         <v>235</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="L2" s="26" t="s">
         <v>29</v>
@@ -8839,49 +8753,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="E1" s="35" t="s">
         <v>72</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="L1" s="35" t="s">
         <v>82</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="P1" s="35" t="s">
         <v>308</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
@@ -8893,7 +8807,7 @@
     </row>
     <row r="2" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="B2" s="26">
         <v>1</v>
@@ -8908,10 +8822,10 @@
         <v>16</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>209</v>
@@ -8935,16 +8849,16 @@
         <v>16</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -9676,7 +9590,7 @@
         <v>267</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>82</v>
@@ -9685,7 +9599,7 @@
         <v>232</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -9742,7 +9656,7 @@
       </c>
       <c r="K3" s="29"/>
       <c r="L3" s="29" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="M3" s="29"/>
     </row>
@@ -9766,7 +9680,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
       <c r="L4" s="26" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -9789,7 +9703,7 @@
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="26" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -9897,10 +9811,10 @@
         <v>208</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="N1" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -9958,7 +9872,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="G3" s="48" t="s">
         <v>16</v>
@@ -9967,7 +9881,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>22</v>
@@ -9981,7 +9895,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -10011,7 +9925,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>209</v>
@@ -10021,46 +9935,46 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="63">
-        <v>1</v>
-      </c>
-      <c r="C5" s="63">
-        <v>1</v>
-      </c>
-      <c r="D5" s="63" t="s">
+      <c r="B5" s="62">
+        <v>1</v>
+      </c>
+      <c r="C5" s="62">
+        <v>1</v>
+      </c>
+      <c r="D5" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="61" t="s">
-        <v>486</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="63" t="s">
+      <c r="F5" s="60" t="s">
+        <v>466</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="63" t="s">
-        <v>485</v>
-      </c>
-      <c r="J5" s="63" t="s">
+      <c r="I5" s="62" t="s">
+        <v>465</v>
+      </c>
+      <c r="J5" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="63" t="s">
+      <c r="K5" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10614,12 +10528,12 @@
     <col min="9" max="9" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.453125" style="60" customWidth="1"/>
+    <col min="12" max="12" width="30.453125" style="59" customWidth="1"/>
     <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="8.81640625" style="46"/>
-    <col min="23" max="25" width="8.7265625" style="60"/>
+    <col min="23" max="25" width="8.7265625" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -10656,8 +10570,8 @@
       <c r="K1" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="L1" s="62" t="s">
-        <v>506</v>
+      <c r="L1" s="61" t="s">
+        <v>486</v>
       </c>
       <c r="M1" s="35" t="s">
         <v>306</v>
@@ -10678,43 +10592,43 @@
         <v>191</v>
       </c>
       <c r="S1" s="47" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="T1" s="47" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="U1" s="47" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="V1" s="47" t="s">
-        <v>461</v>
-      </c>
-      <c r="W1" s="62" t="s">
-        <v>508</v>
-      </c>
-      <c r="X1" s="62" t="s">
-        <v>511</v>
-      </c>
-      <c r="Y1" s="62" t="s">
+        <v>444</v>
+      </c>
+      <c r="W1" s="61" t="s">
+        <v>488</v>
+      </c>
+      <c r="X1" s="61" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y1" s="61" t="s">
         <v>270</v>
       </c>
       <c r="Z1" s="47" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="AA1" s="47" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="AB1" s="47" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="AC1" s="47" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="AD1" s="47" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="AE1" s="47" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.35">
@@ -10782,260 +10696,260 @@
       </c>
     </row>
     <row r="4" spans="1:34" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="66">
-        <v>1</v>
-      </c>
-      <c r="C4" s="66">
-        <v>1</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="66" t="s">
+      <c r="B4" s="65">
+        <v>1</v>
+      </c>
+      <c r="C4" s="65">
+        <v>1</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="68" t="s">
+      <c r="F4" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="67" t="s">
         <v>246</v>
       </c>
-      <c r="I4" s="66" t="s">
+      <c r="I4" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="65" t="s">
         <v>269</v>
       </c>
       <c r="L4" s="49" t="s">
-        <v>507</v>
-      </c>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="S4" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="T4" s="66" t="s">
-        <v>471</v>
-      </c>
-      <c r="U4" s="66" t="s">
-        <v>472</v>
-      </c>
-      <c r="V4" s="66" t="s">
-        <v>458</v>
-      </c>
-      <c r="W4" s="70" t="s">
-        <v>509</v>
-      </c>
-      <c r="Y4" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z4" s="66" t="s">
-        <v>458</v>
-      </c>
-      <c r="AA4" s="66" t="s">
-        <v>458</v>
-      </c>
-      <c r="AB4" s="66" t="s">
-        <v>458</v>
-      </c>
-      <c r="AC4" s="66" t="s">
-        <v>458</v>
-      </c>
-      <c r="AD4" s="66" t="s">
-        <v>458</v>
-      </c>
-      <c r="AE4" s="66" t="s">
-        <v>458</v>
-      </c>
-      <c r="AF4" s="66" t="s">
-        <v>458</v>
-      </c>
-      <c r="AG4" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH4" s="66"/>
+        <v>487</v>
+      </c>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" s="65" t="s">
+        <v>454</v>
+      </c>
+      <c r="U4" s="65" t="s">
+        <v>455</v>
+      </c>
+      <c r="V4" s="65" t="s">
+        <v>441</v>
+      </c>
+      <c r="W4" s="69" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y4" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="65" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA4" s="65" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB4" s="65" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC4" s="65" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD4" s="65" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE4" s="65" t="s">
+        <v>441</v>
+      </c>
+      <c r="AF4" s="65" t="s">
+        <v>441</v>
+      </c>
+      <c r="AG4" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH4" s="65"/>
     </row>
     <row r="5" spans="1:34" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="66">
-        <v>1</v>
-      </c>
-      <c r="C5" s="66">
+      <c r="B5" s="65">
+        <v>1</v>
+      </c>
+      <c r="C5" s="65">
         <v>2</v>
       </c>
-      <c r="D5" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="66" t="s">
+      <c r="D5" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="G5" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="66" t="s">
+      <c r="G5" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="K5" s="66" t="s">
+      <c r="K5" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="L5" s="70" t="s">
+      <c r="L5" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="M5" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="68" t="s">
+      <c r="M5" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="O5" s="66" t="s">
+      <c r="O5" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="P5" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65" t="s">
+        <v>456</v>
+      </c>
+      <c r="V5" s="65"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="69" t="s">
         <v>490</v>
       </c>
-      <c r="P5" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66" t="s">
-        <v>473</v>
-      </c>
-      <c r="V5" s="66"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70" t="s">
-        <v>510</v>
-      </c>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="65"/>
+      <c r="AC5" s="65"/>
+      <c r="AD5" s="65"/>
+      <c r="AE5" s="65"/>
+      <c r="AF5" s="65"/>
+      <c r="AG5" s="65"/>
+      <c r="AH5" s="65"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="60">
-        <v>1</v>
-      </c>
-      <c r="C6" s="60">
+      <c r="B6" s="59">
+        <v>1</v>
+      </c>
+      <c r="C6" s="59">
         <v>3</v>
       </c>
-      <c r="D6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="J6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="L6" s="60" t="s">
+      <c r="D6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="M6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="N6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="O6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="P6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="R6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="S6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="T6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="U6" s="60" t="s">
-        <v>490</v>
-      </c>
-      <c r="V6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF6" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG6" s="60"/>
-      <c r="AH6" s="60"/>
+      <c r="M6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="O6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="P6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="R6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="S6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="U6" s="59" t="s">
+        <v>470</v>
+      </c>
+      <c r="V6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF6" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11043,6 +10957,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -11259,26 +11192,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11295,22 +11227,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\24jantestdata\25JAN\26jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2193D0D9-73CA-4460-86D2-DF74218CBB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61555ADD-A141-42DF-89EE-78D4F21E6541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="19" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -7975,8 +7975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F26082-EA83-4A35-BBD3-990DF7F89614}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8061,7 +8061,7 @@
         <v>66</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="K2" s="66" t="s">
         <v>440</v>
@@ -8094,7 +8094,7 @@
         <v>211</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="I3" s="29" t="s">
         <v>66</v>
@@ -9755,7 +9755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5083A157-C67F-458F-A42E-BC1D5FB3C768}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="95" workbookViewId="0">
+    <sheetView zoomScale="95" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\24jantestdata\25JAN\26jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61555ADD-A141-42DF-89EE-78D4F21E6541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEA0860-9944-4E5D-9BE6-1D1B372B78D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="19" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="504">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2161,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2395,8 +2395,8 @@
       <c r="J4" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="K4" s="49" t="s">
-        <v>21</v>
+      <c r="K4" s="67" t="s">
+        <v>465</v>
       </c>
       <c r="L4" s="49" t="s">
         <v>7</v>
@@ -2505,7 +2505,9 @@
       <c r="M6" s="55"/>
       <c r="N6" s="55"/>
       <c r="O6" s="57"/>
-      <c r="P6" s="55"/>
+      <c r="P6" s="55" t="s">
+        <v>16</v>
+      </c>
       <c r="Q6" s="55" t="s">
         <v>16</v>
       </c>
@@ -3827,10 +3829,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB965DA-197B-4614-A4A7-724632791DDF}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A3" sqref="A3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3839,7 +3841,7 @@
     <col min="9" max="9" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -3874,7 +3876,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
         <v>229</v>
       </c>
@@ -3909,7 +3911,53 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="58" t="s">
+        <v>498</v>
+      </c>
+      <c r="B3" s="58">
+        <v>1</v>
+      </c>
+      <c r="C3" s="58">
+        <v>1</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="I10" s="37"/>
     </row>
   </sheetData>
@@ -5647,8 +5695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FBF4A6-7E84-4BBE-931C-E882244C8ADD}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5842,8 +5890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52296D71-257F-48D6-B061-96C4007B427B}">
   <dimension ref="A1:BF4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7975,8 +8023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F26082-EA83-4A35-BBD3-990DF7F89614}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8109,7 +8157,37 @@
       <c r="M3" s="66"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="H4" s="41"/>
+      <c r="A4" s="59" t="s">
+        <v>498</v>
+      </c>
+      <c r="B4" s="59">
+        <v>1</v>
+      </c>
+      <c r="C4" s="59">
+        <v>1</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H5" s="41"/>
@@ -8377,7 +8455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A5EF75-2518-4912-9296-5E52BA4AFC5F}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -8602,7 +8680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98232FA6-4D88-4CB4-8CC0-19F06FC78DD4}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="67" workbookViewId="0">
+    <sheetView zoomScale="67" workbookViewId="0">
       <selection activeCell="D1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -9555,7 +9633,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9755,9 +9833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5083A157-C67F-458F-A42E-BC1D5FB3C768}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
+    <sheetView zoomScale="95" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata2feb\updated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FA1EB0-5D1F-49A7-A9E0-5493A4D08848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0FE4F8-7194-498E-8AFC-53B02ED9BDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="457">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -453,9 +453,6 @@
   </si>
   <si>
     <t>autoText</t>
-  </si>
-  <si>
-    <t>Ersupervisorcontracosta</t>
   </si>
   <si>
     <t>Case Aide</t>
@@ -1448,6 +1445,15 @@
   </si>
   <si>
     <t>Legal Guardian</t>
+  </si>
+  <si>
+    <t>folioPersonName3</t>
+  </si>
+  <si>
+    <t>CONTACTNOTE_RADIOBTN</t>
+  </si>
+  <si>
+    <t>Focus Child</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1697,6 +1703,8 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{0244CCC0-C70B-4F46-AB95-4E0A98C0C68C}"/>
@@ -2014,8 +2022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2758,10 +2766,10 @@
         <v>39</v>
       </c>
       <c r="I13" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="J13" s="24" t="s">
         <v>30</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>31</v>
       </c>
       <c r="K13" s="48" t="s">
         <v>24</v>
@@ -2842,43 +2850,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="H1" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="I1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="L1" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="M1" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="N1" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="O1" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="P1" s="43" t="s">
         <v>166</v>
-      </c>
-      <c r="P1" s="43" t="s">
-        <v>167</v>
       </c>
       <c r="Q1" s="43" t="s">
         <v>13</v>
@@ -2887,43 +2895,43 @@
         <v>15</v>
       </c>
       <c r="S1" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="T1" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="U1" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="V1" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="W1" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="X1" s="43" t="s">
         <v>172</v>
-      </c>
-      <c r="X1" s="43" t="s">
-        <v>173</v>
       </c>
       <c r="Y1" s="43" t="s">
         <v>64</v>
       </c>
       <c r="Z1" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA1" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="AA1" s="43" t="s">
+      <c r="AB1" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="AB1" s="43" t="s">
+      <c r="AC1" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="AC1" s="43" t="s">
+      <c r="AD1" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="AD1" s="43" t="s">
+      <c r="AE1" s="43" t="s">
         <v>178</v>
-      </c>
-      <c r="AE1" s="43" t="s">
-        <v>179</v>
       </c>
       <c r="AF1" s="41"/>
       <c r="AG1" s="41"/>
@@ -2952,10 +2960,10 @@
         <v>93</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J2" s="41" t="s">
         <v>115</v>
@@ -2984,7 +2992,7 @@
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" s="41">
         <v>1</v>
@@ -3010,10 +3018,10 @@
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="N3" s="41" t="s">
         <v>182</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>183</v>
       </c>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
@@ -3059,16 +3067,16 @@
         <v>31</v>
       </c>
       <c r="I4" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="K4" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="J4" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="K4" s="48" t="s">
+      <c r="L4" s="31" t="s">
         <v>185</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>186</v>
       </c>
       <c r="M4" s="46"/>
       <c r="N4" s="46"/>
@@ -3084,41 +3092,41 @@
         <v>115</v>
       </c>
       <c r="T4" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="U4" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="U4" s="48" t="s">
+      <c r="V4" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="W4" s="48" t="s">
         <v>189</v>
-      </c>
-      <c r="W4" s="48" t="s">
-        <v>190</v>
       </c>
       <c r="X4" s="48"/>
       <c r="Y4" s="48" t="s">
         <v>115</v>
       </c>
       <c r="Z4" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA4" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AB4" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC4" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AD4" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AE4" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF4" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG4" s="48" t="s">
         <v>115</v>
@@ -3169,10 +3177,10 @@
         <v>130</v>
       </c>
       <c r="O5" s="48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P5" s="48" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="48" t="s">
         <v>19</v>
@@ -3181,12 +3189,12 @@
       <c r="S5" s="48"/>
       <c r="T5" s="48"/>
       <c r="U5" s="48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V5" s="48"/>
       <c r="W5" s="48"/>
       <c r="X5" s="48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y5" s="48"/>
       <c r="Z5" s="48"/>
@@ -3261,7 +3269,7 @@
         <v>28</v>
       </c>
       <c r="U6" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V6" s="41" t="s">
         <v>28</v>
@@ -3303,14 +3311,14 @@
       <selection activeCell="I1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.81640625" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1796875" style="41" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1796875" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" style="41" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.81640625" style="41" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.81640625" style="41" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.453125" style="41" bestFit="1" customWidth="1"/>
@@ -3319,30 +3327,30 @@
     <col min="13" max="13" width="20.453125" style="41" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.1796875" style="41" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.81640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.26953125" style="41" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1796875" style="41" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.81640625" style="41" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.81640625" style="41" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" style="41" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21.54296875" style="41" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.81640625" style="41" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27.81640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.7265625" style="41" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.81640625" style="41" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="20" style="41" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="17.54296875" style="41" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.7265625" style="41" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.81640625" style="41" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.54296875" style="41" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="39.81640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.7265625" style="41" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.7265625" style="41" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.26953125" style="41" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.81640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.81640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.1796875" style="41" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="6.81640625" style="41" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="11.1796875" style="41" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="16.81640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.26953125" style="41" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.1796875" style="41" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="21.453125" style="41" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="14.81640625" style="41" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="110.453125" style="41" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.7265625" style="41"/>
+    <col min="40" max="16384" width="8.81640625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -3359,109 +3367,109 @@
         <v>64</v>
       </c>
       <c r="E1" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="G1" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="H1" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="I1" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="J1" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="K1" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="L1" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="M1" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="N1" s="42" t="s">
         <v>202</v>
-      </c>
-      <c r="N1" s="42" t="s">
-        <v>203</v>
       </c>
       <c r="O1" s="42" t="s">
         <v>65</v>
       </c>
       <c r="P1" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q1" s="45" t="s">
         <v>125</v>
       </c>
       <c r="R1" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="S1" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="T1" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="U1" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="V1" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="W1" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="X1" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="X1" s="42" t="s">
+      <c r="Y1" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="Y1" s="42" t="s">
+      <c r="Z1" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="Z1" s="42" t="s">
+      <c r="AA1" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="AA1" s="42" t="s">
+      <c r="AB1" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="AB1" s="42" t="s">
+      <c r="AC1" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="AC1" s="42" t="s">
+      <c r="AD1" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="AD1" s="42" t="s">
+      <c r="AE1" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="AE1" s="42" t="s">
+      <c r="AF1" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="AF1" s="42" t="s">
+      <c r="AG1" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="AG1" s="42" t="s">
+      <c r="AH1" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="AH1" s="42" t="s">
+      <c r="AI1" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="AI1" s="49" t="s">
+      <c r="AJ1" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="AJ1" s="42" t="s">
+      <c r="AK1" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="AK1" s="42" t="s">
+      <c r="AL1" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="AL1" s="42" t="s">
+      <c r="AM1" s="42" t="s">
         <v>225</v>
-      </c>
-      <c r="AM1" s="42" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:39">
@@ -3505,25 +3513,25 @@
         <v>19</v>
       </c>
       <c r="N2" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="O2" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="P2" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="P2" s="48" t="s">
+      <c r="Q2" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="R2" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="R2" s="48" t="s">
-        <v>230</v>
-      </c>
       <c r="S2" s="48" t="s">
         <v>19</v>
       </c>
       <c r="T2" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U2" s="48" t="s">
         <v>115</v>
@@ -3545,16 +3553,16 @@
       </c>
       <c r="AA2" s="48"/>
       <c r="AC2" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD2" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="AD2" s="41" t="s">
+      <c r="AI2" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM2" s="41" t="s">
         <v>232</v>
-      </c>
-      <c r="AI2" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM2" s="41" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:39" s="48" customFormat="1">
@@ -3598,19 +3606,19 @@
         <v>19</v>
       </c>
       <c r="N3" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="O3" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="O3" s="48" t="s">
-        <v>235</v>
-      </c>
       <c r="P3" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q3" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="Q3" s="48" t="s">
+      <c r="R3" s="48" t="s">
         <v>229</v>
-      </c>
-      <c r="R3" s="48" t="s">
-        <v>230</v>
       </c>
       <c r="S3" s="48" t="s">
         <v>19</v>
@@ -3660,49 +3668,49 @@
         <v>28</v>
       </c>
       <c r="N4" s="48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O4" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB4" s="41" t="s">
         <v>236</v>
-      </c>
-      <c r="P4" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y4" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA4" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB4" s="41" t="s">
-        <v>237</v>
       </c>
       <c r="AE4" s="41" t="s">
         <v>115</v>
@@ -3809,7 +3817,7 @@
         <v>115</v>
       </c>
       <c r="AB5" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AE5" s="41" t="s">
         <v>115</v>
@@ -3916,7 +3924,7 @@
         <v>115</v>
       </c>
       <c r="AB6" s="41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AE6" s="41" t="s">
         <v>115</v>
@@ -4023,7 +4031,7 @@
         <v>115</v>
       </c>
       <c r="AB7" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AE7" s="41" t="s">
         <v>115</v>
@@ -4085,7 +4093,7 @@
         <v>28</v>
       </c>
       <c r="L8" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M8" s="41" t="s">
         <v>28</v>
@@ -4133,7 +4141,7 @@
         <v>115</v>
       </c>
       <c r="AB8" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AE8" s="41" t="s">
         <v>115</v>
@@ -4240,7 +4248,7 @@
         <v>115</v>
       </c>
       <c r="AB9" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AE9" s="41" t="s">
         <v>115</v>
@@ -4300,28 +4308,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="H1" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>248</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>249</v>
       </c>
       <c r="L1" s="41"/>
       <c r="M1" s="41"/>
@@ -4361,12 +4369,12 @@
         <v>70</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="41">
         <v>1</v>
@@ -4458,13 +4466,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="41" t="s">
         <v>252</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4475,7 +4483,7 @@
         <v>70</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>19</v>
@@ -4489,7 +4497,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B3" s="31">
         <v>1</v>
@@ -4509,7 +4517,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4" s="31">
         <v>2</v>
@@ -4529,7 +4537,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5" s="41">
         <v>1</v>
@@ -4549,7 +4557,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B6" s="31">
         <v>1</v>
@@ -4569,7 +4577,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B7" s="31">
         <v>2</v>
@@ -4589,7 +4597,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B8" s="31">
         <v>1</v>
@@ -4609,7 +4617,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9" s="31">
         <v>2</v>
@@ -4629,7 +4637,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B10" s="31">
         <v>1</v>
@@ -4649,7 +4657,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B11" s="31">
         <v>2</v>
@@ -4700,55 +4708,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>273</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>274</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -4768,7 +4776,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>70</v>
@@ -4804,7 +4812,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S2" s="41" t="s">
         <v>19</v>
@@ -4866,7 +4874,7 @@
         <v>19</v>
       </c>
       <c r="R3" s="48" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S3" s="48" t="s">
         <v>19</v>
@@ -4928,7 +4936,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S4" s="48" t="s">
         <v>19</v>
@@ -4945,10 +4953,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4984,55 +4992,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="E1" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="F1" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="45" t="s">
         <v>280</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>281</v>
       </c>
       <c r="H1" s="45" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J1" s="45" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="L1" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="L1" s="45" t="s">
-        <v>273</v>
-      </c>
       <c r="M1" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="P1" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="Q1" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="R1" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="S1" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="T1" s="44" t="s">
         <v>289</v>
-      </c>
-      <c r="T1" s="44" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="16" customFormat="1">
@@ -5046,13 +5054,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="E2" s="48" t="s">
-        <v>292</v>
-      </c>
       <c r="F2" s="48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>57</v>
@@ -5073,7 +5081,7 @@
         <v>19</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N2" s="41"/>
       <c r="O2" s="41"/>
@@ -5094,13 +5102,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>57</v>
@@ -5121,7 +5129,7 @@
         <v>19</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N3" s="41"/>
       <c r="O3" s="41"/>
@@ -5145,57 +5153,57 @@
         <v>28</v>
       </c>
       <c r="E4" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="41" t="s">
-        <v>293</v>
-      </c>
       <c r="N4" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O4" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P4" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R4" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S4" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T4" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="41">
         <v>1</v>
@@ -5311,7 +5319,7 @@
         <v>28</v>
       </c>
       <c r="S6" s="53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T6" s="41" t="s">
         <v>28</v>
@@ -5328,13 +5336,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>292</v>
-      </c>
       <c r="F7" s="41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>57</v>
@@ -5355,7 +5363,7 @@
         <v>19</v>
       </c>
       <c r="M7" s="41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N7" s="41" t="s">
         <v>28</v>
@@ -5390,13 +5398,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G8" s="41" t="s">
         <v>57</v>
@@ -5417,7 +5425,7 @@
         <v>19</v>
       </c>
       <c r="M8" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N8" s="41" t="s">
         <v>28</v>
@@ -5443,22 +5451,22 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="54" t="s">
+        <v>452</v>
+      </c>
+      <c r="B9" s="54">
+        <v>1</v>
+      </c>
+      <c r="C9" s="54">
+        <v>1</v>
+      </c>
+      <c r="D9" s="54" t="s">
         <v>453</v>
       </c>
-      <c r="B9" s="54">
-        <v>1</v>
-      </c>
-      <c r="C9" s="54">
-        <v>1</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>454</v>
-      </c>
       <c r="E9" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G9" s="54" t="s">
         <v>57</v>
@@ -5479,7 +5487,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
@@ -5488,6 +5496,47 @@
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="T9" s="54"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>456</v>
+      </c>
+      <c r="E10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10" t="s">
+        <v>291</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>292</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5497,10 +5546,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE06A9D-8317-49A7-9A82-039A1B827ECC}">
-  <dimension ref="A1:AL17"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S5" sqref="S5:AL5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5509,41 +5558,43 @@
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.1796875" customWidth="1"/>
-    <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="54" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" customWidth="1"/>
+    <col min="9" max="9" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.453125" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.1796875" customWidth="1"/>
+    <col min="19" max="19" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:40">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -5556,110 +5607,116 @@
       <c r="D1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="55" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="R1" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="P1" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="17" t="s">
+      <c r="U1" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="AI1" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AL1" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38">
+      <c r="AN1" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
       <c r="A2" s="41" t="s">
         <v>34</v>
       </c>
@@ -5672,53 +5729,53 @@
       <c r="D2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="H2" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="I2" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="J2" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="H2" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="K2" s="44" t="s">
+      <c r="N2" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="O2" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="M2" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>19</v>
-      </c>
       <c r="R2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>28</v>
+        <v>331</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>28</v>
@@ -5774,8 +5831,14 @@
       <c r="AL2" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" s="18" customFormat="1" ht="15.65" customHeight="1">
+      <c r="AM2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" s="18" customFormat="1" ht="15.65" customHeight="1">
       <c r="A3" s="48" t="s">
         <v>27</v>
       </c>
@@ -5788,53 +5851,49 @@
       <c r="D3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="H3" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="I3" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="J3" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="M3" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="H3" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>334</v>
-      </c>
-      <c r="K3" s="19" t="s">
+      <c r="N3" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="O3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="M3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="P3" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>19</v>
-      </c>
       <c r="R3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="47" t="s">
-        <v>28</v>
+        <v>331</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="U3" s="47" t="s">
         <v>28</v>
@@ -5890,8 +5949,14 @@
       <c r="AL3" s="47" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" s="33" customFormat="1" ht="15.65" customHeight="1">
+      <c r="AM3" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN3" s="47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" s="33" customFormat="1" ht="15.65" customHeight="1">
       <c r="A4" s="33" t="s">
         <v>35</v>
       </c>
@@ -5904,53 +5969,49 @@
       <c r="D4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="H4" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="I4" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="J4" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="M4" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>335</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="K4" s="49" t="s">
+      <c r="N4" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="O4" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="M4" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="49" t="s">
-        <v>332</v>
-      </c>
-      <c r="P4" s="49" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q4" s="49" t="s">
-        <v>19</v>
-      </c>
       <c r="R4" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="35" t="s">
-        <v>28</v>
+        <v>331</v>
+      </c>
+      <c r="S4" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="49" t="s">
+        <v>19</v>
       </c>
       <c r="U4" s="35" t="s">
         <v>28</v>
@@ -6006,10 +6067,16 @@
       <c r="AL4" s="35" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:38">
+      <c r="AM4" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN4" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
       <c r="A5" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="17">
         <v>1</v>
@@ -6020,12 +6087,8 @@
       <c r="D5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>28</v>
-      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="17" t="s">
         <v>28</v>
       </c>
@@ -6060,13 +6123,13 @@
         <v>28</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="S5" s="17" t="s">
         <v>28</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="U5" s="17" t="s">
         <v>28</v>
@@ -6122,8 +6185,14 @@
       <c r="AL5" s="17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:38">
+      <c r="AM5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN5" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -6142,9 +6211,9 @@
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
-      <c r="S6" s="8"/>
+      <c r="S6" s="17"/>
       <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
+      <c r="U6" s="8"/>
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
@@ -6162,8 +6231,10 @@
       <c r="AJ6" s="17"/>
       <c r="AK6" s="17"/>
       <c r="AL6" s="17"/>
-    </row>
-    <row r="7" spans="1:38">
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -6182,9 +6253,9 @@
       <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="17"/>
       <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
+      <c r="U7" s="9"/>
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
       <c r="X7" s="17"/>
@@ -6202,8 +6273,10 @@
       <c r="AJ7" s="17"/>
       <c r="AK7" s="17"/>
       <c r="AL7" s="17"/>
-    </row>
-    <row r="8" spans="1:38">
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
+    </row>
+    <row r="8" spans="1:40">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -6222,9 +6295,9 @@
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
-      <c r="S8" s="9"/>
+      <c r="S8" s="17"/>
       <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="U8" s="9"/>
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
@@ -6242,8 +6315,10 @@
       <c r="AJ8" s="17"/>
       <c r="AK8" s="17"/>
       <c r="AL8" s="17"/>
-    </row>
-    <row r="9" spans="1:38">
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="17"/>
+    </row>
+    <row r="9" spans="1:40">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -6262,9 +6337,9 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
-      <c r="S9" s="8"/>
+      <c r="S9" s="17"/>
       <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
+      <c r="U9" s="8"/>
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
       <c r="X9" s="17"/>
@@ -6282,8 +6357,10 @@
       <c r="AJ9" s="17"/>
       <c r="AK9" s="17"/>
       <c r="AL9" s="17"/>
-    </row>
-    <row r="10" spans="1:38">
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+    </row>
+    <row r="10" spans="1:40">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -6302,9 +6379,9 @@
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
-      <c r="S10" s="9"/>
+      <c r="S10" s="17"/>
       <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
+      <c r="U10" s="9"/>
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
@@ -6322,8 +6399,10 @@
       <c r="AJ10" s="17"/>
       <c r="AK10" s="17"/>
       <c r="AL10" s="17"/>
-    </row>
-    <row r="11" spans="1:38">
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="17"/>
+    </row>
+    <row r="11" spans="1:40">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -6342,9 +6421,9 @@
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
-      <c r="S11" s="9"/>
+      <c r="S11" s="17"/>
       <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
+      <c r="U11" s="9"/>
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
       <c r="X11" s="17"/>
@@ -6362,8 +6441,10 @@
       <c r="AJ11" s="17"/>
       <c r="AK11" s="17"/>
       <c r="AL11" s="17"/>
-    </row>
-    <row r="12" spans="1:38">
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="17"/>
+    </row>
+    <row r="12" spans="1:40">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -6382,9 +6463,9 @@
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
-      <c r="S12" s="8"/>
+      <c r="S12" s="17"/>
       <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
+      <c r="U12" s="8"/>
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
       <c r="X12" s="17"/>
@@ -6402,8 +6483,10 @@
       <c r="AJ12" s="17"/>
       <c r="AK12" s="17"/>
       <c r="AL12" s="17"/>
-    </row>
-    <row r="13" spans="1:38">
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="17"/>
+    </row>
+    <row r="13" spans="1:40">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -6422,9 +6505,9 @@
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
-      <c r="S13" s="9"/>
+      <c r="S13" s="17"/>
       <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
+      <c r="U13" s="9"/>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
@@ -6442,8 +6525,10 @@
       <c r="AJ13" s="17"/>
       <c r="AK13" s="17"/>
       <c r="AL13" s="17"/>
-    </row>
-    <row r="14" spans="1:38">
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="17"/>
+    </row>
+    <row r="14" spans="1:40">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -6462,9 +6547,9 @@
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="17"/>
       <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
+      <c r="U14" s="9"/>
       <c r="V14" s="17"/>
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
@@ -6482,8 +6567,10 @@
       <c r="AJ14" s="17"/>
       <c r="AK14" s="17"/>
       <c r="AL14" s="17"/>
-    </row>
-    <row r="15" spans="1:38">
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="17"/>
+    </row>
+    <row r="15" spans="1:40">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -6502,9 +6589,9 @@
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
-      <c r="S15" s="9"/>
+      <c r="S15" s="17"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
+      <c r="U15" s="9"/>
       <c r="V15" s="17"/>
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
@@ -6522,8 +6609,10 @@
       <c r="AJ15" s="17"/>
       <c r="AK15" s="17"/>
       <c r="AL15" s="17"/>
-    </row>
-    <row r="16" spans="1:38">
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="17"/>
+    </row>
+    <row r="16" spans="1:40">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -6542,9 +6631,9 @@
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
-      <c r="S16" s="9"/>
+      <c r="S16" s="17"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
+      <c r="U16" s="9"/>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
       <c r="X16" s="17"/>
@@ -6562,8 +6651,10 @@
       <c r="AJ16" s="17"/>
       <c r="AK16" s="17"/>
       <c r="AL16" s="17"/>
-    </row>
-    <row r="17" spans="1:38">
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
+    </row>
+    <row r="17" spans="1:40">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -6582,9 +6673,9 @@
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
-      <c r="S17" s="9"/>
+      <c r="S17" s="17"/>
       <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
+      <c r="U17" s="9"/>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
       <c r="X17" s="17"/>
@@ -6602,6 +6693,8 @@
       <c r="AJ17" s="17"/>
       <c r="AK17" s="17"/>
       <c r="AL17" s="17"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6649,25 +6742,25 @@
         <v>73</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F1" s="41" t="s">
         <v>76</v>
       </c>
       <c r="G1" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="H1" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>341</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>342</v>
       </c>
       <c r="L1" s="41" t="s">
         <v>108</v>
@@ -6681,7 +6774,7 @@
     </row>
     <row r="2" spans="1:14" s="36" customFormat="1">
       <c r="A2" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="36">
         <v>1</v>
@@ -6690,31 +6783,31 @@
         <v>1</v>
       </c>
       <c r="D2" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" s="36" t="s">
         <v>343</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>344</v>
       </c>
       <c r="F2" s="36" t="s">
         <v>81</v>
       </c>
       <c r="G2" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="I2" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="H2" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="I2" s="36" t="s">
+      <c r="J2" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="K2" s="36" t="s">
         <v>347</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="L2" s="36" t="s">
         <v>348</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>349</v>
       </c>
       <c r="M2" s="36" t="s">
         <v>19</v>
@@ -6761,13 +6854,13 @@
         <v>98</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>351</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>352</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>90</v>
@@ -6790,7 +6883,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>130</v>
@@ -6881,133 +6974,133 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="L1" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="K1" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="L1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="O1" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>359</v>
-      </c>
       <c r="Q1" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S1" s="17" t="s">
         <v>13</v>
       </c>
       <c r="T1" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="U1" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="V1" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y1" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="V1" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="W1" s="17" t="s">
+      <c r="Z1" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="X1" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB1" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AD1" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="AA1" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG1" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="AD1" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="AI1" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="AH1" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="AL1" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="AK1" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="AT1" s="8" t="s">
-        <v>376</v>
       </c>
       <c r="AU1" s="8" t="s">
         <v>52</v>
@@ -7016,34 +7109,34 @@
         <v>53</v>
       </c>
       <c r="AW1" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AX1" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="AY1" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="BA1" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BB1" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BC1" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BD1" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BE1" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BF1" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="BF1" s="9" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:58">
@@ -7066,37 +7159,37 @@
         <v>57</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H2" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="I2" s="41" t="s">
         <v>329</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>330</v>
       </c>
       <c r="J2" s="48" t="s">
         <v>96</v>
       </c>
       <c r="K2" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="L2" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="41" t="s">
+      <c r="O2" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="P2" s="44" t="s">
         <v>388</v>
       </c>
-      <c r="O2" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="P2" s="44" t="s">
-        <v>389</v>
-      </c>
       <c r="Q2" s="44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R2" s="41" t="s">
         <v>28</v>
@@ -7242,7 +7335,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>28</v>
@@ -7418,37 +7511,37 @@
         <v>57</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H4" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="I4" s="48" t="s">
         <v>329</v>
-      </c>
-      <c r="I4" s="48" t="s">
-        <v>330</v>
       </c>
       <c r="J4" s="48" t="s">
         <v>30</v>
       </c>
       <c r="K4" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="48" t="s">
         <v>387</v>
       </c>
-      <c r="L4" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="48" t="s">
+      <c r="O4" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="P4" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="O4" s="48" t="s">
-        <v>331</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>389</v>
-      </c>
       <c r="Q4" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R4" s="48" t="s">
         <v>28</v>
@@ -7576,7 +7669,7 @@
     </row>
     <row r="5" spans="1:58">
       <c r="A5" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="41">
         <v>1</v>
@@ -8486,76 +8579,76 @@
         <v>2</v>
       </c>
       <c r="D1" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>122</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I1" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="J1" s="41" t="s">
         <v>393</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>394</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>395</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>397</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="O1" s="41" t="s">
         <v>398</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="P1" s="41" t="s">
         <v>399</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="Q1" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>48</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AB1" s="41"/>
       <c r="AC1" s="41"/>
@@ -8587,10 +8680,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" s="41" t="s">
         <v>57</v>
@@ -8676,10 +8769,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F3" s="41" t="s">
         <v>57</v>
@@ -8768,10 +8861,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G4" s="41" t="s">
         <v>28</v>
@@ -8865,10 +8958,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5" s="41" t="s">
         <v>28</v>
@@ -9340,94 +9433,94 @@
         <v>2</v>
       </c>
       <c r="D1" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="R1" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -10099,11 +10192,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F26082-EA83-4A35-BBD3-990DF7F89614}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="17.81640625" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.81640625" style="41" bestFit="1" customWidth="1"/>
@@ -10119,7 +10212,7 @@
     <col min="12" max="12" width="11" style="41" customWidth="1"/>
     <col min="13" max="13" width="118.453125" style="41" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="17.1796875" style="41" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="41"/>
+    <col min="16" max="16384" width="8.81640625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -10133,40 +10226,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E1" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1" s="43" t="s">
         <v>442</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="G1" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="43" t="s">
         <v>444</v>
       </c>
-      <c r="H1" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="I1" s="43" t="s">
+      <c r="J1" s="43" t="s">
         <v>445</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="K1" s="43" t="s">
         <v>446</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="L1" s="43" t="s">
         <v>447</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="M1" s="43" t="s">
         <v>448</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="N1" s="43" t="s">
         <v>449</v>
       </c>
-      <c r="N1" s="43" t="s">
-        <v>450</v>
-      </c>
       <c r="O1" s="43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="48" customFormat="1">
@@ -10207,7 +10300,7 @@
         <v>19</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N2" s="19" t="s">
         <v>115</v>
@@ -10252,14 +10345,14 @@
         <v>28</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="42">
         <v>1</v>
@@ -10477,11 +10570,11 @@
     <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="1.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11430,7 +11523,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView zoomScale="95" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11552,8 +11645,8 @@
       <c r="E3" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="42" t="s">
-        <v>131</v>
+      <c r="F3" s="45" t="s">
+        <v>114</v>
       </c>
       <c r="G3" s="42" t="s">
         <v>19</v>
@@ -11562,7 +11655,7 @@
         <v>57</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J3" s="42" t="s">
         <v>93</v>
@@ -11580,7 +11673,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="41">
         <v>1</v>
@@ -11610,7 +11703,7 @@
         <v>93</v>
       </c>
       <c r="K4" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L4" s="42" t="s">
         <v>130</v>
@@ -11624,7 +11717,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="41">
         <v>1</v>
@@ -11639,7 +11732,7 @@
         <v>93</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G5" s="41" t="s">
         <v>19</v>
@@ -11691,7 +11784,7 @@
     <col min="9" max="9" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -11705,43 +11798,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>98</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>90</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -11761,25 +11854,25 @@
         <v>93</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>57</v>
@@ -11813,19 +11906,19 @@
         <v>28</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>57</v>
@@ -11834,10 +11927,10 @@
         <v>19</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -12256,6 +12349,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -12472,26 +12584,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12508,22 +12619,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0FE4F8-7194-498E-8AFC-53B02ED9BDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FFC338-3EAE-443F-801B-FBE96E2B62FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="465">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1454,6 +1454,30 @@
   </si>
   <si>
     <t>Focus Child</t>
+  </si>
+  <si>
+    <t>personName4</t>
+  </si>
+  <si>
+    <t>testT4277</t>
+  </si>
+  <si>
+    <t>Perpetrator</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Supporting Document</t>
+  </si>
+  <si>
+    <t>Placement</t>
+  </si>
+  <si>
+    <t>PlacementPreservationStrategy</t>
+  </si>
+  <si>
+    <t>UPDATE_CATEGORY</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1587,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1612,6 +1636,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1641,7 +1677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1705,6 +1741,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{0244CCC0-C70B-4F46-AB95-4E0A98C0C68C}"/>
@@ -2814,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9D3CD3-B1E4-4B19-8BFF-5F4C690A39C5}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2835,7 +2873,8 @@
     <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="8.81640625" style="30"/>
+    <col min="18" max="20" width="8.81640625" style="30"/>
+    <col min="21" max="21" width="13.1796875" style="30" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="8.54296875" style="41"/>
   </cols>
   <sheetData>
@@ -3305,10 +3344,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AN11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3349,11 +3388,12 @@
     <col min="36" max="36" width="19.1796875" style="41" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="21.453125" style="41" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="14.81640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="110.453125" style="41" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.81640625" style="41"/>
+    <col min="39" max="39" width="14.81640625" style="54" customWidth="1"/>
+    <col min="40" max="40" width="110.453125" style="41" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.81640625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -3469,10 +3509,13 @@
         <v>224</v>
       </c>
       <c r="AM1" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="AN1" s="42" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:40">
       <c r="A2" s="48" t="s">
         <v>27</v>
       </c>
@@ -3524,13 +3567,13 @@
       <c r="Q2" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="57" t="s">
         <v>229</v>
       </c>
       <c r="S2" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="57" t="s">
         <v>229</v>
       </c>
       <c r="U2" s="48" t="s">
@@ -3561,11 +3604,11 @@
       <c r="AI2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AM2" s="41" t="s">
+      <c r="AN2" s="41" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="48" customFormat="1">
+    <row r="3" spans="1:40" s="48" customFormat="1">
       <c r="A3" s="48" t="s">
         <v>27</v>
       </c>
@@ -3617,7 +3660,7 @@
       <c r="Q3" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="57" t="s">
         <v>229</v>
       </c>
       <c r="S3" s="48" t="s">
@@ -3630,7 +3673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:40">
       <c r="A4" s="48" t="s">
         <v>27</v>
       </c>
@@ -3736,8 +3779,11 @@
       <c r="AL4" s="41" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:39">
+      <c r="AM4" s="54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
       <c r="A5" s="48" t="s">
         <v>27</v>
       </c>
@@ -3843,8 +3889,11 @@
       <c r="AL5" s="41" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:39">
+      <c r="AM5" s="54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6" s="48" t="s">
         <v>27</v>
       </c>
@@ -3950,8 +3999,11 @@
       <c r="AL6" s="41" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="AM6" s="54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7" s="48" t="s">
         <v>27</v>
       </c>
@@ -4057,8 +4109,11 @@
       <c r="AL7" s="41" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:39">
+      <c r="AM7" s="54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
       <c r="A8" s="48" t="s">
         <v>27</v>
       </c>
@@ -4167,8 +4222,11 @@
       <c r="AL8" s="41" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" spans="1:39">
+      <c r="AM8" s="54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
       <c r="A9" s="48" t="s">
         <v>27</v>
       </c>
@@ -4257,7 +4315,7 @@
         <v>115</v>
       </c>
       <c r="AG9" s="41" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="AH9" s="41" t="s">
         <v>115</v>
@@ -4266,17 +4324,216 @@
         <v>28</v>
       </c>
       <c r="AJ9" s="41" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="AK9" s="41" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="AL9" s="41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
-      <c r="R10" s="28"/>
+        <v>115</v>
+      </c>
+      <c r="AM9" s="54" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="B10" s="41">
+        <v>1</v>
+      </c>
+      <c r="C10" s="41">
+        <v>1</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="O10" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="P10" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="S10" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA10" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB10" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI10" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM10" s="54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" s="48" t="s">
+        <v>452</v>
+      </c>
+      <c r="B11" s="41">
+        <v>1</v>
+      </c>
+      <c r="C11" s="41">
+        <v>2</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="O11" s="41" t="s">
+        <v>463</v>
+      </c>
+      <c r="P11" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q11" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="S11" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="T11" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="W11" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="X11" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y11" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z11" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA11" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB11" s="41" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4953,10 +5210,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5536,6 +5793,130 @@
       </c>
       <c r="M10" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="58" customFormat="1">
+      <c r="A11" s="58" t="s">
+        <v>458</v>
+      </c>
+      <c r="B11" s="58">
+        <v>1</v>
+      </c>
+      <c r="C11" s="58">
+        <v>1</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>453</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="N11" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" s="58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="58" customFormat="1">
+      <c r="A12" s="58" t="s">
+        <v>458</v>
+      </c>
+      <c r="B12" s="58">
+        <v>1</v>
+      </c>
+      <c r="C12" s="58">
+        <v>2</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="N12" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" s="58" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -6902,7 +7283,7 @@
   <dimension ref="A1:BF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7853,8 +8234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A334D-3D40-4E6E-89BC-E0399D12F63C}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8042,7 +8423,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="41"/>
       <c r="T3" s="41"/>
-      <c r="U3" s="41" t="s">
+      <c r="U3" s="33" t="s">
         <v>60</v>
       </c>
       <c r="V3" s="41"/>
@@ -10663,8 +11044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71B7B8A-923B-44F0-B1DD-D8EF0B0C1EA2}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10766,7 +11147,7 @@
         <v>93</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>96</v>
+        <v>457</v>
       </c>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
@@ -12358,16 +12739,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -12584,6 +12955,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
   <ds:schemaRefs>
@@ -12593,16 +12974,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12619,4 +12990,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata13feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710CE334-9A8B-4E18-AAAA-557CF4B18012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A558DD5-9DEF-40CE-928A-3D221CFEB0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="544">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -5957,8 +5957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB965DA-197B-4614-A4A7-724632791DDF}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6058,11 +6058,14 @@
       <c r="K2" s="26" t="s">
         <v>263</v>
       </c>
+      <c r="L2" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="M2" s="26" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>28</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -6101,10 +6104,10 @@
       </c>
       <c r="L3" s="52"/>
       <c r="M3" s="52" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N3" s="52" t="s">
-        <v>264</v>
+        <v>28</v>
       </c>
       <c r="O3" s="52"/>
       <c r="P3" s="52"/>
@@ -6122,8 +6125,6 @@
       <c r="J4" s="52"/>
       <c r="K4" s="52"/>
       <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
       <c r="O4" s="52"/>
       <c r="P4" s="52"/>
     </row>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata13feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A558DD5-9DEF-40CE-928A-3D221CFEB0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D2C7A2-4E13-4B0C-91B1-439A08563B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="544">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -5957,8 +5957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB965DA-197B-4614-A4A7-724632791DDF}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6058,14 +6058,11 @@
       <c r="K2" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="L2" s="26" t="s">
-        <v>28</v>
-      </c>
       <c r="M2" s="26" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>264</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -6113,18 +6110,48 @@
       <c r="P3" s="52"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
+      <c r="A4" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="52">
+        <v>1</v>
+      </c>
+      <c r="C4" s="52">
+        <v>1</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="52" t="s">
+        <v>264</v>
+      </c>
       <c r="O4" s="52"/>
       <c r="P4" s="52"/>
     </row>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata13feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D2C7A2-4E13-4B0C-91B1-439A08563B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039CB853-21B0-4190-B012-7E205DD12FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="549">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1719,6 +1719,21 @@
   </si>
   <si>
     <t>Victim1,Victim2,folioPersonName2</t>
+  </si>
+  <si>
+    <t>Placement - Runaway or Child Abducted</t>
+  </si>
+  <si>
+    <t>Missing Youth Photo</t>
+  </si>
+  <si>
+    <t>Profile Photo</t>
+  </si>
+  <si>
+    <t>Person Photo</t>
+  </si>
+  <si>
+    <t>testimage.png</t>
   </si>
 </sst>
 </file>
@@ -4502,10 +4517,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
-  <dimension ref="A1:AN12"/>
+  <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -5862,93 +5877,338 @@
       <c r="AL11" s="52"/>
       <c r="AN11" s="52"/>
     </row>
-    <row r="12" spans="1:40" s="12" customFormat="1">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:40" s="52" customFormat="1">
+      <c r="A12" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" s="46">
+        <v>1</v>
+      </c>
+      <c r="C12" s="46">
+        <v>3</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="46" t="s">
+        <v>544</v>
+      </c>
+      <c r="O12" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="P12" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="S12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="W12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="X12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN12" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" s="52" customFormat="1">
+      <c r="A13" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" s="46">
+        <v>1</v>
+      </c>
+      <c r="C13" s="46">
+        <v>4</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="46" t="s">
+        <v>546</v>
+      </c>
+      <c r="O13" s="46" t="s">
+        <v>547</v>
+      </c>
+      <c r="P13" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="S13" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="W13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="X13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA13" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB13" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN13" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" s="12" customFormat="1">
+      <c r="A14" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="B12" s="12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="12" t="s">
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="O14" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="P14" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="Q12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="13" t="s">
+      <c r="Q14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="S12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="U12" s="13" t="s">
+      <c r="S14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="V12" s="13" t="s">
+      <c r="V14" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="W12" s="13" t="s">
+      <c r="W14" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="X12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y12" s="13" t="s">
+      <c r="X14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y14" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="Z12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA12" s="12" t="s">
+      <c r="Z14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AB12" s="12" t="s">
+      <c r="AB14" s="12" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5957,8 +6217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB965DA-197B-4614-A4A7-724632791DDF}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6692,8 +6952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7564,7 +7824,7 @@
         <v>19</v>
       </c>
       <c r="M14" s="52" t="s">
-        <v>307</v>
+        <v>28</v>
       </c>
       <c r="N14" s="52" t="s">
         <v>28</v>
@@ -7626,7 +7886,7 @@
         <v>19</v>
       </c>
       <c r="M15" s="52" t="s">
-        <v>307</v>
+        <v>28</v>
       </c>
       <c r="N15" s="52" t="s">
         <v>28</v>
@@ -7688,7 +7948,7 @@
         <v>19</v>
       </c>
       <c r="M16" s="52" t="s">
-        <v>307</v>
+        <v>28</v>
       </c>
       <c r="N16" s="52" t="s">
         <v>28</v>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata13feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata13feb\updated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039CB853-21B0-4190-B012-7E205DD12FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870311AA-8813-4005-A53E-E63504E443D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="549">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1843,7 +1843,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1890,12 +1890,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1951,7 +1945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2011,24 +2005,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{0244CCC0-C70B-4F46-AB95-4E0A98C0C68C}"/>
@@ -2499,229 +2492,229 @@
       <c r="Y2" s="52"/>
     </row>
     <row r="3" spans="1:25" s="18" customFormat="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="57">
-        <v>1</v>
-      </c>
-      <c r="C3" s="57">
-        <v>1</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="57" t="s">
+      <c r="B3" s="56">
+        <v>1</v>
+      </c>
+      <c r="C3" s="56">
+        <v>1</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="59" t="s">
+      <c r="M3" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="57" t="s">
+      <c r="P3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="57" t="s">
+      <c r="S3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="57" t="s">
+      <c r="T3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="57" t="s">
+      <c r="U3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="57" t="s">
+      <c r="V3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="57" t="s">
+      <c r="W3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="57" t="s">
+      <c r="X3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="57" t="s">
+      <c r="Y3" s="56" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="30" customFormat="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="57">
-        <v>1</v>
-      </c>
-      <c r="C4" s="57">
+      <c r="B4" s="56">
+        <v>1</v>
+      </c>
+      <c r="C4" s="56">
         <v>2</v>
       </c>
-      <c r="D4" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="57" t="s">
+      <c r="D4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="57" t="s">
+      <c r="N4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="57" t="s">
+      <c r="P4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="57" t="s">
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="57" t="s">
+      <c r="W4" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="57" t="s">
+      <c r="X4" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="57" t="s">
+      <c r="Y4" s="56" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="18" customFormat="1">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="57">
-        <v>1</v>
-      </c>
-      <c r="C5" s="57">
+      <c r="B5" s="56">
+        <v>1</v>
+      </c>
+      <c r="C5" s="56">
         <v>3</v>
       </c>
-      <c r="D5" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="57" t="s">
+      <c r="D5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="59" t="s">
+      <c r="M5" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="57" t="s">
+      <c r="P5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="57" t="s">
+      <c r="S5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="57" t="s">
+      <c r="T5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="57" t="s">
+      <c r="U5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="V5" s="57" t="s">
+      <c r="V5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="W5" s="57" t="s">
+      <c r="W5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="X5" s="57" t="s">
+      <c r="X5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="Y5" s="57" t="s">
+      <c r="Y5" s="56" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4517,10 +4510,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
-  <dimension ref="A1:AN14"/>
+  <dimension ref="A1:AR14"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:AR11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4566,7 +4559,7 @@
     <col min="41" max="16384" width="8.81640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:44">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -4688,7 +4681,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:44">
       <c r="A2" s="50" t="s">
         <v>27</v>
       </c>
@@ -4810,7 +4803,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="46" customFormat="1">
+    <row r="3" spans="1:44" s="46" customFormat="1">
       <c r="A3" s="50" t="s">
         <v>27</v>
       </c>
@@ -4932,7 +4925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:44">
       <c r="A4" s="50" t="s">
         <v>27</v>
       </c>
@@ -5054,7 +5047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:44">
       <c r="A5" s="50" t="s">
         <v>27</v>
       </c>
@@ -5176,7 +5169,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:44">
       <c r="A6" s="50" t="s">
         <v>27</v>
       </c>
@@ -5298,7 +5291,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:44">
       <c r="A7" s="50" t="s">
         <v>27</v>
       </c>
@@ -5420,7 +5413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:44">
       <c r="A8" s="50" t="s">
         <v>27</v>
       </c>
@@ -5542,7 +5535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:44">
       <c r="A9" s="50" t="s">
         <v>27</v>
       </c>
@@ -5594,7 +5587,7 @@
       <c r="Q9" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="R9" s="63" t="s">
+      <c r="R9" s="62" t="s">
         <v>231</v>
       </c>
       <c r="S9" s="50" t="s">
@@ -5664,20 +5657,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:44">
       <c r="A10" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="B10" s="52">
-        <v>1</v>
-      </c>
-      <c r="C10" s="52">
-        <v>1</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="52" t="s">
+      <c r="B10" s="46">
+        <v>1</v>
+      </c>
+      <c r="C10" s="46">
+        <v>1</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="46" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="46" t="s">
@@ -5686,114 +5679,120 @@
       <c r="G10" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="52" t="s">
+      <c r="H10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="O10" s="52" t="s">
+      <c r="O10" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="P10" s="52" t="s">
+      <c r="P10" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="Q10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10" s="55" t="s">
+      <c r="Q10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="S10" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="T10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="U10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="W10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="X10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA10" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB10" s="55" t="s">
+      <c r="S10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA10" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB10" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI10" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN10" s="52"/>
-    </row>
-    <row r="11" spans="1:40">
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF10" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG10" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH10" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ10" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK10" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL10" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM10" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="AN10" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO10" s="46"/>
+      <c r="AP10" s="46"/>
+      <c r="AQ10" s="46"/>
+      <c r="AR10" s="46"/>
+    </row>
+    <row r="11" spans="1:44">
       <c r="A11" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="B11" s="52">
-        <v>1</v>
-      </c>
-      <c r="C11" s="52">
+      <c r="B11" s="46">
+        <v>1</v>
+      </c>
+      <c r="C11" s="46">
         <v>2</v>
       </c>
-      <c r="D11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="52" t="s">
+      <c r="D11" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="46" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="46" t="s">
@@ -5802,82 +5801,87 @@
       <c r="G11" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="52" t="s">
+      <c r="H11" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="O11" s="52" t="s">
+      <c r="O11" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="P11" s="52" t="s">
+      <c r="P11" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="Q11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" s="55" t="s">
+      <c r="Q11" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="S11" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="T11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="U11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="V11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="W11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="X11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z11" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA11" s="52" t="s">
+      <c r="S11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="T11" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="W11" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="X11" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y11" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z11" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA11" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="AB11" s="52" t="s">
+      <c r="AB11" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="52"/>
-      <c r="AK11" s="52"/>
-      <c r="AL11" s="52"/>
-      <c r="AN11" s="52"/>
-    </row>
-    <row r="12" spans="1:40" s="52" customFormat="1">
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="46"/>
+      <c r="AG11" s="46"/>
+      <c r="AH11" s="46"/>
+      <c r="AI11" s="46"/>
+      <c r="AJ11" s="46"/>
+      <c r="AK11" s="46"/>
+      <c r="AL11" s="46"/>
+      <c r="AM11" s="46"/>
+      <c r="AN11" s="46"/>
+      <c r="AO11" s="46"/>
+      <c r="AP11" s="46"/>
+      <c r="AQ11" s="46"/>
+      <c r="AR11" s="46"/>
+    </row>
+    <row r="12" spans="1:44" s="52" customFormat="1">
       <c r="A12" s="46" t="s">
         <v>244</v>
       </c>
@@ -5999,7 +6003,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="52" customFormat="1">
+    <row r="13" spans="1:44" s="52" customFormat="1">
       <c r="A13" s="46" t="s">
         <v>244</v>
       </c>
@@ -6121,7 +6125,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="12" customFormat="1">
+    <row r="14" spans="1:44" s="12" customFormat="1">
       <c r="A14" s="12" t="s">
         <v>249</v>
       </c>
@@ -6275,10 +6279,10 @@
       <c r="L1" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="64" t="s">
         <v>262</v>
       </c>
       <c r="O1" s="52"/>
@@ -6952,7 +6956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -7600,127 +7604,127 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="56" customFormat="1">
-      <c r="A11" s="56" t="s">
+    <row r="11" spans="1:20" s="55" customFormat="1">
+      <c r="A11" s="55" t="s">
         <v>314</v>
       </c>
-      <c r="B11" s="56">
-        <v>1</v>
-      </c>
-      <c r="C11" s="56">
-        <v>1</v>
-      </c>
-      <c r="D11" s="56" t="s">
+      <c r="B11" s="55">
+        <v>1</v>
+      </c>
+      <c r="C11" s="55">
+        <v>1</v>
+      </c>
+      <c r="D11" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="G11" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="O11" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q11" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="S11" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="T11" s="56" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="56" customFormat="1">
-      <c r="A12" s="56" t="s">
+      <c r="G11" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" s="55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="55" customFormat="1">
+      <c r="A12" s="55" t="s">
         <v>314</v>
       </c>
-      <c r="B12" s="56">
-        <v>1</v>
-      </c>
-      <c r="C12" s="56">
+      <c r="B12" s="55">
+        <v>1</v>
+      </c>
+      <c r="C12" s="55">
         <v>2</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="55" t="s">
         <v>315</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="G12" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q12" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="S12" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="T12" s="56" t="s">
+      <c r="G12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" s="55" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8442,58 +8446,58 @@
       <c r="W2" s="52"/>
     </row>
     <row r="3" spans="1:23" s="16" customFormat="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="57">
-        <v>1</v>
-      </c>
-      <c r="C3" s="57">
-        <v>1</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="57" t="s">
+      <c r="B3" s="56">
+        <v>1</v>
+      </c>
+      <c r="C3" s="56">
+        <v>1</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="57" t="s">
+      <c r="M3" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="57" t="s">
+      <c r="N3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="57" t="s">
+      <c r="P3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="57" t="s">
+      <c r="Q3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="61"/>
+      <c r="R3" s="60"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="50" t="s">
@@ -8503,58 +8507,58 @@
       <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" s="16" customFormat="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="57">
-        <v>1</v>
-      </c>
-      <c r="C4" s="57">
+      <c r="B4" s="56">
+        <v>1</v>
+      </c>
+      <c r="C4" s="56">
         <v>2</v>
       </c>
-      <c r="D4" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="57" t="s">
+      <c r="D4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="57" t="s">
+      <c r="L4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="57" t="s">
+      <c r="N4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="57" t="s">
+      <c r="P4" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="61"/>
+      <c r="R4" s="60"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
@@ -8562,49 +8566,49 @@
       <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="57">
-        <v>1</v>
-      </c>
-      <c r="C5" s="57">
+      <c r="B5" s="56">
+        <v>1</v>
+      </c>
+      <c r="C5" s="56">
         <v>3</v>
       </c>
-      <c r="D5" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="57" t="s">
+      <c r="D5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="57" t="s">
+      <c r="L5" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="61"/>
+      <c r="N5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="60"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
@@ -8614,7 +8618,7 @@
       <c r="V5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="62" t="s">
+      <c r="W5" s="61" t="s">
         <v>34</v>
       </c>
     </row>
@@ -10723,60 +10727,60 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="46" customFormat="1" ht="58">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="57">
-        <v>1</v>
-      </c>
-      <c r="C2" s="57">
-        <v>1</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="57" t="s">
+      <c r="B2" s="56">
+        <v>1</v>
+      </c>
+      <c r="C2" s="56">
+        <v>1</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="K2" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="64" t="s">
+      <c r="K2" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="63" t="s">
         <v>471</v>
       </c>
-      <c r="N2" s="57" t="s">
+      <c r="N2" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="O2" s="57" t="s">
+      <c r="O2" s="56" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="46" customFormat="1" ht="29">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="57">
-        <v>1</v>
-      </c>
-      <c r="C3" s="57">
+      <c r="B3" s="56">
+        <v>1</v>
+      </c>
+      <c r="C3" s="56">
         <v>2</v>
       </c>
       <c r="D3" s="50" t="s">
@@ -10788,16 +10792,16 @@
       <c r="F3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="57" t="s">
+      <c r="G3" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="56" t="s">
         <v>116</v>
       </c>
       <c r="K3" s="50" t="s">
@@ -10806,13 +10810,13 @@
       <c r="L3" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="63" t="s">
         <v>472</v>
       </c>
-      <c r="N3" s="57" t="s">
+      <c r="N3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="57" t="s">
+      <c r="O3" s="56" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11959,124 +11963,124 @@
       </c>
     </row>
     <row r="3" spans="1:40" s="46" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="66">
-        <v>1</v>
-      </c>
-      <c r="C3" s="66">
-        <v>1</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="66" t="s">
+      <c r="B3" s="65">
+        <v>1</v>
+      </c>
+      <c r="C3" s="65">
+        <v>1</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="65" t="s">
         <v>348</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="65" t="s">
         <v>349</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="65" t="s">
         <v>350</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="66" t="s">
+      <c r="K3" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="L3" s="67" t="s">
+      <c r="L3" s="66" t="s">
         <v>541</v>
       </c>
-      <c r="M3" s="66" t="s">
+      <c r="M3" s="65" t="s">
         <v>352</v>
       </c>
-      <c r="N3" s="66" t="s">
+      <c r="N3" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="O3" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="66" t="s">
+      <c r="O3" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="65" t="s">
         <v>354</v>
       </c>
-      <c r="R3" s="66" t="s">
+      <c r="R3" s="65" t="s">
         <v>354</v>
       </c>
-      <c r="S3" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC3" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD3" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE3" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF3" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG3" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH3" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI3" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ3" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK3" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL3" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM3" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN3" s="68" t="s">
+      <c r="S3" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN3" s="67" t="s">
         <v>28</v>
       </c>
     </row>
@@ -13421,178 +13425,178 @@
       </c>
     </row>
     <row r="4" spans="1:58" s="18" customFormat="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="57">
-        <v>1</v>
-      </c>
-      <c r="C4" s="57">
-        <v>1</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="57" t="s">
+      <c r="B4" s="56">
+        <v>1</v>
+      </c>
+      <c r="C4" s="56">
+        <v>1</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="56" t="s">
         <v>410</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="56" t="s">
         <v>350</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="56" t="s">
         <v>352</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="56" t="s">
         <v>31</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="L4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="57" t="s">
+      <c r="L4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="56" t="s">
         <v>408</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="56" t="s">
         <v>353</v>
       </c>
-      <c r="P4" s="57" t="s">
+      <c r="P4" s="56" t="s">
         <v>409</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="56" t="s">
         <v>229</v>
       </c>
-      <c r="R4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="57" t="s">
+      <c r="R4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="U4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AW4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AX4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="BA4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="BC4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="BE4" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="BF4" s="57" t="s">
+      <c r="U4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF4" s="56" t="s">
         <v>28</v>
       </c>
     </row>
@@ -13827,43 +13831,43 @@
       <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" s="18" customFormat="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="57">
-        <v>1</v>
-      </c>
-      <c r="C2" s="57">
-        <v>1</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="57" t="s">
+      <c r="B2" s="56">
+        <v>1</v>
+      </c>
+      <c r="C2" s="56">
+        <v>1</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="57" t="s">
+      <c r="F2" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="56" t="s">
         <v>30</v>
       </c>
     </row>
@@ -14898,13 +14902,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15125,20 +15128,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15163,9 +15165,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata13feb\updated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870311AA-8813-4005-A53E-E63504E443D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C81AC28-2B2E-47F9-9A5B-4872B2B2C59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -810,9 +810,6 @@
     <t>Placement</t>
   </si>
   <si>
-    <t>PlacementPreservationStrategy</t>
-  </si>
-  <si>
     <t>testT4274</t>
   </si>
   <si>
@@ -1734,6 +1731,9 @@
   </si>
   <si>
     <t>testimage.png</t>
+  </si>
+  <si>
+    <t>Placement Preservation Strategy</t>
   </si>
 </sst>
 </file>
@@ -4512,8 +4512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
   <dimension ref="A1:AR14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:AR11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -5823,7 +5823,7 @@
         <v>247</v>
       </c>
       <c r="O11" s="46" t="s">
-        <v>248</v>
+        <v>548</v>
       </c>
       <c r="P11" s="46" t="s">
         <v>229</v>
@@ -5922,10 +5922,10 @@
         <v>19</v>
       </c>
       <c r="N12" s="46" t="s">
+        <v>543</v>
+      </c>
+      <c r="O12" s="46" t="s">
         <v>544</v>
-      </c>
-      <c r="O12" s="46" t="s">
-        <v>545</v>
       </c>
       <c r="P12" s="46" t="s">
         <v>229</v>
@@ -6044,10 +6044,10 @@
         <v>19</v>
       </c>
       <c r="N13" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="O13" s="46" t="s">
         <v>546</v>
-      </c>
-      <c r="O13" s="46" t="s">
-        <v>547</v>
       </c>
       <c r="P13" s="46" t="s">
         <v>229</v>
@@ -6056,7 +6056,7 @@
         <v>28</v>
       </c>
       <c r="R13" s="46" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="S13" s="46" t="s">
         <v>19</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="14" spans="1:44" s="12" customFormat="1">
       <c r="A14" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
@@ -6169,7 +6169,7 @@
         <v>247</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P14" s="12" t="s">
         <v>229</v>
@@ -6187,19 +6187,19 @@
         <v>28</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V14" s="13" t="s">
         <v>247</v>
       </c>
       <c r="W14" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="Y14" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z14" s="13" t="s">
         <v>28</v>
@@ -6253,37 +6253,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="F1" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="G1" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="H1" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="I1" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="L1" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="M1" s="64" t="s">
         <v>127</v>
       </c>
       <c r="N1" s="64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O1" s="52"/>
       <c r="P1" s="52"/>
@@ -6320,7 +6320,7 @@
         <v>72</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>28</v>
@@ -6414,7 +6414,7 @@
         <v>19</v>
       </c>
       <c r="N4" s="52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O4" s="52"/>
       <c r="P4" s="52"/>
@@ -6467,13 +6467,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="52" t="s">
         <v>266</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6484,7 +6484,7 @@
         <v>72</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>19</v>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -6518,7 +6518,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B4" s="29">
         <v>2</v>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B5" s="52">
         <v>1</v>
@@ -6558,7 +6558,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B6" s="29">
         <v>1</v>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B7" s="29">
         <v>2</v>
@@ -6598,7 +6598,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B8" s="29">
         <v>1</v>
@@ -6618,7 +6618,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B9" s="29">
         <v>2</v>
@@ -6638,7 +6638,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B10" s="29">
         <v>1</v>
@@ -6658,7 +6658,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B11" s="29">
         <v>2</v>
@@ -6709,55 +6709,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>287</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>288</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -6777,7 +6777,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G2" s="52" t="s">
         <v>72</v>
@@ -6813,7 +6813,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="52" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S2" s="52" t="s">
         <v>19</v>
@@ -6875,7 +6875,7 @@
         <v>19</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>19</v>
@@ -6937,7 +6937,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S4" s="46" t="s">
         <v>19</v>
@@ -6956,7 +6956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -6995,55 +6995,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="F1" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="G1" s="43" t="s">
         <v>294</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>295</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="L1" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="43" t="s">
-        <v>287</v>
-      </c>
       <c r="M1" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="N1" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="O1" s="42" t="s">
         <v>298</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="P1" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="Q1" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="R1" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="S1" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="T1" s="42" t="s">
         <v>303</v>
-      </c>
-      <c r="T1" s="42" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="16" customFormat="1">
@@ -7057,13 +7057,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="E2" s="46" t="s">
-        <v>306</v>
-      </c>
       <c r="F2" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>59</v>
@@ -7119,13 +7119,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>59</v>
@@ -7184,52 +7184,52 @@
         <v>28</v>
       </c>
       <c r="E4" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="52" t="s">
         <v>306</v>
       </c>
-      <c r="F4" s="52" t="s">
-        <v>306</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="52" t="s">
-        <v>307</v>
-      </c>
       <c r="N4" s="52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O4" s="52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P4" s="52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q4" s="52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R4" s="52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S4" s="52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T4" s="52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -7350,7 +7350,7 @@
         <v>28</v>
       </c>
       <c r="S6" s="51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T6" s="52" t="s">
         <v>28</v>
@@ -7367,13 +7367,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" s="52" t="s">
         <v>305</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>306</v>
-      </c>
       <c r="F7" s="52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G7" s="52" t="s">
         <v>59</v>
@@ -7394,7 +7394,7 @@
         <v>19</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N7" s="52" t="s">
         <v>28</v>
@@ -7429,13 +7429,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G8" s="52" t="s">
         <v>59</v>
@@ -7456,7 +7456,7 @@
         <v>19</v>
       </c>
       <c r="M8" s="52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N8" s="52" t="s">
         <v>28</v>
@@ -7491,13 +7491,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G9" s="52" t="s">
         <v>59</v>
@@ -7518,7 +7518,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="52" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N9" s="52" t="s">
         <v>28</v>
@@ -7553,13 +7553,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G10" s="52" t="s">
         <v>59</v>
@@ -7580,7 +7580,7 @@
         <v>19</v>
       </c>
       <c r="M10" s="52" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N10" s="52" t="s">
         <v>28</v>
@@ -7606,7 +7606,7 @@
     </row>
     <row r="11" spans="1:20" s="55" customFormat="1">
       <c r="A11" s="55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B11" s="55">
         <v>1</v>
@@ -7615,13 +7615,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>28</v>
@@ -7668,7 +7668,7 @@
     </row>
     <row r="12" spans="1:20" s="55" customFormat="1">
       <c r="A12" s="55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B12" s="55">
         <v>1</v>
@@ -7677,13 +7677,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>28</v>
@@ -7730,7 +7730,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B13" s="52">
         <v>1</v>
@@ -7801,13 +7801,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G14" s="52" t="s">
         <v>59</v>
@@ -7863,13 +7863,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G15" s="52" t="s">
         <v>59</v>
@@ -7925,13 +7925,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G16" s="52" t="s">
         <v>59</v>
@@ -7978,7 +7978,7 @@
     </row>
     <row r="17" spans="1:20" s="46" customFormat="1">
       <c r="A17" s="46" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -7987,13 +7987,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G17" s="46" t="s">
         <v>59</v>
@@ -8014,7 +8014,7 @@
         <v>19</v>
       </c>
       <c r="M17" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N17" s="46" t="s">
         <v>28</v>
@@ -8040,7 +8040,7 @@
     </row>
     <row r="18" spans="1:20" s="46" customFormat="1">
       <c r="A18" s="46" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B18" s="46">
         <v>1</v>
@@ -8049,13 +8049,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>59</v>
@@ -8076,7 +8076,7 @@
         <v>19</v>
       </c>
       <c r="M18" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N18" s="46" t="s">
         <v>28</v>
@@ -8146,25 +8146,25 @@
         <v>74</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F1" s="52" t="s">
         <v>77</v>
       </c>
       <c r="G1" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="H1" s="52" t="s">
         <v>358</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="I1" s="52" t="s">
         <v>359</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>361</v>
-      </c>
-      <c r="K1" s="52" t="s">
-        <v>362</v>
       </c>
       <c r="L1" s="52" t="s">
         <v>108</v>
@@ -8187,31 +8187,31 @@
         <v>1</v>
       </c>
       <c r="D2" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>363</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>364</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>82</v>
       </c>
       <c r="G2" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="I2" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="H2" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="I2" s="34" t="s">
+      <c r="J2" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="K2" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="L2" s="34" t="s">
         <v>368</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>369</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>19</v>
@@ -8258,13 +8258,13 @@
         <v>98</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>372</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>90</v>
@@ -9043,76 +9043,76 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>123</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I1" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="J1" s="52" t="s">
         <v>413</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>414</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="L1" s="52" t="s">
         <v>415</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="M1" s="52" t="s">
         <v>416</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="N1" s="52" t="s">
         <v>417</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="O1" s="52" t="s">
         <v>418</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="P1" s="52" t="s">
         <v>419</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="Q1" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>52</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AB1" s="52"/>
       <c r="AC1" s="52"/>
@@ -9144,7 +9144,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E2" s="52" t="s">
         <v>154</v>
@@ -9233,7 +9233,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>154</v>
@@ -9325,7 +9325,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F4" s="52" t="s">
         <v>154</v>
@@ -9422,7 +9422,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F5" s="52" t="s">
         <v>154</v>
@@ -9897,94 +9897,94 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="52" t="s">
         <v>444</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="R1" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -10690,37 +10690,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E1" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1" s="41" t="s">
         <v>462</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="22" t="s">
         <v>463</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>464</v>
       </c>
       <c r="H1" s="41" t="s">
         <v>158</v>
       </c>
       <c r="I1" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="J1" s="41" t="s">
         <v>465</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>466</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>467</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>469</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>470</v>
       </c>
       <c r="O1" s="41" t="s">
         <v>227</v>
@@ -10764,7 +10764,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="63" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>116</v>
@@ -10811,7 +10811,7 @@
         <v>28</v>
       </c>
       <c r="M3" s="63" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N3" s="56" t="s">
         <v>30</v>
@@ -10995,103 +10995,103 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>473</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>474</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="AB1" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="AH1" s="5" t="s">
-        <v>494</v>
-      </c>
       <c r="AI1" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
         <v>473</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>474</v>
       </c>
       <c r="AK1" s="5" t="s">
         <v>13</v>
@@ -11100,7 +11100,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -11145,13 +11145,13 @@
         <v>28</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>496</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>497</v>
       </c>
       <c r="S2" s="49"/>
       <c r="T2" s="49"/>
@@ -11162,10 +11162,10 @@
         <v>28</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>131</v>
@@ -11174,7 +11174,7 @@
         <v>28</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AB2" s="5">
         <v>4</v>
@@ -11234,34 +11234,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>504</v>
       </c>
       <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -11321,31 +11321,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>511</v>
-      </c>
       <c r="L1" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>13</v>
@@ -11353,7 +11353,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -11369,10 +11369,10 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>513</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>28</v>
@@ -11419,87 +11419,87 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>516</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>158</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>522</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>523</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>66</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>65</v>
       </c>
       <c r="U1" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>530</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>531</v>
       </c>
       <c r="AB1" s="5" t="s">
         <v>163</v>
       </c>
       <c r="AC1" s="52" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -11535,16 +11535,16 @@
         <v>116</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>533</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>534</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>28</v>
@@ -11559,24 +11559,24 @@
         <v>93</v>
       </c>
       <c r="W2" s="52" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="X2" s="52" t="s">
         <v>116</v>
       </c>
       <c r="Y2" s="52"/>
       <c r="Z2" s="52" t="s">
+        <v>536</v>
+      </c>
+      <c r="AA2" s="52" t="s">
         <v>537</v>
-      </c>
-      <c r="AA2" s="52" t="s">
-        <v>538</v>
       </c>
       <c r="AB2" s="52"/>
       <c r="AC2" s="52"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -11627,7 +11627,7 @@
         <v>93</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>28</v>
@@ -11732,103 +11732,103 @@
         <v>4</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>158</v>
       </c>
       <c r="G1" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="Q1" s="17" t="s">
-        <v>329</v>
-      </c>
       <c r="R1" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S1" s="17" t="s">
         <v>13</v>
       </c>
       <c r="T1" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>347</v>
       </c>
       <c r="AL1" s="8" t="s">
         <v>54</v>
@@ -11860,40 +11860,40 @@
         <v>19</v>
       </c>
       <c r="G2" s="52" t="s">
+        <v>347</v>
+      </c>
+      <c r="H2" s="52" t="s">
         <v>348</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="I2" s="52" t="s">
         <v>349</v>
-      </c>
-      <c r="I2" s="52" t="s">
-        <v>350</v>
       </c>
       <c r="J2" s="52" t="s">
         <v>59</v>
       </c>
       <c r="K2" s="42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L2" s="42" t="s">
         <v>155</v>
       </c>
       <c r="M2" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="O2" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="O2" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>354</v>
-      </c>
       <c r="R2" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S2" s="17" t="s">
         <v>19</v>
@@ -11982,40 +11982,40 @@
         <v>30</v>
       </c>
       <c r="G3" s="65" t="s">
+        <v>347</v>
+      </c>
+      <c r="H3" s="65" t="s">
         <v>348</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="I3" s="65" t="s">
         <v>349</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>350</v>
       </c>
       <c r="J3" s="65" t="s">
         <v>59</v>
       </c>
       <c r="K3" s="65" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L3" s="66" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M3" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="N3" s="65" t="s">
         <v>352</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="O3" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="O3" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="65" t="s">
-        <v>354</v>
-      </c>
       <c r="R3" s="65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S3" s="65" t="s">
         <v>19</v>
@@ -12100,40 +12100,40 @@
       <c r="E4" s="47"/>
       <c r="F4" s="47"/>
       <c r="G4" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="H4" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="I4" s="31" t="s">
         <v>349</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>350</v>
       </c>
       <c r="J4" s="31" t="s">
         <v>59</v>
       </c>
       <c r="K4" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="L4" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="L4" s="48" t="s">
-        <v>356</v>
-      </c>
       <c r="M4" s="47" t="s">
+        <v>351</v>
+      </c>
+      <c r="N4" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="O4" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="O4" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="47" t="s">
-        <v>354</v>
-      </c>
       <c r="R4" s="47" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S4" s="47" t="s">
         <v>19</v>
@@ -12907,133 +12907,133 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="L1" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="K1" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="L1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="O1" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>379</v>
-      </c>
       <c r="Q1" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S1" s="17" t="s">
         <v>13</v>
       </c>
       <c r="T1" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="U1" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="V1" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y1" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="V1" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="W1" s="17" t="s">
+      <c r="Z1" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="X1" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB1" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="AD1" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="AA1" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG1" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="AD1" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="AI1" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="AH1" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="AL1" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="AK1" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="AT1" s="8" t="s">
-        <v>396</v>
       </c>
       <c r="AU1" s="8" t="s">
         <v>54</v>
@@ -13045,31 +13045,31 @@
         <v>227</v>
       </c>
       <c r="AX1" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="AY1" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="BA1" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BB1" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BC1" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BD1" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BE1" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BF1" s="9" t="s">
         <v>404</v>
-      </c>
-      <c r="BF1" s="9" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:58">
@@ -13092,34 +13092,34 @@
         <v>59</v>
       </c>
       <c r="G2" s="52" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>351</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="K2" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="H2" s="52" t="s">
-        <v>350</v>
-      </c>
-      <c r="I2" s="52" t="s">
+      <c r="L2" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="O2" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="J2" s="46" t="s">
-        <v>351</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="L2" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="52" t="s">
+      <c r="P2" s="42" t="s">
         <v>408</v>
-      </c>
-      <c r="O2" s="52" t="s">
-        <v>353</v>
-      </c>
-      <c r="P2" s="42" t="s">
-        <v>409</v>
       </c>
       <c r="Q2" s="42" t="s">
         <v>229</v>
@@ -13268,7 +13268,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>28</v>
@@ -13444,34 +13444,34 @@
         <v>59</v>
       </c>
       <c r="G4" s="56" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J4" s="56" t="s">
         <v>31</v>
       </c>
       <c r="K4" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="56" t="s">
         <v>407</v>
       </c>
-      <c r="L4" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="56" t="s">
+      <c r="O4" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="P4" s="56" t="s">
         <v>408</v>
-      </c>
-      <c r="O4" s="56" t="s">
-        <v>353</v>
-      </c>
-      <c r="P4" s="56" t="s">
-        <v>409</v>
       </c>
       <c r="Q4" s="56" t="s">
         <v>229</v>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata25feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata26feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB13309-4A10-4AF9-B0D9-1F374B9FDE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE4624D-CED8-435A-8903-15835E52F507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3234" uniqueCount="578">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -359,162 +359,162 @@
     <t>TOAST_MSG_VERIFY</t>
   </si>
   <si>
+    <t>Consult with Attorney</t>
+  </si>
+  <si>
+    <t>Child Removed</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>personName2</t>
+  </si>
+  <si>
+    <t>personName1</t>
+  </si>
+  <si>
+    <t>In-Person</t>
+  </si>
+  <si>
+    <t>Court</t>
+  </si>
+  <si>
+    <t>randomText</t>
+  </si>
+  <si>
+    <t>Victim1,Victim2,folioPersonName2</t>
+  </si>
+  <si>
+    <t>Victim1,Victim2,Perpetrator1,Perpetrator2,folioPersonName1,folioPersonName2</t>
+  </si>
+  <si>
+    <t>personName2,personName4</t>
+  </si>
+  <si>
+    <t>personName1,personName2,personName3,personName4</t>
+  </si>
+  <si>
+    <t>testT4148</t>
+  </si>
+  <si>
+    <t>TRIBAL_NEW_BTN</t>
+  </si>
+  <si>
+    <t>CONTACT_START_DATE_TIME</t>
+  </si>
+  <si>
+    <t>CONTACT_METHOD</t>
+  </si>
+  <si>
+    <t>STAFF_PERSON</t>
+  </si>
+  <si>
+    <t>OTHER_STAFF_PRESENT</t>
+  </si>
+  <si>
+    <t>PARTICIPANT_TYPE</t>
+  </si>
+  <si>
+    <t>CONTINUED_ICWA_INQUIRY</t>
+  </si>
+  <si>
     <t>DOCUMENTATION_STATUS</t>
   </si>
   <si>
-    <t>Consult with Attorney</t>
-  </si>
-  <si>
-    <t>Child Removed</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>personName2</t>
-  </si>
-  <si>
-    <t>personName1</t>
-  </si>
-  <si>
-    <t>In-Person</t>
-  </si>
-  <si>
-    <t>Court</t>
-  </si>
-  <si>
-    <t>randomText</t>
+    <t>FOL_TRIBAL_CONTACTID_VERIFY</t>
+  </si>
+  <si>
+    <t>TRIBALINQUIRY_COLLABORATION_VERIFY</t>
+  </si>
+  <si>
+    <t>CONTACTMETHOD_VERIFY</t>
+  </si>
+  <si>
+    <t>STATUSNARRATIVE_VERIFY</t>
+  </si>
+  <si>
+    <t>PARTICIPANT_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>OTHERLOCATION_VERIFY</t>
+  </si>
+  <si>
+    <t>REASONTOKNOWRATIONALE_VERIFY</t>
+  </si>
+  <si>
+    <t>INITIALICWAINQ_VERIFY</t>
+  </si>
+  <si>
+    <t>INDIANCHILDINQ_VERIFY</t>
+  </si>
+  <si>
+    <t>MEMBEROFTRIBAL_VERIFY</t>
+  </si>
+  <si>
+    <t>IFTESREASON1_VERIFY</t>
+  </si>
+  <si>
+    <t>ISPARENTMEMBER_VERIFY</t>
+  </si>
+  <si>
+    <t>RECEIVESERVICE_VERIFY</t>
+  </si>
+  <si>
+    <t>IFTESREASON2_VERIFY</t>
+  </si>
+  <si>
+    <t>RESIDEONRESERVATION_VERIFY</t>
+  </si>
+  <si>
+    <t>ANYFAMILYIDENTIFIED_VERIFY</t>
+  </si>
+  <si>
+    <t>RECEIVESFEDERALSERVICE_VERIFY</t>
+  </si>
+  <si>
+    <t>MemberofTribeAlaskaNativeVillage</t>
+  </si>
+  <si>
+    <t>ifYesThenWhichTribe1</t>
+  </si>
+  <si>
+    <t>IsParentMemberOfTribe</t>
+  </si>
+  <si>
+    <t>ifYesThenWhichTribe2</t>
+  </si>
+  <si>
+    <t>ReceivesServiceBenefitFromTribe</t>
+  </si>
+  <si>
+    <t>ifYesThenWhichTribe3</t>
+  </si>
+  <si>
+    <t>ResidesOnReservationTribalLand</t>
+  </si>
+  <si>
+    <t>AnyFamilyIdentifiedAncestryHeritage</t>
+  </si>
+  <si>
+    <t>ReceivesFederalServiceTribalBenefit</t>
+  </si>
+  <si>
+    <t>Tribal Inquiry</t>
+  </si>
+  <si>
+    <t>Clerical Worker1 Contra Costa</t>
+  </si>
+  <si>
+    <t>Reporting Party</t>
+  </si>
+  <si>
+    <t>Continue to Inquire</t>
   </si>
   <si>
     <t>Final</t>
   </si>
   <si>
-    <t>Victim1,Victim2,folioPersonName2</t>
-  </si>
-  <si>
-    <t>Victim1,Victim2,Perpetrator1,Perpetrator2,folioPersonName1,folioPersonName2</t>
-  </si>
-  <si>
-    <t>personName2,personName4</t>
-  </si>
-  <si>
-    <t>personName1,personName2,personName3,personName4</t>
-  </si>
-  <si>
-    <t>testT4148</t>
-  </si>
-  <si>
-    <t>TRIBAL_NEW_BTN</t>
-  </si>
-  <si>
-    <t>CONTACT_START_DATE_TIME</t>
-  </si>
-  <si>
-    <t>CONTACT_METHOD</t>
-  </si>
-  <si>
-    <t>STAFF_PERSON</t>
-  </si>
-  <si>
-    <t>OTHER_STAFF_PRESENT</t>
-  </si>
-  <si>
-    <t>PARTICIPANT_TYPE</t>
-  </si>
-  <si>
-    <t>CONTINUED_ICWA_INQUIRY</t>
-  </si>
-  <si>
-    <t>FOL_TRIBAL_CONTACTID_VERIFY</t>
-  </si>
-  <si>
-    <t>TRIBALINQUIRY_COLLABORATION_VERIFY</t>
-  </si>
-  <si>
-    <t>CONTACTMETHOD_VERIFY</t>
-  </si>
-  <si>
-    <t>STATUSNARRATIVE_VERIFY</t>
-  </si>
-  <si>
-    <t>PARTICIPANT_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>OTHERLOCATION_VERIFY</t>
-  </si>
-  <si>
-    <t>REASONTOKNOWRATIONALE_VERIFY</t>
-  </si>
-  <si>
-    <t>INITIALICWAINQ_VERIFY</t>
-  </si>
-  <si>
-    <t>INDIANCHILDINQ_VERIFY</t>
-  </si>
-  <si>
-    <t>MEMBEROFTRIBAL_VERIFY</t>
-  </si>
-  <si>
-    <t>IFTESREASON1_VERIFY</t>
-  </si>
-  <si>
-    <t>ISPARENTMEMBER_VERIFY</t>
-  </si>
-  <si>
-    <t>RECEIVESERVICE_VERIFY</t>
-  </si>
-  <si>
-    <t>IFTESREASON2_VERIFY</t>
-  </si>
-  <si>
-    <t>RESIDEONRESERVATION_VERIFY</t>
-  </si>
-  <si>
-    <t>ANYFAMILYIDENTIFIED_VERIFY</t>
-  </si>
-  <si>
-    <t>RECEIVESFEDERALSERVICE_VERIFY</t>
-  </si>
-  <si>
-    <t>MemberofTribeAlaskaNativeVillage</t>
-  </si>
-  <si>
-    <t>ifYesThenWhichTribe1</t>
-  </si>
-  <si>
-    <t>IsParentMemberOfTribe</t>
-  </si>
-  <si>
-    <t>ifYesThenWhichTribe2</t>
-  </si>
-  <si>
-    <t>ReceivesServiceBenefitFromTribe</t>
-  </si>
-  <si>
-    <t>ifYesThenWhichTribe3</t>
-  </si>
-  <si>
-    <t>ResidesOnReservationTribalLand</t>
-  </si>
-  <si>
-    <t>AnyFamilyIdentifiedAncestryHeritage</t>
-  </si>
-  <si>
-    <t>ReceivesFederalServiceTribalBenefit</t>
-  </si>
-  <si>
-    <t>Tribal Inquiry</t>
-  </si>
-  <si>
-    <t>Clerical Worker1 Contra Costa</t>
-  </si>
-  <si>
-    <t>Reporting Party</t>
-  </si>
-  <si>
-    <t>Continue to Inquire</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -563,790 +563,790 @@
     <t>ASSIGNMENT_DESK</t>
   </si>
   <si>
+    <t>Child Welfare Court</t>
+  </si>
+  <si>
+    <t>Title IV-E Indian Tribe</t>
+  </si>
+  <si>
+    <t>Juvenile Probation</t>
+  </si>
+  <si>
+    <t>Family Maintenance No Placement</t>
+  </si>
+  <si>
+    <t>RELATED_FOLIOS_TAB</t>
+  </si>
+  <si>
+    <t>FOLIO_COMMERCIALSEXUALEXPLOITATION_TAB</t>
+  </si>
+  <si>
+    <t>CSE_PERSON</t>
+  </si>
+  <si>
+    <t>SelectFolioPersonRB</t>
+  </si>
+  <si>
+    <t>NextBt</t>
+  </si>
+  <si>
+    <t>CSEType</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>saveBtn</t>
+  </si>
+  <si>
+    <t>AddInstancesofCommercialSexualExploitation</t>
+  </si>
+  <si>
+    <t>CSEType1</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>At Risk</t>
+  </si>
+  <si>
+    <t>Victim Before Foster Care</t>
+  </si>
+  <si>
+    <t>personName4</t>
+  </si>
+  <si>
+    <t>FOLIO_AdministrativeHearings_TAB</t>
+  </si>
+  <si>
+    <t>newBtn</t>
+  </si>
+  <si>
+    <t>CorrespondenceID</t>
+  </si>
+  <si>
+    <t>allegedPerpetrator</t>
+  </si>
+  <si>
+    <t>PerpetratorNotificationMethod</t>
+  </si>
+  <si>
+    <t>SOC834ResponseReceivedDate</t>
+  </si>
+  <si>
+    <t>DOJNotificationDate</t>
+  </si>
+  <si>
+    <t>PerpetratorNotificationDate</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>FOLIO_DETAILS_TAB</t>
+  </si>
+  <si>
+    <t>PATHWAY</t>
+  </si>
+  <si>
+    <t>APPROVAL_SUPERVISOR</t>
+  </si>
+  <si>
+    <t>APPROVAL_SUPERVISOR_LINK</t>
+  </si>
+  <si>
+    <t>INVESTIGATION_CLOSED_DATE</t>
+  </si>
+  <si>
+    <t>FOLIOREF_VERIFY</t>
+  </si>
+  <si>
+    <t>RECORD_STATUS</t>
+  </si>
+  <si>
+    <t>REFERRAL_CLOSED_DATE</t>
+  </si>
+  <si>
+    <t>Investigation</t>
+  </si>
+  <si>
+    <t>ERSupervisorContraCosta</t>
+  </si>
+  <si>
+    <t>Pending Approval</t>
+  </si>
+  <si>
+    <t>Recalled</t>
+  </si>
+  <si>
+    <t>Resubmitted</t>
+  </si>
+  <si>
+    <t>ASSIGNMENTS_TAB</t>
+  </si>
+  <si>
+    <t>PERSON</t>
+  </si>
+  <si>
+    <t>PERSON_LINK</t>
+  </si>
+  <si>
+    <t>START_DATE</t>
+  </si>
+  <si>
+    <t>WORKER_ROLE</t>
+  </si>
+  <si>
+    <t>FOLIO_ASSIGNMENT_ID</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>AUDIT_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>NEW_VALUE</t>
+  </si>
+  <si>
+    <t>HLSupervisorContraCosta</t>
+  </si>
+  <si>
+    <t>Adoptions Worker</t>
+  </si>
+  <si>
+    <t>autoText</t>
+  </si>
+  <si>
+    <t>Case Aide</t>
+  </si>
+  <si>
+    <t>testPOM</t>
+  </si>
+  <si>
+    <t>ASN-000001507319</t>
+  </si>
+  <si>
+    <t>CMManagerContraCosta</t>
+  </si>
+  <si>
+    <t>testT4258</t>
+  </si>
+  <si>
+    <t>CMWorkerContraCosta</t>
+  </si>
+  <si>
+    <t>Placement Worker</t>
+  </si>
+  <si>
+    <t>FOLIO_NEARFATALITY_TAB</t>
+  </si>
+  <si>
+    <t>allegedVictim</t>
+  </si>
+  <si>
+    <t>isChildFatalityNear</t>
+  </si>
+  <si>
+    <t>CircumstanceType</t>
+  </si>
+  <si>
+    <t>CircumstanceComments</t>
+  </si>
+  <si>
+    <t>CountyOfIncident</t>
+  </si>
+  <si>
+    <t>ResidenceTimeFatalityNearFat</t>
+  </si>
+  <si>
+    <t>IsFatalityNearDateKnown</t>
+  </si>
+  <si>
+    <t>DateFatalityNear</t>
+  </si>
+  <si>
+    <t>FOLIO_PERSON_NAME</t>
+  </si>
+  <si>
+    <t>CHILD_FATALITY_OR_NEARFATALITY</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>Fatality</t>
+  </si>
+  <si>
+    <t>Accidental</t>
+  </si>
+  <si>
+    <t>Calaveras</t>
+  </si>
+  <si>
+    <t>Foster Care/Out-of-Home Care</t>
+  </si>
+  <si>
+    <t>Estimated</t>
+  </si>
+  <si>
+    <t>Contra Costa</t>
+  </si>
+  <si>
+    <t>FOLIO_CORRESPONDENCE_TAB</t>
+  </si>
+  <si>
+    <t>CACI_REPORT</t>
+  </si>
+  <si>
+    <t>PERPARATOR</t>
+  </si>
+  <si>
+    <t>NAME_UNIT_WITHIN_COUNTY</t>
+  </si>
+  <si>
+    <t>RETURN_ADDRESS_WITHIN_COUNTY</t>
+  </si>
+  <si>
+    <t>PHOTO_TAKEN_OFSUBSTANTIATED_ALLEGATION</t>
+  </si>
+  <si>
+    <t>PHONE_NUMBER</t>
+  </si>
+  <si>
+    <t>CROSSREPORT_SCAR</t>
+  </si>
+  <si>
+    <t>AGENCY_NAME</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>AGENCY_TYPE</t>
+  </si>
+  <si>
+    <t>CACI_REPORTID</t>
+  </si>
+  <si>
+    <t>CORRESPONDECE_TYPE</t>
+  </si>
+  <si>
+    <t>STATUS_TYPE</t>
+  </si>
+  <si>
+    <t>REPORTID_VERIFY</t>
+  </si>
+  <si>
+    <t>CACI_REPORT_ID</t>
+  </si>
+  <si>
+    <t>CROSS_REPORT_ID</t>
+  </si>
+  <si>
+    <t>CORRESPONDENCE_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>STATUS_VERIFY</t>
+  </si>
+  <si>
+    <t>STATUS_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>PERPETRATOR_VERIFY</t>
+  </si>
+  <si>
+    <t>AGENCY_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>CREATED_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>pom Test</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Department of Justice</t>
+  </si>
+  <si>
+    <t>Boardaman</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenDigitsNumber </t>
+  </si>
+  <si>
+    <t>CACI Report</t>
+  </si>
+  <si>
+    <t>Not Generated</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>CACI REPORTID</t>
+  </si>
+  <si>
+    <t>Ready to Send</t>
+  </si>
+  <si>
+    <t>Generated</t>
+  </si>
+  <si>
+    <t>CROSS REPORTID</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_TAB</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_FOLIO_TAB</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_SCREENING_TAB</t>
+  </si>
+  <si>
+    <t>SOC_832_VERIFY</t>
+  </si>
+  <si>
+    <t>SOC_834_VERIFY</t>
+  </si>
+  <si>
+    <t>BCIA_8583_VERIFY</t>
+  </si>
+  <si>
+    <t>SOC_833_VERIFY</t>
+  </si>
+  <si>
+    <t>BCIA_8572_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_NEWBTN</t>
+  </si>
+  <si>
+    <t>DOCUMENT_CATEGORY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_STATUS</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENT</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>UPLOADED_DOC_VERIFY</t>
+  </si>
+  <si>
+    <t>TITLE_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_CATEGORY_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>UPLOAD_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>UPLOAD_BY_VERIFY</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_VERIFY</t>
+  </si>
+  <si>
+    <t>SHOW_ACTIONS</t>
+  </si>
+  <si>
+    <t>DOCUMENT_NAME</t>
+  </si>
+  <si>
+    <t>SCR_DOCUMENT_NAME</t>
+  </si>
+  <si>
+    <t>FOLIO_DOCUMENT_NAME</t>
+  </si>
+  <si>
+    <t>PRINT</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>DOWNLOAD</t>
+  </si>
+  <si>
+    <t>DOWNLOAD_CLICK</t>
+  </si>
+  <si>
+    <t>RENAME_DOCUMENT</t>
+  </si>
+  <si>
+    <t>UPLOAD_NEW_VERSION</t>
+  </si>
+  <si>
+    <t>UPDATE_STATUS</t>
+  </si>
+  <si>
+    <t>UPDATE_CATEGORY</t>
+  </si>
+  <si>
+    <t>SCAR</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>testdoc.txt</t>
+  </si>
+  <si>
+    <t>Emergency Response Referral Information.pdf</t>
+  </si>
+  <si>
+    <t>Response to Mandated Reporter.pdf</t>
+  </si>
+  <si>
+    <t>Document uploaded successfully! The document is being scanned for the malware. Your document will be aviable to view shortly.</t>
+  </si>
+  <si>
+    <t>Cross Report</t>
+  </si>
+  <si>
+    <t>Manual Upload</t>
+  </si>
+  <si>
+    <t>CACI Notice</t>
+  </si>
+  <si>
+    <t>SOC 832 (Notice of CACI).pdf</t>
+  </si>
+  <si>
+    <t>SOC 834 (Request for Grievance).pdf</t>
+  </si>
+  <si>
+    <t>SOC 833 (Grievance Procedure).pdf</t>
+  </si>
+  <si>
+    <t>BCIA 8583 (CACI Index Form).pdf</t>
+  </si>
+  <si>
+    <t>BCIA 8572, Suspected Child Abuse Report.pdf</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>testT4273</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Supporting Document</t>
+  </si>
+  <si>
+    <t>Placement</t>
+  </si>
+  <si>
+    <t>Placement Preservation Strategy</t>
+  </si>
+  <si>
+    <t>Placement - Runaway or Child Abducted</t>
+  </si>
+  <si>
+    <t>Missing Youth Photo</t>
+  </si>
+  <si>
+    <t>testimage.png</t>
+  </si>
+  <si>
+    <t>Profile Photo</t>
+  </si>
+  <si>
+    <t>Person Photo</t>
+  </si>
+  <si>
+    <t>testT4274</t>
+  </si>
+  <si>
+    <t>SILP</t>
+  </si>
+  <si>
+    <t>In Draft</t>
+  </si>
+  <si>
+    <t>SILP Approval and Placement Agreement (SOC 157A).pdf</t>
+  </si>
+  <si>
+    <t>cares_mulesoft_docuedge</t>
+  </si>
+  <si>
+    <t>testT4275_2</t>
+  </si>
+  <si>
+    <t>Tribal Placement</t>
+  </si>
+  <si>
+    <t>Tribal Home Certification Letter</t>
+  </si>
+  <si>
+    <t>Case Summary</t>
+  </si>
+  <si>
+    <t>Placement Agreement</t>
+  </si>
+  <si>
+    <t>GENERATE_DOCUMENT_BTN</t>
+  </si>
+  <si>
+    <t>SUBMIT_BTN</t>
+  </si>
+  <si>
+    <t>SOC 153 - Placement Agency - Foster Family Agency Agreement Nonminor Dependent Placed by Agency in Foster Family Agency</t>
+  </si>
+  <si>
+    <t>SOC 155 - Voluntary Placement Agreement - Placement Request</t>
+  </si>
+  <si>
+    <t>SOC 156 - Agency - Foster Parents Agreement Child Placed by Agency in Foster Home</t>
+  </si>
+  <si>
+    <t>SOC 154A - Placement Agency - Foster Family Agency Agreement Child Placed By Agency In Foster Family Agency</t>
+  </si>
+  <si>
+    <t>APPROVAL_AUDIT_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>RECALL</t>
+  </si>
+  <si>
+    <t>RECALL_BUTTON</t>
+  </si>
+  <si>
+    <t>SUBMIT_FOR_APPROVAL</t>
+  </si>
+  <si>
+    <t>SUBMIT</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>COMMENTS_RECALL</t>
+  </si>
+  <si>
+    <t>DROPDOWN</t>
+  </si>
+  <si>
+    <t>FIELD_VALUE</t>
+  </si>
+  <si>
+    <t>autotext</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>PROFILE_ICON</t>
+  </si>
+  <si>
+    <t>LOGOUT</t>
+  </si>
+  <si>
+    <t>LOGIN_VERIFY</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>testT2926</t>
+  </si>
+  <si>
+    <t>testT2922</t>
+  </si>
+  <si>
+    <t>testT2928</t>
+  </si>
+  <si>
+    <t>testScreening</t>
+  </si>
+  <si>
+    <t>testFolio</t>
+  </si>
+  <si>
+    <t>FOLIOPERSONS_TAB</t>
+  </si>
+  <si>
+    <t>VALIDATEPERSON_TAB</t>
+  </si>
+  <si>
+    <t>FOLIO_LAST_NAME</t>
+  </si>
+  <si>
+    <t>FOLIO_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>FOLIO_MIDDLE_NAME</t>
+  </si>
+  <si>
+    <t>BIRTHDATE</t>
+  </si>
+  <si>
+    <t>APPROXIMATE_AGE</t>
+  </si>
+  <si>
+    <t>SOCIAL_SECURITY_NUMBER</t>
+  </si>
+  <si>
+    <t>COUNTY</t>
+  </si>
+  <si>
+    <t>SEX_AT_BIRTH</t>
+  </si>
+  <si>
+    <t>RACE</t>
+  </si>
+  <si>
+    <t>HISPANIC_OR_LATINO_ETHNICITY_DETAILS</t>
+  </si>
+  <si>
+    <t>SEARCH_BTN</t>
+  </si>
+  <si>
+    <t>NEWPERSON_BTN</t>
+  </si>
+  <si>
+    <t>FP_PERSON_ID</t>
+  </si>
+  <si>
+    <t>VALIDATEPERSON_NAME</t>
+  </si>
+  <si>
+    <t>FP_ID1</t>
+  </si>
+  <si>
+    <t>FP_ID2</t>
+  </si>
+  <si>
+    <t>FOLIO_PERSON_ROLE</t>
+  </si>
+  <si>
+    <t>FOLIO_PERSON_FIRSTNAME</t>
+  </si>
+  <si>
+    <t>FOLIO_PERSON_LASTNAME</t>
+  </si>
+  <si>
+    <t>DATE_OF_BIRTH</t>
+  </si>
+  <si>
+    <t>FOLIO_PERSONS_TAB</t>
+  </si>
+  <si>
+    <t>SEXATBIRTH</t>
+  </si>
+  <si>
+    <t>FOLIO_PERSON_ID</t>
+  </si>
+  <si>
+    <t>VALIDATED_PERSON_NAME</t>
+  </si>
+  <si>
+    <t>FIRST_NAME</t>
+  </si>
+  <si>
+    <t>LAST_NAME</t>
+  </si>
+  <si>
+    <t>COLLATERAL_TYPE</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>END_DATE</t>
+  </si>
+  <si>
+    <t>Alleged Perpetrator</t>
+  </si>
+  <si>
+    <t>autoName</t>
+  </si>
+  <si>
+    <t>Alleged Victim</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>Safely Surrendered Baby</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Legal Guardian</t>
+  </si>
+  <si>
+    <t>Focus Child</t>
+  </si>
+  <si>
+    <t>testT4277</t>
+  </si>
+  <si>
+    <t>Perpetrator</t>
+  </si>
+  <si>
+    <t>testT4215</t>
+  </si>
+  <si>
+    <t>Non-Minor Dependent</t>
+  </si>
+  <si>
+    <t>testT4275</t>
+  </si>
+  <si>
+    <t>Identified Parent</t>
+  </si>
+  <si>
+    <t>CaseChildLocationSetup</t>
+  </si>
+  <si>
+    <t>PRIMARY_RESPONSIBLE_AGENCY</t>
+  </si>
+  <si>
+    <t>DATE_NOTIFICATION_RECEIVED</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>METHOD_OF_NOTIFICATION_RECEIVED</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
     <t>PRIMARY_WORKER</t>
-  </si>
-  <si>
-    <t>Child Welfare Court</t>
-  </si>
-  <si>
-    <t>Title IV-E Indian Tribe</t>
-  </si>
-  <si>
-    <t>Juvenile Probation</t>
-  </si>
-  <si>
-    <t>Family Maintenance No Placement</t>
-  </si>
-  <si>
-    <t>CMWorkerContraCosta</t>
-  </si>
-  <si>
-    <t>RELATED_FOLIOS_TAB</t>
-  </si>
-  <si>
-    <t>FOLIO_COMMERCIALSEXUALEXPLOITATION_TAB</t>
-  </si>
-  <si>
-    <t>CSE_PERSON</t>
-  </si>
-  <si>
-    <t>SelectFolioPersonRB</t>
-  </si>
-  <si>
-    <t>NextBt</t>
-  </si>
-  <si>
-    <t>CSEType</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>saveBtn</t>
-  </si>
-  <si>
-    <t>AddInstancesofCommercialSexualExploitation</t>
-  </si>
-  <si>
-    <t>CSEType1</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>At Risk</t>
-  </si>
-  <si>
-    <t>Victim Before Foster Care</t>
-  </si>
-  <si>
-    <t>personName4</t>
-  </si>
-  <si>
-    <t>FOLIO_AdministrativeHearings_TAB</t>
-  </si>
-  <si>
-    <t>newBtn</t>
-  </si>
-  <si>
-    <t>CorrespondenceID</t>
-  </si>
-  <si>
-    <t>allegedPerpetrator</t>
-  </si>
-  <si>
-    <t>PerpetratorNotificationMethod</t>
-  </si>
-  <si>
-    <t>SOC834ResponseReceivedDate</t>
-  </si>
-  <si>
-    <t>DOJNotificationDate</t>
-  </si>
-  <si>
-    <t>PerpetratorNotificationDate</t>
-  </si>
-  <si>
-    <t>enter</t>
-  </si>
-  <si>
-    <t>FOLIO_DETAILS_TAB</t>
-  </si>
-  <si>
-    <t>PATHWAY</t>
-  </si>
-  <si>
-    <t>APPROVAL_SUPERVISOR</t>
-  </si>
-  <si>
-    <t>APPROVAL_SUPERVISOR_LINK</t>
-  </si>
-  <si>
-    <t>INVESTIGATION_CLOSED_DATE</t>
-  </si>
-  <si>
-    <t>FOLIOREF_VERIFY</t>
-  </si>
-  <si>
-    <t>RECORD_STATUS</t>
-  </si>
-  <si>
-    <t>REFERRAL_CLOSED_DATE</t>
-  </si>
-  <si>
-    <t>Investigation</t>
-  </si>
-  <si>
-    <t>ERSupervisorContraCosta</t>
-  </si>
-  <si>
-    <t>Pending Approval</t>
-  </si>
-  <si>
-    <t>Recalled</t>
-  </si>
-  <si>
-    <t>Resubmitted</t>
-  </si>
-  <si>
-    <t>ASSIGNMENTS_TAB</t>
-  </si>
-  <si>
-    <t>PERSON</t>
-  </si>
-  <si>
-    <t>PERSON_LINK</t>
-  </si>
-  <si>
-    <t>START_DATE</t>
-  </si>
-  <si>
-    <t>WORKER_ROLE</t>
-  </si>
-  <si>
-    <t>FOLIO_ASSIGNMENT_ID</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>AUDIT_HISTORY_TAB</t>
-  </si>
-  <si>
-    <t>NEW_VALUE</t>
-  </si>
-  <si>
-    <t>HLSupervisorContraCosta</t>
-  </si>
-  <si>
-    <t>Adoptions Worker</t>
-  </si>
-  <si>
-    <t>autoText</t>
-  </si>
-  <si>
-    <t>Case Aide</t>
-  </si>
-  <si>
-    <t>testPOM</t>
-  </si>
-  <si>
-    <t>ASN-000001507319</t>
-  </si>
-  <si>
-    <t>CMManagerContraCosta</t>
-  </si>
-  <si>
-    <t>testT4258</t>
-  </si>
-  <si>
-    <t>Placement Worker</t>
-  </si>
-  <si>
-    <t>FOLIO_NEARFATALITY_TAB</t>
-  </si>
-  <si>
-    <t>allegedVictim</t>
-  </si>
-  <si>
-    <t>isChildFatalityNear</t>
-  </si>
-  <si>
-    <t>CircumstanceType</t>
-  </si>
-  <si>
-    <t>CircumstanceComments</t>
-  </si>
-  <si>
-    <t>CountyOfIncident</t>
-  </si>
-  <si>
-    <t>ResidenceTimeFatalityNearFat</t>
-  </si>
-  <si>
-    <t>IsFatalityNearDateKnown</t>
-  </si>
-  <si>
-    <t>DateFatalityNear</t>
-  </si>
-  <si>
-    <t>FOLIO_PERSON_NAME</t>
-  </si>
-  <si>
-    <t>CHILD_FATALITY_OR_NEARFATALITY</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>Fatality</t>
-  </si>
-  <si>
-    <t>Accidental</t>
-  </si>
-  <si>
-    <t>Calaveras</t>
-  </si>
-  <si>
-    <t>Foster Care/Out-of-Home Care</t>
-  </si>
-  <si>
-    <t>Estimated</t>
-  </si>
-  <si>
-    <t>Contra Costa</t>
-  </si>
-  <si>
-    <t>FOLIO_CORRESPONDENCE_TAB</t>
-  </si>
-  <si>
-    <t>CACI_REPORT</t>
-  </si>
-  <si>
-    <t>PERPARATOR</t>
-  </si>
-  <si>
-    <t>NAME_UNIT_WITHIN_COUNTY</t>
-  </si>
-  <si>
-    <t>RETURN_ADDRESS_WITHIN_COUNTY</t>
-  </si>
-  <si>
-    <t>PHOTO_TAKEN_OFSUBSTANTIATED_ALLEGATION</t>
-  </si>
-  <si>
-    <t>PHONE_NUMBER</t>
-  </si>
-  <si>
-    <t>CROSSREPORT_SCAR</t>
-  </si>
-  <si>
-    <t>AGENCY_NAME</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>AGENCY_TYPE</t>
-  </si>
-  <si>
-    <t>CACI_REPORTID</t>
-  </si>
-  <si>
-    <t>CORRESPONDECE_TYPE</t>
-  </si>
-  <si>
-    <t>STATUS_TYPE</t>
-  </si>
-  <si>
-    <t>REPORTID_VERIFY</t>
-  </si>
-  <si>
-    <t>CACI_REPORT_ID</t>
-  </si>
-  <si>
-    <t>CROSS_REPORT_ID</t>
-  </si>
-  <si>
-    <t>CORRESPONDENCE_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>STATUS_VERIFY</t>
-  </si>
-  <si>
-    <t>STATUS_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>PERPETRATOR_VERIFY</t>
-  </si>
-  <si>
-    <t>AGENCY_NAME_VERIFY</t>
-  </si>
-  <si>
-    <t>CREATED_DATE_VERIFY</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>pom Test</t>
-  </si>
-  <si>
-    <t>Incomplete</t>
-  </si>
-  <si>
-    <t>Department of Justice</t>
-  </si>
-  <si>
-    <t>Boardaman</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tenDigitsNumber </t>
-  </si>
-  <si>
-    <t>CACI Report</t>
-  </si>
-  <si>
-    <t>Not Generated</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>CACI REPORTID</t>
-  </si>
-  <si>
-    <t>Ready to Send</t>
-  </si>
-  <si>
-    <t>Generated</t>
-  </si>
-  <si>
-    <t>CROSS REPORTID</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_TAB</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_FOLIO_TAB</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_SCREENING_TAB</t>
-  </si>
-  <si>
-    <t>SOC_832_VERIFY</t>
-  </si>
-  <si>
-    <t>SOC_834_VERIFY</t>
-  </si>
-  <si>
-    <t>BCIA_8583_VERIFY</t>
-  </si>
-  <si>
-    <t>SOC_833_VERIFY</t>
-  </si>
-  <si>
-    <t>BCIA_8572_VERIFY</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_NEWBTN</t>
-  </si>
-  <si>
-    <t>DOCUMENT_CATEGORY</t>
-  </si>
-  <si>
-    <t>DOCUMENT_STATUS</t>
-  </si>
-  <si>
-    <t>UPLOAD_DOCUMENT</t>
-  </si>
-  <si>
-    <t>SAVE</t>
-  </si>
-  <si>
-    <t>UPLOADED_DOC_VERIFY</t>
-  </si>
-  <si>
-    <t>TITLE_VERIFY</t>
-  </si>
-  <si>
-    <t>DOCUMENT_CATEGORY_VERIFY</t>
-  </si>
-  <si>
-    <t>DOCUMENT_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>UPLOAD_DATE_VERIFY</t>
-  </si>
-  <si>
-    <t>UPLOAD_BY_VERIFY</t>
-  </si>
-  <si>
-    <t>DESCRIPTION_VERIFY</t>
-  </si>
-  <si>
-    <t>SHOW_ACTIONS</t>
-  </si>
-  <si>
-    <t>DOCUMENT_NAME</t>
-  </si>
-  <si>
-    <t>SCR_DOCUMENT_NAME</t>
-  </si>
-  <si>
-    <t>FOLIO_DOCUMENT_NAME</t>
-  </si>
-  <si>
-    <t>PRINT</t>
-  </si>
-  <si>
-    <t>VIEW</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>DOWNLOAD</t>
-  </si>
-  <si>
-    <t>DOWNLOAD_CLICK</t>
-  </si>
-  <si>
-    <t>RENAME_DOCUMENT</t>
-  </si>
-  <si>
-    <t>UPLOAD_NEW_VERSION</t>
-  </si>
-  <si>
-    <t>UPDATE_STATUS</t>
-  </si>
-  <si>
-    <t>UPDATE_CATEGORY</t>
-  </si>
-  <si>
-    <t>SCAR</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>testdoc.txt</t>
-  </si>
-  <si>
-    <t>Emergency Response Referral Information.pdf</t>
-  </si>
-  <si>
-    <t>Response to Mandated Reporter.pdf</t>
-  </si>
-  <si>
-    <t>Document uploaded successfully! The document is being scanned for the malware. Your document will be aviable to view shortly.</t>
-  </si>
-  <si>
-    <t>Cross Report</t>
-  </si>
-  <si>
-    <t>Manual Upload</t>
-  </si>
-  <si>
-    <t>CACI Notice</t>
-  </si>
-  <si>
-    <t>SOC 832 (Notice of CACI).pdf</t>
-  </si>
-  <si>
-    <t>SOC 834 (Request for Grievance).pdf</t>
-  </si>
-  <si>
-    <t>SOC 833 (Grievance Procedure).pdf</t>
-  </si>
-  <si>
-    <t>BCIA 8583 (CACI Index Form).pdf</t>
-  </si>
-  <si>
-    <t>BCIA 8572, Suspected Child Abuse Report.pdf</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>testT4273</t>
-  </si>
-  <si>
-    <t>Miscellaneous</t>
-  </si>
-  <si>
-    <t>Supporting Document</t>
-  </si>
-  <si>
-    <t>Placement</t>
-  </si>
-  <si>
-    <t>Placement Preservation Strategy</t>
-  </si>
-  <si>
-    <t>Placement - Runaway or Child Abducted</t>
-  </si>
-  <si>
-    <t>Missing Youth Photo</t>
-  </si>
-  <si>
-    <t>testimage.jpeg</t>
-  </si>
-  <si>
-    <t>Profile Photo</t>
-  </si>
-  <si>
-    <t>Person Photo</t>
-  </si>
-  <si>
-    <t>testT4274</t>
-  </si>
-  <si>
-    <t>SILP</t>
-  </si>
-  <si>
-    <t>In Draft</t>
-  </si>
-  <si>
-    <t>SILP Approval and Placement Agreement (SOC 157A).pdf</t>
-  </si>
-  <si>
-    <t>cares_mulesoft_docuedge</t>
-  </si>
-  <si>
-    <t>testT4275_2</t>
-  </si>
-  <si>
-    <t>Tribal Placement</t>
-  </si>
-  <si>
-    <t>Tribal Home Certification Letter</t>
-  </si>
-  <si>
-    <t>Case Summary</t>
-  </si>
-  <si>
-    <t>Placement Agreement</t>
-  </si>
-  <si>
-    <t>GENERATE_DOCUMENT_BTN</t>
-  </si>
-  <si>
-    <t>SUBMIT_BTN</t>
-  </si>
-  <si>
-    <t>SOC 153 - Placement Agency - Foster Family Agency Agreement Nonminor Dependent Placed by Agency in Foster Family Agency</t>
-  </si>
-  <si>
-    <t>SOC 155 - Voluntary Placement Agreement - Placement Request</t>
-  </si>
-  <si>
-    <t>SOC 156 - Agency - Foster Parents Agreement Child Placed by Agency in Foster Home</t>
-  </si>
-  <si>
-    <t>SOC 154A - Placement Agency - Foster Family Agency Agreement Child Placed By Agency In Foster Family Agency</t>
-  </si>
-  <si>
-    <t>APPROVAL_AUDIT_HISTORY_TAB</t>
-  </si>
-  <si>
-    <t>RECALL</t>
-  </si>
-  <si>
-    <t>RECALL_BUTTON</t>
-  </si>
-  <si>
-    <t>SUBMIT_FOR_APPROVAL</t>
-  </si>
-  <si>
-    <t>SUBMIT</t>
-  </si>
-  <si>
-    <t>CLOSE</t>
-  </si>
-  <si>
-    <t>COMMENTS</t>
-  </si>
-  <si>
-    <t>COMMENTS_RECALL</t>
-  </si>
-  <si>
-    <t>DROPDOWN</t>
-  </si>
-  <si>
-    <t>FIELD_VALUE</t>
-  </si>
-  <si>
-    <t>autotext</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>PROFILE_ICON</t>
-  </si>
-  <si>
-    <t>LOGOUT</t>
-  </si>
-  <si>
-    <t>LOGIN_VERIFY</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>testT2926</t>
-  </si>
-  <si>
-    <t>testT2922</t>
-  </si>
-  <si>
-    <t>testT2928</t>
-  </si>
-  <si>
-    <t>testScreening</t>
-  </si>
-  <si>
-    <t>testFolio</t>
-  </si>
-  <si>
-    <t>FOLIOPERSONS_TAB</t>
-  </si>
-  <si>
-    <t>VALIDATEPERSON_TAB</t>
-  </si>
-  <si>
-    <t>FOLIO_LAST_NAME</t>
-  </si>
-  <si>
-    <t>FOLIO_FIRST_NAME</t>
-  </si>
-  <si>
-    <t>FOLIO_MIDDLE_NAME</t>
-  </si>
-  <si>
-    <t>BIRTHDATE</t>
-  </si>
-  <si>
-    <t>APPROXIMATE_AGE</t>
-  </si>
-  <si>
-    <t>SOCIAL_SECURITY_NUMBER</t>
-  </si>
-  <si>
-    <t>COUNTY</t>
-  </si>
-  <si>
-    <t>SEX_AT_BIRTH</t>
-  </si>
-  <si>
-    <t>RACE</t>
-  </si>
-  <si>
-    <t>HISPANIC_OR_LATINO_ETHNICITY_DETAILS</t>
-  </si>
-  <si>
-    <t>SEARCH_BTN</t>
-  </si>
-  <si>
-    <t>NEWPERSON_BTN</t>
-  </si>
-  <si>
-    <t>FP_PERSON_ID</t>
-  </si>
-  <si>
-    <t>VALIDATEPERSON_NAME</t>
-  </si>
-  <si>
-    <t>FP_ID1</t>
-  </si>
-  <si>
-    <t>FP_ID2</t>
-  </si>
-  <si>
-    <t>FOLIO_PERSON_ROLE</t>
-  </si>
-  <si>
-    <t>FOLIO_PERSON_FIRSTNAME</t>
-  </si>
-  <si>
-    <t>FOLIO_PERSON_LASTNAME</t>
-  </si>
-  <si>
-    <t>DATE_OF_BIRTH</t>
-  </si>
-  <si>
-    <t>FOLIO_PERSONS_TAB</t>
-  </si>
-  <si>
-    <t>SEXATBIRTH</t>
-  </si>
-  <si>
-    <t>FOLIO_PERSON_ID</t>
-  </si>
-  <si>
-    <t>VALIDATED_PERSON_NAME</t>
-  </si>
-  <si>
-    <t>FIRST_NAME</t>
-  </si>
-  <si>
-    <t>LAST_NAME</t>
-  </si>
-  <si>
-    <t>COLLATERAL_TYPE</t>
-  </si>
-  <si>
-    <t>ROLE</t>
-  </si>
-  <si>
-    <t>END_DATE</t>
-  </si>
-  <si>
-    <t>Alleged Perpetrator</t>
-  </si>
-  <si>
-    <t>autoName</t>
-  </si>
-  <si>
-    <t>Alleged Victim</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Verify</t>
-  </si>
-  <si>
-    <t>Safely Surrendered Baby</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Legal Guardian</t>
-  </si>
-  <si>
-    <t>Focus Child</t>
-  </si>
-  <si>
-    <t>testT4277</t>
-  </si>
-  <si>
-    <t>Perpetrator</t>
-  </si>
-  <si>
-    <t>testT4215</t>
-  </si>
-  <si>
-    <t>Non-Minor Dependent</t>
-  </si>
-  <si>
-    <t>testT4275</t>
-  </si>
-  <si>
-    <t>Identified Parent</t>
-  </si>
-  <si>
-    <t>CaseChildLocationSetup</t>
-  </si>
-  <si>
-    <t>PRIMARY_RESPONSIBLE_AGENCY</t>
-  </si>
-  <si>
-    <t>DATE_NOTIFICATION_RECEIVED</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>METHOD_OF_NOTIFICATION_RECEIVED</t>
-  </si>
-  <si>
-    <t>STATE</t>
   </si>
   <si>
     <t>Child Welfare Voluntary</t>
@@ -1783,6 +1783,42 @@
     <t>SOC 157B - Supervised Independent Living Placement (SILP) Inspection: Checklist of Facility Health and Safety Standards</t>
   </si>
   <si>
+    <t>NEW_BUTTON</t>
+  </si>
+  <si>
+    <t>TRIBAL_INFO_TAB</t>
+  </si>
+  <si>
+    <t>TRIBAL_NAME</t>
+  </si>
+  <si>
+    <t>CHILD_MEMBERSHIP_STATUS</t>
+  </si>
+  <si>
+    <t>TRIBE_LOCATION</t>
+  </si>
+  <si>
+    <t>ENROLLMENT_START_DATE</t>
+  </si>
+  <si>
+    <t>SAVE_AND_PROCEED</t>
+  </si>
+  <si>
+    <t>POTENTIAL_TRIBAL_AFFILIATION</t>
+  </si>
+  <si>
+    <t>New Tribe</t>
+  </si>
+  <si>
+    <t>Enrolled</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>Reason To Know</t>
+  </si>
+  <si>
     <t>testT4149</t>
   </si>
   <si>
@@ -1805,19 +1841,20 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1842,7 +1879,7 @@
       <sz val="10"/>
       <color rgb="FF0000C0"/>
       <name val="Consolas"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2009,7 +2046,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2092,7 +2129,16 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{0244CCC0-C70B-4F46-AB95-4E0A98C0C68C}"/>
@@ -2411,7 +2457,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3296,31 +3342,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="H1" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="M1" s="51"/>
     </row>
@@ -3335,10 +3381,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="51" t="s">
@@ -3365,10 +3411,10 @@
         <v>19</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G3" s="49" t="s">
         <v>19</v>
@@ -3383,7 +3429,7 @@
         <v>149</v>
       </c>
       <c r="K3" s="49" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L3" s="49" t="s">
         <v>59</v>
@@ -3401,7 +3447,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E4" s="49" t="s">
         <v>30</v>
@@ -3422,7 +3468,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L4" s="49" t="s">
         <v>30</v>
@@ -3440,7 +3486,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" s="49" t="s">
         <v>30</v>
@@ -3461,7 +3507,7 @@
         <v>30</v>
       </c>
       <c r="K5" s="49" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L5" s="49" t="s">
         <v>30</v>
@@ -3479,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>28</v>
@@ -3521,10 +3567,10 @@
         <v>19</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G7" s="70" t="s">
         <v>19</v>
@@ -3539,7 +3585,7 @@
         <v>149</v>
       </c>
       <c r="K7" s="70" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L7" s="70"/>
       <c r="M7" s="70"/>
@@ -3555,7 +3601,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A6" sqref="A6:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3584,37 +3630,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>209</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>211</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="N1" s="51" t="s">
         <v>213</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="N1" s="51" t="s">
-        <v>215</v>
       </c>
       <c r="O1" s="51"/>
       <c r="P1" s="51"/>
@@ -3630,13 +3676,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>19</v>
@@ -3645,16 +3691,16 @@
         <v>59</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K2" s="40" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M2" s="51"/>
       <c r="N2" s="51"/>
@@ -3672,13 +3718,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G3" s="40" t="s">
         <v>19</v>
@@ -3687,16 +3733,16 @@
         <v>59</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K3" s="40" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M3" s="51"/>
       <c r="N3" s="51"/>
@@ -3705,7 +3751,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="51" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B4" s="51">
         <v>1</v>
@@ -3714,13 +3760,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G4" s="51" t="s">
         <v>19</v>
@@ -3729,16 +3775,16 @@
         <v>59</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M4" s="40" t="s">
         <v>19</v>
@@ -3749,7 +3795,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="51">
         <v>1</v>
@@ -3761,10 +3807,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G5" s="51" t="s">
         <v>19</v>
@@ -3773,10 +3819,10 @@
         <v>59</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K5" s="51" t="s">
         <v>28</v>
@@ -3795,7 +3841,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="70" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B6" s="70">
         <v>1</v>
@@ -3807,10 +3853,10 @@
         <v>19</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="G6" s="70" t="s">
         <v>19</v>
@@ -3819,10 +3865,10 @@
         <v>59</v>
       </c>
       <c r="I6" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J6" s="71" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K6" s="70" t="s">
         <v>28</v>
@@ -3876,43 +3922,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3926,37 +3972,37 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>59</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O2" s="51"/>
       <c r="P2" s="51"/>
@@ -3984,19 +4030,19 @@
         <v>28</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>59</v>
@@ -4005,10 +4051,10 @@
         <v>19</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4467,43 +4513,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G1" s="41" t="s">
         <v>66</v>
       </c>
       <c r="H1" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="K1" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="O1" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="P1" s="41" t="s">
         <v>252</v>
-      </c>
-      <c r="P1" s="41" t="s">
-        <v>253</v>
       </c>
       <c r="Q1" s="41" t="s">
         <v>13</v>
@@ -4512,43 +4558,43 @@
         <v>15</v>
       </c>
       <c r="S1" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="T1" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="U1" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="V1" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="W1" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="X1" s="41" t="s">
         <v>258</v>
-      </c>
-      <c r="X1" s="41" t="s">
-        <v>259</v>
       </c>
       <c r="Y1" s="41" t="s">
         <v>152</v>
       </c>
       <c r="Z1" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA1" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="AA1" s="41" t="s">
+      <c r="AB1" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AC1" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="AD1" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="AD1" s="41" t="s">
+      <c r="AE1" s="41" t="s">
         <v>264</v>
-      </c>
-      <c r="AE1" s="41" t="s">
-        <v>265</v>
       </c>
       <c r="AF1" s="51"/>
       <c r="AG1" s="51"/>
@@ -4565,22 +4611,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J2" s="51" t="s">
         <v>149</v>
@@ -4612,7 +4658,7 @@
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B3" s="51">
         <v>1</v>
@@ -4621,27 +4667,27 @@
         <v>1</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
       <c r="K3" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="N3" s="51" t="s">
         <v>268</v>
-      </c>
-      <c r="N3" s="51" t="s">
-        <v>269</v>
       </c>
       <c r="O3" s="51"/>
       <c r="P3" s="51"/>
@@ -4678,7 +4724,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>19</v>
@@ -4690,16 +4736,16 @@
         <v>34</v>
       </c>
       <c r="I4" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="K4" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="J4" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="K4" s="46" t="s">
+      <c r="L4" s="29" t="s">
         <v>271</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>272</v>
       </c>
       <c r="M4" s="44"/>
       <c r="N4" s="44"/>
@@ -4715,41 +4761,41 @@
         <v>149</v>
       </c>
       <c r="T4" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="U4" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="U4" s="46" t="s">
+      <c r="V4" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="V4" s="46" t="s">
+      <c r="W4" s="46" t="s">
         <v>275</v>
-      </c>
-      <c r="W4" s="46" t="s">
-        <v>276</v>
       </c>
       <c r="X4" s="46"/>
       <c r="Y4" s="46" t="s">
         <v>149</v>
       </c>
       <c r="Z4" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA4" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB4" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC4" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD4" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE4" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF4" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG4" s="46" t="s">
         <v>149</v>
@@ -4770,7 +4816,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>151</v>
@@ -4797,13 +4843,13 @@
         <v>19</v>
       </c>
       <c r="N5" s="45" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O5" s="46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P5" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q5" s="46" t="s">
         <v>19</v>
@@ -4812,12 +4858,12 @@
       <c r="S5" s="46"/>
       <c r="T5" s="46"/>
       <c r="U5" s="46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V5" s="46"/>
       <c r="W5" s="46"/>
       <c r="X5" s="46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y5" s="46"/>
       <c r="Z5" s="46"/>
@@ -4892,7 +4938,7 @@
         <v>28</v>
       </c>
       <c r="U6" s="51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V6" s="51" t="s">
         <v>28</v>
@@ -4933,8 +4979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4994,109 +5040,109 @@
         <v>152</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="J1" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="K1" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="L1" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="N1" s="40" t="s">
         <v>288</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>289</v>
       </c>
       <c r="O1" s="40" t="s">
         <v>153</v>
       </c>
       <c r="P1" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q1" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="R1" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="Q1" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="R1" s="43" t="s">
+      <c r="S1" s="40" t="s">
         <v>291</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="T1" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="U1" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="V1" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="W1" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="W1" s="40" t="s">
+      <c r="X1" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="X1" s="40" t="s">
+      <c r="Y1" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="Y1" s="40" t="s">
+      <c r="Z1" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="Z1" s="40" t="s">
+      <c r="AA1" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="AA1" s="40" t="s">
+      <c r="AB1" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="AB1" s="40" t="s">
+      <c r="AC1" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="AC1" s="40" t="s">
+      <c r="AD1" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="AD1" s="40" t="s">
+      <c r="AE1" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="AE1" s="40" t="s">
+      <c r="AF1" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="AF1" s="40" t="s">
+      <c r="AG1" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="AG1" s="40" t="s">
+      <c r="AH1" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="AH1" s="40" t="s">
+      <c r="AI1" s="71" t="s">
         <v>307</v>
       </c>
-      <c r="AI1" s="71" t="s">
+      <c r="AJ1" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="AJ1" s="40" t="s">
+      <c r="AK1" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="AK1" s="40" t="s">
+      <c r="AL1" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="AL1" s="40" t="s">
+      <c r="AM1" s="40" t="s">
         <v>311</v>
-      </c>
-      <c r="AM1" s="40" t="s">
-        <v>312</v>
       </c>
       <c r="AN1" s="40" t="s">
         <v>96</v>
@@ -5143,19 +5189,19 @@
         <v>19</v>
       </c>
       <c r="N2" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="O2" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="P2" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q2" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="O2" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="P2" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q2" s="49" t="s">
+      <c r="R2" s="49" t="s">
         <v>314</v>
-      </c>
-      <c r="R2" s="49" t="s">
-        <v>315</v>
       </c>
       <c r="S2" s="49" t="s">
         <v>19</v>
@@ -5188,10 +5234,10 @@
         <v>30</v>
       </c>
       <c r="AC2" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD2" s="49" t="s">
         <v>316</v>
-      </c>
-      <c r="AD2" s="49" t="s">
-        <v>317</v>
       </c>
       <c r="AE2" s="49" t="s">
         <v>30</v>
@@ -5221,7 +5267,7 @@
         <v>30</v>
       </c>
       <c r="AN2" s="49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="46" customFormat="1">
@@ -5265,19 +5311,19 @@
         <v>19</v>
       </c>
       <c r="N3" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="O3" s="49" t="s">
         <v>319</v>
       </c>
-      <c r="O3" s="49" t="s">
-        <v>320</v>
-      </c>
       <c r="P3" s="49" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="Q3" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="R3" s="49" t="s">
         <v>314</v>
-      </c>
-      <c r="R3" s="49" t="s">
-        <v>315</v>
       </c>
       <c r="S3" s="49" t="s">
         <v>19</v>
@@ -5387,49 +5433,49 @@
         <v>28</v>
       </c>
       <c r="N4" s="49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O4" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="P4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB4" s="49" t="s">
         <v>321</v>
-      </c>
-      <c r="P4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA4" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB4" s="49" t="s">
-        <v>322</v>
       </c>
       <c r="AC4" s="49" t="s">
         <v>30</v>
@@ -5551,7 +5597,7 @@
         <v>149</v>
       </c>
       <c r="AB5" s="49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AC5" s="49" t="s">
         <v>30</v>
@@ -5673,7 +5719,7 @@
         <v>149</v>
       </c>
       <c r="AB6" s="49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AC6" s="49" t="s">
         <v>30</v>
@@ -5795,7 +5841,7 @@
         <v>149</v>
       </c>
       <c r="AB7" s="49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AC7" s="49" t="s">
         <v>30</v>
@@ -5917,7 +5963,7 @@
         <v>149</v>
       </c>
       <c r="AB8" s="49" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AC8" s="49" t="s">
         <v>30</v>
@@ -5997,20 +6043,20 @@
         <v>19</v>
       </c>
       <c r="N9" s="49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O9" s="49" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P9" s="49" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="Q9" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="R9" s="62" t="s">
         <v>314</v>
       </c>
-      <c r="R9" s="62" t="s">
-        <v>315</v>
-      </c>
       <c r="S9" s="49" t="s">
         <v>19</v>
       </c>
@@ -6039,7 +6085,7 @@
         <v>149</v>
       </c>
       <c r="AB9" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC9" s="49" t="s">
         <v>30</v>
@@ -6072,7 +6118,7 @@
         <v>149</v>
       </c>
       <c r="AM9" s="49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN9" s="49" t="s">
         <v>30</v>
@@ -6080,58 +6126,58 @@
     </row>
     <row r="10" spans="1:40">
       <c r="A10" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="51">
+        <v>1</v>
+      </c>
+      <c r="C10" s="51">
+        <v>1</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="B10" s="51">
-        <v>1</v>
-      </c>
-      <c r="C10" s="51">
-        <v>1</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="51" t="s">
+      <c r="O10" s="51" t="s">
         <v>329</v>
       </c>
-      <c r="O10" s="51" t="s">
-        <v>330</v>
-      </c>
       <c r="P10" s="51" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="54" t="s">
         <v>314</v>
-      </c>
-      <c r="R10" s="54" t="s">
-        <v>315</v>
       </c>
       <c r="S10" s="51" t="s">
         <v>19</v>
@@ -6161,7 +6207,7 @@
         <v>151</v>
       </c>
       <c r="AB10" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC10" s="51"/>
       <c r="AD10" s="51"/>
@@ -6196,7 +6242,7 @@
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B11" s="51">
         <v>1</v>
@@ -6235,20 +6281,20 @@
         <v>19</v>
       </c>
       <c r="N11" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="O11" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="O11" s="51" t="s">
-        <v>332</v>
-      </c>
       <c r="P11" s="51" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="Q11" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="R11" s="54" t="s">
-        <v>315</v>
-      </c>
       <c r="S11" s="51" t="s">
         <v>19</v>
       </c>
@@ -6277,7 +6323,7 @@
         <v>19</v>
       </c>
       <c r="AB11" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC11" s="49" t="s">
         <v>28</v>
@@ -6316,7 +6362,7 @@
     </row>
     <row r="12" spans="1:40" s="51" customFormat="1">
       <c r="A12" s="46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B12" s="46">
         <v>1</v>
@@ -6328,7 +6374,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F12" s="46" t="s">
         <v>28</v>
@@ -6355,19 +6401,19 @@
         <v>19</v>
       </c>
       <c r="N12" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="O12" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="O12" s="46" t="s">
+      <c r="P12" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="46" t="s">
         <v>334</v>
-      </c>
-      <c r="P12" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q12" s="51" t="s">
-        <v>314</v>
-      </c>
-      <c r="R12" s="46" t="s">
-        <v>335</v>
       </c>
       <c r="S12" s="46" t="s">
         <v>19</v>
@@ -6438,7 +6484,7 @@
     </row>
     <row r="13" spans="1:40" s="51" customFormat="1">
       <c r="A13" s="46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B13" s="46">
         <v>1</v>
@@ -6450,7 +6496,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F13" s="46" t="s">
         <v>28</v>
@@ -6477,19 +6523,19 @@
         <v>19</v>
       </c>
       <c r="N13" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="O13" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="O13" s="46" t="s">
-        <v>337</v>
-      </c>
       <c r="P13" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q13" s="51" t="s">
-        <v>314</v>
+        <v>148</v>
+      </c>
+      <c r="Q13" s="46" t="s">
+        <v>28</v>
       </c>
       <c r="R13" s="46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="S13" s="46" t="s">
         <v>19</v>
@@ -6560,79 +6606,79 @@
     </row>
     <row r="14" spans="1:40" s="12" customFormat="1">
       <c r="A14" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="B14" s="12">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="O14" s="12" t="s">
+      <c r="P14" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="Q14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="Q14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="U14" s="13" t="s">
+      <c r="V14" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y14" s="13" t="s">
         <v>341</v>
-      </c>
-      <c r="V14" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="X14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y14" s="13" t="s">
-        <v>342</v>
       </c>
       <c r="Z14" s="13" t="s">
         <v>28</v>
@@ -6646,58 +6692,58 @@
     </row>
     <row r="15" spans="1:40" s="51" customFormat="1" ht="43.5">
       <c r="A15" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" s="46">
+        <v>1</v>
+      </c>
+      <c r="C15" s="46">
+        <v>1</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="B15" s="46">
-        <v>1</v>
-      </c>
-      <c r="C15" s="46">
-        <v>1</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="26" t="s">
+      <c r="O15" s="68" t="s">
         <v>344</v>
       </c>
-      <c r="O15" s="68" t="s">
-        <v>345</v>
-      </c>
       <c r="P15" s="46" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="Q15" s="46" t="s">
         <v>28</v>
       </c>
       <c r="R15" s="46" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S15" s="46" t="s">
         <v>19</v>
@@ -6768,7 +6814,7 @@
     </row>
     <row r="16" spans="1:40" s="51" customFormat="1">
       <c r="A16" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B16" s="46">
         <v>1</v>
@@ -6807,19 +6853,19 @@
         <v>19</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O16" s="68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P16" s="46" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="Q16" s="46" t="s">
         <v>28</v>
       </c>
       <c r="R16" s="46" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S16" s="46" t="s">
         <v>19</v>
@@ -6890,7 +6936,7 @@
     </row>
     <row r="17" spans="1:40" s="51" customFormat="1" ht="29">
       <c r="A17" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -6929,19 +6975,19 @@
         <v>19</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O17" s="68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P17" s="46" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="Q17" s="46" t="s">
         <v>28</v>
       </c>
       <c r="R17" s="46" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S17" s="46" t="s">
         <v>19</v>
@@ -7041,7 +7087,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>153</v>
@@ -7050,12 +7096,12 @@
         <v>152</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="46" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B2" s="46">
         <v>1</v>
@@ -7067,7 +7113,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>19</v>
@@ -7078,7 +7124,7 @@
     </row>
     <row r="3" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A3" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B3" s="46">
         <v>1</v>
@@ -7090,7 +7136,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="69" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F3" s="46" t="s">
         <v>19</v>
@@ -7101,7 +7147,7 @@
     </row>
     <row r="4" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A4" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B4" s="46">
         <v>1</v>
@@ -7113,7 +7159,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>19</v>
@@ -7124,7 +7170,7 @@
     </row>
     <row r="5" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A5" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B5" s="46">
         <v>1</v>
@@ -7136,7 +7182,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>19</v>
@@ -7186,37 +7232,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="F1" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="G1" s="51" t="s">
         <v>356</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="H1" s="51" t="s">
         <v>357</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="I1" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="J1" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="K1" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="L1" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="64" t="s">
         <v>362</v>
-      </c>
-      <c r="M1" s="64" t="s">
-        <v>214</v>
-      </c>
-      <c r="N1" s="64" t="s">
-        <v>363</v>
       </c>
       <c r="O1" s="51"/>
       <c r="P1" s="51"/>
@@ -7253,7 +7299,7 @@
         <v>151</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>28</v>
@@ -7264,7 +7310,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="51">
         <v>1</v>
@@ -7308,7 +7354,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B4" s="51">
         <v>1</v>
@@ -7347,7 +7393,7 @@
         <v>19</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
@@ -7400,13 +7446,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="51" t="s">
         <v>367</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7417,7 +7463,7 @@
         <v>151</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>19</v>
@@ -7431,7 +7477,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -7451,7 +7497,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B4" s="29">
         <v>2</v>
@@ -7471,7 +7517,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B5" s="51">
         <v>1</v>
@@ -7491,7 +7537,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B6" s="29">
         <v>1</v>
@@ -7511,7 +7557,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B7" s="29">
         <v>2</v>
@@ -7531,7 +7577,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B8" s="29">
         <v>1</v>
@@ -7551,7 +7597,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B9" s="29">
         <v>2</v>
@@ -7571,7 +7617,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B10" s="29">
         <v>1</v>
@@ -7591,7 +7637,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B11" s="29">
         <v>2</v>
@@ -7642,55 +7688,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>388</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>389</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -7710,7 +7756,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>151</v>
@@ -7746,7 +7792,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="51" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S2" s="51" t="s">
         <v>19</v>
@@ -7808,7 +7854,7 @@
         <v>19</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>19</v>
@@ -7870,7 +7916,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="46" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="S4" s="46" t="s">
         <v>19</v>
@@ -7887,10 +7933,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="T16" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7915,9 +7961,17 @@
     <col min="18" max="18" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7265625" customWidth="1"/>
+    <col min="22" max="22" width="19.81640625" customWidth="1"/>
+    <col min="23" max="23" width="13" customWidth="1"/>
+    <col min="24" max="24" width="25.26953125" customWidth="1"/>
+    <col min="25" max="25" width="17.1796875" customWidth="1"/>
+    <col min="26" max="26" width="24.6328125" customWidth="1"/>
+    <col min="27" max="27" width="19.26953125" customWidth="1"/>
+    <col min="28" max="28" width="29.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:28">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -7928,58 +7982,82 @@
         <v>2</v>
       </c>
       <c r="D1" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="F1" s="43" t="s">
         <v>394</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="G1" s="43" t="s">
         <v>395</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>396</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="L1" s="43" t="s">
         <v>387</v>
       </c>
-      <c r="L1" s="43" t="s">
-        <v>388</v>
-      </c>
       <c r="M1" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="N1" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="O1" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="P1" s="42" t="s">
         <v>400</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="Q1" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="R1" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="S1" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="T1" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="T1" s="42" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="16" customFormat="1">
+      <c r="U1" s="74" t="s">
+        <v>564</v>
+      </c>
+      <c r="V1" s="73" t="s">
+        <v>565</v>
+      </c>
+      <c r="W1" s="73" t="s">
+        <v>566</v>
+      </c>
+      <c r="X1" s="73" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y1" s="73" t="s">
+        <v>568</v>
+      </c>
+      <c r="Z1" s="73" t="s">
+        <v>569</v>
+      </c>
+      <c r="AA1" s="73" t="s">
+        <v>570</v>
+      </c>
+      <c r="AB1" s="73" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="16" customFormat="1">
       <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
@@ -7990,13 +8068,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>406</v>
       </c>
-      <c r="E2" s="46" t="s">
-        <v>407</v>
-      </c>
       <c r="F2" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>59</v>
@@ -8040,8 +8118,32 @@
       <c r="T2" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" s="16" customFormat="1">
+      <c r="U2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="16" customFormat="1">
       <c r="A3" s="46" t="s">
         <v>27</v>
       </c>
@@ -8052,13 +8154,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>59</v>
@@ -8102,8 +8204,32 @@
       <c r="T3" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="51" t="s">
         <v>35</v>
       </c>
@@ -8117,10 +8243,10 @@
         <v>28</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G4" s="51" t="s">
         <v>28</v>
@@ -8141,33 +8267,57 @@
         <v>19</v>
       </c>
       <c r="M4" s="51" t="s">
+        <v>408</v>
+      </c>
+      <c r="N4" s="51" t="s">
         <v>409</v>
       </c>
-      <c r="N4" s="51" t="s">
-        <v>410</v>
-      </c>
       <c r="O4" s="51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P4" s="51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Q4" s="51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="R4" s="51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="S4" s="51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="T4" s="51" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>409</v>
+      </c>
+      <c r="U4" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB4" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="51">
         <v>1</v>
@@ -8226,8 +8376,32 @@
       <c r="T5" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y5" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB5" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="51" t="s">
         <v>38</v>
       </c>
@@ -8283,13 +8457,37 @@
         <v>28</v>
       </c>
       <c r="S6" s="50" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="T6" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" s="39" customFormat="1">
+      <c r="U6" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y6" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z6" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA6" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB6" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="39" customFormat="1">
       <c r="A7" s="51" t="s">
         <v>38</v>
       </c>
@@ -8300,13 +8498,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="51" t="s">
+        <v>405</v>
+      </c>
+      <c r="E7" s="51" t="s">
         <v>406</v>
       </c>
-      <c r="E7" s="51" t="s">
-        <v>407</v>
-      </c>
       <c r="F7" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G7" s="51" t="s">
         <v>59</v>
@@ -8327,7 +8525,7 @@
         <v>19</v>
       </c>
       <c r="M7" s="51" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N7" s="51" t="s">
         <v>28</v>
@@ -8350,8 +8548,32 @@
       <c r="T7" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" s="39" customFormat="1">
+      <c r="U7" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y7" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z7" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB7" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="39" customFormat="1">
       <c r="A8" s="51" t="s">
         <v>38</v>
       </c>
@@ -8362,13 +8584,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G8" s="51" t="s">
         <v>59</v>
@@ -8389,48 +8611,72 @@
         <v>19</v>
       </c>
       <c r="M8" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="N8" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X8" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y8" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z8" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA8" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB8" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" s="51">
+        <v>1</v>
+      </c>
+      <c r="C9" s="51">
+        <v>1</v>
+      </c>
+      <c r="D9" s="51" t="s">
         <v>412</v>
       </c>
-      <c r="N8" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="R8" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="S8" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" s="51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="B9" s="51">
-        <v>1</v>
-      </c>
-      <c r="C9" s="51">
-        <v>1</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>413</v>
-      </c>
       <c r="E9" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G9" s="51" t="s">
         <v>59</v>
@@ -8451,7 +8697,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="51" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N9" s="51" t="s">
         <v>28</v>
@@ -8474,10 +8720,34 @@
       <c r="T9" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W9" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y9" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z9" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA9" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB9" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B10" s="51">
         <v>1</v>
@@ -8486,13 +8756,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G10" s="51" t="s">
         <v>59</v>
@@ -8513,7 +8783,7 @@
         <v>19</v>
       </c>
       <c r="M10" s="51" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N10" s="51" t="s">
         <v>28</v>
@@ -8536,10 +8806,34 @@
       <c r="T10" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" s="55" customFormat="1">
+      <c r="U10" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y10" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z10" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA10" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB10" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="55" customFormat="1">
       <c r="A11" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B11" s="55">
         <v>1</v>
@@ -8548,13 +8842,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>28</v>
@@ -8598,10 +8892,34 @@
       <c r="T11" s="55" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" s="55" customFormat="1">
+      <c r="U11" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W11" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X11" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y11" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z11" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA11" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB11" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="55" customFormat="1">
       <c r="A12" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B12" s="55">
         <v>1</v>
@@ -8610,61 +8928,85 @@
         <v>2</v>
       </c>
       <c r="D12" s="55" t="s">
+        <v>415</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W12" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X12" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y12" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z12" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB12" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="51" t="s">
         <v>416</v>
       </c>
-      <c r="E12" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="F12" s="55" t="s">
-        <v>407</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q12" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="S12" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="T12" s="55" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="51" t="s">
-        <v>417</v>
-      </c>
       <c r="B13" s="51">
         <v>1</v>
       </c>
@@ -8722,10 +9064,34 @@
       <c r="T13" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W13" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X13" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y13" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z13" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA13" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB13" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B14" s="51">
         <v>1</v>
@@ -8734,13 +9100,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G14" s="51" t="s">
         <v>59</v>
@@ -8784,10 +9150,34 @@
       <c r="T14" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V14" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W14" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X14" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y14" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z14" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA14" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB14" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B15" s="51">
         <v>1</v>
@@ -8796,13 +9186,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G15" s="51" t="s">
         <v>59</v>
@@ -8846,10 +9236,34 @@
       <c r="T15" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V15" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W15" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X15" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y15" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z15" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA15" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB15" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B16" s="51">
         <v>1</v>
@@ -8858,13 +9272,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G16" s="51" t="s">
         <v>59</v>
@@ -8908,10 +9322,34 @@
       <c r="T16" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" s="46" customFormat="1">
+      <c r="U16" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W16" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X16" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y16" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z16" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA16" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB16" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" s="46" customFormat="1">
       <c r="A17" s="46" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -8920,13 +9358,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G17" s="46" t="s">
         <v>59</v>
@@ -8970,10 +9408,34 @@
       <c r="T17" s="46" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" s="46" customFormat="1">
+      <c r="U17" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V17" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W17" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X17" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y17" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z17" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA17" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB17" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="46" customFormat="1">
       <c r="A18" s="46" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B18" s="46">
         <v>1</v>
@@ -8982,13 +9444,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>59</v>
@@ -9032,10 +9494,34 @@
       <c r="T18" s="46" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" s="46" customFormat="1">
+      <c r="U18" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V18" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W18" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X18" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y18" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z18" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA18" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB18" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="46" customFormat="1">
       <c r="A19" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B19" s="46">
         <v>1</v>
@@ -9044,13 +9530,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G19" s="46" t="s">
         <v>59</v>
@@ -9094,10 +9580,34 @@
       <c r="T19" s="46" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V19" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W19" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X19" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y19" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z19" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA19" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB19" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
@@ -9106,13 +9616,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>59</v>
@@ -9133,7 +9643,7 @@
         <v>19</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>28</v>
@@ -9156,10 +9666,34 @@
       <c r="T20" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V20" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W20" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X20" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y20" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z20" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA20" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB20" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
@@ -9168,13 +9702,13 @@
         <v>2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>59</v>
@@ -9195,7 +9729,7 @@
         <v>19</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>28</v>
@@ -9218,10 +9752,34 @@
       <c r="T21" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W21" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X21" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y21" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z21" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA21" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB21" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B22" s="5">
         <v>1</v>
@@ -9230,13 +9788,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>59</v>
@@ -9257,7 +9815,7 @@
         <v>19</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>28</v>
@@ -9280,10 +9838,34 @@
       <c r="T22" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" s="31" customFormat="1">
+      <c r="U22" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W22" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X22" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y22" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z22" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA22" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB22" s="73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" s="31" customFormat="1">
       <c r="A23" s="70" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B23" s="70">
         <v>1</v>
@@ -9292,13 +9874,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="70" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E23" s="70" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F23" s="70" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G23" s="70" t="s">
         <v>28</v>
@@ -9342,66 +9924,200 @@
       <c r="T23" s="70" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" s="70" customFormat="1">
-      <c r="A24" s="70" t="s">
-        <v>564</v>
-      </c>
-      <c r="B24" s="70">
-        <v>1</v>
-      </c>
-      <c r="C24" s="70">
-        <v>1</v>
-      </c>
-      <c r="D24" s="70" t="s">
-        <v>413</v>
-      </c>
-      <c r="E24" s="70" t="s">
-        <v>407</v>
-      </c>
-      <c r="F24" s="70" t="s">
-        <v>407</v>
-      </c>
-      <c r="G24" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="O24" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="R24" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="S24" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="T24" s="70" t="s">
+      <c r="U23" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="V23" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="W23" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="X23" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y23" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z23" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA23" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB23" s="72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="75">
+        <v>1</v>
+      </c>
+      <c r="C24" s="75">
+        <v>2</v>
+      </c>
+      <c r="D24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="R24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="S24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="T24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="U24" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="W24" s="75" t="s">
+        <v>572</v>
+      </c>
+      <c r="X24" s="75" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y24" s="75" t="s">
+        <v>574</v>
+      </c>
+      <c r="Z24" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA24" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB24" s="75" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="76" t="s">
+        <v>576</v>
+      </c>
+      <c r="B25" s="76">
+        <v>1</v>
+      </c>
+      <c r="C25" s="76">
+        <v>1</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>412</v>
+      </c>
+      <c r="E25" s="76" t="s">
+        <v>406</v>
+      </c>
+      <c r="F25" s="76" t="s">
+        <v>406</v>
+      </c>
+      <c r="G25" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="S25" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="T25" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="U25" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="V25" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="W25" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="X25" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y25" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z25" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA25" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB25" s="76" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10161,31 +10877,31 @@
         <v>160</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>163</v>
       </c>
       <c r="G1" s="51" t="s">
+        <v>422</v>
+      </c>
+      <c r="H1" s="51" t="s">
         <v>423</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="I1" s="51" t="s">
         <v>424</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="J1" s="51" t="s">
         <v>425</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="K1" s="51" t="s">
         <v>426</v>
       </c>
-      <c r="K1" s="51" t="s">
-        <v>165</v>
-      </c>
       <c r="L1" s="51" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N1" s="51" t="s">
         <v>13</v>
@@ -10193,7 +10909,7 @@
     </row>
     <row r="2" spans="1:14" s="34" customFormat="1">
       <c r="A2" s="34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="34">
         <v>1</v>
@@ -10208,13 +10924,13 @@
         <v>428</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>429</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I2" s="34" t="s">
         <v>430</v>
@@ -10223,7 +10939,7 @@
         <v>431</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="L2" s="34" t="s">
         <v>432</v>
@@ -10270,19 +10986,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>433</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>434</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -10302,10 +11018,10 @@
         <v>19</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H2" s="51" t="s">
         <v>19</v>
@@ -10368,13 +11084,13 @@
         <v>436</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I1" s="51" t="s">
         <v>437</v>
@@ -10466,7 +11182,7 @@
         <v>454</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" s="51" t="s">
         <v>59</v>
@@ -10555,7 +11271,7 @@
         <v>455</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F3" s="51" t="s">
         <v>59</v>
@@ -10647,7 +11363,7 @@
         <v>456</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G4" s="51" t="s">
         <v>28</v>
@@ -10744,7 +11460,7 @@
         <v>454</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G5" s="51" t="s">
         <v>28</v>
@@ -11317,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>149</v>
@@ -11418,7 +12134,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>28</v>
@@ -11973,10 +12689,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F26082-EA83-4A35-BBD3-990DF7F89614}">
-  <dimension ref="A1:BF9"/>
+  <dimension ref="A1:AX9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:BF6"/>
+      <selection activeCell="A6" sqref="A6:AX6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -11998,7 +12714,7 @@
     <col min="16" max="16384" width="8.81640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:50">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -12009,10 +12725,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F1" s="41" t="s">
         <v>487</v>
@@ -12045,7 +12761,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:58" s="46" customFormat="1" ht="58">
+    <row r="2" spans="1:50" s="46" customFormat="1" ht="58">
       <c r="A2" s="56" t="s">
         <v>27</v>
       </c>
@@ -12092,7 +12808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:58" s="46" customFormat="1" ht="29">
+    <row r="3" spans="1:50" s="46" customFormat="1" ht="29">
       <c r="A3" s="56" t="s">
         <v>27</v>
       </c>
@@ -12103,7 +12819,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>19</v>
@@ -12139,9 +12855,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:58">
+    <row r="4" spans="1:50">
       <c r="A4" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="40">
         <v>1</v>
@@ -12150,7 +12866,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>19</v>
@@ -12178,7 +12894,7 @@
       <c r="N4" s="51"/>
       <c r="O4" s="51"/>
     </row>
-    <row r="5" spans="1:58" s="31" customFormat="1">
+    <row r="5" spans="1:50" s="31" customFormat="1">
       <c r="A5" s="70" t="s">
         <v>36</v>
       </c>
@@ -12189,7 +12905,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E5" s="70" t="s">
         <v>19</v>
@@ -12219,95 +12935,87 @@
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
     </row>
-    <row r="6" spans="1:58">
-      <c r="A6" s="51" t="s">
-        <v>565</v>
-      </c>
-      <c r="B6" s="51">
-        <v>1</v>
-      </c>
-      <c r="C6" s="51">
-        <v>1</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="51"/>
-      <c r="AL6" s="51"/>
-      <c r="AM6" s="51"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="51"/>
-      <c r="AR6" s="51"/>
-      <c r="AS6" s="51"/>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="51"/>
-      <c r="AV6" s="51"/>
-      <c r="AW6" s="51"/>
-      <c r="AX6" s="51"/>
-      <c r="AY6" s="51"/>
-      <c r="AZ6" s="51"/>
-      <c r="BA6" s="51"/>
-      <c r="BB6" s="51"/>
-      <c r="BC6" s="51"/>
-      <c r="BD6" s="51"/>
-      <c r="BE6" s="51"/>
-      <c r="BF6" s="51"/>
-    </row>
-    <row r="7" spans="1:58">
+    <row r="6" spans="1:50">
+      <c r="A6" s="77" t="s">
+        <v>577</v>
+      </c>
+      <c r="B6" s="77">
+        <v>1</v>
+      </c>
+      <c r="C6" s="77">
+        <v>1</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
+      <c r="AJ6" s="77"/>
+      <c r="AK6" s="77"/>
+      <c r="AL6" s="77"/>
+      <c r="AM6" s="77"/>
+      <c r="AN6" s="77"/>
+      <c r="AO6" s="77"/>
+      <c r="AP6" s="77"/>
+      <c r="AQ6" s="77"/>
+      <c r="AR6" s="77"/>
+      <c r="AS6" s="77"/>
+      <c r="AT6" s="77"/>
+      <c r="AU6" s="77"/>
+      <c r="AV6" s="77"/>
+      <c r="AW6" s="77"/>
+      <c r="AX6" s="77"/>
+    </row>
+    <row r="7" spans="1:50">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -12324,7 +13032,7 @@
       <c r="N7" s="51"/>
       <c r="O7" s="51"/>
     </row>
-    <row r="8" spans="1:58">
+    <row r="8" spans="1:50">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -12341,7 +13049,7 @@
       <c r="N8" s="51"/>
       <c r="O8" s="51"/>
     </row>
-    <row r="9" spans="1:58">
+    <row r="9" spans="1:50">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -12490,7 +13198,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12546,7 +13254,7 @@
       <c r="S2" s="48"/>
       <c r="T2" s="48"/>
       <c r="U2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V2" s="5" t="s">
         <v>28</v>
@@ -12558,7 +13266,7 @@
         <v>520</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>28</v>
@@ -12579,22 +13287,22 @@
         <v>28</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AH2" s="5">
         <v>89377</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AL2" s="5"/>
     </row>
@@ -12651,7 +13359,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12663,7 +13371,7 @@
         <v>149</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>28</v>
@@ -12733,7 +13441,7 @@
         <v>535</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>13</v>
@@ -12741,7 +13449,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12750,10 +13458,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
@@ -12775,7 +13483,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -12879,7 +13587,7 @@
         <v>555</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AC1" s="51" t="s">
         <v>556</v>
@@ -12887,7 +13595,7 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12896,27 +13604,27 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
@@ -12929,7 +13637,7 @@
         <v>558</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>559</v>
@@ -12938,13 +13646,13 @@
         <v>28</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U2" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V2" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="W2" s="51" t="s">
         <v>560</v>
@@ -12964,7 +13672,7 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -12973,7 +13681,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>28</v>
@@ -13012,7 +13720,7 @@
         <v>28</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>563</v>
@@ -13021,7 +13729,7 @@
         <v>28</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>28</v>
@@ -13058,10 +13766,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE06A9D-8317-49A7-9A82-039A1B827ECC}">
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AN4" sqref="AN4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13106,7 +13814,7 @@
     <col min="40" max="40" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:40">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -13227,11 +13935,8 @@
       <c r="AN1" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="AO1" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41">
+    </row>
+    <row r="2" spans="1:40">
       <c r="A2" s="51" t="s">
         <v>35</v>
       </c>
@@ -13251,40 +13956,40 @@
         <v>19</v>
       </c>
       <c r="G2" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="I2" s="51" t="s">
         <v>99</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>100</v>
       </c>
       <c r="J2" s="51" t="s">
         <v>59</v>
       </c>
       <c r="K2" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="M2" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="N2" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="O2" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>105</v>
-      </c>
       <c r="R2" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S2" s="17" t="s">
         <v>19</v>
@@ -13352,11 +14057,8 @@
       <c r="AN2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AO2" s="42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" s="46" customFormat="1" ht="15.65" customHeight="1">
+    </row>
+    <row r="3" spans="1:40" s="46" customFormat="1" ht="15.65" customHeight="1">
       <c r="A3" s="65" t="s">
         <v>27</v>
       </c>
@@ -13376,40 +14078,40 @@
         <v>30</v>
       </c>
       <c r="G3" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="I3" s="65" t="s">
         <v>99</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>100</v>
       </c>
       <c r="J3" s="65" t="s">
         <v>59</v>
       </c>
       <c r="K3" s="65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L3" s="66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M3" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="O3" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="O3" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="65" t="s">
-        <v>105</v>
-      </c>
       <c r="R3" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S3" s="65" t="s">
         <v>19</v>
@@ -13477,11 +14179,8 @@
       <c r="AN3" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="AO3" s="42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" s="31" customFormat="1" ht="15.65" customHeight="1">
+    </row>
+    <row r="4" spans="1:40" s="31" customFormat="1" ht="15.65" customHeight="1">
       <c r="A4" s="70" t="s">
         <v>36</v>
       </c>
@@ -13497,114 +14196,111 @@
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
       <c r="G4" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="I4" s="70" t="s">
         <v>99</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>100</v>
       </c>
       <c r="J4" s="70" t="s">
         <v>59</v>
       </c>
       <c r="K4" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="R4" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="S4" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN4" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="A5" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="L4" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="M4" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="N4" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="O4" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="R4" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="S4" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="U4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO4" s="42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41">
-      <c r="A5" s="17" t="s">
-        <v>111</v>
       </c>
       <c r="B5" s="17">
         <v>1</v>
@@ -13719,11 +14415,8 @@
       <c r="AN5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AO5" s="42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41">
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -13764,9 +14457,8 @@
       <c r="AL6" s="17"/>
       <c r="AM6" s="17"/>
       <c r="AN6" s="17"/>
-      <c r="AO6" s="51"/>
-    </row>
-    <row r="7" spans="1:41">
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -13807,9 +14499,8 @@
       <c r="AL7" s="17"/>
       <c r="AM7" s="17"/>
       <c r="AN7" s="17"/>
-      <c r="AO7" s="51"/>
-    </row>
-    <row r="8" spans="1:41">
+    </row>
+    <row r="8" spans="1:40">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -13850,9 +14541,8 @@
       <c r="AL8" s="17"/>
       <c r="AM8" s="17"/>
       <c r="AN8" s="17"/>
-      <c r="AO8" s="51"/>
-    </row>
-    <row r="9" spans="1:41">
+    </row>
+    <row r="9" spans="1:40">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -13893,9 +14583,8 @@
       <c r="AL9" s="17"/>
       <c r="AM9" s="17"/>
       <c r="AN9" s="17"/>
-      <c r="AO9" s="51"/>
-    </row>
-    <row r="10" spans="1:41">
+    </row>
+    <row r="10" spans="1:40">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -13936,9 +14625,8 @@
       <c r="AL10" s="17"/>
       <c r="AM10" s="17"/>
       <c r="AN10" s="17"/>
-      <c r="AO10" s="51"/>
-    </row>
-    <row r="11" spans="1:41">
+    </row>
+    <row r="11" spans="1:40">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -13979,9 +14667,8 @@
       <c r="AL11" s="17"/>
       <c r="AM11" s="17"/>
       <c r="AN11" s="17"/>
-      <c r="AO11" s="51"/>
-    </row>
-    <row r="12" spans="1:41">
+    </row>
+    <row r="12" spans="1:40">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -14022,9 +14709,8 @@
       <c r="AL12" s="17"/>
       <c r="AM12" s="17"/>
       <c r="AN12" s="17"/>
-      <c r="AO12" s="51"/>
-    </row>
-    <row r="13" spans="1:41">
+    </row>
+    <row r="13" spans="1:40">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -14065,9 +14751,8 @@
       <c r="AL13" s="17"/>
       <c r="AM13" s="17"/>
       <c r="AN13" s="17"/>
-      <c r="AO13" s="51"/>
-    </row>
-    <row r="14" spans="1:41">
+    </row>
+    <row r="14" spans="1:40">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -14108,9 +14793,8 @@
       <c r="AL14" s="17"/>
       <c r="AM14" s="17"/>
       <c r="AN14" s="17"/>
-      <c r="AO14" s="51"/>
-    </row>
-    <row r="15" spans="1:41">
+    </row>
+    <row r="15" spans="1:40">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -14151,9 +14835,8 @@
       <c r="AL15" s="17"/>
       <c r="AM15" s="17"/>
       <c r="AN15" s="17"/>
-      <c r="AO15" s="51"/>
-    </row>
-    <row r="16" spans="1:41">
+    </row>
+    <row r="16" spans="1:40">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -14194,7 +14877,6 @@
       <c r="AL16" s="17"/>
       <c r="AM16" s="17"/>
       <c r="AN16" s="17"/>
-      <c r="AO16" s="51"/>
     </row>
     <row r="17" spans="1:40">
       <c r="A17" s="17"/>
@@ -14248,8 +14930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52296D71-257F-48D6-B061-96C4007B427B}">
   <dimension ref="A1:BF5"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14324,10 +15006,10 @@
         <v>78</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>67</v>
@@ -14336,31 +15018,31 @@
         <v>69</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>71</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M1" s="17" t="s">
         <v>72</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O1" s="17" t="s">
         <v>74</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="R1" s="17" t="s">
         <v>76</v>
@@ -14369,10 +15051,10 @@
         <v>13</v>
       </c>
       <c r="T1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="U1" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>120</v>
       </c>
       <c r="V1" s="17" t="s">
         <v>81</v>
@@ -14384,7 +15066,7 @@
         <v>80</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z1" s="8" t="s">
         <v>83</v>
@@ -14393,10 +15075,10 @@
         <v>79</v>
       </c>
       <c r="AB1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC1" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="AD1" s="8" t="s">
         <v>84</v>
@@ -14408,46 +15090,46 @@
         <v>85</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH1" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AI1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="AK1" s="8" t="s">
         <v>90</v>
       </c>
       <c r="AL1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM1" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="AT1" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="AU1" s="8" t="s">
         <v>54</v>
@@ -14459,31 +15141,31 @@
         <v>96</v>
       </c>
       <c r="AX1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="BA1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BB1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BC1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BD1" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BE1" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BF1" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="BF1" s="9" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:58">
@@ -14506,37 +15188,37 @@
         <v>59</v>
       </c>
       <c r="G2" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="51" t="s">
+      <c r="L2" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="O2" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="51" t="s">
+      <c r="P2" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="O2" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="P2" s="42" t="s">
+      <c r="Q2" s="42" t="s">
         <v>148</v>
-      </c>
-      <c r="Q2" s="42" t="s">
-        <v>106</v>
       </c>
       <c r="R2" s="51" t="s">
         <v>28</v>
@@ -14861,34 +15543,34 @@
         <v>150</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J4" s="56" t="s">
         <v>33</v>
       </c>
       <c r="K4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="L4" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="56" t="s">
+      <c r="O4" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="O4" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="P4" s="56" t="s">
+      <c r="Q4" s="56" t="s">
         <v>148</v>
-      </c>
-      <c r="Q4" s="56" t="s">
-        <v>106</v>
       </c>
       <c r="R4" s="56" t="s">
         <v>28</v>
@@ -15016,7 +15698,7 @@
     </row>
     <row r="5" spans="1:58">
       <c r="A5" s="51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="51">
         <v>1</v>
@@ -15323,10 +16005,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056B68C9-3C17-4B06-80C0-880DDEDA4E17}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15336,15 +16018,14 @@
     <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -15375,11 +16056,8 @@
       <c r="J1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="51" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="49" t="s">
         <v>36</v>
       </c>
@@ -15393,28 +16071,25 @@
         <v>19</v>
       </c>
       <c r="E2" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="G2" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="H2" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="49" t="s">
-        <v>169</v>
-      </c>
       <c r="I2" s="49" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="51" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="49" t="s">
         <v>36</v>
       </c>
@@ -15428,25 +16103,22 @@
         <v>28</v>
       </c>
       <c r="E3" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="G3" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="H3" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="H3" s="49" t="s">
-        <v>169</v>
-      </c>
       <c r="I3" s="49" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="49" t="s">
         <v>19</v>
-      </c>
-      <c r="K3" s="51" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -15456,10 +16128,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D515A6D1-7D94-4084-A48A-E45C12FE9CD2}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15468,9 +16140,10 @@
     <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="1.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="51" customFormat="1">
+    <row r="1" spans="1:6" s="51" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -15480,11 +16153,13 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="51" customFormat="1">
+      <c r="D1" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" s="51" customFormat="1">
       <c r="A2" s="49" t="s">
         <v>36</v>
       </c>
@@ -15496,6 +16171,12 @@
       </c>
       <c r="D2" s="49" t="s">
         <v>19</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -15533,31 +16214,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="G1" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="H1" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="I1" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="J1" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="K1" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="L1" s="51" t="s">
         <v>178</v>
-      </c>
-      <c r="K1" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="L1" s="51" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -15571,29 +16252,29 @@
         <v>1</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I2" s="51" t="s">
         <v>59</v>
       </c>
       <c r="J2" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" s="51" t="s">
         <v>181</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="22" customHeight="1">
@@ -15607,21 +16288,21 @@
         <v>1</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
       <c r="H3" s="51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I3" s="51" t="s">
         <v>59</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K3" s="51"/>
       <c r="L3" s="51"/>
@@ -15652,31 +16333,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -15690,16 +16371,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="5">
         <v>987654321</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
@@ -15712,7 +16393,7 @@
         <v>59</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -16113,15 +16794,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -16338,6 +17010,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -16349,14 +17030,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16371,6 +17044,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata26feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\March\03March\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE4624D-CED8-435A-8903-15835E52F507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F9F68F-D92B-4F52-B1A9-8D0716B1FFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegations" sheetId="1" r:id="rId1"/>
@@ -27,20 +27,21 @@
     <sheet name="FatalityNearFatality" sheetId="7" r:id="rId12"/>
     <sheet name="Correspondence" sheetId="8" r:id="rId13"/>
     <sheet name="Documents" sheetId="17" r:id="rId14"/>
-    <sheet name="GenerateDocument" sheetId="35" r:id="rId15"/>
-    <sheet name="ApprovalandAuditHistory" sheetId="19" r:id="rId16"/>
-    <sheet name="Logout" sheetId="13" r:id="rId17"/>
-    <sheet name="ValidatePerson" sheetId="14" r:id="rId18"/>
-    <sheet name="Person" sheetId="16" r:id="rId19"/>
-    <sheet name="NewCase" sheetId="21" r:id="rId20"/>
-    <sheet name="Addendums" sheetId="15" r:id="rId21"/>
-    <sheet name="RefHistory" sheetId="11" r:id="rId22"/>
-    <sheet name="ScreeningReview" sheetId="12" r:id="rId23"/>
-    <sheet name="SubmitForApproval" sheetId="18" r:id="rId24"/>
-    <sheet name="ProviderSearch" sheetId="30" r:id="rId25"/>
-    <sheet name="ProviderOptions" sheetId="31" r:id="rId26"/>
-    <sheet name="Removal" sheetId="32" r:id="rId27"/>
-    <sheet name="ChildLocations" sheetId="33" r:id="rId28"/>
+    <sheet name="FolioTask" sheetId="36" r:id="rId15"/>
+    <sheet name="GenerateDocument" sheetId="35" r:id="rId16"/>
+    <sheet name="ApprovalandAuditHistory" sheetId="19" r:id="rId17"/>
+    <sheet name="Logout" sheetId="13" r:id="rId18"/>
+    <sheet name="ValidatePerson" sheetId="14" r:id="rId19"/>
+    <sheet name="Person" sheetId="16" r:id="rId20"/>
+    <sheet name="NewCase" sheetId="21" r:id="rId21"/>
+    <sheet name="Addendums" sheetId="15" r:id="rId22"/>
+    <sheet name="RefHistory" sheetId="11" r:id="rId23"/>
+    <sheet name="ScreeningReview" sheetId="12" r:id="rId24"/>
+    <sheet name="SubmitForApproval" sheetId="18" r:id="rId25"/>
+    <sheet name="ProviderSearch" sheetId="30" r:id="rId26"/>
+    <sheet name="ProviderOptions" sheetId="31" r:id="rId27"/>
+    <sheet name="Removal" sheetId="32" r:id="rId28"/>
+    <sheet name="ChildLocations" sheetId="33" r:id="rId29"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Allegations!$A$1:$R$12</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3234" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="568">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -359,6 +360,9 @@
     <t>TOAST_MSG_VERIFY</t>
   </si>
   <si>
+    <t>DOCUMENTATION_STATUS</t>
+  </si>
+  <si>
     <t>Consult with Attorney</t>
   </si>
   <si>
@@ -368,684 +372,687 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>personName2</t>
+    <t>Victim2</t>
+  </si>
+  <si>
+    <t>Victim1</t>
+  </si>
+  <si>
+    <t>In-Person</t>
+  </si>
+  <si>
+    <t>Court</t>
+  </si>
+  <si>
+    <t>randomText</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Victim1,Victim2,folioPersonName2</t>
+  </si>
+  <si>
+    <t>Victim1,Victim2,Perpetrator1,Perpetrator2,folioPersonName1,folioPersonName2</t>
+  </si>
+  <si>
+    <t>personName2,personName4</t>
+  </si>
+  <si>
+    <t>personName1,personName2,personName3,personName4</t>
+  </si>
+  <si>
+    <t>testT4148</t>
+  </si>
+  <si>
+    <t>TRIBAL_NEW_BTN</t>
+  </si>
+  <si>
+    <t>CONTACT_START_DATE_TIME</t>
+  </si>
+  <si>
+    <t>CONTACT_METHOD</t>
+  </si>
+  <si>
+    <t>STAFF_PERSON</t>
+  </si>
+  <si>
+    <t>OTHER_STAFF_PRESENT</t>
+  </si>
+  <si>
+    <t>PARTICIPANT_TYPE</t>
+  </si>
+  <si>
+    <t>CONTINUED_ICWA_INQUIRY</t>
+  </si>
+  <si>
+    <t>FOL_TRIBAL_CONTACTID_VERIFY</t>
+  </si>
+  <si>
+    <t>TRIBALINQUIRY_COLLABORATION_VERIFY</t>
+  </si>
+  <si>
+    <t>CONTACTMETHOD_VERIFY</t>
+  </si>
+  <si>
+    <t>STATUSNARRATIVE_VERIFY</t>
+  </si>
+  <si>
+    <t>PARTICIPANT_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>OTHERLOCATION_VERIFY</t>
+  </si>
+  <si>
+    <t>REASONTOKNOWRATIONALE_VERIFY</t>
+  </si>
+  <si>
+    <t>INITIALICWAINQ_VERIFY</t>
+  </si>
+  <si>
+    <t>INDIANCHILDINQ_VERIFY</t>
+  </si>
+  <si>
+    <t>MEMBEROFTRIBAL_VERIFY</t>
+  </si>
+  <si>
+    <t>IFTESREASON1_VERIFY</t>
+  </si>
+  <si>
+    <t>ISPARENTMEMBER_VERIFY</t>
+  </si>
+  <si>
+    <t>RECEIVESERVICE_VERIFY</t>
+  </si>
+  <si>
+    <t>IFTESREASON2_VERIFY</t>
+  </si>
+  <si>
+    <t>RESIDEONRESERVATION_VERIFY</t>
+  </si>
+  <si>
+    <t>ANYFAMILYIDENTIFIED_VERIFY</t>
+  </si>
+  <si>
+    <t>RECEIVESFEDERALSERVICE_VERIFY</t>
+  </si>
+  <si>
+    <t>MemberofTribeAlaskaNativeVillage</t>
+  </si>
+  <si>
+    <t>ifYesThenWhichTribe1</t>
+  </si>
+  <si>
+    <t>IsParentMemberOfTribe</t>
+  </si>
+  <si>
+    <t>ifYesThenWhichTribe2</t>
+  </si>
+  <si>
+    <t>ReceivesServiceBenefitFromTribe</t>
+  </si>
+  <si>
+    <t>ifYesThenWhichTribe3</t>
+  </si>
+  <si>
+    <t>ResidesOnReservationTribalLand</t>
+  </si>
+  <si>
+    <t>AnyFamilyIdentifiedAncestryHeritage</t>
+  </si>
+  <si>
+    <t>ReceivesFederalServiceTribalBenefit</t>
+  </si>
+  <si>
+    <t>Tribal Inquiry</t>
+  </si>
+  <si>
+    <t>Clerical Worker1 Contra Costa</t>
+  </si>
+  <si>
+    <t>Reporting Party</t>
+  </si>
+  <si>
+    <t>Continue to Inquire</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Tribal Collaboration</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>GENERATE_BTN</t>
+  </si>
+  <si>
+    <t>DOCUMENT_TYPE</t>
+  </si>
+  <si>
+    <t>SHOWMORE_BTN</t>
+  </si>
+  <si>
+    <t>ACTUAL_METHOD_ERNRD_SENT</t>
+  </si>
+  <si>
+    <t>DATE_SENT</t>
+  </si>
+  <si>
+    <t>Emergency Response Notice of Referral Disposition (ERNRD)</t>
+  </si>
+  <si>
+    <t>Email/Electronic</t>
+  </si>
+  <si>
+    <t>PROMOTETOCASE_BTN</t>
+  </si>
+  <si>
+    <t>CASE_TYPE</t>
+  </si>
+  <si>
+    <t>PRIMARY_RESP_AGENCY</t>
+  </si>
+  <si>
+    <t>SECONDARY_RESP_AGENCY</t>
+  </si>
+  <si>
+    <t>SERVICE_COMPONENT</t>
+  </si>
+  <si>
+    <t>ASSIGNMENT_DESK</t>
+  </si>
+  <si>
+    <t>PRIMARY_WORKER</t>
+  </si>
+  <si>
+    <t>Child Welfare Court</t>
+  </si>
+  <si>
+    <t>Title IV-E Indian Tribe</t>
+  </si>
+  <si>
+    <t>Juvenile Probation</t>
+  </si>
+  <si>
+    <t>Family Maintenance No Placement</t>
+  </si>
+  <si>
+    <t>CMWorkerContraCosta</t>
+  </si>
+  <si>
+    <t>RELATED_FOLIOS_TAB</t>
+  </si>
+  <si>
+    <t>FOLIO_COMMERCIALSEXUALEXPLOITATION_TAB</t>
+  </si>
+  <si>
+    <t>CSE_PERSON</t>
+  </si>
+  <si>
+    <t>SelectFolioPersonRB</t>
+  </si>
+  <si>
+    <t>NextBt</t>
+  </si>
+  <si>
+    <t>CSEType</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>saveBtn</t>
+  </si>
+  <si>
+    <t>AddInstancesofCommercialSexualExploitation</t>
+  </si>
+  <si>
+    <t>CSEType1</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>At Risk</t>
+  </si>
+  <si>
+    <t>Victim Before Foster Care</t>
+  </si>
+  <si>
+    <t>FOLIO_AdministrativeHearings_TAB</t>
+  </si>
+  <si>
+    <t>newBtn</t>
+  </si>
+  <si>
+    <t>CorrespondenceID</t>
+  </si>
+  <si>
+    <t>allegedPerpetrator</t>
+  </si>
+  <si>
+    <t>PerpetratorNotificationMethod</t>
+  </si>
+  <si>
+    <t>SOC834ResponseReceivedDate</t>
+  </si>
+  <si>
+    <t>DOJNotificationDate</t>
+  </si>
+  <si>
+    <t>PerpetratorNotificationDate</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>FOLIO_DETAILS_TAB</t>
+  </si>
+  <si>
+    <t>PATHWAY</t>
+  </si>
+  <si>
+    <t>APPROVAL_SUPERVISOR</t>
+  </si>
+  <si>
+    <t>APPROVAL_SUPERVISOR_LINK</t>
+  </si>
+  <si>
+    <t>INVESTIGATION_CLOSED_DATE</t>
+  </si>
+  <si>
+    <t>FOLIOREF_VERIFY</t>
+  </si>
+  <si>
+    <t>RECORD_STATUS</t>
+  </si>
+  <si>
+    <t>REFERRAL_CLOSED_DATE</t>
+  </si>
+  <si>
+    <t>Referral</t>
+  </si>
+  <si>
+    <t>ERSupervisorContraCosta</t>
+  </si>
+  <si>
+    <t>Pending Approval</t>
+  </si>
+  <si>
+    <t>Recalled</t>
+  </si>
+  <si>
+    <t>Resubmitted</t>
+  </si>
+  <si>
+    <t>ASSIGNMENTS_TAB</t>
+  </si>
+  <si>
+    <t>PERSON</t>
+  </si>
+  <si>
+    <t>PERSON_LINK</t>
+  </si>
+  <si>
+    <t>START_DATE</t>
+  </si>
+  <si>
+    <t>WORKER_ROLE</t>
+  </si>
+  <si>
+    <t>FOLIO_ASSIGNMENT_ID</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>AUDIT_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>NEW_VALUE</t>
+  </si>
+  <si>
+    <t>HLSupervisorContraCosta</t>
+  </si>
+  <si>
+    <t>Adoptions Worker</t>
+  </si>
+  <si>
+    <t>autoText</t>
+  </si>
+  <si>
+    <t>Case Aide</t>
+  </si>
+  <si>
+    <t>testPOM</t>
+  </si>
+  <si>
+    <t>ASN-000001507319</t>
+  </si>
+  <si>
+    <t>CMManagerContraCosta</t>
+  </si>
+  <si>
+    <t>testT4258</t>
+  </si>
+  <si>
+    <t>Placement Worker</t>
+  </si>
+  <si>
+    <t>FOLIO_NEARFATALITY_TAB</t>
+  </si>
+  <si>
+    <t>allegedVictim</t>
+  </si>
+  <si>
+    <t>isChildFatalityNear</t>
+  </si>
+  <si>
+    <t>CircumstanceType</t>
+  </si>
+  <si>
+    <t>CircumstanceComments</t>
+  </si>
+  <si>
+    <t>CountyOfIncident</t>
+  </si>
+  <si>
+    <t>ResidenceTimeFatalityNearFat</t>
+  </si>
+  <si>
+    <t>IsFatalityNearDateKnown</t>
+  </si>
+  <si>
+    <t>DateFatalityNear</t>
+  </si>
+  <si>
+    <t>FOLIO_PERSON_NAME</t>
+  </si>
+  <si>
+    <t>CHILD_FATALITY_OR_NEARFATALITY</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>Fatality</t>
+  </si>
+  <si>
+    <t>Accidental</t>
+  </si>
+  <si>
+    <t>Calaveras</t>
+  </si>
+  <si>
+    <t>Foster Care/Out-of-Home Care</t>
+  </si>
+  <si>
+    <t>Estimated</t>
+  </si>
+  <si>
+    <t>Contra Costa</t>
   </si>
   <si>
     <t>personName1</t>
   </si>
   <si>
-    <t>In-Person</t>
-  </si>
-  <si>
-    <t>Court</t>
-  </si>
-  <si>
-    <t>randomText</t>
-  </si>
-  <si>
-    <t>Victim1,Victim2,folioPersonName2</t>
-  </si>
-  <si>
-    <t>Victim1,Victim2,Perpetrator1,Perpetrator2,folioPersonName1,folioPersonName2</t>
-  </si>
-  <si>
-    <t>personName2,personName4</t>
-  </si>
-  <si>
-    <t>personName1,personName2,personName3,personName4</t>
-  </si>
-  <si>
-    <t>testT4148</t>
-  </si>
-  <si>
-    <t>TRIBAL_NEW_BTN</t>
-  </si>
-  <si>
-    <t>CONTACT_START_DATE_TIME</t>
-  </si>
-  <si>
-    <t>CONTACT_METHOD</t>
-  </si>
-  <si>
-    <t>STAFF_PERSON</t>
-  </si>
-  <si>
-    <t>OTHER_STAFF_PRESENT</t>
-  </si>
-  <si>
-    <t>PARTICIPANT_TYPE</t>
-  </si>
-  <si>
-    <t>CONTINUED_ICWA_INQUIRY</t>
-  </si>
-  <si>
-    <t>DOCUMENTATION_STATUS</t>
-  </si>
-  <si>
-    <t>FOL_TRIBAL_CONTACTID_VERIFY</t>
-  </si>
-  <si>
-    <t>TRIBALINQUIRY_COLLABORATION_VERIFY</t>
-  </si>
-  <si>
-    <t>CONTACTMETHOD_VERIFY</t>
-  </si>
-  <si>
-    <t>STATUSNARRATIVE_VERIFY</t>
-  </si>
-  <si>
-    <t>PARTICIPANT_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>OTHERLOCATION_VERIFY</t>
-  </si>
-  <si>
-    <t>REASONTOKNOWRATIONALE_VERIFY</t>
-  </si>
-  <si>
-    <t>INITIALICWAINQ_VERIFY</t>
-  </si>
-  <si>
-    <t>INDIANCHILDINQ_VERIFY</t>
-  </si>
-  <si>
-    <t>MEMBEROFTRIBAL_VERIFY</t>
-  </si>
-  <si>
-    <t>IFTESREASON1_VERIFY</t>
-  </si>
-  <si>
-    <t>ISPARENTMEMBER_VERIFY</t>
-  </si>
-  <si>
-    <t>RECEIVESERVICE_VERIFY</t>
-  </si>
-  <si>
-    <t>IFTESREASON2_VERIFY</t>
-  </si>
-  <si>
-    <t>RESIDEONRESERVATION_VERIFY</t>
-  </si>
-  <si>
-    <t>ANYFAMILYIDENTIFIED_VERIFY</t>
-  </si>
-  <si>
-    <t>RECEIVESFEDERALSERVICE_VERIFY</t>
-  </si>
-  <si>
-    <t>MemberofTribeAlaskaNativeVillage</t>
-  </si>
-  <si>
-    <t>ifYesThenWhichTribe1</t>
-  </si>
-  <si>
-    <t>IsParentMemberOfTribe</t>
-  </si>
-  <si>
-    <t>ifYesThenWhichTribe2</t>
-  </si>
-  <si>
-    <t>ReceivesServiceBenefitFromTribe</t>
-  </si>
-  <si>
-    <t>ifYesThenWhichTribe3</t>
-  </si>
-  <si>
-    <t>ResidesOnReservationTribalLand</t>
-  </si>
-  <si>
-    <t>AnyFamilyIdentifiedAncestryHeritage</t>
-  </si>
-  <si>
-    <t>ReceivesFederalServiceTribalBenefit</t>
-  </si>
-  <si>
-    <t>Tribal Inquiry</t>
-  </si>
-  <si>
-    <t>Clerical Worker1 Contra Costa</t>
-  </si>
-  <si>
-    <t>Reporting Party</t>
-  </si>
-  <si>
-    <t>Continue to Inquire</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Tribal Collaboration</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>GENERATE_BTN</t>
-  </si>
-  <si>
-    <t>DOCUMENT_TYPE</t>
-  </si>
-  <si>
-    <t>SHOWMORE_BTN</t>
-  </si>
-  <si>
-    <t>ACTUAL_METHOD_ERNRD_SENT</t>
-  </si>
-  <si>
-    <t>DATE_SENT</t>
-  </si>
-  <si>
-    <t>Emergency Response Notice of Referral Disposition (ERNRD)</t>
-  </si>
-  <si>
-    <t>Email/Electronic</t>
-  </si>
-  <si>
-    <t>PROMOTETOCASE_BTN</t>
-  </si>
-  <si>
-    <t>CASE_TYPE</t>
-  </si>
-  <si>
-    <t>PRIMARY_RESP_AGENCY</t>
-  </si>
-  <si>
-    <t>SECONDARY_RESP_AGENCY</t>
-  </si>
-  <si>
-    <t>SERVICE_COMPONENT</t>
-  </si>
-  <si>
-    <t>ASSIGNMENT_DESK</t>
-  </si>
-  <si>
-    <t>Child Welfare Court</t>
-  </si>
-  <si>
-    <t>Title IV-E Indian Tribe</t>
-  </si>
-  <si>
-    <t>Juvenile Probation</t>
-  </si>
-  <si>
-    <t>Family Maintenance No Placement</t>
-  </si>
-  <si>
-    <t>RELATED_FOLIOS_TAB</t>
-  </si>
-  <si>
-    <t>FOLIO_COMMERCIALSEXUALEXPLOITATION_TAB</t>
-  </si>
-  <si>
-    <t>CSE_PERSON</t>
-  </si>
-  <si>
-    <t>SelectFolioPersonRB</t>
-  </si>
-  <si>
-    <t>NextBt</t>
-  </si>
-  <si>
-    <t>CSEType</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>saveBtn</t>
-  </si>
-  <si>
-    <t>AddInstancesofCommercialSexualExploitation</t>
-  </si>
-  <si>
-    <t>CSEType1</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>At Risk</t>
-  </si>
-  <si>
-    <t>Victim Before Foster Care</t>
-  </si>
-  <si>
-    <t>personName4</t>
-  </si>
-  <si>
-    <t>FOLIO_AdministrativeHearings_TAB</t>
-  </si>
-  <si>
-    <t>newBtn</t>
-  </si>
-  <si>
-    <t>CorrespondenceID</t>
-  </si>
-  <si>
-    <t>allegedPerpetrator</t>
-  </si>
-  <si>
-    <t>PerpetratorNotificationMethod</t>
-  </si>
-  <si>
-    <t>SOC834ResponseReceivedDate</t>
-  </si>
-  <si>
-    <t>DOJNotificationDate</t>
-  </si>
-  <si>
-    <t>PerpetratorNotificationDate</t>
-  </si>
-  <si>
-    <t>enter</t>
-  </si>
-  <si>
-    <t>FOLIO_DETAILS_TAB</t>
-  </si>
-  <si>
-    <t>PATHWAY</t>
-  </si>
-  <si>
-    <t>APPROVAL_SUPERVISOR</t>
-  </si>
-  <si>
-    <t>APPROVAL_SUPERVISOR_LINK</t>
-  </si>
-  <si>
-    <t>INVESTIGATION_CLOSED_DATE</t>
-  </si>
-  <si>
-    <t>FOLIOREF_VERIFY</t>
-  </si>
-  <si>
-    <t>RECORD_STATUS</t>
-  </si>
-  <si>
-    <t>REFERRAL_CLOSED_DATE</t>
+    <t>FOLIO_CORRESPONDENCE_TAB</t>
+  </si>
+  <si>
+    <t>CACI_REPORT</t>
+  </si>
+  <si>
+    <t>PERPARATOR</t>
+  </si>
+  <si>
+    <t>NAME_UNIT_WITHIN_COUNTY</t>
+  </si>
+  <si>
+    <t>RETURN_ADDRESS_WITHIN_COUNTY</t>
+  </si>
+  <si>
+    <t>PHOTO_TAKEN_OFSUBSTANTIATED_ALLEGATION</t>
+  </si>
+  <si>
+    <t>PHONE_NUMBER</t>
+  </si>
+  <si>
+    <t>CROSSREPORT_SCAR</t>
+  </si>
+  <si>
+    <t>AGENCY_NAME</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>AGENCY_TYPE</t>
+  </si>
+  <si>
+    <t>CACI_REPORTID</t>
+  </si>
+  <si>
+    <t>CORRESPONDECE_TYPE</t>
+  </si>
+  <si>
+    <t>STATUS_TYPE</t>
+  </si>
+  <si>
+    <t>REPORTID_VERIFY</t>
+  </si>
+  <si>
+    <t>CACI_REPORT_ID</t>
+  </si>
+  <si>
+    <t>CROSS_REPORT_ID</t>
+  </si>
+  <si>
+    <t>CORRESPONDENCE_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>STATUS_VERIFY</t>
+  </si>
+  <si>
+    <t>STATUS_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>PERPETRATOR_VERIFY</t>
+  </si>
+  <si>
+    <t>AGENCY_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>CREATED_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>pom Test</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Department of Justice</t>
+  </si>
+  <si>
+    <t>Boardaman</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenDigitsNumber </t>
+  </si>
+  <si>
+    <t>CACI Report</t>
+  </si>
+  <si>
+    <t>Not Generated</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>CACI REPORTID</t>
+  </si>
+  <si>
+    <t>Ready to Send</t>
+  </si>
+  <si>
+    <t>Generated</t>
+  </si>
+  <si>
+    <t>CROSS REPORTID</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_TAB</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_FOLIO_TAB</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_SCREENING_TAB</t>
+  </si>
+  <si>
+    <t>SOC_832_VERIFY</t>
+  </si>
+  <si>
+    <t>SOC_834_VERIFY</t>
+  </si>
+  <si>
+    <t>BCIA_8583_VERIFY</t>
+  </si>
+  <si>
+    <t>SOC_833_VERIFY</t>
+  </si>
+  <si>
+    <t>BCIA_8572_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_NEWBTN</t>
+  </si>
+  <si>
+    <t>DOCUMENT_CATEGORY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_STATUS</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENT</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>UPLOADED_DOC_VERIFY</t>
+  </si>
+  <si>
+    <t>TITLE_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_CATEGORY_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>UPLOAD_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>UPLOAD_BY_VERIFY</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_VERIFY</t>
+  </si>
+  <si>
+    <t>SHOW_ACTIONS</t>
+  </si>
+  <si>
+    <t>DOCUMENT_NAME</t>
+  </si>
+  <si>
+    <t>SCR_DOCUMENT_NAME</t>
+  </si>
+  <si>
+    <t>FOLIO_DOCUMENT_NAME</t>
+  </si>
+  <si>
+    <t>PRINT</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>DOWNLOAD</t>
+  </si>
+  <si>
+    <t>DOWNLOAD_CLICK</t>
+  </si>
+  <si>
+    <t>RENAME_DOCUMENT</t>
+  </si>
+  <si>
+    <t>UPLOAD_NEW_VERSION</t>
+  </si>
+  <si>
+    <t>UPDATE_STATUS</t>
+  </si>
+  <si>
+    <t>UPDATE_CATEGORY</t>
+  </si>
+  <si>
+    <t>SCAR</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>testdoc.txt</t>
+  </si>
+  <si>
+    <t>Emergency Response Referral Information.pdf</t>
+  </si>
+  <si>
+    <t>Response to Mandated Reporter.pdf</t>
+  </si>
+  <si>
+    <t>Document uploaded successfully! The document is being scanned for the malware. Your document will be aviable to view shortly.</t>
+  </si>
+  <si>
+    <t>Cross Report</t>
+  </si>
+  <si>
+    <t>Manual Upload</t>
+  </si>
+  <si>
+    <t>CACI Notice</t>
+  </si>
+  <si>
+    <t>SOC 832 (Notice of CACI).pdf</t>
+  </si>
+  <si>
+    <t>SOC 834 (Request for Grievance).pdf</t>
+  </si>
+  <si>
+    <t>SOC 833 (Grievance Procedure).pdf</t>
+  </si>
+  <si>
+    <t>BCIA 8583 (CACI Index Form).pdf</t>
+  </si>
+  <si>
+    <t>BCIA 8572, Suspected Child Abuse Report.pdf</t>
   </si>
   <si>
     <t>Investigation</t>
   </si>
   <si>
-    <t>ERSupervisorContraCosta</t>
-  </si>
-  <si>
-    <t>Pending Approval</t>
-  </si>
-  <si>
-    <t>Recalled</t>
-  </si>
-  <si>
-    <t>Resubmitted</t>
-  </si>
-  <si>
-    <t>ASSIGNMENTS_TAB</t>
-  </si>
-  <si>
-    <t>PERSON</t>
-  </si>
-  <si>
-    <t>PERSON_LINK</t>
-  </si>
-  <si>
-    <t>START_DATE</t>
-  </si>
-  <si>
-    <t>WORKER_ROLE</t>
-  </si>
-  <si>
-    <t>FOLIO_ASSIGNMENT_ID</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>AUDIT_HISTORY_TAB</t>
-  </si>
-  <si>
-    <t>NEW_VALUE</t>
-  </si>
-  <si>
-    <t>HLSupervisorContraCosta</t>
-  </si>
-  <si>
-    <t>Adoptions Worker</t>
-  </si>
-  <si>
-    <t>autoText</t>
-  </si>
-  <si>
-    <t>Case Aide</t>
-  </si>
-  <si>
-    <t>testPOM</t>
-  </si>
-  <si>
-    <t>ASN-000001507319</t>
-  </si>
-  <si>
-    <t>CMManagerContraCosta</t>
-  </si>
-  <si>
-    <t>testT4258</t>
-  </si>
-  <si>
-    <t>CMWorkerContraCosta</t>
-  </si>
-  <si>
-    <t>Placement Worker</t>
-  </si>
-  <si>
-    <t>FOLIO_NEARFATALITY_TAB</t>
-  </si>
-  <si>
-    <t>allegedVictim</t>
-  </si>
-  <si>
-    <t>isChildFatalityNear</t>
-  </si>
-  <si>
-    <t>CircumstanceType</t>
-  </si>
-  <si>
-    <t>CircumstanceComments</t>
-  </si>
-  <si>
-    <t>CountyOfIncident</t>
-  </si>
-  <si>
-    <t>ResidenceTimeFatalityNearFat</t>
-  </si>
-  <si>
-    <t>IsFatalityNearDateKnown</t>
-  </si>
-  <si>
-    <t>DateFatalityNear</t>
-  </si>
-  <si>
-    <t>FOLIO_PERSON_NAME</t>
-  </si>
-  <si>
-    <t>CHILD_FATALITY_OR_NEARFATALITY</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>Fatality</t>
-  </si>
-  <si>
-    <t>Accidental</t>
-  </si>
-  <si>
-    <t>Calaveras</t>
-  </si>
-  <si>
-    <t>Foster Care/Out-of-Home Care</t>
-  </si>
-  <si>
-    <t>Estimated</t>
-  </si>
-  <si>
-    <t>Contra Costa</t>
-  </si>
-  <si>
-    <t>FOLIO_CORRESPONDENCE_TAB</t>
-  </si>
-  <si>
-    <t>CACI_REPORT</t>
-  </si>
-  <si>
-    <t>PERPARATOR</t>
-  </si>
-  <si>
-    <t>NAME_UNIT_WITHIN_COUNTY</t>
-  </si>
-  <si>
-    <t>RETURN_ADDRESS_WITHIN_COUNTY</t>
-  </si>
-  <si>
-    <t>PHOTO_TAKEN_OFSUBSTANTIATED_ALLEGATION</t>
-  </si>
-  <si>
-    <t>PHONE_NUMBER</t>
-  </si>
-  <si>
-    <t>CROSSREPORT_SCAR</t>
-  </si>
-  <si>
-    <t>AGENCY_NAME</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>AGENCY_TYPE</t>
-  </si>
-  <si>
-    <t>CACI_REPORTID</t>
-  </si>
-  <si>
-    <t>CORRESPONDECE_TYPE</t>
-  </si>
-  <si>
-    <t>STATUS_TYPE</t>
-  </si>
-  <si>
-    <t>REPORTID_VERIFY</t>
-  </si>
-  <si>
-    <t>CACI_REPORT_ID</t>
-  </si>
-  <si>
-    <t>CROSS_REPORT_ID</t>
-  </si>
-  <si>
-    <t>CORRESPONDENCE_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>STATUS_VERIFY</t>
-  </si>
-  <si>
-    <t>STATUS_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>PERPETRATOR_VERIFY</t>
-  </si>
-  <si>
-    <t>AGENCY_NAME_VERIFY</t>
-  </si>
-  <si>
-    <t>CREATED_DATE_VERIFY</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>pom Test</t>
-  </si>
-  <si>
-    <t>Incomplete</t>
-  </si>
-  <si>
-    <t>Department of Justice</t>
-  </si>
-  <si>
-    <t>Boardaman</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tenDigitsNumber </t>
-  </si>
-  <si>
-    <t>CACI Report</t>
-  </si>
-  <si>
-    <t>Not Generated</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>CACI REPORTID</t>
-  </si>
-  <si>
-    <t>Ready to Send</t>
-  </si>
-  <si>
-    <t>Generated</t>
-  </si>
-  <si>
-    <t>CROSS REPORTID</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_TAB</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_FOLIO_TAB</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_SCREENING_TAB</t>
-  </si>
-  <si>
-    <t>SOC_832_VERIFY</t>
-  </si>
-  <si>
-    <t>SOC_834_VERIFY</t>
-  </si>
-  <si>
-    <t>BCIA_8583_VERIFY</t>
-  </si>
-  <si>
-    <t>SOC_833_VERIFY</t>
-  </si>
-  <si>
-    <t>BCIA_8572_VERIFY</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_NEWBTN</t>
-  </si>
-  <si>
-    <t>DOCUMENT_CATEGORY</t>
-  </si>
-  <si>
-    <t>DOCUMENT_STATUS</t>
-  </si>
-  <si>
-    <t>UPLOAD_DOCUMENT</t>
-  </si>
-  <si>
-    <t>SAVE</t>
-  </si>
-  <si>
-    <t>UPLOADED_DOC_VERIFY</t>
-  </si>
-  <si>
-    <t>TITLE_VERIFY</t>
-  </si>
-  <si>
-    <t>DOCUMENT_CATEGORY_VERIFY</t>
-  </si>
-  <si>
-    <t>DOCUMENT_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>UPLOAD_DATE_VERIFY</t>
-  </si>
-  <si>
-    <t>UPLOAD_BY_VERIFY</t>
-  </si>
-  <si>
-    <t>DESCRIPTION_VERIFY</t>
-  </si>
-  <si>
-    <t>SHOW_ACTIONS</t>
-  </si>
-  <si>
-    <t>DOCUMENT_NAME</t>
-  </si>
-  <si>
-    <t>SCR_DOCUMENT_NAME</t>
-  </si>
-  <si>
-    <t>FOLIO_DOCUMENT_NAME</t>
-  </si>
-  <si>
-    <t>PRINT</t>
-  </si>
-  <si>
-    <t>VIEW</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>DOWNLOAD</t>
-  </si>
-  <si>
-    <t>DOWNLOAD_CLICK</t>
-  </si>
-  <si>
-    <t>RENAME_DOCUMENT</t>
-  </si>
-  <si>
-    <t>UPLOAD_NEW_VERSION</t>
-  </si>
-  <si>
-    <t>UPDATE_STATUS</t>
-  </si>
-  <si>
-    <t>UPDATE_CATEGORY</t>
-  </si>
-  <si>
-    <t>SCAR</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>testdoc.txt</t>
-  </si>
-  <si>
-    <t>Emergency Response Referral Information.pdf</t>
-  </si>
-  <si>
-    <t>Response to Mandated Reporter.pdf</t>
-  </si>
-  <si>
-    <t>Document uploaded successfully! The document is being scanned for the malware. Your document will be aviable to view shortly.</t>
-  </si>
-  <si>
-    <t>Cross Report</t>
-  </si>
-  <si>
-    <t>Manual Upload</t>
-  </si>
-  <si>
-    <t>CACI Notice</t>
-  </si>
-  <si>
-    <t>SOC 832 (Notice of CACI).pdf</t>
-  </si>
-  <si>
-    <t>SOC 834 (Request for Grievance).pdf</t>
-  </si>
-  <si>
-    <t>SOC 833 (Grievance Procedure).pdf</t>
-  </si>
-  <si>
-    <t>BCIA 8583 (CACI Index Form).pdf</t>
-  </si>
-  <si>
-    <t>BCIA 8572, Suspected Child Abuse Report.pdf</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -1070,7 +1077,7 @@
     <t>Missing Youth Photo</t>
   </si>
   <si>
-    <t>testimage.png</t>
+    <t>testimage.jpeg</t>
   </si>
   <si>
     <t>Profile Photo</t>
@@ -1283,6 +1290,12 @@
     <t>END_DATE</t>
   </si>
   <si>
+    <t>FOLIO_PERSON_NAME_LINK</t>
+  </si>
+  <si>
+    <t>POTENTIAL_TRIBAL_AFFILIATION</t>
+  </si>
+  <si>
     <t>Alleged Perpetrator</t>
   </si>
   <si>
@@ -1331,6 +1344,9 @@
     <t>CaseChildLocationSetup</t>
   </si>
   <si>
+    <t>Reason to Know</t>
+  </si>
+  <si>
     <t>PRIMARY_RESPONSIBLE_AGENCY</t>
   </si>
   <si>
@@ -1346,9 +1362,6 @@
     <t>STATE</t>
   </si>
   <si>
-    <t>PRIMARY_WORKER</t>
-  </si>
-  <si>
     <t>Child Welfare Voluntary</t>
   </si>
   <si>
@@ -1434,9 +1447,6 @@
   </si>
   <si>
     <t>Folio</t>
-  </si>
-  <si>
-    <t>Referral</t>
   </si>
   <si>
     <t>FOLIO_SCREENINGREVIEW_TAB</t>
@@ -1783,46 +1793,7 @@
     <t>SOC 157B - Supervised Independent Living Placement (SILP) Inspection: Checklist of Facility Health and Safety Standards</t>
   </si>
   <si>
-    <t>NEW_BUTTON</t>
-  </si>
-  <si>
-    <t>TRIBAL_INFO_TAB</t>
-  </si>
-  <si>
-    <t>TRIBAL_NAME</t>
-  </si>
-  <si>
-    <t>CHILD_MEMBERSHIP_STATUS</t>
-  </si>
-  <si>
-    <t>TRIBE_LOCATION</t>
-  </si>
-  <si>
-    <t>ENROLLMENT_START_DATE</t>
-  </si>
-  <si>
-    <t>SAVE_AND_PROCEED</t>
-  </si>
-  <si>
-    <t>POTENTIAL_TRIBAL_AFFILIATION</t>
-  </si>
-  <si>
-    <t>New Tribe</t>
-  </si>
-  <si>
-    <t>Enrolled</t>
-  </si>
-  <si>
-    <t>America</t>
-  </si>
-  <si>
-    <t>Reason To Know</t>
-  </si>
-  <si>
-    <t>testT4149</t>
-  </si>
-  <si>
-    <t>testT4245</t>
+    <t>VERIFY_TASK</t>
   </si>
 </sst>
 </file>
@@ -1841,20 +1812,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1879,7 +1849,7 @@
       <sz val="10"/>
       <color rgb="FF0000C0"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2046,7 +2016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2129,16 +2099,8 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{0244CCC0-C70B-4F46-AB95-4E0A98C0C68C}"/>
@@ -2456,8 +2418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3312,8 +3274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3F944F-1B63-4F82-AF7C-B1A12F6C23D1}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3342,31 +3304,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M1" s="51"/>
     </row>
@@ -3381,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="51" t="s">
@@ -3410,11 +3372,11 @@
       <c r="D3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="49" t="s">
-        <v>200</v>
+      <c r="E3" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G3" s="49" t="s">
         <v>19</v>
@@ -3429,7 +3391,7 @@
         <v>149</v>
       </c>
       <c r="K3" s="49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L3" s="49" t="s">
         <v>59</v>
@@ -3447,7 +3409,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E4" s="49" t="s">
         <v>30</v>
@@ -3468,7 +3430,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L4" s="49" t="s">
         <v>30</v>
@@ -3486,7 +3448,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E5" s="49" t="s">
         <v>30</v>
@@ -3507,7 +3469,7 @@
         <v>30</v>
       </c>
       <c r="K5" s="49" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L5" s="49" t="s">
         <v>30</v>
@@ -3525,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>28</v>
@@ -3566,11 +3528,11 @@
       <c r="D7" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="71" t="s">
-        <v>200</v>
+      <c r="E7" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G7" s="70" t="s">
         <v>19</v>
@@ -3585,7 +3547,7 @@
         <v>149</v>
       </c>
       <c r="K7" s="70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L7" s="70"/>
       <c r="M7" s="70"/>
@@ -3600,8 +3562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5083A157-C67F-458F-A42E-BC1D5FB3C768}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:P6"/>
+    <sheetView topLeftCell="K1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3630,37 +3592,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M1" s="40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N1" s="51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O1" s="51"/>
       <c r="P1" s="51"/>
@@ -3676,13 +3638,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>19</v>
@@ -3691,16 +3653,16 @@
         <v>59</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K2" s="40" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M2" s="51"/>
       <c r="N2" s="51"/>
@@ -3718,13 +3680,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G3" s="40" t="s">
         <v>19</v>
@@ -3733,16 +3695,16 @@
         <v>59</v>
       </c>
       <c r="I3" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="40" t="s">
         <v>217</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>216</v>
       </c>
       <c r="M3" s="51"/>
       <c r="N3" s="51"/>
@@ -3751,7 +3713,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B4" s="51">
         <v>1</v>
@@ -3760,13 +3722,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G4" s="51" t="s">
         <v>19</v>
@@ -3775,16 +3737,16 @@
         <v>59</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M4" s="40" t="s">
         <v>19</v>
@@ -3795,7 +3757,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="51" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" s="51">
         <v>1</v>
@@ -3807,10 +3769,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G5" s="51" t="s">
         <v>19</v>
@@ -3819,10 +3781,10 @@
         <v>59</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K5" s="51" t="s">
         <v>28</v>
@@ -3841,7 +3803,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="70" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B6" s="70">
         <v>1</v>
@@ -3853,10 +3815,10 @@
         <v>19</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="G6" s="70" t="s">
         <v>19</v>
@@ -3868,7 +3830,7 @@
         <v>223</v>
       </c>
       <c r="J6" s="71" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K6" s="70" t="s">
         <v>28</v>
@@ -3895,7 +3857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27876FF1-279F-400F-8EDF-C44394A3BDAF}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -3925,7 +3887,7 @@
         <v>224</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>225</v>
@@ -3952,7 +3914,7 @@
         <v>232</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>233</v>
@@ -3972,10 +3934,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>235</v>
@@ -4002,7 +3964,7 @@
         <v>59</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O2" s="51"/>
       <c r="P2" s="51"/>
@@ -4051,7 +4013,7 @@
         <v>19</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>101</v>
+        <v>242</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>236</v>
@@ -4476,8 +4438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9D3CD3-B1E4-4B19-8BFF-5F4C690A39C5}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4500,6 +4462,7 @@
     <col min="18" max="20" width="8.81640625" style="28"/>
     <col min="21" max="21" width="13.1796875" style="28" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="8.54296875" style="39"/>
+    <col min="32" max="32" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="16" customFormat="1">
@@ -4513,43 +4476,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G1" s="41" t="s">
         <v>66</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J1" s="51" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M1" s="41" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P1" s="41" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q1" s="41" t="s">
         <v>13</v>
@@ -4558,43 +4521,43 @@
         <v>15</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T1" s="41" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="U1" s="41" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="V1" s="41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="W1" s="41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X1" s="41" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y1" s="41" t="s">
         <v>152</v>
       </c>
       <c r="Z1" s="41" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA1" s="41" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AB1" s="41" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AC1" s="41" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AD1" s="41" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AE1" s="41" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF1" s="51"/>
       <c r="AG1" s="51"/>
@@ -4611,22 +4574,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J2" s="51" t="s">
         <v>149</v>
@@ -4658,7 +4621,7 @@
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="51" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B3" s="51">
         <v>1</v>
@@ -4667,27 +4630,27 @@
         <v>1</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
       <c r="K3" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="51" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N3" s="51" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O3" s="51"/>
       <c r="P3" s="51"/>
@@ -4724,7 +4687,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>19</v>
@@ -4736,16 +4699,16 @@
         <v>34</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K4" s="46" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M4" s="44"/>
       <c r="N4" s="44"/>
@@ -4761,41 +4724,41 @@
         <v>149</v>
       </c>
       <c r="T4" s="46" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="U4" s="46" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="V4" s="46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="W4" s="46" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="X4" s="46"/>
       <c r="Y4" s="46" t="s">
         <v>149</v>
       </c>
       <c r="Z4" s="46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA4" s="46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AB4" s="46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC4" s="46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AD4" s="46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AE4" s="46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF4" s="46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG4" s="46" t="s">
         <v>149</v>
@@ -4816,7 +4779,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>151</v>
@@ -4843,13 +4806,13 @@
         <v>19</v>
       </c>
       <c r="N5" s="45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O5" s="46" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P5" s="46" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q5" s="46" t="s">
         <v>19</v>
@@ -4858,12 +4821,12 @@
       <c r="S5" s="46"/>
       <c r="T5" s="46"/>
       <c r="U5" s="46" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V5" s="46"/>
       <c r="W5" s="46"/>
       <c r="X5" s="46" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y5" s="46"/>
       <c r="Z5" s="46"/>
@@ -4938,7 +4901,7 @@
         <v>28</v>
       </c>
       <c r="U6" s="51" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="V6" s="51" t="s">
         <v>28</v>
@@ -4979,8 +4942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -5022,7 +4985,7 @@
     <col min="37" max="37" width="21.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="17.7265625" style="51" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="110.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.54296875" style="39" customWidth="1"/>
     <col min="41" max="16384" width="8.81640625" style="39"/>
   </cols>
   <sheetData>
@@ -5040,109 +5003,109 @@
         <v>152</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M1" s="40" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N1" s="40" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O1" s="40" t="s">
         <v>153</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q1" s="43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R1" s="43" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S1" s="40" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T1" s="40" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="U1" s="40" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="V1" s="40" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="W1" s="40" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X1" s="40" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Y1" s="40" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z1" s="40" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA1" s="40" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB1" s="40" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AC1" s="40" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AD1" s="40" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AE1" s="40" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF1" s="40" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG1" s="40" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AH1" s="40" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AI1" s="71" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AJ1" s="40" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK1" s="40" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL1" s="40" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM1" s="40" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN1" s="40" t="s">
         <v>96</v>
@@ -5189,19 +5152,19 @@
         <v>19</v>
       </c>
       <c r="N2" s="49" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O2" s="49" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P2" s="49" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="Q2" s="49" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="R2" s="49" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S2" s="49" t="s">
         <v>19</v>
@@ -5234,10 +5197,10 @@
         <v>30</v>
       </c>
       <c r="AC2" s="49" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AD2" s="49" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AE2" s="49" t="s">
         <v>30</v>
@@ -5267,7 +5230,7 @@
         <v>30</v>
       </c>
       <c r="AN2" s="49" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="46" customFormat="1">
@@ -5311,19 +5274,19 @@
         <v>19</v>
       </c>
       <c r="N3" s="49" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O3" s="49" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P3" s="49" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="Q3" s="49" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="R3" s="49" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S3" s="49" t="s">
         <v>19</v>
@@ -5433,10 +5396,10 @@
         <v>28</v>
       </c>
       <c r="N4" s="49" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O4" s="49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P4" s="49" t="s">
         <v>28</v>
@@ -5475,7 +5438,7 @@
         <v>149</v>
       </c>
       <c r="AB4" s="49" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AC4" s="49" t="s">
         <v>30</v>
@@ -5597,7 +5560,7 @@
         <v>149</v>
       </c>
       <c r="AB5" s="49" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AC5" s="49" t="s">
         <v>30</v>
@@ -5719,7 +5682,7 @@
         <v>149</v>
       </c>
       <c r="AB6" s="49" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AC6" s="49" t="s">
         <v>30</v>
@@ -5841,7 +5804,7 @@
         <v>149</v>
       </c>
       <c r="AB7" s="49" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AC7" s="49" t="s">
         <v>30</v>
@@ -5963,7 +5926,7 @@
         <v>149</v>
       </c>
       <c r="AB8" s="49" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC8" s="49" t="s">
         <v>30</v>
@@ -6043,19 +6006,19 @@
         <v>19</v>
       </c>
       <c r="N9" s="49" t="s">
-        <v>200</v>
+        <v>327</v>
       </c>
       <c r="O9" s="49" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P9" s="49" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="Q9" s="49" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="R9" s="62" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S9" s="49" t="s">
         <v>19</v>
@@ -6085,7 +6048,7 @@
         <v>149</v>
       </c>
       <c r="AB9" s="49" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AC9" s="49" t="s">
         <v>30</v>
@@ -6118,15 +6081,15 @@
         <v>149</v>
       </c>
       <c r="AM9" s="49" t="s">
-        <v>274</v>
+        <v>28</v>
       </c>
       <c r="AN9" s="49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" s="51" customFormat="1">
       <c r="A10" s="46" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B10" s="51">
         <v>1</v>
@@ -6165,19 +6128,19 @@
         <v>19</v>
       </c>
       <c r="N10" s="51" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P10" s="51" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="51" t="s">
-        <v>28</v>
+        <v>314</v>
       </c>
       <c r="R10" s="54" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S10" s="51" t="s">
         <v>19</v>
@@ -6207,10 +6170,8 @@
         <v>151</v>
       </c>
       <c r="AB10" s="54" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="51"/>
+        <v>315</v>
+      </c>
       <c r="AE10" s="51" t="s">
         <v>28</v>
       </c>
@@ -6238,11 +6199,10 @@
       <c r="AM10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="AN10" s="51"/>
-    </row>
-    <row r="11" spans="1:40">
+    </row>
+    <row r="11" spans="1:40" s="51" customFormat="1">
       <c r="A11" s="46" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B11" s="51">
         <v>1</v>
@@ -6281,19 +6241,19 @@
         <v>19</v>
       </c>
       <c r="N11" s="51" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P11" s="51" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="51" t="s">
-        <v>28</v>
+        <v>314</v>
       </c>
       <c r="R11" s="54" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S11" s="51" t="s">
         <v>19</v>
@@ -6323,46 +6283,45 @@
         <v>19</v>
       </c>
       <c r="AB11" s="54" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC11" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD11" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE11" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF11" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG11" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH11" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI11" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ11" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK11" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL11" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM11" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN11" s="51"/>
+        <v>315</v>
+      </c>
+      <c r="AC11" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD11" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE11" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF11" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG11" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH11" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI11" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ11" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK11" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL11" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM11" s="73" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="12" spans="1:40" s="51" customFormat="1">
       <c r="A12" s="46" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B12" s="46">
         <v>1</v>
@@ -6374,7 +6333,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F12" s="46" t="s">
         <v>28</v>
@@ -6401,19 +6360,19 @@
         <v>19</v>
       </c>
       <c r="N12" s="46" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="O12" s="46" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P12" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q12" s="46" t="s">
-        <v>28</v>
+        <v>106</v>
+      </c>
+      <c r="Q12" s="51" t="s">
+        <v>314</v>
       </c>
       <c r="R12" s="46" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="S12" s="46" t="s">
         <v>19</v>
@@ -6484,7 +6443,7 @@
     </row>
     <row r="13" spans="1:40" s="51" customFormat="1">
       <c r="A13" s="46" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B13" s="46">
         <v>1</v>
@@ -6496,7 +6455,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F13" s="46" t="s">
         <v>28</v>
@@ -6523,19 +6482,19 @@
         <v>19</v>
       </c>
       <c r="N13" s="46" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="O13" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="P13" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="R13" s="46" t="s">
         <v>336</v>
-      </c>
-      <c r="P13" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q13" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="R13" s="46" t="s">
-        <v>334</v>
       </c>
       <c r="S13" s="46" t="s">
         <v>19</v>
@@ -6606,7 +6565,7 @@
     </row>
     <row r="14" spans="1:40" s="12" customFormat="1">
       <c r="A14" s="12" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
@@ -6645,19 +6604,19 @@
         <v>19</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S14" s="12" t="s">
         <v>19</v>
@@ -6666,19 +6625,19 @@
         <v>28</v>
       </c>
       <c r="U14" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="W14" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="V14" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>338</v>
-      </c>
       <c r="X14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="Y14" s="13" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Z14" s="13" t="s">
         <v>28</v>
@@ -6692,7 +6651,7 @@
     </row>
     <row r="15" spans="1:40" s="51" customFormat="1" ht="43.5">
       <c r="A15" s="46" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B15" s="46">
         <v>1</v>
@@ -6731,19 +6690,19 @@
         <v>19</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O15" s="68" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P15" s="46" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="46" t="s">
         <v>28</v>
       </c>
       <c r="R15" s="46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S15" s="46" t="s">
         <v>19</v>
@@ -6814,7 +6773,7 @@
     </row>
     <row r="16" spans="1:40" s="51" customFormat="1">
       <c r="A16" s="46" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B16" s="46">
         <v>1</v>
@@ -6853,19 +6812,19 @@
         <v>19</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O16" s="68" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P16" s="46" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="46" t="s">
         <v>28</v>
       </c>
       <c r="R16" s="46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S16" s="46" t="s">
         <v>19</v>
@@ -6936,7 +6895,7 @@
     </row>
     <row r="17" spans="1:40" s="51" customFormat="1" ht="29">
       <c r="A17" s="46" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -6975,19 +6934,19 @@
         <v>19</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O17" s="68" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P17" s="46" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="46" t="s">
         <v>28</v>
       </c>
       <c r="R17" s="46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S17" s="46" t="s">
         <v>19</v>
@@ -7059,136 +7018,51 @@
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FCA55B-CD14-4ADB-91DF-0E908AE3D902}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19353BCC-E627-4564-B2A8-CDA0A6FF6E9F}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="5" max="5" width="116.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="51" customFormat="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>347</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="46" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="B2" s="46">
-        <v>1</v>
-      </c>
-      <c r="C2" s="46">
-        <v>1</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="46" customFormat="1" ht="16">
-      <c r="A3" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="B3" s="46">
-        <v>1</v>
-      </c>
-      <c r="C3" s="46">
-        <v>2</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="69" t="s">
-        <v>350</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="46" customFormat="1" ht="16">
-      <c r="A4" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="B4" s="46">
-        <v>1</v>
-      </c>
-      <c r="C4" s="46">
-        <v>3</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>351</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="46" customFormat="1" ht="16">
-      <c r="A5" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="B5" s="46">
-        <v>1</v>
-      </c>
-      <c r="C5" s="46">
-        <v>4</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>352</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>19</v>
+      <c r="D1" s="40" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -7197,6 +7071,165 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FCA55B-CD14-4ADB-91DF-0E908AE3D902}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" customWidth="1"/>
+    <col min="5" max="5" width="116.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="51" customFormat="1">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="46" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="46">
+        <v>1</v>
+      </c>
+      <c r="C2" s="46">
+        <v>1</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="46" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3" s="46">
+        <v>1</v>
+      </c>
+      <c r="C3" s="46">
+        <v>1</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="46" customFormat="1" ht="16">
+      <c r="A4" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="46">
+        <v>1</v>
+      </c>
+      <c r="C4" s="46">
+        <v>2</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="46" customFormat="1" ht="16">
+      <c r="A5" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" s="46">
+        <v>1</v>
+      </c>
+      <c r="C5" s="46">
+        <v>3</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="46" customFormat="1" ht="16">
+      <c r="A6" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="46">
+        <v>1</v>
+      </c>
+      <c r="C6" s="46">
+        <v>4</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB965DA-197B-4614-A4A7-724632791DDF}">
   <dimension ref="A1:P10"/>
   <sheetViews>
@@ -7232,37 +7265,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F1" s="51" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I1" s="51" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="J1" s="51" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K1" s="51" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M1" s="64" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N1" s="64" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O1" s="51"/>
       <c r="P1" s="51"/>
@@ -7299,7 +7332,7 @@
         <v>151</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>28</v>
@@ -7310,7 +7343,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="51" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" s="51">
         <v>1</v>
@@ -7354,7 +7387,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="51" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B4" s="51">
         <v>1</v>
@@ -7393,7 +7426,7 @@
         <v>19</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
@@ -7421,7 +7454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8E0121-A3E3-4E0C-A6C2-D14C419C35E6}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -7446,13 +7479,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F1" s="51" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7463,7 +7496,7 @@
         <v>151</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>19</v>
@@ -7477,7 +7510,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="29" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -7497,7 +7530,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="29" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B4" s="29">
         <v>2</v>
@@ -7517,7 +7550,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="29" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B5" s="51">
         <v>1</v>
@@ -7537,7 +7570,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="29" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B6" s="29">
         <v>1</v>
@@ -7557,7 +7590,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="29" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B7" s="29">
         <v>2</v>
@@ -7577,7 +7610,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="29" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B8" s="29">
         <v>1</v>
@@ -7597,7 +7630,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="29" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B9" s="29">
         <v>2</v>
@@ -7617,7 +7650,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="29" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B10" s="29">
         <v>1</v>
@@ -7637,7 +7670,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="29" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B11" s="29">
         <v>2</v>
@@ -7660,7 +7693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0466C4-2A7E-450A-B61A-8C9FD13A7C54}">
   <dimension ref="A1:T4"/>
   <sheetViews>
@@ -7688,55 +7721,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -7756,7 +7789,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>151</v>
@@ -7792,7 +7825,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="51" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="S2" s="51" t="s">
         <v>19</v>
@@ -7854,7 +7887,7 @@
         <v>19</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>19</v>
@@ -7916,7 +7949,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="46" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="S4" s="46" t="s">
         <v>19</v>
@@ -7931,17 +7964,728 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
-  <dimension ref="A1:AB25"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A334D-3D40-4E6E-89BC-E0399D12F63C}">
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView topLeftCell="T16" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="1" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16.1796875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+    </row>
+    <row r="3" spans="1:23" s="16" customFormat="1">
+      <c r="A3" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="56">
+        <v>1</v>
+      </c>
+      <c r="C3" s="56">
+        <v>1</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="60"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+    </row>
+    <row r="4" spans="1:23" s="16" customFormat="1">
+      <c r="A4" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="56">
+        <v>1</v>
+      </c>
+      <c r="C4" s="56">
+        <v>2</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="60"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="56">
+        <v>1</v>
+      </c>
+      <c r="C5" s="56">
+        <v>3</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="60"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W5" s="61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="31" customFormat="1">
+      <c r="A6" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="70">
+        <v>1</v>
+      </c>
+      <c r="C6" s="70">
+        <v>1</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+    </row>
+    <row r="7" spans="1:23" s="31" customFormat="1">
+      <c r="A7" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="70">
+        <v>1</v>
+      </c>
+      <c r="C7" s="70">
+        <v>2</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+    </row>
+    <row r="8" spans="1:23" s="30" customFormat="1">
+      <c r="A8" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="46">
+        <v>1</v>
+      </c>
+      <c r="C8" s="46">
+        <v>1</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+    </row>
+    <row r="9" spans="1:23" s="30" customFormat="1">
+      <c r="A9" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="46">
+        <v>1</v>
+      </c>
+      <c r="C9" s="46">
+        <v>2</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+    </row>
+    <row r="10" spans="1:23" s="30" customFormat="1">
+      <c r="A10" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="46">
+        <v>1</v>
+      </c>
+      <c r="C10" s="46">
+        <v>3</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+    </row>
+    <row r="11" spans="1:23" s="30" customFormat="1">
+      <c r="A11" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="46">
+        <v>1</v>
+      </c>
+      <c r="C11" s="46">
+        <v>4</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="46">
+        <v>1</v>
+      </c>
+      <c r="C12" s="46">
+        <v>1</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
+  <dimension ref="A1:V25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
@@ -7961,17 +8705,11 @@
     <col min="18" max="18" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.7265625" customWidth="1"/>
-    <col min="22" max="22" width="19.81640625" customWidth="1"/>
-    <col min="23" max="23" width="13" customWidth="1"/>
-    <col min="24" max="24" width="25.26953125" customWidth="1"/>
-    <col min="25" max="25" width="17.1796875" customWidth="1"/>
-    <col min="26" max="26" width="24.6328125" customWidth="1"/>
-    <col min="27" max="27" width="19.26953125" customWidth="1"/>
-    <col min="28" max="28" width="29.90625" customWidth="1"/>
+    <col min="21" max="21" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:22">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -7982,82 +8720,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="43" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L1" s="43" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M1" s="43" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="N1" s="42" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O1" s="42" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P1" s="42" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q1" s="42" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="R1" s="42" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="S1" s="42" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="T1" s="42" t="s">
-        <v>404</v>
-      </c>
-      <c r="U1" s="74" t="s">
-        <v>564</v>
-      </c>
-      <c r="V1" s="73" t="s">
-        <v>565</v>
-      </c>
-      <c r="W1" s="73" t="s">
-        <v>566</v>
-      </c>
-      <c r="X1" s="73" t="s">
-        <v>567</v>
-      </c>
-      <c r="Y1" s="73" t="s">
-        <v>568</v>
-      </c>
-      <c r="Z1" s="73" t="s">
-        <v>569</v>
-      </c>
-      <c r="AA1" s="73" t="s">
-        <v>570</v>
-      </c>
-      <c r="AB1" s="73" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="16" customFormat="1">
+        <v>406</v>
+      </c>
+      <c r="U1" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="V1" s="42" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="16" customFormat="1">
       <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
@@ -8068,13 +8788,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F2" s="46" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>59</v>
@@ -8118,32 +8838,14 @@
       <c r="T2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z2" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB2" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" s="16" customFormat="1">
+      <c r="U2" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="16" customFormat="1">
       <c r="A3" s="46" t="s">
         <v>27</v>
       </c>
@@ -8154,13 +8856,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>59</v>
@@ -8204,32 +8906,14 @@
       <c r="T3" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="U3" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="51" t="s">
         <v>35</v>
       </c>
@@ -8243,10 +8927,10 @@
         <v>28</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G4" s="51" t="s">
         <v>28</v>
@@ -8267,57 +8951,39 @@
         <v>19</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="O4" s="51" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="P4" s="51" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q4" s="51" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="R4" s="51" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="S4" s="51" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="T4" s="51" t="s">
-        <v>409</v>
-      </c>
-      <c r="U4" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y4" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA4" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB4" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
+        <v>413</v>
+      </c>
+      <c r="U4" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="51" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" s="51">
         <v>1</v>
@@ -8376,32 +9042,14 @@
       <c r="T5" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W5" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X5" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y5" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z5" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA5" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB5" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="U5" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="51" t="s">
         <v>38</v>
       </c>
@@ -8457,37 +9105,19 @@
         <v>28</v>
       </c>
       <c r="S6" s="50" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="T6" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V6" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W6" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X6" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y6" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z6" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA6" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB6" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" s="39" customFormat="1">
+      <c r="U6" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="39" customFormat="1">
       <c r="A7" s="51" t="s">
         <v>38</v>
       </c>
@@ -8498,13 +9128,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G7" s="51" t="s">
         <v>59</v>
@@ -8525,7 +9155,7 @@
         <v>19</v>
       </c>
       <c r="M7" s="51" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="N7" s="51" t="s">
         <v>28</v>
@@ -8548,32 +9178,14 @@
       <c r="T7" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA7" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB7" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" s="39" customFormat="1">
+      <c r="U7" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="39" customFormat="1">
       <c r="A8" s="51" t="s">
         <v>38</v>
       </c>
@@ -8584,13 +9196,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G8" s="51" t="s">
         <v>59</v>
@@ -8611,7 +9223,7 @@
         <v>19</v>
       </c>
       <c r="M8" s="51" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="N8" s="51" t="s">
         <v>28</v>
@@ -8634,34 +9246,16 @@
       <c r="T8" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V8" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W8" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X8" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y8" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z8" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA8" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB8" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="U8" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="51" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B9" s="51">
         <v>1</v>
@@ -8670,13 +9264,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G9" s="51" t="s">
         <v>59</v>
@@ -8697,7 +9291,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="51" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="N9" s="51" t="s">
         <v>28</v>
@@ -8720,34 +9314,16 @@
       <c r="T9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U9" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V9" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W9" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X9" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y9" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z9" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA9" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB9" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="U9" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="51" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B10" s="51">
         <v>1</v>
@@ -8756,13 +9332,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G10" s="51" t="s">
         <v>59</v>
@@ -8783,7 +9359,7 @@
         <v>19</v>
       </c>
       <c r="M10" s="51" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="N10" s="51" t="s">
         <v>28</v>
@@ -8806,34 +9382,16 @@
       <c r="T10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U10" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W10" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X10" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y10" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z10" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA10" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB10" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" s="55" customFormat="1">
+      <c r="U10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="55" customFormat="1">
       <c r="A11" s="55" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B11" s="55">
         <v>1</v>
@@ -8842,13 +9400,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>28</v>
@@ -8892,34 +9450,16 @@
       <c r="T11" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="U11" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V11" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W11" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X11" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y11" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z11" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA11" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB11" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" s="55" customFormat="1">
+      <c r="U11" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="55" customFormat="1">
       <c r="A12" s="55" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B12" s="55">
         <v>1</v>
@@ -8928,13 +9468,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>28</v>
@@ -8978,135 +9518,99 @@
       <c r="T12" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="U12" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V12" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W12" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X12" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y12" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z12" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA12" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB12" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="U12" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="51" t="s">
+        <v>420</v>
+      </c>
+      <c r="B13" s="51">
+        <v>1</v>
+      </c>
+      <c r="C13" s="51">
+        <v>1</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="B14" s="51">
+        <v>1</v>
+      </c>
+      <c r="C14" s="51">
+        <v>1</v>
+      </c>
+      <c r="D14" s="51" t="s">
         <v>416</v>
       </c>
-      <c r="B13" s="51">
-        <v>1</v>
-      </c>
-      <c r="C13" s="51">
-        <v>1</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="R13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="S13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="T13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="U13" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V13" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W13" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X13" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y13" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z13" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA13" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB13" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="A14" s="51" t="s">
-        <v>327</v>
-      </c>
-      <c r="B14" s="51">
-        <v>1</v>
-      </c>
-      <c r="C14" s="51">
-        <v>1</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>412</v>
-      </c>
       <c r="E14" s="51" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G14" s="51" t="s">
         <v>59</v>
@@ -9150,34 +9654,16 @@
       <c r="T14" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U14" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V14" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W14" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X14" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y14" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z14" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA14" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB14" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="U14" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V14" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="51" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B15" s="51">
         <v>1</v>
@@ -9186,13 +9672,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G15" s="51" t="s">
         <v>59</v>
@@ -9236,34 +9722,16 @@
       <c r="T15" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U15" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V15" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W15" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X15" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y15" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z15" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA15" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB15" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="U15" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V15" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="51" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B16" s="51">
         <v>1</v>
@@ -9272,13 +9740,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G16" s="51" t="s">
         <v>59</v>
@@ -9322,34 +9790,16 @@
       <c r="T16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U16" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V16" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W16" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X16" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y16" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z16" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA16" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB16" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" s="46" customFormat="1">
+      <c r="U16" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="46" customFormat="1">
       <c r="A17" s="46" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -9358,13 +9808,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G17" s="46" t="s">
         <v>59</v>
@@ -9408,34 +9858,16 @@
       <c r="T17" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="U17" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V17" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W17" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X17" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y17" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z17" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA17" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB17" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" s="46" customFormat="1">
+      <c r="U17" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V17" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="46" customFormat="1">
       <c r="A18" s="46" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B18" s="46">
         <v>1</v>
@@ -9444,13 +9876,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>59</v>
@@ -9494,34 +9926,16 @@
       <c r="T18" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="U18" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V18" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W18" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X18" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y18" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z18" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA18" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB18" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" s="46" customFormat="1">
+      <c r="U18" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V18" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="46" customFormat="1">
       <c r="A19" s="46" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B19" s="46">
         <v>1</v>
@@ -9530,13 +9944,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G19" s="46" t="s">
         <v>59</v>
@@ -9580,34 +9994,16 @@
       <c r="T19" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="U19" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V19" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W19" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X19" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y19" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z19" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA19" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB19" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="U19" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V19" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
@@ -9616,13 +10012,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>59</v>
@@ -9643,7 +10039,7 @@
         <v>19</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>28</v>
@@ -9666,34 +10062,16 @@
       <c r="T20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="U20" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V20" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W20" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X20" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y20" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z20" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA20" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB20" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="U20" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V20" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
@@ -9702,13 +10080,13 @@
         <v>2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>59</v>
@@ -9729,7 +10107,7 @@
         <v>19</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>28</v>
@@ -9752,34 +10130,16 @@
       <c r="T21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="U21" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V21" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W21" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X21" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y21" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z21" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA21" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB21" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="U21" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B22" s="5">
         <v>1</v>
@@ -9788,13 +10148,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>59</v>
@@ -9815,7 +10175,7 @@
         <v>19</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>28</v>
@@ -9838,34 +10198,16 @@
       <c r="T22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="U22" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="V22" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="W22" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="X22" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y22" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z22" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA22" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB22" s="73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" s="31" customFormat="1">
+      <c r="U22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="31" customFormat="1">
       <c r="A23" s="70" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B23" s="70">
         <v>1</v>
@@ -9874,13 +10216,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="70" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E23" s="70" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F23" s="70" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G23" s="70" t="s">
         <v>28</v>
@@ -9924,200 +10266,146 @@
       <c r="T23" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="U23" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="V23" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="W23" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="X23" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y23" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z23" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA23" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB23" s="72" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
-      <c r="A24" s="75" t="s">
-        <v>221</v>
-      </c>
-      <c r="B24" s="75">
-        <v>1</v>
-      </c>
-      <c r="C24" s="75">
+      <c r="U23" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="V23" s="70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="70" customFormat="1">
+      <c r="A24" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="70">
+        <v>1</v>
+      </c>
+      <c r="C24" s="70">
         <v>2</v>
       </c>
-      <c r="D24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="O24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="R24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="S24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="T24" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="U24" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="V24" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="W24" s="75" t="s">
-        <v>572</v>
-      </c>
-      <c r="X24" s="75" t="s">
-        <v>573</v>
-      </c>
-      <c r="Y24" s="75" t="s">
-        <v>574</v>
-      </c>
-      <c r="Z24" s="75" t="s">
-        <v>429</v>
-      </c>
-      <c r="AA24" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB24" s="75" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28">
-      <c r="A25" s="76" t="s">
-        <v>576</v>
-      </c>
-      <c r="B25" s="76">
-        <v>1</v>
-      </c>
-      <c r="C25" s="76">
-        <v>1</v>
-      </c>
-      <c r="D25" s="76" t="s">
-        <v>412</v>
-      </c>
-      <c r="E25" s="76" t="s">
-        <v>406</v>
-      </c>
-      <c r="F25" s="76" t="s">
-        <v>406</v>
-      </c>
-      <c r="G25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="M25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="N25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="O25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="P25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="R25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="S25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="T25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="U25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="V25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="W25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="X25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z25" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA25" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB25" s="76" t="s">
+      <c r="D24" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="R24" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="S24" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="T24" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="U24" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" s="70" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="71">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="S25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="T25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="U25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V25" s="70" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10127,717 +10415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186A334D-3D40-4E6E-89BC-E0399D12F63C}">
-  <dimension ref="A1:W12"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16.1796875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W1" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-    </row>
-    <row r="3" spans="1:23" s="16" customFormat="1">
-      <c r="A3" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="56">
-        <v>1</v>
-      </c>
-      <c r="C3" s="56">
-        <v>1</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="60"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-    </row>
-    <row r="4" spans="1:23" s="16" customFormat="1">
-      <c r="A4" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="56">
-        <v>1</v>
-      </c>
-      <c r="C4" s="56">
-        <v>2</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="60"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="56">
-        <v>1</v>
-      </c>
-      <c r="C5" s="56">
-        <v>3</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="60"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="W5" s="61" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="31" customFormat="1">
-      <c r="A6" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="70">
-        <v>1</v>
-      </c>
-      <c r="C6" s="70">
-        <v>1</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-    </row>
-    <row r="7" spans="1:23" s="31" customFormat="1">
-      <c r="A7" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="70">
-        <v>1</v>
-      </c>
-      <c r="C7" s="70">
-        <v>2</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-    </row>
-    <row r="8" spans="1:23" s="30" customFormat="1">
-      <c r="A8" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="46">
-        <v>1</v>
-      </c>
-      <c r="C8" s="46">
-        <v>1</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="N8" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="V8" s="46"/>
-      <c r="W8" s="46"/>
-    </row>
-    <row r="9" spans="1:23" s="30" customFormat="1">
-      <c r="A9" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="46">
-        <v>1</v>
-      </c>
-      <c r="C9" s="46">
-        <v>2</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-    </row>
-    <row r="10" spans="1:23" s="30" customFormat="1">
-      <c r="A10" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="46">
-        <v>1</v>
-      </c>
-      <c r="C10" s="46">
-        <v>3</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-    </row>
-    <row r="11" spans="1:23" s="30" customFormat="1">
-      <c r="A11" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="46">
-        <v>1</v>
-      </c>
-      <c r="C11" s="46">
-        <v>4</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="46">
-        <v>1</v>
-      </c>
-      <c r="C12" s="46">
-        <v>1</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FBF4A6-7E84-4BBE-931C-E882244C8ADD}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -10877,31 +10455,31 @@
         <v>160</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>163</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="I1" s="51" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="J1" s="51" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K1" s="51" t="s">
-        <v>426</v>
+        <v>165</v>
       </c>
       <c r="L1" s="51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N1" s="51" t="s">
         <v>13</v>
@@ -10909,7 +10487,7 @@
     </row>
     <row r="2" spans="1:14" s="34" customFormat="1">
       <c r="A2" s="34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B2" s="34">
         <v>1</v>
@@ -10918,31 +10496,31 @@
         <v>1</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>19</v>
@@ -10956,7 +10534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9DE1AC-8EA2-496B-95D5-07EEE381D497}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -10986,19 +10564,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -11018,10 +10596,10 @@
         <v>19</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H2" s="51" t="s">
         <v>19</v>
@@ -11032,7 +10610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB9A442-3ED4-406F-9296-DEFB50D41854}">
   <dimension ref="A1:AS12"/>
   <sheetViews>
@@ -11078,76 +10656,76 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I1" s="51" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="J1" s="51" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K1" s="51" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L1" s="51" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="N1" s="51" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="O1" s="51" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="P1" s="51" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>52</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AB1" s="51"/>
       <c r="AC1" s="51"/>
@@ -11179,7 +10757,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="E2" s="51" t="s">
         <v>241</v>
@@ -11268,7 +10846,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E3" s="51" t="s">
         <v>241</v>
@@ -11360,7 +10938,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>456</v>
+        <v>201</v>
       </c>
       <c r="F4" s="51" t="s">
         <v>241</v>
@@ -11457,7 +11035,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F5" s="51" t="s">
         <v>241</v>
@@ -11879,7 +11457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095CD396-3ADF-479F-9D73-2015DDAAC290}">
   <dimension ref="A1:AG17"/>
   <sheetViews>
@@ -11932,94 +11510,94 @@
         <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="Q1" s="51" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -12033,7 +11611,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>149</v>
@@ -12134,7 +11712,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>28</v>
@@ -12687,12 +12265,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F26082-EA83-4A35-BBD3-990DF7F89614}">
-  <dimension ref="A1:AX9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:AX6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -12714,7 +12292,7 @@
     <col min="16" max="16384" width="8.81640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:15">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -12725,43 +12303,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H1" s="41" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M1" s="41" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="N1" s="41" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="O1" s="41" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="46" customFormat="1" ht="58">
+    <row r="2" spans="1:15" s="46" customFormat="1" ht="58">
       <c r="A2" s="56" t="s">
         <v>27</v>
       </c>
@@ -12799,7 +12377,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="63" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>149</v>
@@ -12808,7 +12386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="46" customFormat="1" ht="29">
+    <row r="3" spans="1:15" s="46" customFormat="1" ht="29">
       <c r="A3" s="56" t="s">
         <v>27</v>
       </c>
@@ -12819,7 +12397,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>19</v>
@@ -12846,7 +12424,7 @@
         <v>28</v>
       </c>
       <c r="M3" s="63" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="N3" s="56" t="s">
         <v>30</v>
@@ -12855,9 +12433,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:15">
       <c r="A4" s="40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B4" s="40">
         <v>1</v>
@@ -12866,7 +12444,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>19</v>
@@ -12894,7 +12472,7 @@
       <c r="N4" s="51"/>
       <c r="O4" s="51"/>
     </row>
-    <row r="5" spans="1:50" s="31" customFormat="1">
+    <row r="5" spans="1:15" s="31" customFormat="1">
       <c r="A5" s="70" t="s">
         <v>36</v>
       </c>
@@ -12905,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E5" s="70" t="s">
         <v>19</v>
@@ -12935,87 +12513,24 @@
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
     </row>
-    <row r="6" spans="1:50">
-      <c r="A6" s="77" t="s">
-        <v>577</v>
-      </c>
-      <c r="B6" s="77">
-        <v>1</v>
-      </c>
-      <c r="C6" s="77">
-        <v>1</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="E6" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="77"/>
-      <c r="AK6" s="77"/>
-      <c r="AL6" s="77"/>
-      <c r="AM6" s="77"/>
-      <c r="AN6" s="77"/>
-      <c r="AO6" s="77"/>
-      <c r="AP6" s="77"/>
-      <c r="AQ6" s="77"/>
-      <c r="AR6" s="77"/>
-      <c r="AS6" s="77"/>
-      <c r="AT6" s="77"/>
-      <c r="AU6" s="77"/>
-      <c r="AV6" s="77"/>
-      <c r="AW6" s="77"/>
-      <c r="AX6" s="77"/>
-    </row>
-    <row r="7" spans="1:50">
+    <row r="6" spans="1:15">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -13032,7 +12547,7 @@
       <c r="N7" s="51"/>
       <c r="O7" s="51"/>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:15">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -13049,7 +12564,7 @@
       <c r="N8" s="51"/>
       <c r="O8" s="51"/>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:15">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -13072,7 +12587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51A92E8-DE86-4923-B4B2-EC009BFCBA1D}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
@@ -13093,103 +12608,103 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="AK1" s="5" t="s">
         <v>13</v>
@@ -13198,7 +12713,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -13243,36 +12758,36 @@
         <v>28</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="S2" s="48"/>
       <c r="T2" s="48"/>
       <c r="U2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="V2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AB2" s="5">
         <v>4</v>
@@ -13287,22 +12802,22 @@
         <v>28</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AH2" s="5">
         <v>89377</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AL2" s="5"/>
     </row>
@@ -13311,7 +12826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59212AD0-C31E-48EC-B224-4D88AD8AFE23}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -13332,34 +12847,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -13371,7 +12886,7 @@
         <v>149</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>28</v>
@@ -13398,7 +12913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5574DB-4887-4CA1-ACBF-C2C7DC4C1F7B}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -13417,31 +12932,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>13</v>
@@ -13449,7 +12964,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -13458,17 +12973,17 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>28</v>
@@ -13483,7 +12998,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -13491,7 +13006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAD89E8-F03C-4910-BC41-AC806E1DB4A1}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
@@ -13515,87 +13030,87 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>153</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>152</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AC1" s="51" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -13604,75 +13119,75 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
         <v>149</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="U2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="V2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="W2" s="51" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="X2" s="51" t="s">
         <v>149</v>
       </c>
       <c r="Y2" s="51"/>
       <c r="Z2" s="51" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="AA2" s="51" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AB2" s="51"/>
       <c r="AC2" s="51"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -13681,7 +13196,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>28</v>
@@ -13720,16 +13235,16 @@
         <v>28</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>28</v>
@@ -13766,10 +13281,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE06A9D-8317-49A7-9A82-039A1B827ECC}">
-  <dimension ref="A1:AN17"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13814,7 +13329,7 @@
     <col min="40" max="40" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -13935,8 +13450,11 @@
       <c r="AN1" s="17" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:40">
+      <c r="AO1" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" s="51" t="s">
         <v>35</v>
       </c>
@@ -13956,28 +13474,28 @@
         <v>19</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J2" s="51" t="s">
         <v>59</v>
       </c>
       <c r="K2" s="42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L2" s="42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M2" s="42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O2" s="42" t="s">
         <v>19</v>
@@ -13986,10 +13504,10 @@
         <v>28</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S2" s="17" t="s">
         <v>19</v>
@@ -14057,8 +13575,11 @@
       <c r="AN2" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" s="46" customFormat="1" ht="15.65" customHeight="1">
+      <c r="AO2" s="42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" s="46" customFormat="1" ht="15.65" customHeight="1">
       <c r="A3" s="65" t="s">
         <v>27</v>
       </c>
@@ -14078,109 +13599,112 @@
         <v>30</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H3" s="65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I3" s="65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J3" s="65" t="s">
         <v>59</v>
       </c>
       <c r="K3" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="L3" s="66" t="s">
+      <c r="R3" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="S3" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN3" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO3" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="M3" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="N3" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="O3" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="R3" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="S3" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM3" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN3" s="67" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" s="31" customFormat="1" ht="15.65" customHeight="1">
+    </row>
+    <row r="4" spans="1:41" s="31" customFormat="1" ht="15.65" customHeight="1">
       <c r="A4" s="70" t="s">
         <v>36</v>
       </c>
@@ -14196,28 +13720,28 @@
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
       <c r="G4" s="70" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H4" s="70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I4" s="70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J4" s="70" t="s">
         <v>59</v>
       </c>
       <c r="K4" s="71" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L4" s="47" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M4" s="71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N4" s="71" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O4" s="71" t="s">
         <v>19</v>
@@ -14226,10 +13750,10 @@
         <v>28</v>
       </c>
       <c r="Q4" s="71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R4" s="71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S4" s="71" t="s">
         <v>19</v>
@@ -14297,10 +13821,13 @@
       <c r="AN4" s="33" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:40">
+      <c r="AO4" s="42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" s="17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" s="17">
         <v>1</v>
@@ -14415,8 +13942,11 @@
       <c r="AN5" s="17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:40">
+      <c r="AO5" s="42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -14457,8 +13987,9 @@
       <c r="AL6" s="17"/>
       <c r="AM6" s="17"/>
       <c r="AN6" s="17"/>
-    </row>
-    <row r="7" spans="1:40">
+      <c r="AO6" s="51"/>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -14499,8 +14030,9 @@
       <c r="AL7" s="17"/>
       <c r="AM7" s="17"/>
       <c r="AN7" s="17"/>
-    </row>
-    <row r="8" spans="1:40">
+      <c r="AO7" s="51"/>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -14541,8 +14073,9 @@
       <c r="AL8" s="17"/>
       <c r="AM8" s="17"/>
       <c r="AN8" s="17"/>
-    </row>
-    <row r="9" spans="1:40">
+      <c r="AO8" s="51"/>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -14583,8 +14116,9 @@
       <c r="AL9" s="17"/>
       <c r="AM9" s="17"/>
       <c r="AN9" s="17"/>
-    </row>
-    <row r="10" spans="1:40">
+      <c r="AO9" s="51"/>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -14625,8 +14159,9 @@
       <c r="AL10" s="17"/>
       <c r="AM10" s="17"/>
       <c r="AN10" s="17"/>
-    </row>
-    <row r="11" spans="1:40">
+      <c r="AO10" s="51"/>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -14667,8 +14202,9 @@
       <c r="AL11" s="17"/>
       <c r="AM11" s="17"/>
       <c r="AN11" s="17"/>
-    </row>
-    <row r="12" spans="1:40">
+      <c r="AO11" s="51"/>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -14709,8 +14245,9 @@
       <c r="AL12" s="17"/>
       <c r="AM12" s="17"/>
       <c r="AN12" s="17"/>
-    </row>
-    <row r="13" spans="1:40">
+      <c r="AO12" s="51"/>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -14751,8 +14288,9 @@
       <c r="AL13" s="17"/>
       <c r="AM13" s="17"/>
       <c r="AN13" s="17"/>
-    </row>
-    <row r="14" spans="1:40">
+      <c r="AO13" s="51"/>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -14793,8 +14331,9 @@
       <c r="AL14" s="17"/>
       <c r="AM14" s="17"/>
       <c r="AN14" s="17"/>
-    </row>
-    <row r="15" spans="1:40">
+      <c r="AO14" s="51"/>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -14835,8 +14374,9 @@
       <c r="AL15" s="17"/>
       <c r="AM15" s="17"/>
       <c r="AN15" s="17"/>
-    </row>
-    <row r="16" spans="1:40">
+      <c r="AO15" s="51"/>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -14877,6 +14417,7 @@
       <c r="AL16" s="17"/>
       <c r="AM16" s="17"/>
       <c r="AN16" s="17"/>
+      <c r="AO16" s="51"/>
     </row>
     <row r="17" spans="1:40">
       <c r="A17" s="17"/>
@@ -14930,8 +14471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52296D71-257F-48D6-B061-96C4007B427B}">
   <dimension ref="A1:BF5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15006,10 +14547,10 @@
         <v>78</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>67</v>
@@ -15018,31 +14559,31 @@
         <v>69</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>71</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M1" s="17" t="s">
         <v>72</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O1" s="17" t="s">
         <v>74</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="R1" s="17" t="s">
         <v>76</v>
@@ -15051,10 +14592,10 @@
         <v>13</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="V1" s="17" t="s">
         <v>81</v>
@@ -15066,7 +14607,7 @@
         <v>80</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Z1" s="8" t="s">
         <v>83</v>
@@ -15075,10 +14616,10 @@
         <v>79</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD1" s="8" t="s">
         <v>84</v>
@@ -15090,46 +14631,46 @@
         <v>85</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AH1" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK1" s="8" t="s">
         <v>90</v>
       </c>
       <c r="AL1" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM1" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AN1" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP1" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AQ1" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AR1" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AS1" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AT1" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AU1" s="8" t="s">
         <v>54</v>
@@ -15141,31 +14682,31 @@
         <v>96</v>
       </c>
       <c r="AX1" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AY1" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AZ1" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BA1" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BB1" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BC1" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BD1" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BE1" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BF1" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:58">
@@ -15188,19 +14729,19 @@
         <v>59</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J2" s="46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L2" s="51" t="s">
         <v>28</v>
@@ -15209,16 +14750,16 @@
         <v>28</v>
       </c>
       <c r="N2" s="51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O2" s="51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P2" s="42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q2" s="42" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="R2" s="51" t="s">
         <v>28</v>
@@ -15543,16 +15084,16 @@
         <v>150</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J4" s="56" t="s">
         <v>33</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L4" s="56" t="s">
         <v>28</v>
@@ -15561,16 +15102,16 @@
         <v>28</v>
       </c>
       <c r="N4" s="56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O4" s="56" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P4" s="56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="56" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="R4" s="56" t="s">
         <v>28</v>
@@ -15698,7 +15239,7 @@
     </row>
     <row r="5" spans="1:58">
       <c r="A5" s="51" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" s="51">
         <v>1</v>
@@ -15883,7 +15424,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16005,10 +15546,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056B68C9-3C17-4B06-80C0-880DDEDA4E17}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16018,14 +15559,15 @@
     <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -16056,8 +15598,11 @@
       <c r="J1" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="49" t="s">
         <v>36</v>
       </c>
@@ -16071,16 +15616,16 @@
         <v>19</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I2" s="49" t="s">
         <v>28</v>
@@ -16088,8 +15633,11 @@
       <c r="J2" s="49" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="49" t="s">
         <v>36</v>
       </c>
@@ -16103,22 +15651,25 @@
         <v>28</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I3" s="49" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="49" t="s">
         <v>19</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -16128,10 +15679,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D515A6D1-7D94-4084-A48A-E45C12FE9CD2}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16140,10 +15691,9 @@
     <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="1.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="51" customFormat="1">
+    <row r="1" spans="1:4" s="51" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -16153,13 +15703,11 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" s="51" customFormat="1">
+      <c r="D1" s="72" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="51" customFormat="1">
       <c r="A2" s="49" t="s">
         <v>36</v>
       </c>
@@ -16171,12 +15719,6 @@
       </c>
       <c r="D2" s="49" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -16189,7 +15731,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16214,31 +15756,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F1" s="51" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I1" s="51" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J1" s="51" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K1" s="51" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L1" s="51" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -16252,29 +15794,29 @@
         <v>1</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I2" s="51" t="s">
         <v>59</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L2" s="51" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="22" customHeight="1">
@@ -16288,21 +15830,21 @@
         <v>1</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
       <c r="H3" s="51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I3" s="51" t="s">
         <v>59</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K3" s="51"/>
       <c r="L3" s="51"/>
@@ -16333,31 +15875,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -16371,16 +15913,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F2" s="5">
         <v>987654321</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
@@ -16393,7 +15935,7 @@
         <v>59</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -16794,6 +16336,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -17010,26 +16571,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17048,24 +16608,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
